--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -732,25 +732,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1209400</v>
+        <v>1152200</v>
       </c>
       <c r="E8" s="3">
-        <v>1166200</v>
+        <v>1111000</v>
       </c>
       <c r="F8" s="3">
-        <v>1184700</v>
+        <v>1128600</v>
       </c>
       <c r="G8" s="3">
-        <v>1111600</v>
+        <v>1058900</v>
       </c>
       <c r="H8" s="3">
-        <v>1132500</v>
+        <v>1078900</v>
       </c>
       <c r="I8" s="3">
-        <v>1100200</v>
+        <v>1048100</v>
       </c>
       <c r="J8" s="3">
-        <v>1102800</v>
+        <v>1050600</v>
       </c>
       <c r="K8" s="3">
         <v>1138700</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>156000</v>
+        <v>148700</v>
       </c>
       <c r="E9" s="3">
-        <v>168500</v>
+        <v>160500</v>
       </c>
       <c r="F9" s="3">
-        <v>171300</v>
+        <v>163200</v>
       </c>
       <c r="G9" s="3">
-        <v>158500</v>
+        <v>151000</v>
       </c>
       <c r="H9" s="3">
-        <v>145800</v>
+        <v>138900</v>
       </c>
       <c r="I9" s="3">
-        <v>150400</v>
+        <v>143200</v>
       </c>
       <c r="J9" s="3">
-        <v>161100</v>
+        <v>153500</v>
       </c>
       <c r="K9" s="3">
         <v>170600</v>
@@ -808,25 +808,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1053400</v>
+        <v>1003500</v>
       </c>
       <c r="E10" s="3">
-        <v>997800</v>
+        <v>950500</v>
       </c>
       <c r="F10" s="3">
-        <v>1013400</v>
+        <v>965500</v>
       </c>
       <c r="G10" s="3">
-        <v>953100</v>
+        <v>907900</v>
       </c>
       <c r="H10" s="3">
-        <v>986700</v>
+        <v>940000</v>
       </c>
       <c r="I10" s="3">
-        <v>949800</v>
+        <v>904900</v>
       </c>
       <c r="J10" s="3">
-        <v>941700</v>
+        <v>897100</v>
       </c>
       <c r="K10" s="3">
         <v>968100</v>
@@ -865,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>5</v>
@@ -938,25 +938,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>62800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
-        <v>65900</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="G14" s="3">
-        <v>14700</v>
-      </c>
       <c r="H14" s="3">
-        <v>15800</v>
+        <v>15000</v>
       </c>
       <c r="I14" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="J14" s="3">
-        <v>-14100</v>
+        <v>-13400</v>
       </c>
       <c r="K14" s="3">
         <v>33900</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>257700</v>
+        <v>245500</v>
       </c>
       <c r="E15" s="3">
-        <v>261400</v>
+        <v>249000</v>
       </c>
       <c r="F15" s="3">
-        <v>246900</v>
+        <v>235200</v>
       </c>
       <c r="G15" s="3">
-        <v>247600</v>
+        <v>235900</v>
       </c>
       <c r="H15" s="3">
-        <v>239600</v>
+        <v>228200</v>
       </c>
       <c r="I15" s="3">
-        <v>241600</v>
+        <v>230200</v>
       </c>
       <c r="J15" s="3">
-        <v>230100</v>
+        <v>219200</v>
       </c>
       <c r="K15" s="3">
         <v>232900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>714300</v>
+        <v>680500</v>
       </c>
       <c r="E17" s="3">
-        <v>783800</v>
+        <v>746700</v>
       </c>
       <c r="F17" s="3">
-        <v>746300</v>
+        <v>711000</v>
       </c>
       <c r="G17" s="3">
-        <v>730700</v>
+        <v>696100</v>
       </c>
       <c r="H17" s="3">
-        <v>690600</v>
+        <v>657900</v>
       </c>
       <c r="I17" s="3">
-        <v>708300</v>
+        <v>674800</v>
       </c>
       <c r="J17" s="3">
-        <v>683300</v>
+        <v>650900</v>
       </c>
       <c r="K17" s="3">
         <v>760900</v>
@@ -1065,25 +1065,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>495100</v>
+        <v>471700</v>
       </c>
       <c r="E18" s="3">
-        <v>382400</v>
+        <v>364300</v>
       </c>
       <c r="F18" s="3">
-        <v>438400</v>
+        <v>417600</v>
       </c>
       <c r="G18" s="3">
-        <v>380900</v>
+        <v>362800</v>
       </c>
       <c r="H18" s="3">
-        <v>441900</v>
+        <v>421000</v>
       </c>
       <c r="I18" s="3">
-        <v>391900</v>
+        <v>373300</v>
       </c>
       <c r="J18" s="3">
-        <v>419500</v>
+        <v>399700</v>
       </c>
       <c r="K18" s="3">
         <v>377700</v>
@@ -1119,25 +1119,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-139600</v>
+        <v>-133000</v>
       </c>
       <c r="E20" s="3">
-        <v>-27900</v>
+        <v>-26600</v>
       </c>
       <c r="F20" s="3">
-        <v>71000</v>
+        <v>67600</v>
       </c>
       <c r="G20" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="H20" s="3">
-        <v>57900</v>
+        <v>55200</v>
       </c>
       <c r="I20" s="3">
-        <v>113900</v>
+        <v>108500</v>
       </c>
       <c r="J20" s="3">
-        <v>-59900</v>
+        <v>-57000</v>
       </c>
       <c r="K20" s="3">
         <v>-75500</v>
@@ -1157,25 +1157,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>613200</v>
+        <v>584100</v>
       </c>
       <c r="E21" s="3">
-        <v>615900</v>
+        <v>586700</v>
       </c>
       <c r="F21" s="3">
-        <v>756300</v>
+        <v>720500</v>
       </c>
       <c r="G21" s="3">
-        <v>650200</v>
+        <v>619400</v>
       </c>
       <c r="H21" s="3">
-        <v>739400</v>
+        <v>704400</v>
       </c>
       <c r="I21" s="3">
-        <v>747400</v>
+        <v>712000</v>
       </c>
       <c r="J21" s="3">
-        <v>589800</v>
+        <v>561900</v>
       </c>
       <c r="K21" s="3">
         <v>535200</v>
@@ -1195,25 +1195,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>103300</v>
+        <v>98400</v>
       </c>
       <c r="E22" s="3">
-        <v>126200</v>
+        <v>120200</v>
       </c>
       <c r="F22" s="3">
-        <v>173800</v>
+        <v>165500</v>
       </c>
       <c r="G22" s="3">
-        <v>157200</v>
+        <v>149800</v>
       </c>
       <c r="H22" s="3">
-        <v>186600</v>
+        <v>177700</v>
       </c>
       <c r="I22" s="3">
-        <v>138600</v>
+        <v>132000</v>
       </c>
       <c r="J22" s="3">
-        <v>154900</v>
+        <v>147500</v>
       </c>
       <c r="K22" s="3">
         <v>122300</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>252200</v>
+        <v>240300</v>
       </c>
       <c r="E23" s="3">
-        <v>228300</v>
+        <v>217500</v>
       </c>
       <c r="F23" s="3">
-        <v>335600</v>
+        <v>319700</v>
       </c>
       <c r="G23" s="3">
-        <v>245400</v>
+        <v>233800</v>
       </c>
       <c r="H23" s="3">
-        <v>313200</v>
+        <v>298400</v>
       </c>
       <c r="I23" s="3">
-        <v>367200</v>
+        <v>349800</v>
       </c>
       <c r="J23" s="3">
-        <v>204800</v>
+        <v>195100</v>
       </c>
       <c r="K23" s="3">
         <v>179900</v>
@@ -1271,25 +1271,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47200</v>
+        <v>45000</v>
       </c>
       <c r="E24" s="3">
-        <v>33200</v>
+        <v>31700</v>
       </c>
       <c r="F24" s="3">
-        <v>60900</v>
+        <v>58000</v>
       </c>
       <c r="G24" s="3">
-        <v>42100</v>
+        <v>40200</v>
       </c>
       <c r="H24" s="3">
-        <v>58000</v>
+        <v>55300</v>
       </c>
       <c r="I24" s="3">
-        <v>68100</v>
+        <v>64900</v>
       </c>
       <c r="J24" s="3">
-        <v>-57100</v>
+        <v>-54400</v>
       </c>
       <c r="K24" s="3">
         <v>-114400</v>
@@ -1347,25 +1347,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>205000</v>
+        <v>195300</v>
       </c>
       <c r="E26" s="3">
-        <v>195100</v>
+        <v>185800</v>
       </c>
       <c r="F26" s="3">
-        <v>274700</v>
+        <v>261700</v>
       </c>
       <c r="G26" s="3">
-        <v>203200</v>
+        <v>193600</v>
       </c>
       <c r="H26" s="3">
-        <v>255200</v>
+        <v>243100</v>
       </c>
       <c r="I26" s="3">
-        <v>299000</v>
+        <v>284900</v>
       </c>
       <c r="J26" s="3">
-        <v>261900</v>
+        <v>249500</v>
       </c>
       <c r="K26" s="3">
         <v>294300</v>
@@ -1385,25 +1385,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>205000</v>
+        <v>195300</v>
       </c>
       <c r="E27" s="3">
-        <v>195100</v>
+        <v>185800</v>
       </c>
       <c r="F27" s="3">
-        <v>274700</v>
+        <v>261700</v>
       </c>
       <c r="G27" s="3">
-        <v>203200</v>
+        <v>193600</v>
       </c>
       <c r="H27" s="3">
-        <v>255200</v>
+        <v>243100</v>
       </c>
       <c r="I27" s="3">
-        <v>299000</v>
+        <v>284900</v>
       </c>
       <c r="J27" s="3">
-        <v>261900</v>
+        <v>249500</v>
       </c>
       <c r="K27" s="3">
         <v>294300</v>
@@ -1575,25 +1575,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>139600</v>
+        <v>133000</v>
       </c>
       <c r="E32" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="F32" s="3">
-        <v>-71000</v>
+        <v>-67600</v>
       </c>
       <c r="G32" s="3">
-        <v>-21700</v>
+        <v>-20700</v>
       </c>
       <c r="H32" s="3">
-        <v>-57900</v>
+        <v>-55200</v>
       </c>
       <c r="I32" s="3">
-        <v>-113900</v>
+        <v>-108500</v>
       </c>
       <c r="J32" s="3">
-        <v>59900</v>
+        <v>57000</v>
       </c>
       <c r="K32" s="3">
         <v>75500</v>
@@ -1613,25 +1613,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>205000</v>
+        <v>195300</v>
       </c>
       <c r="E33" s="3">
-        <v>195100</v>
+        <v>185800</v>
       </c>
       <c r="F33" s="3">
-        <v>274700</v>
+        <v>261700</v>
       </c>
       <c r="G33" s="3">
-        <v>203200</v>
+        <v>193600</v>
       </c>
       <c r="H33" s="3">
-        <v>255200</v>
+        <v>243100</v>
       </c>
       <c r="I33" s="3">
-        <v>299000</v>
+        <v>284900</v>
       </c>
       <c r="J33" s="3">
-        <v>261900</v>
+        <v>249500</v>
       </c>
       <c r="K33" s="3">
         <v>294300</v>
@@ -1689,25 +1689,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>205000</v>
+        <v>195300</v>
       </c>
       <c r="E35" s="3">
-        <v>195100</v>
+        <v>185800</v>
       </c>
       <c r="F35" s="3">
-        <v>274700</v>
+        <v>261700</v>
       </c>
       <c r="G35" s="3">
-        <v>203200</v>
+        <v>193600</v>
       </c>
       <c r="H35" s="3">
-        <v>255200</v>
+        <v>243100</v>
       </c>
       <c r="I35" s="3">
-        <v>299000</v>
+        <v>284900</v>
       </c>
       <c r="J35" s="3">
-        <v>261900</v>
+        <v>249500</v>
       </c>
       <c r="K35" s="3">
         <v>294300</v>
@@ -1802,25 +1802,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>803600</v>
+        <v>765600</v>
       </c>
       <c r="E41" s="3">
-        <v>438700</v>
+        <v>417900</v>
       </c>
       <c r="F41" s="3">
-        <v>335600</v>
+        <v>319700</v>
       </c>
       <c r="G41" s="3">
-        <v>659300</v>
+        <v>628100</v>
       </c>
       <c r="H41" s="3">
-        <v>113300</v>
+        <v>107900</v>
       </c>
       <c r="I41" s="3">
-        <v>320400</v>
+        <v>305200</v>
       </c>
       <c r="J41" s="3">
-        <v>306900</v>
+        <v>292400</v>
       </c>
       <c r="K41" s="3">
         <v>278600</v>
@@ -1878,25 +1878,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>375300</v>
+        <v>357500</v>
       </c>
       <c r="E43" s="3">
-        <v>343800</v>
+        <v>327500</v>
       </c>
       <c r="F43" s="3">
-        <v>376500</v>
+        <v>358600</v>
       </c>
       <c r="G43" s="3">
-        <v>369000</v>
+        <v>351500</v>
       </c>
       <c r="H43" s="3">
-        <v>377800</v>
+        <v>359900</v>
       </c>
       <c r="I43" s="3">
-        <v>402100</v>
+        <v>383000</v>
       </c>
       <c r="J43" s="3">
-        <v>446000</v>
+        <v>424900</v>
       </c>
       <c r="K43" s="3">
         <v>479200</v>
@@ -1916,25 +1916,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20900</v>
+        <v>20000</v>
       </c>
       <c r="E44" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="F44" s="3">
-        <v>18500</v>
+        <v>17600</v>
       </c>
       <c r="G44" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="H44" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="I44" s="3">
-        <v>29000</v>
+        <v>27600</v>
       </c>
       <c r="J44" s="3">
-        <v>37800</v>
+        <v>36000</v>
       </c>
       <c r="K44" s="3">
         <v>38200</v>
@@ -1954,22 +1954,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>122400</v>
+        <v>116600</v>
       </c>
       <c r="E45" s="3">
-        <v>131000</v>
+        <v>124800</v>
       </c>
       <c r="F45" s="3">
-        <v>211500</v>
+        <v>201500</v>
       </c>
       <c r="G45" s="3">
-        <v>436600</v>
+        <v>415900</v>
       </c>
       <c r="H45" s="3">
-        <v>428400</v>
+        <v>408200</v>
       </c>
       <c r="I45" s="3">
-        <v>99200</v>
+        <v>94500</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
@@ -1992,25 +1992,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1322300</v>
+        <v>1259700</v>
       </c>
       <c r="E46" s="3">
-        <v>932600</v>
+        <v>888500</v>
       </c>
       <c r="F46" s="3">
-        <v>942100</v>
+        <v>897500</v>
       </c>
       <c r="G46" s="3">
-        <v>1486600</v>
+        <v>1416200</v>
       </c>
       <c r="H46" s="3">
-        <v>944800</v>
+        <v>900100</v>
       </c>
       <c r="I46" s="3">
-        <v>850500</v>
+        <v>810300</v>
       </c>
       <c r="J46" s="3">
-        <v>791100</v>
+        <v>753600</v>
       </c>
       <c r="K46" s="3">
         <v>816500</v>
@@ -2030,25 +2030,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>269200</v>
+        <v>256400</v>
       </c>
       <c r="E47" s="3">
-        <v>308500</v>
+        <v>293900</v>
       </c>
       <c r="F47" s="3">
-        <v>299800</v>
+        <v>285600</v>
       </c>
       <c r="G47" s="3">
-        <v>288800</v>
+        <v>275100</v>
       </c>
       <c r="H47" s="3">
-        <v>281400</v>
+        <v>268100</v>
       </c>
       <c r="I47" s="3">
-        <v>254000</v>
+        <v>242000</v>
       </c>
       <c r="J47" s="3">
-        <v>169400</v>
+        <v>161300</v>
       </c>
       <c r="K47" s="3">
         <v>60400</v>
@@ -2068,25 +2068,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14685200</v>
+        <v>13989900</v>
       </c>
       <c r="E48" s="3">
-        <v>14419200</v>
+        <v>13736500</v>
       </c>
       <c r="F48" s="3">
-        <v>14148900</v>
+        <v>13479000</v>
       </c>
       <c r="G48" s="3">
-        <v>13950100</v>
+        <v>13289600</v>
       </c>
       <c r="H48" s="3">
-        <v>13689600</v>
+        <v>13041400</v>
       </c>
       <c r="I48" s="3">
-        <v>13452300</v>
+        <v>12815400</v>
       </c>
       <c r="J48" s="3">
-        <v>13181700</v>
+        <v>12557600</v>
       </c>
       <c r="K48" s="3">
         <v>13084100</v>
@@ -2106,25 +2106,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>253500</v>
+        <v>241500</v>
       </c>
       <c r="E49" s="3">
-        <v>262100</v>
+        <v>249600</v>
       </c>
       <c r="F49" s="3">
-        <v>274100</v>
+        <v>261100</v>
       </c>
       <c r="G49" s="3">
-        <v>255600</v>
+        <v>243500</v>
       </c>
       <c r="H49" s="3">
-        <v>248600</v>
+        <v>236800</v>
       </c>
       <c r="I49" s="3">
-        <v>242700</v>
+        <v>231200</v>
       </c>
       <c r="J49" s="3">
-        <v>232400</v>
+        <v>221400</v>
       </c>
       <c r="K49" s="3">
         <v>211800</v>
@@ -2220,25 +2220,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1695500</v>
+        <v>1615200</v>
       </c>
       <c r="E52" s="3">
-        <v>1126900</v>
+        <v>1073600</v>
       </c>
       <c r="F52" s="3">
-        <v>995500</v>
+        <v>948300</v>
       </c>
       <c r="G52" s="3">
-        <v>830000</v>
+        <v>790700</v>
       </c>
       <c r="H52" s="3">
-        <v>824900</v>
+        <v>785900</v>
       </c>
       <c r="I52" s="3">
-        <v>1265000</v>
+        <v>1205100</v>
       </c>
       <c r="J52" s="3">
-        <v>1489800</v>
+        <v>1419300</v>
       </c>
       <c r="K52" s="3">
         <v>1357400</v>
@@ -2296,25 +2296,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18225600</v>
+        <v>17362700</v>
       </c>
       <c r="E54" s="3">
-        <v>17049300</v>
+        <v>16242100</v>
       </c>
       <c r="F54" s="3">
-        <v>16660300</v>
+        <v>15871500</v>
       </c>
       <c r="G54" s="3">
-        <v>16811100</v>
+        <v>16015100</v>
       </c>
       <c r="H54" s="3">
-        <v>15989300</v>
+        <v>15232300</v>
       </c>
       <c r="I54" s="3">
-        <v>16064600</v>
+        <v>15304000</v>
       </c>
       <c r="J54" s="3">
-        <v>15864500</v>
+        <v>15113300</v>
       </c>
       <c r="K54" s="3">
         <v>15530200</v>
@@ -2366,25 +2366,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>418600</v>
+        <v>398800</v>
       </c>
       <c r="E57" s="3">
-        <v>415300</v>
+        <v>395600</v>
       </c>
       <c r="F57" s="3">
-        <v>437600</v>
+        <v>416900</v>
       </c>
       <c r="G57" s="3">
-        <v>356400</v>
+        <v>339600</v>
       </c>
       <c r="H57" s="3">
-        <v>442100</v>
+        <v>421200</v>
       </c>
       <c r="I57" s="3">
-        <v>417600</v>
+        <v>397800</v>
       </c>
       <c r="J57" s="3">
-        <v>472100</v>
+        <v>449800</v>
       </c>
       <c r="K57" s="3">
         <v>445700</v>
@@ -2404,25 +2404,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>944400</v>
+        <v>899700</v>
       </c>
       <c r="E58" s="3">
-        <v>905200</v>
+        <v>862400</v>
       </c>
       <c r="F58" s="3">
-        <v>728000</v>
+        <v>693500</v>
       </c>
       <c r="G58" s="3">
-        <v>1085300</v>
+        <v>1033900</v>
       </c>
       <c r="H58" s="3">
-        <v>839800</v>
+        <v>800000</v>
       </c>
       <c r="I58" s="3">
-        <v>421600</v>
+        <v>401600</v>
       </c>
       <c r="J58" s="3">
-        <v>390900</v>
+        <v>372400</v>
       </c>
       <c r="K58" s="3">
         <v>612000</v>
@@ -2442,25 +2442,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42900</v>
+        <v>40900</v>
       </c>
       <c r="E59" s="3">
-        <v>39600</v>
+        <v>37700</v>
       </c>
       <c r="F59" s="3">
-        <v>30000</v>
+        <v>28600</v>
       </c>
       <c r="G59" s="3">
-        <v>34000</v>
+        <v>32400</v>
       </c>
       <c r="H59" s="3">
-        <v>38700</v>
+        <v>36800</v>
       </c>
       <c r="I59" s="3">
-        <v>52600</v>
+        <v>50100</v>
       </c>
       <c r="J59" s="3">
-        <v>32700</v>
+        <v>31200</v>
       </c>
       <c r="K59" s="3">
         <v>43400</v>
@@ -2480,25 +2480,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1339400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1295600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1139000</v>
+      </c>
+      <c r="G60" s="3">
         <v>1405900</v>
       </c>
-      <c r="E60" s="3">
-        <v>1360000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1195600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1475700</v>
-      </c>
       <c r="H60" s="3">
-        <v>1320600</v>
+        <v>1258100</v>
       </c>
       <c r="I60" s="3">
-        <v>891800</v>
+        <v>849600</v>
       </c>
       <c r="J60" s="3">
-        <v>895800</v>
+        <v>853400</v>
       </c>
       <c r="K60" s="3">
         <v>1101100</v>
@@ -2518,25 +2518,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10060600</v>
+        <v>9584300</v>
       </c>
       <c r="E61" s="3">
-        <v>9199100</v>
+        <v>8763600</v>
       </c>
       <c r="F61" s="3">
-        <v>9235400</v>
+        <v>8798200</v>
       </c>
       <c r="G61" s="3">
-        <v>9143800</v>
+        <v>8710900</v>
       </c>
       <c r="H61" s="3">
-        <v>8762900</v>
+        <v>8348000</v>
       </c>
       <c r="I61" s="3">
-        <v>9125200</v>
+        <v>8693100</v>
       </c>
       <c r="J61" s="3">
-        <v>9068400</v>
+        <v>8639100</v>
       </c>
       <c r="K61" s="3">
         <v>8489500</v>
@@ -2556,25 +2556,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2814800</v>
+        <v>2681600</v>
       </c>
       <c r="E62" s="3">
-        <v>2468500</v>
+        <v>2351600</v>
       </c>
       <c r="F62" s="3">
-        <v>2393800</v>
+        <v>2280400</v>
       </c>
       <c r="G62" s="3">
-        <v>2376600</v>
+        <v>2264100</v>
       </c>
       <c r="H62" s="3">
-        <v>2288000</v>
+        <v>2179700</v>
       </c>
       <c r="I62" s="3">
-        <v>2399800</v>
+        <v>2286200</v>
       </c>
       <c r="J62" s="3">
-        <v>2448100</v>
+        <v>2332200</v>
       </c>
       <c r="K62" s="3">
         <v>2410800</v>
@@ -2708,25 +2708,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14281400</v>
+        <v>13605200</v>
       </c>
       <c r="E66" s="3">
-        <v>13027600</v>
+        <v>12410800</v>
       </c>
       <c r="F66" s="3">
-        <v>12824800</v>
+        <v>12217600</v>
       </c>
       <c r="G66" s="3">
-        <v>12996100</v>
+        <v>12380800</v>
       </c>
       <c r="H66" s="3">
-        <v>12371500</v>
+        <v>11785800</v>
       </c>
       <c r="I66" s="3">
-        <v>12416800</v>
+        <v>11828900</v>
       </c>
       <c r="J66" s="3">
-        <v>12412300</v>
+        <v>11824600</v>
       </c>
       <c r="K66" s="3">
         <v>12001300</v>
@@ -2914,25 +2914,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3294300</v>
+        <v>3138400</v>
       </c>
       <c r="E72" s="3">
-        <v>3360700</v>
+        <v>3201500</v>
       </c>
       <c r="F72" s="3">
-        <v>3611900</v>
+        <v>3440800</v>
       </c>
       <c r="G72" s="3">
-        <v>3167400</v>
+        <v>3017400</v>
       </c>
       <c r="H72" s="3">
-        <v>2969600</v>
+        <v>2829000</v>
       </c>
       <c r="I72" s="3">
-        <v>3000500</v>
+        <v>2858400</v>
       </c>
       <c r="J72" s="3">
-        <v>2804400</v>
+        <v>2671600</v>
       </c>
       <c r="K72" s="3">
         <v>2880600</v>
@@ -3066,25 +3066,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3944200</v>
+        <v>3757500</v>
       </c>
       <c r="E76" s="3">
-        <v>4021700</v>
+        <v>3831300</v>
       </c>
       <c r="F76" s="3">
-        <v>3835500</v>
+        <v>3653900</v>
       </c>
       <c r="G76" s="3">
-        <v>3815000</v>
+        <v>3634300</v>
       </c>
       <c r="H76" s="3">
-        <v>3617800</v>
+        <v>3446500</v>
       </c>
       <c r="I76" s="3">
-        <v>3647800</v>
+        <v>3475100</v>
       </c>
       <c r="J76" s="3">
-        <v>3452200</v>
+        <v>3288700</v>
       </c>
       <c r="K76" s="3">
         <v>3528800</v>
@@ -3185,25 +3185,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>205000</v>
+        <v>195300</v>
       </c>
       <c r="E81" s="3">
-        <v>195100</v>
+        <v>185800</v>
       </c>
       <c r="F81" s="3">
-        <v>274700</v>
+        <v>261700</v>
       </c>
       <c r="G81" s="3">
-        <v>203200</v>
+        <v>193600</v>
       </c>
       <c r="H81" s="3">
-        <v>255200</v>
+        <v>243100</v>
       </c>
       <c r="I81" s="3">
-        <v>299000</v>
+        <v>284900</v>
       </c>
       <c r="J81" s="3">
-        <v>261900</v>
+        <v>249500</v>
       </c>
       <c r="K81" s="3">
         <v>294300</v>
@@ -3239,25 +3239,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>257700</v>
+        <v>245500</v>
       </c>
       <c r="E83" s="3">
-        <v>261400</v>
+        <v>249000</v>
       </c>
       <c r="F83" s="3">
-        <v>246900</v>
+        <v>235200</v>
       </c>
       <c r="G83" s="3">
-        <v>247600</v>
+        <v>235900</v>
       </c>
       <c r="H83" s="3">
-        <v>239600</v>
+        <v>228200</v>
       </c>
       <c r="I83" s="3">
-        <v>241600</v>
+        <v>230200</v>
       </c>
       <c r="J83" s="3">
-        <v>230100</v>
+        <v>219200</v>
       </c>
       <c r="K83" s="3">
         <v>232900</v>
@@ -3467,25 +3467,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>470700</v>
+        <v>448400</v>
       </c>
       <c r="E89" s="3">
-        <v>509500</v>
+        <v>485400</v>
       </c>
       <c r="F89" s="3">
-        <v>566500</v>
+        <v>539700</v>
       </c>
       <c r="G89" s="3">
-        <v>522300</v>
+        <v>497600</v>
       </c>
       <c r="H89" s="3">
-        <v>532100</v>
+        <v>506900</v>
       </c>
       <c r="I89" s="3">
-        <v>518500</v>
+        <v>494000</v>
       </c>
       <c r="J89" s="3">
-        <v>542600</v>
+        <v>516900</v>
       </c>
       <c r="K89" s="3">
         <v>411600</v>
@@ -3521,25 +3521,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-424000</v>
+        <v>-404000</v>
       </c>
       <c r="E91" s="3">
-        <v>-413300</v>
+        <v>-393700</v>
       </c>
       <c r="F91" s="3">
-        <v>-391200</v>
+        <v>-372700</v>
       </c>
       <c r="G91" s="3">
-        <v>-484900</v>
+        <v>-462000</v>
       </c>
       <c r="H91" s="3">
-        <v>-418200</v>
+        <v>-398400</v>
       </c>
       <c r="I91" s="3">
-        <v>-462100</v>
+        <v>-440200</v>
       </c>
       <c r="J91" s="3">
-        <v>-407200</v>
+        <v>-388000</v>
       </c>
       <c r="K91" s="3">
         <v>-436700</v>
@@ -3635,25 +3635,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-395600</v>
+        <v>-376900</v>
       </c>
       <c r="E94" s="3">
-        <v>-422900</v>
+        <v>-402900</v>
       </c>
       <c r="F94" s="3">
-        <v>-388600</v>
+        <v>-370200</v>
       </c>
       <c r="G94" s="3">
-        <v>-507600</v>
+        <v>-483500</v>
       </c>
       <c r="H94" s="3">
-        <v>-427400</v>
+        <v>-407200</v>
       </c>
       <c r="I94" s="3">
-        <v>-554400</v>
+        <v>-528100</v>
       </c>
       <c r="J94" s="3">
-        <v>-485800</v>
+        <v>-462800</v>
       </c>
       <c r="K94" s="3">
         <v>-474500</v>
@@ -3689,25 +3689,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-242700</v>
+        <v>-231200</v>
       </c>
       <c r="E96" s="3">
-        <v>-121300</v>
+        <v>-115500</v>
       </c>
       <c r="F96" s="3">
-        <v>-233500</v>
+        <v>-222400</v>
       </c>
       <c r="G96" s="3">
-        <v>-116700</v>
+        <v>-111200</v>
       </c>
       <c r="H96" s="3">
-        <v>-228400</v>
+        <v>-217600</v>
       </c>
       <c r="I96" s="3">
-        <v>-114200</v>
+        <v>-108800</v>
       </c>
       <c r="J96" s="3">
-        <v>-226000</v>
+        <v>-215300</v>
       </c>
       <c r="K96" s="3">
         <v>-113900</v>
@@ -3841,25 +3841,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>286200</v>
+        <v>272700</v>
       </c>
       <c r="E100" s="3">
-        <v>28400</v>
+        <v>27100</v>
       </c>
       <c r="F100" s="3">
-        <v>-516300</v>
+        <v>-491900</v>
       </c>
       <c r="G100" s="3">
-        <v>534100</v>
+        <v>508800</v>
       </c>
       <c r="H100" s="3">
-        <v>-295300</v>
+        <v>-281300</v>
       </c>
       <c r="I100" s="3">
-        <v>46200</v>
+        <v>44000</v>
       </c>
       <c r="J100" s="3">
-        <v>-17700</v>
+        <v>-16900</v>
       </c>
       <c r="K100" s="3">
         <v>-126000</v>
@@ -3917,25 +3917,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>361300</v>
+        <v>344200</v>
       </c>
       <c r="E102" s="3">
-        <v>115100</v>
+        <v>109600</v>
       </c>
       <c r="F102" s="3">
-        <v>-338500</v>
+        <v>-322400</v>
       </c>
       <c r="G102" s="3">
-        <v>548800</v>
+        <v>522800</v>
       </c>
       <c r="H102" s="3">
-        <v>-190600</v>
+        <v>-181500</v>
       </c>
       <c r="I102" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="J102" s="3">
-        <v>39000</v>
+        <v>37200</v>
       </c>
       <c r="K102" s="3">
         <v>-188900</v>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42460</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42094</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1152200</v>
+        <v>1220100</v>
       </c>
       <c r="E8" s="3">
-        <v>1111000</v>
+        <v>1235600</v>
       </c>
       <c r="F8" s="3">
-        <v>1128600</v>
+        <v>1191500</v>
       </c>
       <c r="G8" s="3">
-        <v>1058900</v>
+        <v>1210400</v>
       </c>
       <c r="H8" s="3">
-        <v>1078900</v>
+        <v>1135600</v>
       </c>
       <c r="I8" s="3">
-        <v>1048100</v>
+        <v>1157000</v>
       </c>
       <c r="J8" s="3">
+        <v>1124000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1050600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1138700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1117800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1133500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1131600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>148700</v>
+        <v>171600</v>
       </c>
       <c r="E9" s="3">
-        <v>160500</v>
+        <v>159400</v>
       </c>
       <c r="F9" s="3">
-        <v>163200</v>
+        <v>172100</v>
       </c>
       <c r="G9" s="3">
-        <v>151000</v>
+        <v>175000</v>
       </c>
       <c r="H9" s="3">
-        <v>138900</v>
+        <v>161900</v>
       </c>
       <c r="I9" s="3">
-        <v>143200</v>
+        <v>149000</v>
       </c>
       <c r="J9" s="3">
+        <v>153600</v>
+      </c>
+      <c r="K9" s="3">
         <v>153500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>170600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>162100</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1003500</v>
+        <v>1048600</v>
       </c>
       <c r="E10" s="3">
-        <v>950500</v>
+        <v>1076200</v>
       </c>
       <c r="F10" s="3">
-        <v>965500</v>
+        <v>1019400</v>
       </c>
       <c r="G10" s="3">
-        <v>907900</v>
+        <v>1035400</v>
       </c>
       <c r="H10" s="3">
-        <v>940000</v>
+        <v>973700</v>
       </c>
       <c r="I10" s="3">
-        <v>904900</v>
+        <v>1008000</v>
       </c>
       <c r="J10" s="3">
+        <v>970400</v>
+      </c>
+      <c r="K10" s="3">
         <v>897100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>968100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>955700</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -856,19 +869,20 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1600</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>5</v>
@@ -882,11 +896,11 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
         <v>3000</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>5</v>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,84 +949,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13300</v>
+        <v>20200</v>
       </c>
       <c r="E14" s="3">
-        <v>62800</v>
+        <v>14300</v>
       </c>
       <c r="F14" s="3">
-        <v>-3000</v>
+        <v>67400</v>
       </c>
       <c r="G14" s="3">
-        <v>14000</v>
+        <v>-3200</v>
       </c>
       <c r="H14" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="I14" s="3">
-        <v>20700</v>
+        <v>16100</v>
       </c>
       <c r="J14" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-13400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>33900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>245500</v>
+        <v>374400</v>
       </c>
       <c r="E15" s="3">
-        <v>249000</v>
+        <v>263200</v>
       </c>
       <c r="F15" s="3">
-        <v>235200</v>
+        <v>267100</v>
       </c>
       <c r="G15" s="3">
-        <v>235900</v>
+        <v>252300</v>
       </c>
       <c r="H15" s="3">
-        <v>228200</v>
+        <v>252900</v>
       </c>
       <c r="I15" s="3">
-        <v>230200</v>
+        <v>244700</v>
       </c>
       <c r="J15" s="3">
+        <v>246900</v>
+      </c>
+      <c r="K15" s="3">
         <v>219200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>232900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>241400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>236900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>680500</v>
+        <v>893500</v>
       </c>
       <c r="E17" s="3">
-        <v>746700</v>
+        <v>729700</v>
       </c>
       <c r="F17" s="3">
-        <v>711000</v>
+        <v>800800</v>
       </c>
       <c r="G17" s="3">
-        <v>696100</v>
+        <v>762500</v>
       </c>
       <c r="H17" s="3">
-        <v>657900</v>
+        <v>746500</v>
       </c>
       <c r="I17" s="3">
-        <v>674800</v>
+        <v>705600</v>
       </c>
       <c r="J17" s="3">
+        <v>723700</v>
+      </c>
+      <c r="K17" s="3">
         <v>650900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>760900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>754800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>721600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>683300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>471700</v>
+        <v>326600</v>
       </c>
       <c r="E18" s="3">
-        <v>364300</v>
+        <v>505900</v>
       </c>
       <c r="F18" s="3">
-        <v>417600</v>
+        <v>390700</v>
       </c>
       <c r="G18" s="3">
-        <v>362800</v>
+        <v>447900</v>
       </c>
       <c r="H18" s="3">
-        <v>421000</v>
+        <v>389100</v>
       </c>
       <c r="I18" s="3">
-        <v>373300</v>
+        <v>451400</v>
       </c>
       <c r="J18" s="3">
+        <v>400300</v>
+      </c>
+      <c r="K18" s="3">
         <v>399700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>377700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>363000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>411900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>448400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,198 +1146,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-133000</v>
+        <v>-51200</v>
       </c>
       <c r="E20" s="3">
-        <v>-26600</v>
+        <v>-74800</v>
       </c>
       <c r="F20" s="3">
-        <v>67600</v>
+        <v>-28500</v>
       </c>
       <c r="G20" s="3">
-        <v>20700</v>
+        <v>72500</v>
       </c>
       <c r="H20" s="3">
-        <v>55200</v>
+        <v>22200</v>
       </c>
       <c r="I20" s="3">
-        <v>108500</v>
+        <v>59200</v>
       </c>
       <c r="J20" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-57000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-75500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>54300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-112200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>584100</v>
+        <v>649800</v>
       </c>
       <c r="E21" s="3">
-        <v>586700</v>
+        <v>694300</v>
       </c>
       <c r="F21" s="3">
-        <v>720500</v>
+        <v>629200</v>
       </c>
       <c r="G21" s="3">
-        <v>619400</v>
+        <v>772700</v>
       </c>
       <c r="H21" s="3">
-        <v>704400</v>
+        <v>664200</v>
       </c>
       <c r="I21" s="3">
-        <v>712000</v>
+        <v>755400</v>
       </c>
       <c r="J21" s="3">
+        <v>763500</v>
+      </c>
+      <c r="K21" s="3">
         <v>561900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>535200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>658700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>536600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>98400</v>
+        <v>132600</v>
       </c>
       <c r="E22" s="3">
-        <v>120200</v>
+        <v>173400</v>
       </c>
       <c r="F22" s="3">
-        <v>165500</v>
+        <v>128900</v>
       </c>
       <c r="G22" s="3">
-        <v>149800</v>
+        <v>177500</v>
       </c>
       <c r="H22" s="3">
-        <v>177700</v>
+        <v>160600</v>
       </c>
       <c r="I22" s="3">
-        <v>132000</v>
+        <v>190600</v>
       </c>
       <c r="J22" s="3">
+        <v>141600</v>
+      </c>
+      <c r="K22" s="3">
         <v>147500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>122300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>136000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>119400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>240300</v>
+        <v>142800</v>
       </c>
       <c r="E23" s="3">
-        <v>217500</v>
+        <v>257700</v>
       </c>
       <c r="F23" s="3">
-        <v>319700</v>
+        <v>233300</v>
       </c>
       <c r="G23" s="3">
-        <v>233800</v>
+        <v>342900</v>
       </c>
       <c r="H23" s="3">
-        <v>298400</v>
+        <v>250700</v>
       </c>
       <c r="I23" s="3">
-        <v>349800</v>
+        <v>320000</v>
       </c>
       <c r="J23" s="3">
+        <v>375100</v>
+      </c>
+      <c r="K23" s="3">
         <v>195100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>179900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>281200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>180300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>269500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45000</v>
+        <v>211200</v>
       </c>
       <c r="E24" s="3">
-        <v>31700</v>
+        <v>48200</v>
       </c>
       <c r="F24" s="3">
-        <v>58000</v>
+        <v>33900</v>
       </c>
       <c r="G24" s="3">
-        <v>40200</v>
+        <v>62200</v>
       </c>
       <c r="H24" s="3">
-        <v>55300</v>
+        <v>43100</v>
       </c>
       <c r="I24" s="3">
-        <v>64900</v>
+        <v>59300</v>
       </c>
       <c r="J24" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-54400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-114400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>57000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>195300</v>
+        <v>-68400</v>
       </c>
       <c r="E26" s="3">
-        <v>185800</v>
+        <v>209500</v>
       </c>
       <c r="F26" s="3">
-        <v>261700</v>
+        <v>199300</v>
       </c>
       <c r="G26" s="3">
-        <v>193600</v>
+        <v>280700</v>
       </c>
       <c r="H26" s="3">
-        <v>243100</v>
+        <v>207600</v>
       </c>
       <c r="I26" s="3">
-        <v>284900</v>
+        <v>260700</v>
       </c>
       <c r="J26" s="3">
+        <v>305500</v>
+      </c>
+      <c r="K26" s="3">
         <v>249500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>294300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>224200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>142700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>195300</v>
+        <v>-68400</v>
       </c>
       <c r="E27" s="3">
-        <v>185800</v>
+        <v>209500</v>
       </c>
       <c r="F27" s="3">
-        <v>261700</v>
+        <v>199300</v>
       </c>
       <c r="G27" s="3">
-        <v>193600</v>
+        <v>280700</v>
       </c>
       <c r="H27" s="3">
-        <v>243100</v>
+        <v>207600</v>
       </c>
       <c r="I27" s="3">
-        <v>284900</v>
+        <v>260700</v>
       </c>
       <c r="J27" s="3">
+        <v>305500</v>
+      </c>
+      <c r="K27" s="3">
         <v>249500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>294300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>224200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>142700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,14 +1548,17 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>133000</v>
+        <v>51200</v>
       </c>
       <c r="E32" s="3">
-        <v>26600</v>
+        <v>74800</v>
       </c>
       <c r="F32" s="3">
-        <v>-67600</v>
+        <v>28500</v>
       </c>
       <c r="G32" s="3">
-        <v>-20700</v>
+        <v>-72500</v>
       </c>
       <c r="H32" s="3">
-        <v>-55200</v>
+        <v>-22200</v>
       </c>
       <c r="I32" s="3">
-        <v>-108500</v>
+        <v>-59200</v>
       </c>
       <c r="J32" s="3">
+        <v>-116400</v>
+      </c>
+      <c r="K32" s="3">
         <v>57000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>75500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-54300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>112200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>195300</v>
+        <v>-68400</v>
       </c>
       <c r="E33" s="3">
-        <v>185800</v>
+        <v>209500</v>
       </c>
       <c r="F33" s="3">
-        <v>261700</v>
+        <v>199300</v>
       </c>
       <c r="G33" s="3">
-        <v>193600</v>
+        <v>280700</v>
       </c>
       <c r="H33" s="3">
-        <v>243100</v>
+        <v>207600</v>
       </c>
       <c r="I33" s="3">
-        <v>284900</v>
+        <v>260700</v>
       </c>
       <c r="J33" s="3">
+        <v>305500</v>
+      </c>
+      <c r="K33" s="3">
         <v>249500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>294300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>224200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>142700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>195300</v>
+        <v>-68400</v>
       </c>
       <c r="E35" s="3">
-        <v>185800</v>
+        <v>209500</v>
       </c>
       <c r="F35" s="3">
-        <v>261700</v>
+        <v>199300</v>
       </c>
       <c r="G35" s="3">
-        <v>193600</v>
+        <v>280700</v>
       </c>
       <c r="H35" s="3">
-        <v>243100</v>
+        <v>207600</v>
       </c>
       <c r="I35" s="3">
-        <v>284900</v>
+        <v>260700</v>
       </c>
       <c r="J35" s="3">
+        <v>305500</v>
+      </c>
+      <c r="K35" s="3">
         <v>249500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>294300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>224200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>142700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42460</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42094</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,46 +1882,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>765600</v>
+        <v>697500</v>
       </c>
       <c r="E41" s="3">
-        <v>417900</v>
+        <v>821000</v>
       </c>
       <c r="F41" s="3">
-        <v>319700</v>
+        <v>448100</v>
       </c>
       <c r="G41" s="3">
-        <v>628100</v>
+        <v>342900</v>
       </c>
       <c r="H41" s="3">
-        <v>107900</v>
+        <v>673600</v>
       </c>
       <c r="I41" s="3">
-        <v>305200</v>
+        <v>115700</v>
       </c>
       <c r="J41" s="3">
+        <v>327300</v>
+      </c>
+      <c r="K41" s="3">
         <v>292400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>278600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>464900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>321300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1872,274 +1962,298 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>357500</v>
+        <v>374600</v>
       </c>
       <c r="E43" s="3">
-        <v>327500</v>
+        <v>383400</v>
       </c>
       <c r="F43" s="3">
-        <v>358600</v>
+        <v>351200</v>
       </c>
       <c r="G43" s="3">
-        <v>351500</v>
+        <v>384600</v>
       </c>
       <c r="H43" s="3">
-        <v>359900</v>
+        <v>377000</v>
       </c>
       <c r="I43" s="3">
-        <v>383000</v>
+        <v>385900</v>
       </c>
       <c r="J43" s="3">
+        <v>410800</v>
+      </c>
+      <c r="K43" s="3">
         <v>424900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>479200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>495500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>465200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>464300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20000</v>
+        <v>21900</v>
       </c>
       <c r="E44" s="3">
-        <v>18400</v>
+        <v>21400</v>
       </c>
       <c r="F44" s="3">
-        <v>17600</v>
+        <v>19700</v>
       </c>
       <c r="G44" s="3">
-        <v>20700</v>
+        <v>18900</v>
       </c>
       <c r="H44" s="3">
-        <v>24100</v>
+        <v>22200</v>
       </c>
       <c r="I44" s="3">
-        <v>27600</v>
+        <v>25900</v>
       </c>
       <c r="J44" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K44" s="3">
         <v>36000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>38200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>50100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>53300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>116600</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>124800</v>
+        <v>125100</v>
       </c>
       <c r="F45" s="3">
-        <v>201500</v>
+        <v>133800</v>
       </c>
       <c r="G45" s="3">
-        <v>415900</v>
+        <v>216100</v>
       </c>
       <c r="H45" s="3">
-        <v>408200</v>
+        <v>446000</v>
       </c>
       <c r="I45" s="3">
-        <v>94500</v>
+        <v>437700</v>
       </c>
       <c r="J45" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20500</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>69900</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1259700</v>
+        <v>1094100</v>
       </c>
       <c r="E46" s="3">
-        <v>888500</v>
+        <v>1350900</v>
       </c>
       <c r="F46" s="3">
-        <v>897500</v>
+        <v>952800</v>
       </c>
       <c r="G46" s="3">
-        <v>1416200</v>
+        <v>962500</v>
       </c>
       <c r="H46" s="3">
-        <v>900100</v>
+        <v>1518800</v>
       </c>
       <c r="I46" s="3">
-        <v>810300</v>
+        <v>965200</v>
       </c>
       <c r="J46" s="3">
+        <v>868900</v>
+      </c>
+      <c r="K46" s="3">
         <v>753600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>816500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1010400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>841200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>256400</v>
+        <v>190100</v>
       </c>
       <c r="E47" s="3">
-        <v>293900</v>
+        <v>275000</v>
       </c>
       <c r="F47" s="3">
-        <v>285600</v>
+        <v>315100</v>
       </c>
       <c r="G47" s="3">
-        <v>275100</v>
+        <v>306300</v>
       </c>
       <c r="H47" s="3">
-        <v>268100</v>
+        <v>295100</v>
       </c>
       <c r="I47" s="3">
-        <v>242000</v>
+        <v>287500</v>
       </c>
       <c r="J47" s="3">
+        <v>259500</v>
+      </c>
+      <c r="K47" s="3">
         <v>161300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>60400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>53200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>56400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13989900</v>
+        <v>15203500</v>
       </c>
       <c r="E48" s="3">
-        <v>13736500</v>
+        <v>15003000</v>
       </c>
       <c r="F48" s="3">
-        <v>13479000</v>
+        <v>14731300</v>
       </c>
       <c r="G48" s="3">
-        <v>13289600</v>
+        <v>14455100</v>
       </c>
       <c r="H48" s="3">
-        <v>13041400</v>
+        <v>14252000</v>
       </c>
       <c r="I48" s="3">
-        <v>12815400</v>
+        <v>13985800</v>
       </c>
       <c r="J48" s="3">
+        <v>13743500</v>
+      </c>
+      <c r="K48" s="3">
         <v>12557600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13084100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12841800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12794300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12521800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>241500</v>
+        <v>249600</v>
       </c>
       <c r="E49" s="3">
-        <v>249600</v>
+        <v>259000</v>
       </c>
       <c r="F49" s="3">
+        <v>267700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>280000</v>
+      </c>
+      <c r="H49" s="3">
         <v>261100</v>
       </c>
-      <c r="G49" s="3">
-        <v>243500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>236800</v>
-      </c>
       <c r="I49" s="3">
-        <v>231200</v>
+        <v>254000</v>
       </c>
       <c r="J49" s="3">
+        <v>247900</v>
+      </c>
+      <c r="K49" s="3">
         <v>221400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>211800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>205400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>190800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>157200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1615200</v>
+        <v>1812000</v>
       </c>
       <c r="E52" s="3">
-        <v>1073600</v>
+        <v>1732200</v>
       </c>
       <c r="F52" s="3">
-        <v>948300</v>
+        <v>1151300</v>
       </c>
       <c r="G52" s="3">
-        <v>790700</v>
+        <v>1017000</v>
       </c>
       <c r="H52" s="3">
-        <v>785900</v>
+        <v>847900</v>
       </c>
       <c r="I52" s="3">
-        <v>1205100</v>
+        <v>842800</v>
       </c>
       <c r="J52" s="3">
+        <v>1292400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1419300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1357400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1029800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1001800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17362700</v>
+        <v>18549300</v>
       </c>
       <c r="E54" s="3">
-        <v>16242100</v>
+        <v>18620100</v>
       </c>
       <c r="F54" s="3">
-        <v>15871500</v>
+        <v>17418300</v>
       </c>
       <c r="G54" s="3">
-        <v>16015100</v>
+        <v>17020900</v>
       </c>
       <c r="H54" s="3">
-        <v>15232300</v>
+        <v>17174900</v>
       </c>
       <c r="I54" s="3">
-        <v>15304000</v>
+        <v>16335400</v>
       </c>
       <c r="J54" s="3">
+        <v>16412300</v>
+      </c>
+      <c r="K54" s="3">
         <v>15113300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15530200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15140700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14884500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14138600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>398800</v>
+        <v>441700</v>
       </c>
       <c r="E57" s="3">
-        <v>395600</v>
+        <v>427700</v>
       </c>
       <c r="F57" s="3">
-        <v>416900</v>
+        <v>424200</v>
       </c>
       <c r="G57" s="3">
-        <v>339600</v>
+        <v>447100</v>
       </c>
       <c r="H57" s="3">
-        <v>421200</v>
+        <v>364100</v>
       </c>
       <c r="I57" s="3">
-        <v>397800</v>
+        <v>451700</v>
       </c>
       <c r="J57" s="3">
+        <v>426600</v>
+      </c>
+      <c r="K57" s="3">
         <v>449800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>445700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>558200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>502000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>572500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>899700</v>
+        <v>1116100</v>
       </c>
       <c r="E58" s="3">
-        <v>862400</v>
+        <v>964800</v>
       </c>
       <c r="F58" s="3">
-        <v>693500</v>
+        <v>924800</v>
       </c>
       <c r="G58" s="3">
-        <v>1033900</v>
+        <v>743700</v>
       </c>
       <c r="H58" s="3">
-        <v>800000</v>
+        <v>1108800</v>
       </c>
       <c r="I58" s="3">
-        <v>401600</v>
+        <v>858000</v>
       </c>
       <c r="J58" s="3">
+        <v>430700</v>
+      </c>
+      <c r="K58" s="3">
         <v>372400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>612000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1102500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>761200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>40900</v>
+        <v>33400</v>
       </c>
       <c r="E59" s="3">
-        <v>37700</v>
+        <v>43900</v>
       </c>
       <c r="F59" s="3">
-        <v>28600</v>
+        <v>40400</v>
       </c>
       <c r="G59" s="3">
-        <v>32400</v>
+        <v>30600</v>
       </c>
       <c r="H59" s="3">
-        <v>36800</v>
+        <v>34700</v>
       </c>
       <c r="I59" s="3">
-        <v>50100</v>
+        <v>39500</v>
       </c>
       <c r="J59" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K59" s="3">
         <v>31200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>55600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1339400</v>
+        <v>1591200</v>
       </c>
       <c r="E60" s="3">
-        <v>1295600</v>
+        <v>1436400</v>
       </c>
       <c r="F60" s="3">
-        <v>1139000</v>
+        <v>1389500</v>
       </c>
       <c r="G60" s="3">
-        <v>1405900</v>
+        <v>1221500</v>
       </c>
       <c r="H60" s="3">
-        <v>1258100</v>
+        <v>1507700</v>
       </c>
       <c r="I60" s="3">
-        <v>849600</v>
+        <v>1349200</v>
       </c>
       <c r="J60" s="3">
+        <v>911100</v>
+      </c>
+      <c r="K60" s="3">
         <v>853400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1101100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1711400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1318800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>786100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9584300</v>
+        <v>9929800</v>
       </c>
       <c r="E61" s="3">
-        <v>8763600</v>
+        <v>10278400</v>
       </c>
       <c r="F61" s="3">
-        <v>8798200</v>
+        <v>9398200</v>
       </c>
       <c r="G61" s="3">
-        <v>8710900</v>
+        <v>9435300</v>
       </c>
       <c r="H61" s="3">
-        <v>8348000</v>
+        <v>9341700</v>
       </c>
       <c r="I61" s="3">
-        <v>8693100</v>
+        <v>8952600</v>
       </c>
       <c r="J61" s="3">
+        <v>9322700</v>
+      </c>
+      <c r="K61" s="3">
         <v>8639100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8489500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7822900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7989400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8108900</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2681600</v>
+        <v>3116000</v>
       </c>
       <c r="E62" s="3">
-        <v>2351600</v>
+        <v>2875800</v>
       </c>
       <c r="F62" s="3">
-        <v>2280400</v>
+        <v>2521900</v>
       </c>
       <c r="G62" s="3">
-        <v>2264100</v>
+        <v>2445600</v>
       </c>
       <c r="H62" s="3">
-        <v>2179700</v>
+        <v>2428000</v>
       </c>
       <c r="I62" s="3">
-        <v>2286200</v>
+        <v>2337500</v>
       </c>
       <c r="J62" s="3">
+        <v>2451800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2332200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2410800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2401100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2370700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2269600</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13605200</v>
+        <v>14637000</v>
       </c>
       <c r="E66" s="3">
-        <v>12410800</v>
+        <v>14590500</v>
       </c>
       <c r="F66" s="3">
-        <v>12217600</v>
+        <v>13309600</v>
       </c>
       <c r="G66" s="3">
-        <v>12380800</v>
+        <v>13102400</v>
       </c>
       <c r="H66" s="3">
-        <v>11785800</v>
+        <v>13277400</v>
       </c>
       <c r="I66" s="3">
-        <v>11828900</v>
+        <v>12639300</v>
       </c>
       <c r="J66" s="3">
+        <v>12685500</v>
+      </c>
+      <c r="K66" s="3">
         <v>11824600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12001300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11935300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11678900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11164700</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3138400</v>
+        <v>3239100</v>
       </c>
       <c r="E72" s="3">
-        <v>3201500</v>
+        <v>3365600</v>
       </c>
       <c r="F72" s="3">
-        <v>3440800</v>
+        <v>3433400</v>
       </c>
       <c r="G72" s="3">
-        <v>3017400</v>
+        <v>3690000</v>
       </c>
       <c r="H72" s="3">
-        <v>2829000</v>
+        <v>3235900</v>
       </c>
       <c r="I72" s="3">
-        <v>2858400</v>
+        <v>3033900</v>
       </c>
       <c r="J72" s="3">
+        <v>3065400</v>
+      </c>
+      <c r="K72" s="3">
         <v>2671600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2880600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2561100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2555100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2112700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3757500</v>
+        <v>3912300</v>
       </c>
       <c r="E76" s="3">
-        <v>3831300</v>
+        <v>4029600</v>
       </c>
       <c r="F76" s="3">
-        <v>3653900</v>
+        <v>4108700</v>
       </c>
       <c r="G76" s="3">
-        <v>3634300</v>
+        <v>3918500</v>
       </c>
       <c r="H76" s="3">
-        <v>3446500</v>
+        <v>3897500</v>
       </c>
       <c r="I76" s="3">
-        <v>3475100</v>
+        <v>3696100</v>
       </c>
       <c r="J76" s="3">
+        <v>3726700</v>
+      </c>
+      <c r="K76" s="3">
         <v>3288700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3528800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3205300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3205600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2974000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42460</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42094</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>195300</v>
+        <v>-68400</v>
       </c>
       <c r="E81" s="3">
-        <v>185800</v>
+        <v>209500</v>
       </c>
       <c r="F81" s="3">
-        <v>261700</v>
+        <v>199300</v>
       </c>
       <c r="G81" s="3">
-        <v>193600</v>
+        <v>280700</v>
       </c>
       <c r="H81" s="3">
-        <v>243100</v>
+        <v>207600</v>
       </c>
       <c r="I81" s="3">
-        <v>284900</v>
+        <v>260700</v>
       </c>
       <c r="J81" s="3">
+        <v>305500</v>
+      </c>
+      <c r="K81" s="3">
         <v>249500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>294300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>224200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>142700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,46 +3431,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>245500</v>
+        <v>374400</v>
       </c>
       <c r="E83" s="3">
-        <v>249000</v>
+        <v>263200</v>
       </c>
       <c r="F83" s="3">
-        <v>235200</v>
+        <v>267100</v>
       </c>
       <c r="G83" s="3">
-        <v>235900</v>
+        <v>252300</v>
       </c>
       <c r="H83" s="3">
-        <v>228200</v>
+        <v>252900</v>
       </c>
       <c r="I83" s="3">
-        <v>230200</v>
+        <v>244700</v>
       </c>
       <c r="J83" s="3">
+        <v>246900</v>
+      </c>
+      <c r="K83" s="3">
         <v>219200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>232900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>241400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>236900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>448400</v>
+        <v>589300</v>
       </c>
       <c r="E89" s="3">
-        <v>485400</v>
+        <v>480900</v>
       </c>
       <c r="F89" s="3">
-        <v>539700</v>
+        <v>520500</v>
       </c>
       <c r="G89" s="3">
-        <v>497600</v>
+        <v>578800</v>
       </c>
       <c r="H89" s="3">
-        <v>506900</v>
+        <v>533600</v>
       </c>
       <c r="I89" s="3">
-        <v>494000</v>
+        <v>543600</v>
       </c>
       <c r="J89" s="3">
+        <v>529800</v>
+      </c>
+      <c r="K89" s="3">
         <v>516900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>411600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>482600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>444800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>485500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-404000</v>
+        <v>-429000</v>
       </c>
       <c r="E91" s="3">
-        <v>-393700</v>
+        <v>-433200</v>
       </c>
       <c r="F91" s="3">
-        <v>-372700</v>
+        <v>-422300</v>
       </c>
       <c r="G91" s="3">
-        <v>-462000</v>
+        <v>-399700</v>
       </c>
       <c r="H91" s="3">
-        <v>-398400</v>
+        <v>-495400</v>
       </c>
       <c r="I91" s="3">
-        <v>-440200</v>
+        <v>-427300</v>
       </c>
       <c r="J91" s="3">
+        <v>-472100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-388000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-436700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-390500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-503400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-456700</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-376900</v>
+        <v>-380300</v>
       </c>
       <c r="E94" s="3">
-        <v>-402900</v>
+        <v>-404200</v>
       </c>
       <c r="F94" s="3">
-        <v>-370200</v>
+        <v>-432000</v>
       </c>
       <c r="G94" s="3">
-        <v>-483500</v>
+        <v>-397000</v>
       </c>
       <c r="H94" s="3">
-        <v>-407200</v>
+        <v>-518500</v>
       </c>
       <c r="I94" s="3">
-        <v>-528100</v>
+        <v>-436700</v>
       </c>
       <c r="J94" s="3">
+        <v>-566400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-462800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-474500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-408200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-489100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-439100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,46 +3916,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-231200</v>
+        <v>-127900</v>
       </c>
       <c r="E96" s="3">
-        <v>-115500</v>
+        <v>-247900</v>
       </c>
       <c r="F96" s="3">
-        <v>-222400</v>
+        <v>-123900</v>
       </c>
       <c r="G96" s="3">
-        <v>-111200</v>
+        <v>-238500</v>
       </c>
       <c r="H96" s="3">
-        <v>-217600</v>
+        <v>-119300</v>
       </c>
       <c r="I96" s="3">
-        <v>-108800</v>
+        <v>-233400</v>
       </c>
       <c r="J96" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-215300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-113900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-223600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-112700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-215700</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,46 +4078,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>272700</v>
+        <v>-329100</v>
       </c>
       <c r="E100" s="3">
-        <v>27100</v>
+        <v>292400</v>
       </c>
       <c r="F100" s="3">
-        <v>-491900</v>
+        <v>29100</v>
       </c>
       <c r="G100" s="3">
-        <v>508800</v>
+        <v>-527500</v>
       </c>
       <c r="H100" s="3">
-        <v>-281300</v>
+        <v>545600</v>
       </c>
       <c r="I100" s="3">
-        <v>44000</v>
+        <v>-301700</v>
       </c>
       <c r="J100" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-16900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-126000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>65500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3911,42 +4160,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>344200</v>
+        <v>-120100</v>
       </c>
       <c r="E102" s="3">
-        <v>109600</v>
+        <v>369200</v>
       </c>
       <c r="F102" s="3">
-        <v>-322400</v>
+        <v>117600</v>
       </c>
       <c r="G102" s="3">
-        <v>522800</v>
+        <v>-345800</v>
       </c>
       <c r="H102" s="3">
-        <v>-181500</v>
+        <v>560700</v>
       </c>
       <c r="I102" s="3">
-        <v>9900</v>
+        <v>-194700</v>
       </c>
       <c r="J102" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K102" s="3">
         <v>37200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-188900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>139800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>156600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42460</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42094</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1190800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1229900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1245500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1201100</v>
+      </c>
+      <c r="H8" s="3">
         <v>1220100</v>
       </c>
-      <c r="E8" s="3">
-        <v>1235600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1191500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1210400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1135600</v>
-      </c>
       <c r="I8" s="3">
-        <v>1157000</v>
+        <v>1144700</v>
       </c>
       <c r="J8" s="3">
+        <v>1166300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1124000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1050600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1138700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1117800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1133500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1131600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>171600</v>
+        <v>165000</v>
       </c>
       <c r="E9" s="3">
-        <v>159400</v>
+        <v>172900</v>
       </c>
       <c r="F9" s="3">
-        <v>172100</v>
+        <v>160700</v>
       </c>
       <c r="G9" s="3">
-        <v>175000</v>
+        <v>173500</v>
       </c>
       <c r="H9" s="3">
-        <v>161900</v>
+        <v>176400</v>
       </c>
       <c r="I9" s="3">
-        <v>149000</v>
+        <v>163200</v>
       </c>
       <c r="J9" s="3">
+        <v>150200</v>
+      </c>
+      <c r="K9" s="3">
         <v>153600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>153500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>170600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>162100</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1048600</v>
+        <v>1025800</v>
       </c>
       <c r="E10" s="3">
-        <v>1076200</v>
+        <v>1057000</v>
       </c>
       <c r="F10" s="3">
-        <v>1019400</v>
+        <v>1084800</v>
       </c>
       <c r="G10" s="3">
-        <v>1035400</v>
+        <v>1027600</v>
       </c>
       <c r="H10" s="3">
-        <v>973700</v>
+        <v>1043700</v>
       </c>
       <c r="I10" s="3">
-        <v>1008000</v>
+        <v>981500</v>
       </c>
       <c r="J10" s="3">
+        <v>1016100</v>
+      </c>
+      <c r="K10" s="3">
         <v>970400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>897100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>968100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>955700</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -881,11 +895,11 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
         <v>1600</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>5</v>
@@ -899,11 +913,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
         <v>3000</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>5</v>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,90 +969,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20200</v>
+        <v>7700</v>
       </c>
       <c r="E14" s="3">
-        <v>14300</v>
+        <v>20400</v>
       </c>
       <c r="F14" s="3">
-        <v>67400</v>
+        <v>14400</v>
       </c>
       <c r="G14" s="3">
+        <v>67900</v>
+      </c>
+      <c r="H14" s="3">
         <v>-3200</v>
       </c>
-      <c r="H14" s="3">
-        <v>15100</v>
-      </c>
       <c r="I14" s="3">
-        <v>16100</v>
+        <v>15200</v>
       </c>
       <c r="J14" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K14" s="3">
         <v>22200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-13400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>33900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>374400</v>
+        <v>270000</v>
       </c>
       <c r="E15" s="3">
-        <v>263200</v>
+        <v>377500</v>
       </c>
       <c r="F15" s="3">
-        <v>267100</v>
+        <v>265300</v>
       </c>
       <c r="G15" s="3">
-        <v>252300</v>
+        <v>269200</v>
       </c>
       <c r="H15" s="3">
-        <v>252900</v>
+        <v>254300</v>
       </c>
       <c r="I15" s="3">
-        <v>244700</v>
+        <v>255000</v>
       </c>
       <c r="J15" s="3">
+        <v>246700</v>
+      </c>
+      <c r="K15" s="3">
         <v>246900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>219200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>232900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>241400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>236900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>893500</v>
+        <v>766800</v>
       </c>
       <c r="E17" s="3">
-        <v>729700</v>
+        <v>900700</v>
       </c>
       <c r="F17" s="3">
-        <v>800800</v>
+        <v>735600</v>
       </c>
       <c r="G17" s="3">
-        <v>762500</v>
+        <v>807200</v>
       </c>
       <c r="H17" s="3">
-        <v>746500</v>
+        <v>768600</v>
       </c>
       <c r="I17" s="3">
-        <v>705600</v>
+        <v>752500</v>
       </c>
       <c r="J17" s="3">
+        <v>711200</v>
+      </c>
+      <c r="K17" s="3">
         <v>723700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>650900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>760900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>754800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>721600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>683300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>326600</v>
+        <v>424100</v>
       </c>
       <c r="E18" s="3">
-        <v>505900</v>
+        <v>329300</v>
       </c>
       <c r="F18" s="3">
-        <v>390700</v>
+        <v>509900</v>
       </c>
       <c r="G18" s="3">
-        <v>447900</v>
+        <v>393800</v>
       </c>
       <c r="H18" s="3">
-        <v>389100</v>
+        <v>451500</v>
       </c>
       <c r="I18" s="3">
-        <v>451400</v>
+        <v>392200</v>
       </c>
       <c r="J18" s="3">
+        <v>455100</v>
+      </c>
+      <c r="K18" s="3">
         <v>400300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>399700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>377700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>363000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>411900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>448400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,213 +1180,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-51200</v>
+        <v>-16600</v>
       </c>
       <c r="E20" s="3">
-        <v>-74800</v>
+        <v>-51700</v>
       </c>
       <c r="F20" s="3">
-        <v>-28500</v>
+        <v>-75400</v>
       </c>
       <c r="G20" s="3">
-        <v>72500</v>
+        <v>-28800</v>
       </c>
       <c r="H20" s="3">
-        <v>22200</v>
+        <v>73100</v>
       </c>
       <c r="I20" s="3">
-        <v>59200</v>
+        <v>22400</v>
       </c>
       <c r="J20" s="3">
+        <v>59600</v>
+      </c>
+      <c r="K20" s="3">
         <v>116400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-57000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-75500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>54300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-112200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26900</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>649800</v>
+        <v>677400</v>
       </c>
       <c r="E21" s="3">
-        <v>694300</v>
+        <v>655000</v>
       </c>
       <c r="F21" s="3">
-        <v>629200</v>
+        <v>699900</v>
       </c>
       <c r="G21" s="3">
-        <v>772700</v>
+        <v>634300</v>
       </c>
       <c r="H21" s="3">
-        <v>664200</v>
+        <v>778900</v>
       </c>
       <c r="I21" s="3">
-        <v>755400</v>
+        <v>669600</v>
       </c>
       <c r="J21" s="3">
+        <v>761400</v>
+      </c>
+      <c r="K21" s="3">
         <v>763500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>561900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>535200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>658700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>536600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>132600</v>
+        <v>139700</v>
       </c>
       <c r="E22" s="3">
-        <v>173400</v>
+        <v>133700</v>
       </c>
       <c r="F22" s="3">
-        <v>128900</v>
+        <v>174800</v>
       </c>
       <c r="G22" s="3">
-        <v>177500</v>
+        <v>129900</v>
       </c>
       <c r="H22" s="3">
-        <v>160600</v>
+        <v>178900</v>
       </c>
       <c r="I22" s="3">
-        <v>190600</v>
+        <v>161900</v>
       </c>
       <c r="J22" s="3">
+        <v>192100</v>
+      </c>
+      <c r="K22" s="3">
         <v>141600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>147500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>122300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>136000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>119400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>142800</v>
+        <v>267700</v>
       </c>
       <c r="E23" s="3">
-        <v>257700</v>
+        <v>143900</v>
       </c>
       <c r="F23" s="3">
-        <v>233300</v>
+        <v>259800</v>
       </c>
       <c r="G23" s="3">
-        <v>342900</v>
+        <v>235100</v>
       </c>
       <c r="H23" s="3">
-        <v>250700</v>
+        <v>345600</v>
       </c>
       <c r="I23" s="3">
-        <v>320000</v>
+        <v>252700</v>
       </c>
       <c r="J23" s="3">
+        <v>322600</v>
+      </c>
+      <c r="K23" s="3">
         <v>375100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>195100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>179900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>281200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>180300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>269500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>211200</v>
+        <v>52100</v>
       </c>
       <c r="E24" s="3">
-        <v>48200</v>
+        <v>212900</v>
       </c>
       <c r="F24" s="3">
-        <v>33900</v>
+        <v>48600</v>
       </c>
       <c r="G24" s="3">
-        <v>62200</v>
+        <v>34200</v>
       </c>
       <c r="H24" s="3">
-        <v>43100</v>
+        <v>62700</v>
       </c>
       <c r="I24" s="3">
-        <v>59300</v>
+        <v>43400</v>
       </c>
       <c r="J24" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K24" s="3">
         <v>69600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-54400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-114400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>57000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-68400</v>
+        <v>215700</v>
       </c>
       <c r="E26" s="3">
-        <v>209500</v>
+        <v>-69000</v>
       </c>
       <c r="F26" s="3">
-        <v>199300</v>
+        <v>211200</v>
       </c>
       <c r="G26" s="3">
-        <v>280700</v>
+        <v>200900</v>
       </c>
       <c r="H26" s="3">
-        <v>207600</v>
+        <v>282900</v>
       </c>
       <c r="I26" s="3">
-        <v>260700</v>
+        <v>209300</v>
       </c>
       <c r="J26" s="3">
+        <v>262800</v>
+      </c>
+      <c r="K26" s="3">
         <v>305500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>249500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>294300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>224200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>142700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-68400</v>
+        <v>215700</v>
       </c>
       <c r="E27" s="3">
-        <v>209500</v>
+        <v>-69000</v>
       </c>
       <c r="F27" s="3">
-        <v>199300</v>
+        <v>211200</v>
       </c>
       <c r="G27" s="3">
-        <v>280700</v>
+        <v>200900</v>
       </c>
       <c r="H27" s="3">
-        <v>207600</v>
+        <v>282900</v>
       </c>
       <c r="I27" s="3">
-        <v>260700</v>
+        <v>209300</v>
       </c>
       <c r="J27" s="3">
+        <v>262800</v>
+      </c>
+      <c r="K27" s="3">
         <v>305500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>249500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>294300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>224200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>142700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,31 +1574,34 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1551,14 +1612,17 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>51200</v>
+        <v>16600</v>
       </c>
       <c r="E32" s="3">
-        <v>74800</v>
+        <v>51700</v>
       </c>
       <c r="F32" s="3">
-        <v>28500</v>
+        <v>75400</v>
       </c>
       <c r="G32" s="3">
-        <v>-72500</v>
+        <v>28800</v>
       </c>
       <c r="H32" s="3">
-        <v>-22200</v>
+        <v>-73100</v>
       </c>
       <c r="I32" s="3">
-        <v>-59200</v>
+        <v>-22400</v>
       </c>
       <c r="J32" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-116400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>57000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>75500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-54300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>112200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-68400</v>
+        <v>215700</v>
       </c>
       <c r="E33" s="3">
-        <v>209500</v>
+        <v>-69000</v>
       </c>
       <c r="F33" s="3">
-        <v>199300</v>
+        <v>211200</v>
       </c>
       <c r="G33" s="3">
-        <v>280700</v>
+        <v>200900</v>
       </c>
       <c r="H33" s="3">
-        <v>207600</v>
+        <v>282900</v>
       </c>
       <c r="I33" s="3">
-        <v>260700</v>
+        <v>209300</v>
       </c>
       <c r="J33" s="3">
+        <v>262800</v>
+      </c>
+      <c r="K33" s="3">
         <v>305500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>249500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>294300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>224200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>142700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-68400</v>
+        <v>215700</v>
       </c>
       <c r="E35" s="3">
-        <v>209500</v>
+        <v>-69000</v>
       </c>
       <c r="F35" s="3">
-        <v>199300</v>
+        <v>211200</v>
       </c>
       <c r="G35" s="3">
-        <v>280700</v>
+        <v>200900</v>
       </c>
       <c r="H35" s="3">
-        <v>207600</v>
+        <v>282900</v>
       </c>
       <c r="I35" s="3">
-        <v>260700</v>
+        <v>209300</v>
       </c>
       <c r="J35" s="3">
+        <v>262800</v>
+      </c>
+      <c r="K35" s="3">
         <v>305500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>249500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>294300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>224200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>142700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42460</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42094</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +1969,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>697500</v>
+        <v>1196900</v>
       </c>
       <c r="E41" s="3">
-        <v>821000</v>
+        <v>703100</v>
       </c>
       <c r="F41" s="3">
-        <v>448100</v>
+        <v>827600</v>
       </c>
       <c r="G41" s="3">
-        <v>342900</v>
+        <v>451700</v>
       </c>
       <c r="H41" s="3">
-        <v>673600</v>
+        <v>345600</v>
       </c>
       <c r="I41" s="3">
-        <v>115700</v>
+        <v>679000</v>
       </c>
       <c r="J41" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K41" s="3">
         <v>327300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>292400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>278600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>464900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>321300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1965,90 +2055,99 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>374600</v>
+        <v>374500</v>
       </c>
       <c r="E43" s="3">
-        <v>383400</v>
+        <v>377600</v>
       </c>
       <c r="F43" s="3">
-        <v>351200</v>
+        <v>386500</v>
       </c>
       <c r="G43" s="3">
-        <v>384600</v>
+        <v>354000</v>
       </c>
       <c r="H43" s="3">
-        <v>377000</v>
+        <v>387700</v>
       </c>
       <c r="I43" s="3">
-        <v>385900</v>
+        <v>380000</v>
       </c>
       <c r="J43" s="3">
+        <v>389000</v>
+      </c>
+      <c r="K43" s="3">
         <v>410800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>424900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>479200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>495500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>465200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>464300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21900</v>
+        <v>25300</v>
       </c>
       <c r="E44" s="3">
-        <v>21400</v>
+        <v>22100</v>
       </c>
       <c r="F44" s="3">
-        <v>19700</v>
+        <v>21600</v>
       </c>
       <c r="G44" s="3">
-        <v>18900</v>
+        <v>19800</v>
       </c>
       <c r="H44" s="3">
-        <v>22200</v>
+        <v>19000</v>
       </c>
       <c r="I44" s="3">
-        <v>25900</v>
+        <v>22400</v>
       </c>
       <c r="J44" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K44" s="3">
         <v>29600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>38200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>50100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>53300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2056,204 +2155,219 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>125100</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>133800</v>
+        <v>126100</v>
       </c>
       <c r="G45" s="3">
-        <v>216100</v>
+        <v>134900</v>
       </c>
       <c r="H45" s="3">
-        <v>446000</v>
+        <v>217800</v>
       </c>
       <c r="I45" s="3">
-        <v>437700</v>
+        <v>449600</v>
       </c>
       <c r="J45" s="3">
+        <v>441200</v>
+      </c>
+      <c r="K45" s="3">
         <v>101300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20500</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>69900</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1094100</v>
+        <v>1596900</v>
       </c>
       <c r="E46" s="3">
-        <v>1350900</v>
+        <v>1102900</v>
       </c>
       <c r="F46" s="3">
-        <v>952800</v>
+        <v>1361800</v>
       </c>
       <c r="G46" s="3">
-        <v>962500</v>
+        <v>960500</v>
       </c>
       <c r="H46" s="3">
-        <v>1518800</v>
+        <v>970200</v>
       </c>
       <c r="I46" s="3">
-        <v>965200</v>
+        <v>1531000</v>
       </c>
       <c r="J46" s="3">
+        <v>973000</v>
+      </c>
+      <c r="K46" s="3">
         <v>868900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>753600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>816500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1010400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>841200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>190100</v>
+        <v>227700</v>
       </c>
       <c r="E47" s="3">
-        <v>275000</v>
+        <v>191600</v>
       </c>
       <c r="F47" s="3">
-        <v>315100</v>
+        <v>277200</v>
       </c>
       <c r="G47" s="3">
-        <v>306300</v>
+        <v>317700</v>
       </c>
       <c r="H47" s="3">
-        <v>295100</v>
+        <v>308800</v>
       </c>
       <c r="I47" s="3">
-        <v>287500</v>
+        <v>297400</v>
       </c>
       <c r="J47" s="3">
+        <v>289800</v>
+      </c>
+      <c r="K47" s="3">
         <v>259500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>161300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>60400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>53200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>56400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15203500</v>
+        <v>15509300</v>
       </c>
       <c r="E48" s="3">
-        <v>15003000</v>
+        <v>15325600</v>
       </c>
       <c r="F48" s="3">
-        <v>14731300</v>
+        <v>15123500</v>
       </c>
       <c r="G48" s="3">
-        <v>14455100</v>
+        <v>14849600</v>
       </c>
       <c r="H48" s="3">
-        <v>14252000</v>
+        <v>14571200</v>
       </c>
       <c r="I48" s="3">
-        <v>13985800</v>
+        <v>14366500</v>
       </c>
       <c r="J48" s="3">
+        <v>14098200</v>
+      </c>
+      <c r="K48" s="3">
         <v>13743500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12557600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13084100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12841800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12794300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12521800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>249600</v>
+        <v>234100</v>
       </c>
       <c r="E49" s="3">
-        <v>259000</v>
+        <v>251600</v>
       </c>
       <c r="F49" s="3">
-        <v>267700</v>
+        <v>261100</v>
       </c>
       <c r="G49" s="3">
-        <v>280000</v>
+        <v>269900</v>
       </c>
       <c r="H49" s="3">
-        <v>261100</v>
+        <v>282300</v>
       </c>
       <c r="I49" s="3">
-        <v>254000</v>
+        <v>263200</v>
       </c>
       <c r="J49" s="3">
+        <v>256000</v>
+      </c>
+      <c r="K49" s="3">
         <v>247900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>221400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>211800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>205400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>190800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>157200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1812000</v>
+        <v>1752300</v>
       </c>
       <c r="E52" s="3">
-        <v>1732200</v>
+        <v>1826500</v>
       </c>
       <c r="F52" s="3">
-        <v>1151300</v>
+        <v>1746100</v>
       </c>
       <c r="G52" s="3">
-        <v>1017000</v>
+        <v>1160600</v>
       </c>
       <c r="H52" s="3">
-        <v>847900</v>
+        <v>1025200</v>
       </c>
       <c r="I52" s="3">
-        <v>842800</v>
+        <v>854800</v>
       </c>
       <c r="J52" s="3">
+        <v>849600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1292400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1419300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1357400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1029800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1001800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18549300</v>
+        <v>19320200</v>
       </c>
       <c r="E54" s="3">
-        <v>18620100</v>
+        <v>18698300</v>
       </c>
       <c r="F54" s="3">
-        <v>17418300</v>
+        <v>18769700</v>
       </c>
       <c r="G54" s="3">
-        <v>17020900</v>
+        <v>17558200</v>
       </c>
       <c r="H54" s="3">
-        <v>17174900</v>
+        <v>17157600</v>
       </c>
       <c r="I54" s="3">
-        <v>16335400</v>
+        <v>17312900</v>
       </c>
       <c r="J54" s="3">
+        <v>16466600</v>
+      </c>
+      <c r="K54" s="3">
         <v>16412300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15113300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15530200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15140700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14884500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14138600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>441700</v>
+        <v>430600</v>
       </c>
       <c r="E57" s="3">
-        <v>427700</v>
+        <v>445200</v>
       </c>
       <c r="F57" s="3">
-        <v>424200</v>
+        <v>431100</v>
       </c>
       <c r="G57" s="3">
-        <v>447100</v>
+        <v>427600</v>
       </c>
       <c r="H57" s="3">
-        <v>364100</v>
+        <v>450700</v>
       </c>
       <c r="I57" s="3">
-        <v>451700</v>
+        <v>367100</v>
       </c>
       <c r="J57" s="3">
+        <v>455300</v>
+      </c>
+      <c r="K57" s="3">
         <v>426600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>449800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>445700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>558200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>502000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>572500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1116100</v>
+        <v>1136200</v>
       </c>
       <c r="E58" s="3">
-        <v>964800</v>
+        <v>1125000</v>
       </c>
       <c r="F58" s="3">
-        <v>924800</v>
+        <v>972600</v>
       </c>
       <c r="G58" s="3">
-        <v>743700</v>
+        <v>932200</v>
       </c>
       <c r="H58" s="3">
-        <v>1108800</v>
+        <v>749700</v>
       </c>
       <c r="I58" s="3">
-        <v>858000</v>
+        <v>1117700</v>
       </c>
       <c r="J58" s="3">
+        <v>864900</v>
+      </c>
+      <c r="K58" s="3">
         <v>430700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>372400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>612000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1102500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>761200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33400</v>
+        <v>22600</v>
       </c>
       <c r="E59" s="3">
-        <v>43900</v>
+        <v>33700</v>
       </c>
       <c r="F59" s="3">
-        <v>40400</v>
+        <v>44200</v>
       </c>
       <c r="G59" s="3">
-        <v>30600</v>
+        <v>40700</v>
       </c>
       <c r="H59" s="3">
-        <v>34700</v>
+        <v>30900</v>
       </c>
       <c r="I59" s="3">
-        <v>39500</v>
+        <v>35000</v>
       </c>
       <c r="J59" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K59" s="3">
         <v>53800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>55600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1591200</v>
+        <v>1589400</v>
       </c>
       <c r="E60" s="3">
-        <v>1436400</v>
+        <v>1603900</v>
       </c>
       <c r="F60" s="3">
-        <v>1389500</v>
+        <v>1447900</v>
       </c>
       <c r="G60" s="3">
-        <v>1221500</v>
+        <v>1400600</v>
       </c>
       <c r="H60" s="3">
-        <v>1507700</v>
+        <v>1231300</v>
       </c>
       <c r="I60" s="3">
-        <v>1349200</v>
+        <v>1519800</v>
       </c>
       <c r="J60" s="3">
+        <v>1360000</v>
+      </c>
+      <c r="K60" s="3">
         <v>911100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>853400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1101100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1711400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1318800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>786100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9929800</v>
+        <v>10774800</v>
       </c>
       <c r="E61" s="3">
-        <v>10278400</v>
+        <v>10009600</v>
       </c>
       <c r="F61" s="3">
-        <v>9398200</v>
+        <v>10361000</v>
       </c>
       <c r="G61" s="3">
-        <v>9435300</v>
+        <v>9473700</v>
       </c>
       <c r="H61" s="3">
-        <v>9341700</v>
+        <v>9511100</v>
       </c>
       <c r="I61" s="3">
-        <v>8952600</v>
+        <v>9416700</v>
       </c>
       <c r="J61" s="3">
+        <v>9024500</v>
+      </c>
+      <c r="K61" s="3">
         <v>9322700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8639100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8489500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7822900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7989400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8108900</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3116000</v>
+        <v>3186400</v>
       </c>
       <c r="E62" s="3">
-        <v>2875800</v>
+        <v>3141000</v>
       </c>
       <c r="F62" s="3">
-        <v>2521900</v>
+        <v>2898900</v>
       </c>
       <c r="G62" s="3">
-        <v>2445600</v>
+        <v>2542200</v>
       </c>
       <c r="H62" s="3">
-        <v>2428000</v>
+        <v>2465200</v>
       </c>
       <c r="I62" s="3">
-        <v>2337500</v>
+        <v>2447500</v>
       </c>
       <c r="J62" s="3">
+        <v>2356300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2451800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2332200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2410800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2401100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2370700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2269600</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14637000</v>
+        <v>15550600</v>
       </c>
       <c r="E66" s="3">
-        <v>14590500</v>
+        <v>14754600</v>
       </c>
       <c r="F66" s="3">
-        <v>13309600</v>
+        <v>14707700</v>
       </c>
       <c r="G66" s="3">
-        <v>13102400</v>
+        <v>13416500</v>
       </c>
       <c r="H66" s="3">
-        <v>13277400</v>
+        <v>13207600</v>
       </c>
       <c r="I66" s="3">
-        <v>12639300</v>
+        <v>13384000</v>
       </c>
       <c r="J66" s="3">
+        <v>12740800</v>
+      </c>
+      <c r="K66" s="3">
         <v>12685500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11824600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12001300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11935300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11678900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11164700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3239100</v>
+        <v>3100300</v>
       </c>
       <c r="E72" s="3">
-        <v>3365600</v>
+        <v>3265100</v>
       </c>
       <c r="F72" s="3">
-        <v>3433400</v>
+        <v>3392700</v>
       </c>
       <c r="G72" s="3">
-        <v>3690000</v>
+        <v>3461000</v>
       </c>
       <c r="H72" s="3">
-        <v>3235900</v>
+        <v>3719700</v>
       </c>
       <c r="I72" s="3">
-        <v>3033900</v>
+        <v>3261900</v>
       </c>
       <c r="J72" s="3">
+        <v>3058200</v>
+      </c>
+      <c r="K72" s="3">
         <v>3065400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2671600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2880600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2561100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2555100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2112700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3912300</v>
+        <v>3769600</v>
       </c>
       <c r="E76" s="3">
-        <v>4029600</v>
+        <v>3943700</v>
       </c>
       <c r="F76" s="3">
-        <v>4108700</v>
+        <v>4062000</v>
       </c>
       <c r="G76" s="3">
-        <v>3918500</v>
+        <v>4141700</v>
       </c>
       <c r="H76" s="3">
-        <v>3897500</v>
+        <v>3950000</v>
       </c>
       <c r="I76" s="3">
-        <v>3696100</v>
+        <v>3928800</v>
       </c>
       <c r="J76" s="3">
+        <v>3725800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3726700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3288700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3528800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3205300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3205600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2974000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42460</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42094</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-68400</v>
+        <v>215700</v>
       </c>
       <c r="E81" s="3">
-        <v>209500</v>
+        <v>-69000</v>
       </c>
       <c r="F81" s="3">
-        <v>199300</v>
+        <v>211200</v>
       </c>
       <c r="G81" s="3">
-        <v>280700</v>
+        <v>200900</v>
       </c>
       <c r="H81" s="3">
-        <v>207600</v>
+        <v>282900</v>
       </c>
       <c r="I81" s="3">
-        <v>260700</v>
+        <v>209300</v>
       </c>
       <c r="J81" s="3">
+        <v>262800</v>
+      </c>
+      <c r="K81" s="3">
         <v>305500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>249500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>294300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>224200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>142700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,49 +3630,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>374400</v>
+        <v>270000</v>
       </c>
       <c r="E83" s="3">
-        <v>263200</v>
+        <v>377500</v>
       </c>
       <c r="F83" s="3">
-        <v>267100</v>
+        <v>265300</v>
       </c>
       <c r="G83" s="3">
-        <v>252300</v>
+        <v>269200</v>
       </c>
       <c r="H83" s="3">
-        <v>252900</v>
+        <v>254300</v>
       </c>
       <c r="I83" s="3">
-        <v>244700</v>
+        <v>255000</v>
       </c>
       <c r="J83" s="3">
+        <v>246700</v>
+      </c>
+      <c r="K83" s="3">
         <v>246900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>219200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>232900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>241400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>236900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>589300</v>
+        <v>530800</v>
       </c>
       <c r="E89" s="3">
-        <v>480900</v>
+        <v>594100</v>
       </c>
       <c r="F89" s="3">
-        <v>520500</v>
+        <v>484800</v>
       </c>
       <c r="G89" s="3">
-        <v>578800</v>
+        <v>524700</v>
       </c>
       <c r="H89" s="3">
-        <v>533600</v>
+        <v>583400</v>
       </c>
       <c r="I89" s="3">
-        <v>543600</v>
+        <v>537900</v>
       </c>
       <c r="J89" s="3">
+        <v>548000</v>
+      </c>
+      <c r="K89" s="3">
         <v>529800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>516900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>411600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>482600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>444800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>485500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-429000</v>
+        <v>-419900</v>
       </c>
       <c r="E91" s="3">
-        <v>-433200</v>
+        <v>-432400</v>
       </c>
       <c r="F91" s="3">
-        <v>-422300</v>
+        <v>-436700</v>
       </c>
       <c r="G91" s="3">
-        <v>-399700</v>
+        <v>-425600</v>
       </c>
       <c r="H91" s="3">
-        <v>-495400</v>
+        <v>-402900</v>
       </c>
       <c r="I91" s="3">
-        <v>-427300</v>
+        <v>-499400</v>
       </c>
       <c r="J91" s="3">
+        <v>-430700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-472100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-388000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-436700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-390500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-503400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-456700</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-380300</v>
+        <v>-446800</v>
       </c>
       <c r="E94" s="3">
-        <v>-404200</v>
+        <v>-383300</v>
       </c>
       <c r="F94" s="3">
-        <v>-432000</v>
+        <v>-407400</v>
       </c>
       <c r="G94" s="3">
-        <v>-397000</v>
+        <v>-435500</v>
       </c>
       <c r="H94" s="3">
-        <v>-518500</v>
+        <v>-400200</v>
       </c>
       <c r="I94" s="3">
-        <v>-436700</v>
+        <v>-522700</v>
       </c>
       <c r="J94" s="3">
+        <v>-440200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-566400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-462800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-474500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-408200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-489100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-439100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,49 +4150,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-127900</v>
+        <v>-257900</v>
       </c>
       <c r="E96" s="3">
-        <v>-247900</v>
+        <v>-128900</v>
       </c>
       <c r="F96" s="3">
-        <v>-123900</v>
+        <v>-249900</v>
       </c>
       <c r="G96" s="3">
-        <v>-238500</v>
+        <v>-124900</v>
       </c>
       <c r="H96" s="3">
-        <v>-119300</v>
+        <v>-240500</v>
       </c>
       <c r="I96" s="3">
-        <v>-233400</v>
+        <v>-120200</v>
       </c>
       <c r="J96" s="3">
+        <v>-235300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-116600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-215300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-113900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-223600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-112700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-215700</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,49 +4324,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-329100</v>
+        <v>402700</v>
       </c>
       <c r="E100" s="3">
-        <v>292400</v>
+        <v>-331800</v>
       </c>
       <c r="F100" s="3">
-        <v>29100</v>
+        <v>294800</v>
       </c>
       <c r="G100" s="3">
-        <v>-527500</v>
+        <v>29300</v>
       </c>
       <c r="H100" s="3">
-        <v>545600</v>
+        <v>-531800</v>
       </c>
       <c r="I100" s="3">
-        <v>-301700</v>
+        <v>550000</v>
       </c>
       <c r="J100" s="3">
+        <v>-304100</v>
+      </c>
+      <c r="K100" s="3">
         <v>47200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-126000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>65500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4163,45 +4412,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-120100</v>
+        <v>486800</v>
       </c>
       <c r="E102" s="3">
-        <v>369200</v>
+        <v>-121000</v>
       </c>
       <c r="F102" s="3">
-        <v>117600</v>
+        <v>372100</v>
       </c>
       <c r="G102" s="3">
-        <v>-345800</v>
+        <v>118500</v>
       </c>
       <c r="H102" s="3">
-        <v>560700</v>
+        <v>-348600</v>
       </c>
       <c r="I102" s="3">
-        <v>-194700</v>
+        <v>565200</v>
       </c>
       <c r="J102" s="3">
+        <v>-196200</v>
+      </c>
+      <c r="K102" s="3">
         <v>10600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>37200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-188900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>139800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>156600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1190800</v>
+        <v>1228200</v>
       </c>
       <c r="E8" s="3">
-        <v>1229900</v>
+        <v>1268600</v>
       </c>
       <c r="F8" s="3">
-        <v>1245500</v>
+        <v>1284600</v>
       </c>
       <c r="G8" s="3">
-        <v>1201100</v>
+        <v>1238800</v>
       </c>
       <c r="H8" s="3">
-        <v>1220100</v>
+        <v>1258400</v>
       </c>
       <c r="I8" s="3">
-        <v>1144700</v>
+        <v>1180700</v>
       </c>
       <c r="J8" s="3">
-        <v>1166300</v>
+        <v>1202900</v>
       </c>
       <c r="K8" s="3">
         <v>1124000</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>165000</v>
+        <v>170100</v>
       </c>
       <c r="E9" s="3">
-        <v>172900</v>
+        <v>178400</v>
       </c>
       <c r="F9" s="3">
-        <v>160700</v>
+        <v>165700</v>
       </c>
       <c r="G9" s="3">
-        <v>173500</v>
+        <v>178900</v>
       </c>
       <c r="H9" s="3">
-        <v>176400</v>
+        <v>181900</v>
       </c>
       <c r="I9" s="3">
-        <v>163200</v>
+        <v>168400</v>
       </c>
       <c r="J9" s="3">
-        <v>150200</v>
+        <v>154900</v>
       </c>
       <c r="K9" s="3">
         <v>153600</v>
@@ -828,25 +828,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1025800</v>
+        <v>1058000</v>
       </c>
       <c r="E10" s="3">
-        <v>1057000</v>
+        <v>1090200</v>
       </c>
       <c r="F10" s="3">
-        <v>1084800</v>
+        <v>1118900</v>
       </c>
       <c r="G10" s="3">
-        <v>1027600</v>
+        <v>1059800</v>
       </c>
       <c r="H10" s="3">
-        <v>1043700</v>
+        <v>1076400</v>
       </c>
       <c r="I10" s="3">
-        <v>981500</v>
+        <v>1012300</v>
       </c>
       <c r="J10" s="3">
-        <v>1016100</v>
+        <v>1048000</v>
       </c>
       <c r="K10" s="3">
         <v>970400</v>
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="E14" s="3">
-        <v>20400</v>
+        <v>21000</v>
       </c>
       <c r="F14" s="3">
-        <v>14400</v>
+        <v>14800</v>
       </c>
       <c r="G14" s="3">
-        <v>67900</v>
+        <v>70000</v>
       </c>
       <c r="H14" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="I14" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="J14" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="K14" s="3">
         <v>22200</v>
@@ -1022,25 +1022,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>270000</v>
+        <v>278500</v>
       </c>
       <c r="E15" s="3">
-        <v>377500</v>
+        <v>389300</v>
       </c>
       <c r="F15" s="3">
-        <v>265300</v>
+        <v>273700</v>
       </c>
       <c r="G15" s="3">
-        <v>269200</v>
+        <v>277700</v>
       </c>
       <c r="H15" s="3">
-        <v>254300</v>
+        <v>262300</v>
       </c>
       <c r="I15" s="3">
-        <v>255000</v>
+        <v>263000</v>
       </c>
       <c r="J15" s="3">
-        <v>246700</v>
+        <v>254500</v>
       </c>
       <c r="K15" s="3">
         <v>246900</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>766800</v>
+        <v>790800</v>
       </c>
       <c r="E17" s="3">
-        <v>900700</v>
+        <v>929000</v>
       </c>
       <c r="F17" s="3">
-        <v>735600</v>
+        <v>758700</v>
       </c>
       <c r="G17" s="3">
-        <v>807200</v>
+        <v>832600</v>
       </c>
       <c r="H17" s="3">
-        <v>768600</v>
+        <v>792700</v>
       </c>
       <c r="I17" s="3">
-        <v>752500</v>
+        <v>776100</v>
       </c>
       <c r="J17" s="3">
-        <v>711200</v>
+        <v>733600</v>
       </c>
       <c r="K17" s="3">
         <v>723700</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>424100</v>
+        <v>437400</v>
       </c>
       <c r="E18" s="3">
-        <v>329300</v>
+        <v>339600</v>
       </c>
       <c r="F18" s="3">
-        <v>509900</v>
+        <v>525900</v>
       </c>
       <c r="G18" s="3">
-        <v>393800</v>
+        <v>406200</v>
       </c>
       <c r="H18" s="3">
-        <v>451500</v>
+        <v>465600</v>
       </c>
       <c r="I18" s="3">
-        <v>392200</v>
+        <v>404500</v>
       </c>
       <c r="J18" s="3">
-        <v>455100</v>
+        <v>469400</v>
       </c>
       <c r="K18" s="3">
         <v>400300</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16600</v>
+        <v>-17200</v>
       </c>
       <c r="E20" s="3">
-        <v>-51700</v>
+        <v>-53300</v>
       </c>
       <c r="F20" s="3">
-        <v>-75400</v>
+        <v>-77700</v>
       </c>
       <c r="G20" s="3">
-        <v>-28800</v>
+        <v>-29700</v>
       </c>
       <c r="H20" s="3">
-        <v>73100</v>
+        <v>75400</v>
       </c>
       <c r="I20" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="J20" s="3">
-        <v>59600</v>
+        <v>61500</v>
       </c>
       <c r="K20" s="3">
         <v>116400</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>677400</v>
+        <v>698700</v>
       </c>
       <c r="E21" s="3">
-        <v>655000</v>
+        <v>675600</v>
       </c>
       <c r="F21" s="3">
-        <v>699900</v>
+        <v>721900</v>
       </c>
       <c r="G21" s="3">
-        <v>634300</v>
+        <v>654200</v>
       </c>
       <c r="H21" s="3">
-        <v>778900</v>
+        <v>803300</v>
       </c>
       <c r="I21" s="3">
-        <v>669600</v>
+        <v>690600</v>
       </c>
       <c r="J21" s="3">
-        <v>761400</v>
+        <v>785300</v>
       </c>
       <c r="K21" s="3">
         <v>763500</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>139700</v>
+        <v>144000</v>
       </c>
       <c r="E22" s="3">
-        <v>133700</v>
+        <v>137900</v>
       </c>
       <c r="F22" s="3">
-        <v>174800</v>
+        <v>180300</v>
       </c>
       <c r="G22" s="3">
-        <v>129900</v>
+        <v>134000</v>
       </c>
       <c r="H22" s="3">
-        <v>178900</v>
+        <v>184600</v>
       </c>
       <c r="I22" s="3">
-        <v>161900</v>
+        <v>167000</v>
       </c>
       <c r="J22" s="3">
-        <v>192100</v>
+        <v>198200</v>
       </c>
       <c r="K22" s="3">
         <v>141600</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>267700</v>
+        <v>276100</v>
       </c>
       <c r="E23" s="3">
-        <v>143900</v>
+        <v>148400</v>
       </c>
       <c r="F23" s="3">
-        <v>259800</v>
+        <v>267900</v>
       </c>
       <c r="G23" s="3">
-        <v>235100</v>
+        <v>242500</v>
       </c>
       <c r="H23" s="3">
-        <v>345600</v>
+        <v>356500</v>
       </c>
       <c r="I23" s="3">
-        <v>252700</v>
+        <v>260600</v>
       </c>
       <c r="J23" s="3">
-        <v>322600</v>
+        <v>332700</v>
       </c>
       <c r="K23" s="3">
         <v>375100</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52100</v>
+        <v>53700</v>
       </c>
       <c r="E24" s="3">
-        <v>212900</v>
+        <v>219600</v>
       </c>
       <c r="F24" s="3">
-        <v>48600</v>
+        <v>50100</v>
       </c>
       <c r="G24" s="3">
-        <v>34200</v>
+        <v>35300</v>
       </c>
       <c r="H24" s="3">
-        <v>62700</v>
+        <v>64700</v>
       </c>
       <c r="I24" s="3">
-        <v>43400</v>
+        <v>44800</v>
       </c>
       <c r="J24" s="3">
-        <v>59800</v>
+        <v>61700</v>
       </c>
       <c r="K24" s="3">
         <v>69600</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>215700</v>
+        <v>222500</v>
       </c>
       <c r="E26" s="3">
-        <v>-69000</v>
+        <v>-71100</v>
       </c>
       <c r="F26" s="3">
-        <v>211200</v>
+        <v>217800</v>
       </c>
       <c r="G26" s="3">
-        <v>200900</v>
+        <v>207200</v>
       </c>
       <c r="H26" s="3">
-        <v>282900</v>
+        <v>291800</v>
       </c>
       <c r="I26" s="3">
-        <v>209300</v>
+        <v>215900</v>
       </c>
       <c r="J26" s="3">
-        <v>262800</v>
+        <v>271100</v>
       </c>
       <c r="K26" s="3">
         <v>305500</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>215700</v>
+        <v>222500</v>
       </c>
       <c r="E27" s="3">
-        <v>-69000</v>
+        <v>-71100</v>
       </c>
       <c r="F27" s="3">
-        <v>211200</v>
+        <v>217800</v>
       </c>
       <c r="G27" s="3">
-        <v>200900</v>
+        <v>207200</v>
       </c>
       <c r="H27" s="3">
-        <v>282900</v>
+        <v>291800</v>
       </c>
       <c r="I27" s="3">
-        <v>209300</v>
+        <v>215900</v>
       </c>
       <c r="J27" s="3">
-        <v>262800</v>
+        <v>271100</v>
       </c>
       <c r="K27" s="3">
         <v>305500</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16600</v>
+        <v>17200</v>
       </c>
       <c r="E32" s="3">
-        <v>51700</v>
+        <v>53300</v>
       </c>
       <c r="F32" s="3">
-        <v>75400</v>
+        <v>77700</v>
       </c>
       <c r="G32" s="3">
-        <v>28800</v>
+        <v>29700</v>
       </c>
       <c r="H32" s="3">
-        <v>-73100</v>
+        <v>-75400</v>
       </c>
       <c r="I32" s="3">
-        <v>-22400</v>
+        <v>-23100</v>
       </c>
       <c r="J32" s="3">
-        <v>-59600</v>
+        <v>-61500</v>
       </c>
       <c r="K32" s="3">
         <v>-116400</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>215700</v>
+        <v>222500</v>
       </c>
       <c r="E33" s="3">
-        <v>-69000</v>
+        <v>-71100</v>
       </c>
       <c r="F33" s="3">
-        <v>211200</v>
+        <v>217800</v>
       </c>
       <c r="G33" s="3">
-        <v>200900</v>
+        <v>207200</v>
       </c>
       <c r="H33" s="3">
-        <v>282900</v>
+        <v>291800</v>
       </c>
       <c r="I33" s="3">
-        <v>209300</v>
+        <v>215900</v>
       </c>
       <c r="J33" s="3">
-        <v>262800</v>
+        <v>271100</v>
       </c>
       <c r="K33" s="3">
         <v>305500</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>215700</v>
+        <v>222500</v>
       </c>
       <c r="E35" s="3">
-        <v>-69000</v>
+        <v>-71100</v>
       </c>
       <c r="F35" s="3">
-        <v>211200</v>
+        <v>217800</v>
       </c>
       <c r="G35" s="3">
-        <v>200900</v>
+        <v>207200</v>
       </c>
       <c r="H35" s="3">
-        <v>282900</v>
+        <v>291800</v>
       </c>
       <c r="I35" s="3">
-        <v>209300</v>
+        <v>215900</v>
       </c>
       <c r="J35" s="3">
-        <v>262800</v>
+        <v>271100</v>
       </c>
       <c r="K35" s="3">
         <v>305500</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1196900</v>
+        <v>1234500</v>
       </c>
       <c r="E41" s="3">
-        <v>703100</v>
+        <v>725200</v>
       </c>
       <c r="F41" s="3">
-        <v>827600</v>
+        <v>853600</v>
       </c>
       <c r="G41" s="3">
-        <v>451700</v>
+        <v>465900</v>
       </c>
       <c r="H41" s="3">
-        <v>345600</v>
+        <v>356500</v>
       </c>
       <c r="I41" s="3">
-        <v>679000</v>
+        <v>700300</v>
       </c>
       <c r="J41" s="3">
-        <v>116600</v>
+        <v>120300</v>
       </c>
       <c r="K41" s="3">
         <v>327300</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>374500</v>
+        <v>386300</v>
       </c>
       <c r="E43" s="3">
-        <v>377600</v>
+        <v>389400</v>
       </c>
       <c r="F43" s="3">
-        <v>386500</v>
+        <v>398600</v>
       </c>
       <c r="G43" s="3">
-        <v>354000</v>
+        <v>365100</v>
       </c>
       <c r="H43" s="3">
-        <v>387700</v>
+        <v>399900</v>
       </c>
       <c r="I43" s="3">
-        <v>380000</v>
+        <v>391900</v>
       </c>
       <c r="J43" s="3">
-        <v>389000</v>
+        <v>401200</v>
       </c>
       <c r="K43" s="3">
         <v>410800</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25300</v>
+        <v>26100</v>
       </c>
       <c r="E44" s="3">
-        <v>22100</v>
+        <v>22800</v>
       </c>
       <c r="F44" s="3">
-        <v>21600</v>
+        <v>22200</v>
       </c>
       <c r="G44" s="3">
-        <v>19800</v>
+        <v>20500</v>
       </c>
       <c r="H44" s="3">
-        <v>19000</v>
+        <v>19600</v>
       </c>
       <c r="I44" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="J44" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="K44" s="3">
         <v>29600</v>
@@ -2158,19 +2158,19 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>126100</v>
+        <v>130000</v>
       </c>
       <c r="G45" s="3">
-        <v>134900</v>
+        <v>139100</v>
       </c>
       <c r="H45" s="3">
-        <v>217800</v>
+        <v>224700</v>
       </c>
       <c r="I45" s="3">
-        <v>449600</v>
+        <v>463700</v>
       </c>
       <c r="J45" s="3">
-        <v>441200</v>
+        <v>455100</v>
       </c>
       <c r="K45" s="3">
         <v>101300</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1596900</v>
+        <v>1647000</v>
       </c>
       <c r="E46" s="3">
-        <v>1102900</v>
+        <v>1137600</v>
       </c>
       <c r="F46" s="3">
-        <v>1361800</v>
+        <v>1404500</v>
       </c>
       <c r="G46" s="3">
-        <v>960500</v>
+        <v>990600</v>
       </c>
       <c r="H46" s="3">
-        <v>970200</v>
+        <v>1000600</v>
       </c>
       <c r="I46" s="3">
-        <v>1531000</v>
+        <v>1579000</v>
       </c>
       <c r="J46" s="3">
-        <v>973000</v>
+        <v>1003500</v>
       </c>
       <c r="K46" s="3">
         <v>868900</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>227700</v>
+        <v>234800</v>
       </c>
       <c r="E47" s="3">
-        <v>191600</v>
+        <v>197600</v>
       </c>
       <c r="F47" s="3">
-        <v>277200</v>
+        <v>285900</v>
       </c>
       <c r="G47" s="3">
-        <v>317700</v>
+        <v>327600</v>
       </c>
       <c r="H47" s="3">
-        <v>308800</v>
+        <v>318400</v>
       </c>
       <c r="I47" s="3">
-        <v>297400</v>
+        <v>306800</v>
       </c>
       <c r="J47" s="3">
-        <v>289800</v>
+        <v>298900</v>
       </c>
       <c r="K47" s="3">
         <v>259500</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15509300</v>
+        <v>15996200</v>
       </c>
       <c r="E48" s="3">
-        <v>15325600</v>
+        <v>15806700</v>
       </c>
       <c r="F48" s="3">
-        <v>15123500</v>
+        <v>15598200</v>
       </c>
       <c r="G48" s="3">
-        <v>14849600</v>
+        <v>15315700</v>
       </c>
       <c r="H48" s="3">
-        <v>14571200</v>
+        <v>15028600</v>
       </c>
       <c r="I48" s="3">
-        <v>14366500</v>
+        <v>14817400</v>
       </c>
       <c r="J48" s="3">
-        <v>14098200</v>
+        <v>14540700</v>
       </c>
       <c r="K48" s="3">
         <v>13743500</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>234100</v>
+        <v>241400</v>
       </c>
       <c r="E49" s="3">
-        <v>251600</v>
+        <v>259500</v>
       </c>
       <c r="F49" s="3">
-        <v>261100</v>
+        <v>269300</v>
       </c>
       <c r="G49" s="3">
-        <v>269900</v>
+        <v>278300</v>
       </c>
       <c r="H49" s="3">
-        <v>282300</v>
+        <v>291100</v>
       </c>
       <c r="I49" s="3">
-        <v>263200</v>
+        <v>271500</v>
       </c>
       <c r="J49" s="3">
-        <v>256000</v>
+        <v>264100</v>
       </c>
       <c r="K49" s="3">
         <v>247900</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1752300</v>
+        <v>1807300</v>
       </c>
       <c r="E52" s="3">
-        <v>1826500</v>
+        <v>1883900</v>
       </c>
       <c r="F52" s="3">
-        <v>1746100</v>
+        <v>1800900</v>
       </c>
       <c r="G52" s="3">
-        <v>1160600</v>
+        <v>1197000</v>
       </c>
       <c r="H52" s="3">
-        <v>1025200</v>
+        <v>1057400</v>
       </c>
       <c r="I52" s="3">
-        <v>854800</v>
+        <v>881600</v>
       </c>
       <c r="J52" s="3">
-        <v>849600</v>
+        <v>876200</v>
       </c>
       <c r="K52" s="3">
         <v>1292400</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19320200</v>
+        <v>19926600</v>
       </c>
       <c r="E54" s="3">
-        <v>18698300</v>
+        <v>19285200</v>
       </c>
       <c r="F54" s="3">
-        <v>18769700</v>
+        <v>19358800</v>
       </c>
       <c r="G54" s="3">
-        <v>17558200</v>
+        <v>18109400</v>
       </c>
       <c r="H54" s="3">
-        <v>17157600</v>
+        <v>17696200</v>
       </c>
       <c r="I54" s="3">
-        <v>17312900</v>
+        <v>17856300</v>
       </c>
       <c r="J54" s="3">
-        <v>16466600</v>
+        <v>16983500</v>
       </c>
       <c r="K54" s="3">
         <v>16412300</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>430600</v>
+        <v>444100</v>
       </c>
       <c r="E57" s="3">
-        <v>445200</v>
+        <v>459200</v>
       </c>
       <c r="F57" s="3">
-        <v>431100</v>
+        <v>444600</v>
       </c>
       <c r="G57" s="3">
-        <v>427600</v>
+        <v>441100</v>
       </c>
       <c r="H57" s="3">
-        <v>450700</v>
+        <v>464800</v>
       </c>
       <c r="I57" s="3">
-        <v>367100</v>
+        <v>378600</v>
       </c>
       <c r="J57" s="3">
-        <v>455300</v>
+        <v>469600</v>
       </c>
       <c r="K57" s="3">
         <v>426600</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1136200</v>
+        <v>1171900</v>
       </c>
       <c r="E58" s="3">
-        <v>1125000</v>
+        <v>1160300</v>
       </c>
       <c r="F58" s="3">
-        <v>972600</v>
+        <v>1003100</v>
       </c>
       <c r="G58" s="3">
-        <v>932200</v>
+        <v>961500</v>
       </c>
       <c r="H58" s="3">
-        <v>749700</v>
+        <v>773200</v>
       </c>
       <c r="I58" s="3">
-        <v>1117700</v>
+        <v>1152800</v>
       </c>
       <c r="J58" s="3">
-        <v>864900</v>
+        <v>892000</v>
       </c>
       <c r="K58" s="3">
         <v>430700</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="E59" s="3">
-        <v>33700</v>
+        <v>34700</v>
       </c>
       <c r="F59" s="3">
-        <v>44200</v>
+        <v>45600</v>
       </c>
       <c r="G59" s="3">
-        <v>40700</v>
+        <v>42000</v>
       </c>
       <c r="H59" s="3">
-        <v>30900</v>
+        <v>31900</v>
       </c>
       <c r="I59" s="3">
-        <v>35000</v>
+        <v>36100</v>
       </c>
       <c r="J59" s="3">
-        <v>39800</v>
+        <v>41100</v>
       </c>
       <c r="K59" s="3">
         <v>53800</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1589400</v>
+        <v>1639300</v>
       </c>
       <c r="E60" s="3">
-        <v>1603900</v>
+        <v>1654300</v>
       </c>
       <c r="F60" s="3">
-        <v>1447900</v>
+        <v>1493300</v>
       </c>
       <c r="G60" s="3">
-        <v>1400600</v>
+        <v>1444600</v>
       </c>
       <c r="H60" s="3">
-        <v>1231300</v>
+        <v>1269900</v>
       </c>
       <c r="I60" s="3">
-        <v>1519800</v>
+        <v>1567500</v>
       </c>
       <c r="J60" s="3">
-        <v>1360000</v>
+        <v>1402700</v>
       </c>
       <c r="K60" s="3">
         <v>911100</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10774800</v>
+        <v>11113000</v>
       </c>
       <c r="E61" s="3">
-        <v>10009600</v>
+        <v>10323800</v>
       </c>
       <c r="F61" s="3">
-        <v>10361000</v>
+        <v>10686200</v>
       </c>
       <c r="G61" s="3">
-        <v>9473700</v>
+        <v>9771100</v>
       </c>
       <c r="H61" s="3">
-        <v>9511100</v>
+        <v>9809700</v>
       </c>
       <c r="I61" s="3">
-        <v>9416700</v>
+        <v>9712300</v>
       </c>
       <c r="J61" s="3">
-        <v>9024500</v>
+        <v>9307800</v>
       </c>
       <c r="K61" s="3">
         <v>9322700</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3186400</v>
+        <v>3286500</v>
       </c>
       <c r="E62" s="3">
-        <v>3141000</v>
+        <v>3239600</v>
       </c>
       <c r="F62" s="3">
-        <v>2898900</v>
+        <v>2989800</v>
       </c>
       <c r="G62" s="3">
-        <v>2542200</v>
+        <v>2622000</v>
       </c>
       <c r="H62" s="3">
-        <v>2465200</v>
+        <v>2542600</v>
       </c>
       <c r="I62" s="3">
-        <v>2447500</v>
+        <v>2524300</v>
       </c>
       <c r="J62" s="3">
-        <v>2356300</v>
+        <v>2430300</v>
       </c>
       <c r="K62" s="3">
         <v>2451800</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15550600</v>
+        <v>16038700</v>
       </c>
       <c r="E66" s="3">
-        <v>14754600</v>
+        <v>15217700</v>
       </c>
       <c r="F66" s="3">
-        <v>14707700</v>
+        <v>15169400</v>
       </c>
       <c r="G66" s="3">
-        <v>13416500</v>
+        <v>13837600</v>
       </c>
       <c r="H66" s="3">
-        <v>13207600</v>
+        <v>13622200</v>
       </c>
       <c r="I66" s="3">
-        <v>13384000</v>
+        <v>13804100</v>
       </c>
       <c r="J66" s="3">
-        <v>12740800</v>
+        <v>13140700</v>
       </c>
       <c r="K66" s="3">
         <v>12685500</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3100300</v>
+        <v>3197600</v>
       </c>
       <c r="E72" s="3">
-        <v>3265100</v>
+        <v>3367600</v>
       </c>
       <c r="F72" s="3">
-        <v>3392700</v>
+        <v>3499200</v>
       </c>
       <c r="G72" s="3">
-        <v>3461000</v>
+        <v>3569600</v>
       </c>
       <c r="H72" s="3">
-        <v>3719700</v>
+        <v>3836400</v>
       </c>
       <c r="I72" s="3">
-        <v>3261900</v>
+        <v>3364300</v>
       </c>
       <c r="J72" s="3">
-        <v>3058200</v>
+        <v>3154200</v>
       </c>
       <c r="K72" s="3">
         <v>3065400</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3769600</v>
+        <v>3887900</v>
       </c>
       <c r="E76" s="3">
-        <v>3943700</v>
+        <v>4067500</v>
       </c>
       <c r="F76" s="3">
-        <v>4062000</v>
+        <v>4189500</v>
       </c>
       <c r="G76" s="3">
-        <v>4141700</v>
+        <v>4271700</v>
       </c>
       <c r="H76" s="3">
-        <v>3950000</v>
+        <v>4074000</v>
       </c>
       <c r="I76" s="3">
-        <v>3928800</v>
+        <v>4052100</v>
       </c>
       <c r="J76" s="3">
-        <v>3725800</v>
+        <v>3842700</v>
       </c>
       <c r="K76" s="3">
         <v>3726700</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>215700</v>
+        <v>222500</v>
       </c>
       <c r="E81" s="3">
-        <v>-69000</v>
+        <v>-71100</v>
       </c>
       <c r="F81" s="3">
-        <v>211200</v>
+        <v>217800</v>
       </c>
       <c r="G81" s="3">
-        <v>200900</v>
+        <v>207200</v>
       </c>
       <c r="H81" s="3">
-        <v>282900</v>
+        <v>291800</v>
       </c>
       <c r="I81" s="3">
-        <v>209300</v>
+        <v>215900</v>
       </c>
       <c r="J81" s="3">
-        <v>262800</v>
+        <v>271100</v>
       </c>
       <c r="K81" s="3">
         <v>305500</v>
@@ -3637,25 +3637,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>270000</v>
+        <v>278500</v>
       </c>
       <c r="E83" s="3">
-        <v>377500</v>
+        <v>389300</v>
       </c>
       <c r="F83" s="3">
-        <v>265300</v>
+        <v>273700</v>
       </c>
       <c r="G83" s="3">
-        <v>269200</v>
+        <v>277700</v>
       </c>
       <c r="H83" s="3">
-        <v>254300</v>
+        <v>262300</v>
       </c>
       <c r="I83" s="3">
-        <v>255000</v>
+        <v>263000</v>
       </c>
       <c r="J83" s="3">
-        <v>246700</v>
+        <v>254500</v>
       </c>
       <c r="K83" s="3">
         <v>246900</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>530800</v>
+        <v>547500</v>
       </c>
       <c r="E89" s="3">
-        <v>594100</v>
+        <v>612700</v>
       </c>
       <c r="F89" s="3">
-        <v>484800</v>
+        <v>500000</v>
       </c>
       <c r="G89" s="3">
-        <v>524700</v>
+        <v>541200</v>
       </c>
       <c r="H89" s="3">
-        <v>583400</v>
+        <v>601700</v>
       </c>
       <c r="I89" s="3">
-        <v>537900</v>
+        <v>554800</v>
       </c>
       <c r="J89" s="3">
-        <v>548000</v>
+        <v>565200</v>
       </c>
       <c r="K89" s="3">
         <v>529800</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-419900</v>
+        <v>-433100</v>
       </c>
       <c r="E91" s="3">
-        <v>-432400</v>
+        <v>-446000</v>
       </c>
       <c r="F91" s="3">
-        <v>-436700</v>
+        <v>-450400</v>
       </c>
       <c r="G91" s="3">
-        <v>-425600</v>
+        <v>-439000</v>
       </c>
       <c r="H91" s="3">
-        <v>-402900</v>
+        <v>-415500</v>
       </c>
       <c r="I91" s="3">
-        <v>-499400</v>
+        <v>-515100</v>
       </c>
       <c r="J91" s="3">
-        <v>-430700</v>
+        <v>-444200</v>
       </c>
       <c r="K91" s="3">
         <v>-472100</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-446800</v>
+        <v>-460800</v>
       </c>
       <c r="E94" s="3">
-        <v>-383300</v>
+        <v>-395300</v>
       </c>
       <c r="F94" s="3">
-        <v>-407400</v>
+        <v>-420200</v>
       </c>
       <c r="G94" s="3">
-        <v>-435500</v>
+        <v>-449200</v>
       </c>
       <c r="H94" s="3">
-        <v>-400200</v>
+        <v>-412800</v>
       </c>
       <c r="I94" s="3">
-        <v>-522700</v>
+        <v>-539100</v>
       </c>
       <c r="J94" s="3">
-        <v>-440200</v>
+        <v>-454000</v>
       </c>
       <c r="K94" s="3">
         <v>-566400</v>
@@ -4157,25 +4157,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-257900</v>
+        <v>-266000</v>
       </c>
       <c r="E96" s="3">
-        <v>-128900</v>
+        <v>-132900</v>
       </c>
       <c r="F96" s="3">
-        <v>-249900</v>
+        <v>-257700</v>
       </c>
       <c r="G96" s="3">
-        <v>-124900</v>
+        <v>-128800</v>
       </c>
       <c r="H96" s="3">
-        <v>-240500</v>
+        <v>-248000</v>
       </c>
       <c r="I96" s="3">
-        <v>-120200</v>
+        <v>-124000</v>
       </c>
       <c r="J96" s="3">
-        <v>-235300</v>
+        <v>-242600</v>
       </c>
       <c r="K96" s="3">
         <v>-116600</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>402700</v>
+        <v>415400</v>
       </c>
       <c r="E100" s="3">
-        <v>-331800</v>
+        <v>-342200</v>
       </c>
       <c r="F100" s="3">
-        <v>294800</v>
+        <v>304000</v>
       </c>
       <c r="G100" s="3">
-        <v>29300</v>
+        <v>30200</v>
       </c>
       <c r="H100" s="3">
-        <v>-531800</v>
+        <v>-548500</v>
       </c>
       <c r="I100" s="3">
-        <v>550000</v>
+        <v>567300</v>
       </c>
       <c r="J100" s="3">
-        <v>-304100</v>
+        <v>-313600</v>
       </c>
       <c r="K100" s="3">
         <v>47200</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>486800</v>
+        <v>502000</v>
       </c>
       <c r="E102" s="3">
-        <v>-121000</v>
+        <v>-124800</v>
       </c>
       <c r="F102" s="3">
-        <v>372100</v>
+        <v>383800</v>
       </c>
       <c r="G102" s="3">
-        <v>118500</v>
+        <v>122200</v>
       </c>
       <c r="H102" s="3">
-        <v>-348600</v>
+        <v>-359500</v>
       </c>
       <c r="I102" s="3">
-        <v>565200</v>
+        <v>582900</v>
       </c>
       <c r="J102" s="3">
-        <v>-196200</v>
+        <v>-202400</v>
       </c>
       <c r="K102" s="3">
         <v>10600</v>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1228200</v>
+        <v>1265700</v>
       </c>
       <c r="E8" s="3">
-        <v>1268600</v>
+        <v>1307300</v>
       </c>
       <c r="F8" s="3">
-        <v>1284600</v>
+        <v>1323800</v>
       </c>
       <c r="G8" s="3">
-        <v>1238800</v>
+        <v>1276600</v>
       </c>
       <c r="H8" s="3">
-        <v>1258400</v>
+        <v>1296800</v>
       </c>
       <c r="I8" s="3">
-        <v>1180700</v>
+        <v>1216700</v>
       </c>
       <c r="J8" s="3">
-        <v>1202900</v>
+        <v>1239600</v>
       </c>
       <c r="K8" s="3">
         <v>1124000</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>170100</v>
+        <v>175300</v>
       </c>
       <c r="E9" s="3">
-        <v>178400</v>
+        <v>183800</v>
       </c>
       <c r="F9" s="3">
-        <v>165700</v>
+        <v>170800</v>
       </c>
       <c r="G9" s="3">
-        <v>178900</v>
+        <v>184400</v>
       </c>
       <c r="H9" s="3">
-        <v>181900</v>
+        <v>187500</v>
       </c>
       <c r="I9" s="3">
-        <v>168400</v>
+        <v>173500</v>
       </c>
       <c r="J9" s="3">
-        <v>154900</v>
+        <v>159600</v>
       </c>
       <c r="K9" s="3">
         <v>153600</v>
@@ -828,25 +828,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1058000</v>
+        <v>1090300</v>
       </c>
       <c r="E10" s="3">
-        <v>1090200</v>
+        <v>1123500</v>
       </c>
       <c r="F10" s="3">
-        <v>1118900</v>
+        <v>1153000</v>
       </c>
       <c r="G10" s="3">
-        <v>1059800</v>
+        <v>1092200</v>
       </c>
       <c r="H10" s="3">
-        <v>1076400</v>
+        <v>1109300</v>
       </c>
       <c r="I10" s="3">
-        <v>1012300</v>
+        <v>1043200</v>
       </c>
       <c r="J10" s="3">
-        <v>1048000</v>
+        <v>1080000</v>
       </c>
       <c r="K10" s="3">
         <v>970400</v>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>5</v>
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E14" s="3">
-        <v>21000</v>
+        <v>21700</v>
       </c>
       <c r="F14" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="G14" s="3">
-        <v>70000</v>
+        <v>72200</v>
       </c>
       <c r="H14" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="I14" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="J14" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="K14" s="3">
         <v>22200</v>
@@ -1022,25 +1022,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>278500</v>
+        <v>287000</v>
       </c>
       <c r="E15" s="3">
-        <v>389300</v>
+        <v>401200</v>
       </c>
       <c r="F15" s="3">
-        <v>273700</v>
+        <v>282000</v>
       </c>
       <c r="G15" s="3">
-        <v>277700</v>
+        <v>286100</v>
       </c>
       <c r="H15" s="3">
-        <v>262300</v>
+        <v>270300</v>
       </c>
       <c r="I15" s="3">
-        <v>263000</v>
+        <v>271000</v>
       </c>
       <c r="J15" s="3">
-        <v>254500</v>
+        <v>262200</v>
       </c>
       <c r="K15" s="3">
         <v>246900</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>790800</v>
+        <v>815000</v>
       </c>
       <c r="E17" s="3">
-        <v>929000</v>
+        <v>957300</v>
       </c>
       <c r="F17" s="3">
-        <v>758700</v>
+        <v>781800</v>
       </c>
       <c r="G17" s="3">
-        <v>832600</v>
+        <v>858000</v>
       </c>
       <c r="H17" s="3">
-        <v>792700</v>
+        <v>816900</v>
       </c>
       <c r="I17" s="3">
-        <v>776100</v>
+        <v>799800</v>
       </c>
       <c r="J17" s="3">
-        <v>733600</v>
+        <v>756000</v>
       </c>
       <c r="K17" s="3">
         <v>723700</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>437400</v>
+        <v>450700</v>
       </c>
       <c r="E18" s="3">
-        <v>339600</v>
+        <v>350000</v>
       </c>
       <c r="F18" s="3">
-        <v>525900</v>
+        <v>542000</v>
       </c>
       <c r="G18" s="3">
-        <v>406200</v>
+        <v>418600</v>
       </c>
       <c r="H18" s="3">
-        <v>465600</v>
+        <v>479900</v>
       </c>
       <c r="I18" s="3">
-        <v>404500</v>
+        <v>416900</v>
       </c>
       <c r="J18" s="3">
-        <v>469400</v>
+        <v>483700</v>
       </c>
       <c r="K18" s="3">
         <v>400300</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-17200</v>
+        <v>-17700</v>
       </c>
       <c r="E20" s="3">
-        <v>-53300</v>
+        <v>-54900</v>
       </c>
       <c r="F20" s="3">
-        <v>-77700</v>
+        <v>-80100</v>
       </c>
       <c r="G20" s="3">
-        <v>-29700</v>
+        <v>-30600</v>
       </c>
       <c r="H20" s="3">
-        <v>75400</v>
+        <v>77700</v>
       </c>
       <c r="I20" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="J20" s="3">
-        <v>61500</v>
+        <v>63400</v>
       </c>
       <c r="K20" s="3">
         <v>116400</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>698700</v>
+        <v>720000</v>
       </c>
       <c r="E21" s="3">
-        <v>675600</v>
+        <v>696200</v>
       </c>
       <c r="F21" s="3">
-        <v>721900</v>
+        <v>743900</v>
       </c>
       <c r="G21" s="3">
-        <v>654200</v>
+        <v>674200</v>
       </c>
       <c r="H21" s="3">
-        <v>803300</v>
+        <v>827800</v>
       </c>
       <c r="I21" s="3">
-        <v>690600</v>
+        <v>711700</v>
       </c>
       <c r="J21" s="3">
-        <v>785300</v>
+        <v>809300</v>
       </c>
       <c r="K21" s="3">
         <v>763500</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>144000</v>
+        <v>148400</v>
       </c>
       <c r="E22" s="3">
-        <v>137900</v>
+        <v>142100</v>
       </c>
       <c r="F22" s="3">
-        <v>180300</v>
+        <v>185800</v>
       </c>
       <c r="G22" s="3">
-        <v>134000</v>
+        <v>138100</v>
       </c>
       <c r="H22" s="3">
-        <v>184600</v>
+        <v>190200</v>
       </c>
       <c r="I22" s="3">
-        <v>167000</v>
+        <v>172100</v>
       </c>
       <c r="J22" s="3">
-        <v>198200</v>
+        <v>204200</v>
       </c>
       <c r="K22" s="3">
         <v>141600</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>284600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>153000</v>
+      </c>
+      <c r="F23" s="3">
         <v>276100</v>
       </c>
-      <c r="E23" s="3">
-        <v>148400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>267900</v>
-      </c>
       <c r="G23" s="3">
-        <v>242500</v>
+        <v>249900</v>
       </c>
       <c r="H23" s="3">
-        <v>356500</v>
+        <v>367400</v>
       </c>
       <c r="I23" s="3">
-        <v>260600</v>
+        <v>268600</v>
       </c>
       <c r="J23" s="3">
-        <v>332700</v>
+        <v>342900</v>
       </c>
       <c r="K23" s="3">
         <v>375100</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53700</v>
+        <v>55300</v>
       </c>
       <c r="E24" s="3">
-        <v>219600</v>
+        <v>226300</v>
       </c>
       <c r="F24" s="3">
-        <v>50100</v>
+        <v>51700</v>
       </c>
       <c r="G24" s="3">
-        <v>35300</v>
+        <v>36400</v>
       </c>
       <c r="H24" s="3">
-        <v>64700</v>
+        <v>66700</v>
       </c>
       <c r="I24" s="3">
-        <v>44800</v>
+        <v>46100</v>
       </c>
       <c r="J24" s="3">
-        <v>61700</v>
+        <v>63500</v>
       </c>
       <c r="K24" s="3">
         <v>69600</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>229200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>224400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>213500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>300700</v>
+      </c>
+      <c r="I26" s="3">
         <v>222500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-71100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>217800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>207200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>291800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>215900</v>
-      </c>
       <c r="J26" s="3">
-        <v>271100</v>
+        <v>279300</v>
       </c>
       <c r="K26" s="3">
         <v>305500</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>229200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>224400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>213500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>300700</v>
+      </c>
+      <c r="I27" s="3">
         <v>222500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-71100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>217800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>207200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>291800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>215900</v>
-      </c>
       <c r="J27" s="3">
-        <v>271100</v>
+        <v>279300</v>
       </c>
       <c r="K27" s="3">
         <v>305500</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="E32" s="3">
-        <v>53300</v>
+        <v>54900</v>
       </c>
       <c r="F32" s="3">
-        <v>77700</v>
+        <v>80100</v>
       </c>
       <c r="G32" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="H32" s="3">
-        <v>-75400</v>
+        <v>-77700</v>
       </c>
       <c r="I32" s="3">
-        <v>-23100</v>
+        <v>-23800</v>
       </c>
       <c r="J32" s="3">
-        <v>-61500</v>
+        <v>-63400</v>
       </c>
       <c r="K32" s="3">
         <v>-116400</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>229200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>224400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>213500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>300700</v>
+      </c>
+      <c r="I33" s="3">
         <v>222500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-71100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>217800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>207200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>291800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>215900</v>
-      </c>
       <c r="J33" s="3">
-        <v>271100</v>
+        <v>279300</v>
       </c>
       <c r="K33" s="3">
         <v>305500</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>229200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>224400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>213500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>300700</v>
+      </c>
+      <c r="I35" s="3">
         <v>222500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-71100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>217800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>207200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>291800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>215900</v>
-      </c>
       <c r="J35" s="3">
-        <v>271100</v>
+        <v>279300</v>
       </c>
       <c r="K35" s="3">
         <v>305500</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1234500</v>
+        <v>1272200</v>
       </c>
       <c r="E41" s="3">
-        <v>725200</v>
+        <v>747300</v>
       </c>
       <c r="F41" s="3">
-        <v>853600</v>
+        <v>879600</v>
       </c>
       <c r="G41" s="3">
-        <v>465900</v>
+        <v>480100</v>
       </c>
       <c r="H41" s="3">
-        <v>356500</v>
+        <v>367400</v>
       </c>
       <c r="I41" s="3">
-        <v>700300</v>
+        <v>721700</v>
       </c>
       <c r="J41" s="3">
-        <v>120300</v>
+        <v>124000</v>
       </c>
       <c r="K41" s="3">
         <v>327300</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>386300</v>
+        <v>398100</v>
       </c>
       <c r="E43" s="3">
-        <v>389400</v>
+        <v>401300</v>
       </c>
       <c r="F43" s="3">
-        <v>398600</v>
+        <v>410800</v>
       </c>
       <c r="G43" s="3">
-        <v>365100</v>
+        <v>376300</v>
       </c>
       <c r="H43" s="3">
-        <v>399900</v>
+        <v>412100</v>
       </c>
       <c r="I43" s="3">
-        <v>391900</v>
+        <v>403900</v>
       </c>
       <c r="J43" s="3">
-        <v>401200</v>
+        <v>413500</v>
       </c>
       <c r="K43" s="3">
         <v>410800</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="E44" s="3">
-        <v>22800</v>
+        <v>23500</v>
       </c>
       <c r="F44" s="3">
-        <v>22200</v>
+        <v>22900</v>
       </c>
       <c r="G44" s="3">
-        <v>20500</v>
+        <v>21100</v>
       </c>
       <c r="H44" s="3">
-        <v>19600</v>
+        <v>20200</v>
       </c>
       <c r="I44" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="J44" s="3">
-        <v>26900</v>
+        <v>27700</v>
       </c>
       <c r="K44" s="3">
         <v>29600</v>
@@ -2158,19 +2158,19 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>130000</v>
+        <v>134000</v>
       </c>
       <c r="G45" s="3">
-        <v>139100</v>
+        <v>143400</v>
       </c>
       <c r="H45" s="3">
-        <v>224700</v>
+        <v>231500</v>
       </c>
       <c r="I45" s="3">
-        <v>463700</v>
+        <v>477900</v>
       </c>
       <c r="J45" s="3">
-        <v>455100</v>
+        <v>469000</v>
       </c>
       <c r="K45" s="3">
         <v>101300</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1647000</v>
+        <v>1697300</v>
       </c>
       <c r="E46" s="3">
-        <v>1137600</v>
+        <v>1172300</v>
       </c>
       <c r="F46" s="3">
-        <v>1404500</v>
+        <v>1447400</v>
       </c>
       <c r="G46" s="3">
-        <v>990600</v>
+        <v>1020900</v>
       </c>
       <c r="H46" s="3">
-        <v>1000600</v>
+        <v>1031200</v>
       </c>
       <c r="I46" s="3">
-        <v>1579000</v>
+        <v>1627200</v>
       </c>
       <c r="J46" s="3">
-        <v>1003500</v>
+        <v>1034200</v>
       </c>
       <c r="K46" s="3">
         <v>868900</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>234800</v>
+        <v>242000</v>
       </c>
       <c r="E47" s="3">
-        <v>197600</v>
+        <v>203600</v>
       </c>
       <c r="F47" s="3">
-        <v>285900</v>
+        <v>294600</v>
       </c>
       <c r="G47" s="3">
-        <v>327600</v>
+        <v>337600</v>
       </c>
       <c r="H47" s="3">
-        <v>318400</v>
+        <v>328200</v>
       </c>
       <c r="I47" s="3">
-        <v>306800</v>
+        <v>316100</v>
       </c>
       <c r="J47" s="3">
-        <v>298900</v>
+        <v>308100</v>
       </c>
       <c r="K47" s="3">
         <v>259500</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15996200</v>
+        <v>16484500</v>
       </c>
       <c r="E48" s="3">
-        <v>15806700</v>
+        <v>16289200</v>
       </c>
       <c r="F48" s="3">
-        <v>15598200</v>
+        <v>16074400</v>
       </c>
       <c r="G48" s="3">
-        <v>15315700</v>
+        <v>15783300</v>
       </c>
       <c r="H48" s="3">
-        <v>15028600</v>
+        <v>15487400</v>
       </c>
       <c r="I48" s="3">
-        <v>14817400</v>
+        <v>15269700</v>
       </c>
       <c r="J48" s="3">
-        <v>14540700</v>
+        <v>14984600</v>
       </c>
       <c r="K48" s="3">
         <v>13743500</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>241400</v>
+        <v>248800</v>
       </c>
       <c r="E49" s="3">
-        <v>259500</v>
+        <v>267500</v>
       </c>
       <c r="F49" s="3">
-        <v>269300</v>
+        <v>277500</v>
       </c>
       <c r="G49" s="3">
-        <v>278300</v>
+        <v>286800</v>
       </c>
       <c r="H49" s="3">
-        <v>291100</v>
+        <v>300000</v>
       </c>
       <c r="I49" s="3">
-        <v>271500</v>
+        <v>279800</v>
       </c>
       <c r="J49" s="3">
-        <v>264100</v>
+        <v>272100</v>
       </c>
       <c r="K49" s="3">
         <v>247900</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1807300</v>
+        <v>1862400</v>
       </c>
       <c r="E52" s="3">
-        <v>1883900</v>
+        <v>1941400</v>
       </c>
       <c r="F52" s="3">
-        <v>1800900</v>
+        <v>1855900</v>
       </c>
       <c r="G52" s="3">
-        <v>1197000</v>
+        <v>1233600</v>
       </c>
       <c r="H52" s="3">
-        <v>1057400</v>
+        <v>1089600</v>
       </c>
       <c r="I52" s="3">
-        <v>881600</v>
+        <v>908500</v>
       </c>
       <c r="J52" s="3">
-        <v>876200</v>
+        <v>903000</v>
       </c>
       <c r="K52" s="3">
         <v>1292400</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19926600</v>
+        <v>20534900</v>
       </c>
       <c r="E54" s="3">
-        <v>19285200</v>
+        <v>19873900</v>
       </c>
       <c r="F54" s="3">
-        <v>19358800</v>
+        <v>19949800</v>
       </c>
       <c r="G54" s="3">
-        <v>18109400</v>
+        <v>18662200</v>
       </c>
       <c r="H54" s="3">
-        <v>17696200</v>
+        <v>18236400</v>
       </c>
       <c r="I54" s="3">
-        <v>17856300</v>
+        <v>18401400</v>
       </c>
       <c r="J54" s="3">
-        <v>16983500</v>
+        <v>17501900</v>
       </c>
       <c r="K54" s="3">
         <v>16412300</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>444100</v>
+        <v>457600</v>
       </c>
       <c r="E57" s="3">
-        <v>459200</v>
+        <v>473200</v>
       </c>
       <c r="F57" s="3">
-        <v>444600</v>
+        <v>458200</v>
       </c>
       <c r="G57" s="3">
-        <v>441100</v>
+        <v>454500</v>
       </c>
       <c r="H57" s="3">
-        <v>464800</v>
+        <v>479000</v>
       </c>
       <c r="I57" s="3">
-        <v>378600</v>
+        <v>390100</v>
       </c>
       <c r="J57" s="3">
-        <v>469600</v>
+        <v>484000</v>
       </c>
       <c r="K57" s="3">
         <v>426600</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1171900</v>
+        <v>1207700</v>
       </c>
       <c r="E58" s="3">
-        <v>1160300</v>
+        <v>1195800</v>
       </c>
       <c r="F58" s="3">
-        <v>1003100</v>
+        <v>1033700</v>
       </c>
       <c r="G58" s="3">
-        <v>961500</v>
+        <v>990900</v>
       </c>
       <c r="H58" s="3">
-        <v>773200</v>
+        <v>796800</v>
       </c>
       <c r="I58" s="3">
-        <v>1152800</v>
+        <v>1188000</v>
       </c>
       <c r="J58" s="3">
-        <v>892000</v>
+        <v>919300</v>
       </c>
       <c r="K58" s="3">
         <v>430700</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23300</v>
+        <v>24100</v>
       </c>
       <c r="E59" s="3">
-        <v>34700</v>
+        <v>35800</v>
       </c>
       <c r="F59" s="3">
-        <v>45600</v>
+        <v>47000</v>
       </c>
       <c r="G59" s="3">
-        <v>42000</v>
+        <v>43300</v>
       </c>
       <c r="H59" s="3">
-        <v>31900</v>
+        <v>32800</v>
       </c>
       <c r="I59" s="3">
-        <v>36100</v>
+        <v>37200</v>
       </c>
       <c r="J59" s="3">
-        <v>41100</v>
+        <v>42300</v>
       </c>
       <c r="K59" s="3">
         <v>53800</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1639300</v>
+        <v>1689400</v>
       </c>
       <c r="E60" s="3">
-        <v>1654300</v>
+        <v>1704800</v>
       </c>
       <c r="F60" s="3">
-        <v>1493300</v>
+        <v>1538900</v>
       </c>
       <c r="G60" s="3">
-        <v>1444600</v>
+        <v>1488700</v>
       </c>
       <c r="H60" s="3">
-        <v>1269900</v>
+        <v>1308700</v>
       </c>
       <c r="I60" s="3">
-        <v>1567500</v>
+        <v>1615300</v>
       </c>
       <c r="J60" s="3">
-        <v>1402700</v>
+        <v>1445500</v>
       </c>
       <c r="K60" s="3">
         <v>911100</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11113000</v>
+        <v>11452200</v>
       </c>
       <c r="E61" s="3">
-        <v>10323800</v>
+        <v>10638900</v>
       </c>
       <c r="F61" s="3">
-        <v>10686200</v>
+        <v>11012400</v>
       </c>
       <c r="G61" s="3">
-        <v>9771100</v>
+        <v>10069400</v>
       </c>
       <c r="H61" s="3">
-        <v>9809700</v>
+        <v>10109100</v>
       </c>
       <c r="I61" s="3">
-        <v>9712300</v>
+        <v>10008800</v>
       </c>
       <c r="J61" s="3">
-        <v>9307800</v>
+        <v>9591900</v>
       </c>
       <c r="K61" s="3">
         <v>9322700</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3286500</v>
+        <v>3386800</v>
       </c>
       <c r="E62" s="3">
-        <v>3239600</v>
+        <v>3338500</v>
       </c>
       <c r="F62" s="3">
-        <v>2989800</v>
+        <v>3081100</v>
       </c>
       <c r="G62" s="3">
-        <v>2622000</v>
+        <v>2702000</v>
       </c>
       <c r="H62" s="3">
-        <v>2542600</v>
+        <v>2620200</v>
       </c>
       <c r="I62" s="3">
-        <v>2524300</v>
+        <v>2601400</v>
       </c>
       <c r="J62" s="3">
-        <v>2430300</v>
+        <v>2504500</v>
       </c>
       <c r="K62" s="3">
         <v>2451800</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16038700</v>
+        <v>16528300</v>
       </c>
       <c r="E66" s="3">
-        <v>15217700</v>
+        <v>15682200</v>
       </c>
       <c r="F66" s="3">
-        <v>15169400</v>
+        <v>15632400</v>
       </c>
       <c r="G66" s="3">
-        <v>13837600</v>
+        <v>14260100</v>
       </c>
       <c r="H66" s="3">
-        <v>13622200</v>
+        <v>14038000</v>
       </c>
       <c r="I66" s="3">
-        <v>13804100</v>
+        <v>14225500</v>
       </c>
       <c r="J66" s="3">
-        <v>13140700</v>
+        <v>13541900</v>
       </c>
       <c r="K66" s="3">
         <v>12685500</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3197600</v>
+        <v>3295200</v>
       </c>
       <c r="E72" s="3">
-        <v>3367600</v>
+        <v>3470400</v>
       </c>
       <c r="F72" s="3">
-        <v>3499200</v>
+        <v>3606000</v>
       </c>
       <c r="G72" s="3">
-        <v>3569600</v>
+        <v>3678600</v>
       </c>
       <c r="H72" s="3">
-        <v>3836400</v>
+        <v>3953500</v>
       </c>
       <c r="I72" s="3">
-        <v>3364300</v>
+        <v>3467000</v>
       </c>
       <c r="J72" s="3">
-        <v>3154200</v>
+        <v>3250500</v>
       </c>
       <c r="K72" s="3">
         <v>3065400</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3887900</v>
+        <v>4006600</v>
       </c>
       <c r="E76" s="3">
-        <v>4067500</v>
+        <v>4191700</v>
       </c>
       <c r="F76" s="3">
-        <v>4189500</v>
+        <v>4317400</v>
       </c>
       <c r="G76" s="3">
-        <v>4271700</v>
+        <v>4402100</v>
       </c>
       <c r="H76" s="3">
-        <v>4074000</v>
+        <v>4198300</v>
       </c>
       <c r="I76" s="3">
-        <v>4052100</v>
+        <v>4175800</v>
       </c>
       <c r="J76" s="3">
-        <v>3842700</v>
+        <v>3960000</v>
       </c>
       <c r="K76" s="3">
         <v>3726700</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>229200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>224400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>213500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>300700</v>
+      </c>
+      <c r="I81" s="3">
         <v>222500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-71100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>217800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>207200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>291800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>215900</v>
-      </c>
       <c r="J81" s="3">
-        <v>271100</v>
+        <v>279300</v>
       </c>
       <c r="K81" s="3">
         <v>305500</v>
@@ -3637,25 +3637,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>278500</v>
+        <v>287000</v>
       </c>
       <c r="E83" s="3">
-        <v>389300</v>
+        <v>401200</v>
       </c>
       <c r="F83" s="3">
-        <v>273700</v>
+        <v>282000</v>
       </c>
       <c r="G83" s="3">
-        <v>277700</v>
+        <v>286100</v>
       </c>
       <c r="H83" s="3">
-        <v>262300</v>
+        <v>270300</v>
       </c>
       <c r="I83" s="3">
-        <v>263000</v>
+        <v>271000</v>
       </c>
       <c r="J83" s="3">
-        <v>254500</v>
+        <v>262200</v>
       </c>
       <c r="K83" s="3">
         <v>246900</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>547500</v>
+        <v>564200</v>
       </c>
       <c r="E89" s="3">
-        <v>612700</v>
+        <v>631400</v>
       </c>
       <c r="F89" s="3">
-        <v>500000</v>
+        <v>515200</v>
       </c>
       <c r="G89" s="3">
-        <v>541200</v>
+        <v>557700</v>
       </c>
       <c r="H89" s="3">
-        <v>601700</v>
+        <v>620100</v>
       </c>
       <c r="I89" s="3">
-        <v>554800</v>
+        <v>571700</v>
       </c>
       <c r="J89" s="3">
-        <v>565200</v>
+        <v>582500</v>
       </c>
       <c r="K89" s="3">
         <v>529800</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-433100</v>
+        <v>-446300</v>
       </c>
       <c r="E91" s="3">
-        <v>-446000</v>
+        <v>-459600</v>
       </c>
       <c r="F91" s="3">
-        <v>-450400</v>
+        <v>-464200</v>
       </c>
       <c r="G91" s="3">
-        <v>-439000</v>
+        <v>-452400</v>
       </c>
       <c r="H91" s="3">
-        <v>-415500</v>
+        <v>-428200</v>
       </c>
       <c r="I91" s="3">
-        <v>-515100</v>
+        <v>-530800</v>
       </c>
       <c r="J91" s="3">
-        <v>-444200</v>
+        <v>-457800</v>
       </c>
       <c r="K91" s="3">
         <v>-472100</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-460800</v>
+        <v>-474900</v>
       </c>
       <c r="E94" s="3">
-        <v>-395300</v>
+        <v>-407400</v>
       </c>
       <c r="F94" s="3">
-        <v>-420200</v>
+        <v>-433000</v>
       </c>
       <c r="G94" s="3">
-        <v>-449200</v>
+        <v>-462900</v>
       </c>
       <c r="H94" s="3">
-        <v>-412800</v>
+        <v>-425400</v>
       </c>
       <c r="I94" s="3">
-        <v>-539100</v>
+        <v>-555600</v>
       </c>
       <c r="J94" s="3">
-        <v>-454000</v>
+        <v>-467800</v>
       </c>
       <c r="K94" s="3">
         <v>-566400</v>
@@ -4157,25 +4157,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-266000</v>
+        <v>-274100</v>
       </c>
       <c r="E96" s="3">
-        <v>-132900</v>
+        <v>-137000</v>
       </c>
       <c r="F96" s="3">
-        <v>-257700</v>
+        <v>-265600</v>
       </c>
       <c r="G96" s="3">
-        <v>-128800</v>
+        <v>-132700</v>
       </c>
       <c r="H96" s="3">
-        <v>-248000</v>
+        <v>-255600</v>
       </c>
       <c r="I96" s="3">
-        <v>-124000</v>
+        <v>-127800</v>
       </c>
       <c r="J96" s="3">
-        <v>-242600</v>
+        <v>-250000</v>
       </c>
       <c r="K96" s="3">
         <v>-116600</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>415400</v>
+        <v>428100</v>
       </c>
       <c r="E100" s="3">
-        <v>-342200</v>
+        <v>-352600</v>
       </c>
       <c r="F100" s="3">
-        <v>304000</v>
+        <v>313300</v>
       </c>
       <c r="G100" s="3">
-        <v>30200</v>
+        <v>31100</v>
       </c>
       <c r="H100" s="3">
-        <v>-548500</v>
+        <v>-565200</v>
       </c>
       <c r="I100" s="3">
-        <v>567300</v>
+        <v>584600</v>
       </c>
       <c r="J100" s="3">
-        <v>-313600</v>
+        <v>-323200</v>
       </c>
       <c r="K100" s="3">
         <v>47200</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>502000</v>
+        <v>517400</v>
       </c>
       <c r="E102" s="3">
-        <v>-124800</v>
+        <v>-128600</v>
       </c>
       <c r="F102" s="3">
-        <v>383800</v>
+        <v>395500</v>
       </c>
       <c r="G102" s="3">
-        <v>122200</v>
+        <v>125900</v>
       </c>
       <c r="H102" s="3">
-        <v>-359500</v>
+        <v>-370500</v>
       </c>
       <c r="I102" s="3">
-        <v>582900</v>
+        <v>600700</v>
       </c>
       <c r="J102" s="3">
-        <v>-202400</v>
+        <v>-208600</v>
       </c>
       <c r="K102" s="3">
         <v>10600</v>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42460</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42277</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42094</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1265700</v>
+        <v>1246000</v>
       </c>
       <c r="E8" s="3">
-        <v>1307300</v>
+        <v>1219800</v>
       </c>
       <c r="F8" s="3">
-        <v>1323800</v>
+        <v>1259900</v>
       </c>
       <c r="G8" s="3">
-        <v>1276600</v>
+        <v>1275800</v>
       </c>
       <c r="H8" s="3">
-        <v>1296800</v>
+        <v>1230300</v>
       </c>
       <c r="I8" s="3">
-        <v>1216700</v>
+        <v>1249800</v>
       </c>
       <c r="J8" s="3">
+        <v>1172600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1239600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1124000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1050600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1138700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1117800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1133500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1131600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>175300</v>
+        <v>188500</v>
       </c>
       <c r="E9" s="3">
-        <v>183800</v>
+        <v>169000</v>
       </c>
       <c r="F9" s="3">
-        <v>170800</v>
+        <v>177200</v>
       </c>
       <c r="G9" s="3">
-        <v>184400</v>
+        <v>164600</v>
       </c>
       <c r="H9" s="3">
-        <v>187500</v>
+        <v>177700</v>
       </c>
       <c r="I9" s="3">
-        <v>173500</v>
+        <v>180700</v>
       </c>
       <c r="J9" s="3">
+        <v>167200</v>
+      </c>
+      <c r="K9" s="3">
         <v>159600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>153600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>153500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>170600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>162100</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1090300</v>
+        <v>1057500</v>
       </c>
       <c r="E10" s="3">
-        <v>1123500</v>
+        <v>1050800</v>
       </c>
       <c r="F10" s="3">
-        <v>1153000</v>
+        <v>1082700</v>
       </c>
       <c r="G10" s="3">
-        <v>1092200</v>
+        <v>1111200</v>
       </c>
       <c r="H10" s="3">
-        <v>1109300</v>
+        <v>1052600</v>
       </c>
       <c r="I10" s="3">
-        <v>1043200</v>
+        <v>1069100</v>
       </c>
       <c r="J10" s="3">
+        <v>1005400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1080000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>970400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>897100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>968100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>955700</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -898,11 +912,11 @@
       <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>5</v>
@@ -916,11 +930,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
         <v>3000</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>5</v>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,96 +989,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8200</v>
+        <v>-33300</v>
       </c>
       <c r="E14" s="3">
-        <v>21700</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="3">
-        <v>15300</v>
+        <v>20900</v>
       </c>
       <c r="G14" s="3">
-        <v>72200</v>
+        <v>14700</v>
       </c>
       <c r="H14" s="3">
-        <v>-3400</v>
+        <v>69600</v>
       </c>
       <c r="I14" s="3">
-        <v>16100</v>
+        <v>-3300</v>
       </c>
       <c r="J14" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K14" s="3">
         <v>17300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-13400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>33900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>287000</v>
+        <v>299400</v>
       </c>
       <c r="E15" s="3">
-        <v>401200</v>
+        <v>276600</v>
       </c>
       <c r="F15" s="3">
-        <v>282000</v>
+        <v>386600</v>
       </c>
       <c r="G15" s="3">
-        <v>286100</v>
+        <v>271800</v>
       </c>
       <c r="H15" s="3">
-        <v>270300</v>
+        <v>275800</v>
       </c>
       <c r="I15" s="3">
-        <v>271000</v>
+        <v>260500</v>
       </c>
       <c r="J15" s="3">
+        <v>261200</v>
+      </c>
+      <c r="K15" s="3">
         <v>262200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>246900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>219200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>232900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>241400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>236900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>815000</v>
+        <v>809100</v>
       </c>
       <c r="E17" s="3">
-        <v>957300</v>
+        <v>785400</v>
       </c>
       <c r="F17" s="3">
-        <v>781800</v>
+        <v>922600</v>
       </c>
       <c r="G17" s="3">
-        <v>858000</v>
+        <v>753500</v>
       </c>
       <c r="H17" s="3">
-        <v>816900</v>
+        <v>826900</v>
       </c>
       <c r="I17" s="3">
-        <v>799800</v>
+        <v>787300</v>
       </c>
       <c r="J17" s="3">
+        <v>770800</v>
+      </c>
+      <c r="K17" s="3">
         <v>756000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>723700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>650900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>760900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>754800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>721600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>683300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>450700</v>
+        <v>436800</v>
       </c>
       <c r="E18" s="3">
-        <v>350000</v>
+        <v>434400</v>
       </c>
       <c r="F18" s="3">
-        <v>542000</v>
+        <v>337300</v>
       </c>
       <c r="G18" s="3">
-        <v>418600</v>
+        <v>522300</v>
       </c>
       <c r="H18" s="3">
-        <v>479900</v>
+        <v>403400</v>
       </c>
       <c r="I18" s="3">
-        <v>416900</v>
+        <v>462500</v>
       </c>
       <c r="J18" s="3">
+        <v>401800</v>
+      </c>
+      <c r="K18" s="3">
         <v>483700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>399700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>377700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>363000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>411900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>448400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,228 +1214,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-17700</v>
+        <v>145100</v>
       </c>
       <c r="E20" s="3">
-        <v>-54900</v>
+        <v>-17000</v>
       </c>
       <c r="F20" s="3">
-        <v>-80100</v>
+        <v>-52900</v>
       </c>
       <c r="G20" s="3">
-        <v>-30600</v>
+        <v>-77200</v>
       </c>
       <c r="H20" s="3">
-        <v>77700</v>
+        <v>-29500</v>
       </c>
       <c r="I20" s="3">
-        <v>23800</v>
+        <v>74900</v>
       </c>
       <c r="J20" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K20" s="3">
         <v>63400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>116400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-57000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-75500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>54300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-112200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>720000</v>
+        <v>881300</v>
       </c>
       <c r="E21" s="3">
-        <v>696200</v>
+        <v>693900</v>
       </c>
       <c r="F21" s="3">
-        <v>743900</v>
+        <v>671000</v>
       </c>
       <c r="G21" s="3">
-        <v>674200</v>
+        <v>716900</v>
       </c>
       <c r="H21" s="3">
-        <v>827800</v>
+        <v>649700</v>
       </c>
       <c r="I21" s="3">
-        <v>711700</v>
+        <v>797800</v>
       </c>
       <c r="J21" s="3">
+        <v>685800</v>
+      </c>
+      <c r="K21" s="3">
         <v>809300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>763500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>561900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>535200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>658700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>536600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>148400</v>
+        <v>104700</v>
       </c>
       <c r="E22" s="3">
-        <v>142100</v>
+        <v>143100</v>
       </c>
       <c r="F22" s="3">
-        <v>185800</v>
+        <v>136900</v>
       </c>
       <c r="G22" s="3">
-        <v>138100</v>
+        <v>179100</v>
       </c>
       <c r="H22" s="3">
-        <v>190200</v>
+        <v>133100</v>
       </c>
       <c r="I22" s="3">
-        <v>172100</v>
+        <v>183300</v>
       </c>
       <c r="J22" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K22" s="3">
         <v>204200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>141600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>147500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>122300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>136000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>119400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>284600</v>
+        <v>477200</v>
       </c>
       <c r="E23" s="3">
-        <v>153000</v>
+        <v>274300</v>
       </c>
       <c r="F23" s="3">
-        <v>276100</v>
+        <v>147400</v>
       </c>
       <c r="G23" s="3">
-        <v>249900</v>
+        <v>266100</v>
       </c>
       <c r="H23" s="3">
-        <v>367400</v>
+        <v>240800</v>
       </c>
       <c r="I23" s="3">
-        <v>268600</v>
+        <v>354000</v>
       </c>
       <c r="J23" s="3">
+        <v>258800</v>
+      </c>
+      <c r="K23" s="3">
         <v>342900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>375100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>195100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>179900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>281200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>180300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>269500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>55300</v>
+        <v>79800</v>
       </c>
       <c r="E24" s="3">
-        <v>226300</v>
+        <v>53300</v>
       </c>
       <c r="F24" s="3">
-        <v>51700</v>
+        <v>218100</v>
       </c>
       <c r="G24" s="3">
-        <v>36400</v>
+        <v>49800</v>
       </c>
       <c r="H24" s="3">
-        <v>66700</v>
+        <v>35000</v>
       </c>
       <c r="I24" s="3">
-        <v>46100</v>
+        <v>64200</v>
       </c>
       <c r="J24" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K24" s="3">
         <v>63500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>69600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-54400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-114400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>57000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>229200</v>
+        <v>397400</v>
       </c>
       <c r="E26" s="3">
-        <v>-73300</v>
+        <v>220900</v>
       </c>
       <c r="F26" s="3">
-        <v>224400</v>
+        <v>-70600</v>
       </c>
       <c r="G26" s="3">
-        <v>213500</v>
+        <v>216300</v>
       </c>
       <c r="H26" s="3">
-        <v>300700</v>
+        <v>205800</v>
       </c>
       <c r="I26" s="3">
-        <v>222500</v>
+        <v>289800</v>
       </c>
       <c r="J26" s="3">
+        <v>214400</v>
+      </c>
+      <c r="K26" s="3">
         <v>279300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>305500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>249500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>294300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>224200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>142700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>229200</v>
+        <v>397400</v>
       </c>
       <c r="E27" s="3">
-        <v>-73300</v>
+        <v>220900</v>
       </c>
       <c r="F27" s="3">
-        <v>224400</v>
+        <v>-70600</v>
       </c>
       <c r="G27" s="3">
-        <v>213500</v>
+        <v>216300</v>
       </c>
       <c r="H27" s="3">
-        <v>300700</v>
+        <v>205800</v>
       </c>
       <c r="I27" s="3">
-        <v>222500</v>
+        <v>289800</v>
       </c>
       <c r="J27" s="3">
+        <v>214400</v>
+      </c>
+      <c r="K27" s="3">
         <v>279300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>305500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>249500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>294300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>224200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>142700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1603,8 +1664,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1615,14 +1676,17 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>17700</v>
+        <v>-145100</v>
       </c>
       <c r="E32" s="3">
-        <v>54900</v>
+        <v>17000</v>
       </c>
       <c r="F32" s="3">
-        <v>80100</v>
+        <v>52900</v>
       </c>
       <c r="G32" s="3">
-        <v>30600</v>
+        <v>77200</v>
       </c>
       <c r="H32" s="3">
-        <v>-77700</v>
+        <v>29500</v>
       </c>
       <c r="I32" s="3">
-        <v>-23800</v>
+        <v>-74900</v>
       </c>
       <c r="J32" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-63400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-116400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>57000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>75500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-54300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>112200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>229200</v>
+        <v>397400</v>
       </c>
       <c r="E33" s="3">
-        <v>-73300</v>
+        <v>220900</v>
       </c>
       <c r="F33" s="3">
-        <v>224400</v>
+        <v>-70600</v>
       </c>
       <c r="G33" s="3">
-        <v>213500</v>
+        <v>216300</v>
       </c>
       <c r="H33" s="3">
-        <v>300700</v>
+        <v>205800</v>
       </c>
       <c r="I33" s="3">
-        <v>222500</v>
+        <v>289800</v>
       </c>
       <c r="J33" s="3">
+        <v>214400</v>
+      </c>
+      <c r="K33" s="3">
         <v>279300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>305500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>249500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>294300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>224200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>142700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>229200</v>
+        <v>397400</v>
       </c>
       <c r="E35" s="3">
-        <v>-73300</v>
+        <v>220900</v>
       </c>
       <c r="F35" s="3">
-        <v>224400</v>
+        <v>-70600</v>
       </c>
       <c r="G35" s="3">
-        <v>213500</v>
+        <v>216300</v>
       </c>
       <c r="H35" s="3">
-        <v>300700</v>
+        <v>205800</v>
       </c>
       <c r="I35" s="3">
-        <v>222500</v>
+        <v>289800</v>
       </c>
       <c r="J35" s="3">
+        <v>214400</v>
+      </c>
+      <c r="K35" s="3">
         <v>279300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>305500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>249500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>294300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>224200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>142700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42460</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42277</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42094</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2056,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1272200</v>
+        <v>1014800</v>
       </c>
       <c r="E41" s="3">
-        <v>747300</v>
+        <v>1226000</v>
       </c>
       <c r="F41" s="3">
-        <v>879600</v>
+        <v>720200</v>
       </c>
       <c r="G41" s="3">
-        <v>480100</v>
+        <v>847700</v>
       </c>
       <c r="H41" s="3">
-        <v>367400</v>
+        <v>462700</v>
       </c>
       <c r="I41" s="3">
-        <v>721700</v>
+        <v>354000</v>
       </c>
       <c r="J41" s="3">
+        <v>695500</v>
+      </c>
+      <c r="K41" s="3">
         <v>124000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>327300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>292400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>278600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>464900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>321300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,316 +2148,340 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>398100</v>
+        <v>322000</v>
       </c>
       <c r="E43" s="3">
-        <v>401300</v>
+        <v>383600</v>
       </c>
       <c r="F43" s="3">
+        <v>386800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>395900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>362600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>397100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>389200</v>
+      </c>
+      <c r="K43" s="3">
+        <v>413500</v>
+      </c>
+      <c r="L43" s="3">
         <v>410800</v>
       </c>
-      <c r="G43" s="3">
-        <v>376300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>412100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>403900</v>
-      </c>
-      <c r="J43" s="3">
-        <v>413500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>410800</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>424900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>479200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>495500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>465200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>464300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26900</v>
+        <v>25000</v>
       </c>
       <c r="E44" s="3">
-        <v>23500</v>
+        <v>25900</v>
       </c>
       <c r="F44" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>22100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>20300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J44" s="3">
         <v>22900</v>
       </c>
-      <c r="G44" s="3">
-        <v>21100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>20200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>23800</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>27700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>36000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>38200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>50100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>53300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>19600</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>134000</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>143400</v>
+        <v>129200</v>
       </c>
       <c r="H45" s="3">
-        <v>231500</v>
+        <v>138200</v>
       </c>
       <c r="I45" s="3">
-        <v>477900</v>
+        <v>223100</v>
       </c>
       <c r="J45" s="3">
+        <v>460600</v>
+      </c>
+      <c r="K45" s="3">
         <v>469000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>101300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20500</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>69900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1697300</v>
+        <v>1381400</v>
       </c>
       <c r="E46" s="3">
-        <v>1172300</v>
+        <v>1635700</v>
       </c>
       <c r="F46" s="3">
-        <v>1447400</v>
+        <v>1129800</v>
       </c>
       <c r="G46" s="3">
-        <v>1020900</v>
+        <v>1394900</v>
       </c>
       <c r="H46" s="3">
-        <v>1031200</v>
+        <v>983800</v>
       </c>
       <c r="I46" s="3">
-        <v>1627200</v>
+        <v>993800</v>
       </c>
       <c r="J46" s="3">
+        <v>1568200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1034200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>868900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>753600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>816500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1010400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>841200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>242000</v>
+        <v>118400</v>
       </c>
       <c r="E47" s="3">
-        <v>203600</v>
+        <v>233200</v>
       </c>
       <c r="F47" s="3">
-        <v>294600</v>
+        <v>196200</v>
       </c>
       <c r="G47" s="3">
-        <v>337600</v>
+        <v>283900</v>
       </c>
       <c r="H47" s="3">
-        <v>328200</v>
+        <v>325400</v>
       </c>
       <c r="I47" s="3">
-        <v>316100</v>
+        <v>316300</v>
       </c>
       <c r="J47" s="3">
+        <v>304700</v>
+      </c>
+      <c r="K47" s="3">
         <v>308100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>259500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>161300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>60400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>56400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16484500</v>
+        <v>16091400</v>
       </c>
       <c r="E48" s="3">
-        <v>16289200</v>
+        <v>15886700</v>
       </c>
       <c r="F48" s="3">
-        <v>16074400</v>
+        <v>15698500</v>
       </c>
       <c r="G48" s="3">
-        <v>15783300</v>
+        <v>15491400</v>
       </c>
       <c r="H48" s="3">
-        <v>15487400</v>
+        <v>15210900</v>
       </c>
       <c r="I48" s="3">
-        <v>15269700</v>
+        <v>14925700</v>
       </c>
       <c r="J48" s="3">
+        <v>14716000</v>
+      </c>
+      <c r="K48" s="3">
         <v>14984600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13743500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12557600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13084100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12841800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12794300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12521800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>248800</v>
+        <v>247000</v>
       </c>
       <c r="E49" s="3">
-        <v>267500</v>
+        <v>239800</v>
       </c>
       <c r="F49" s="3">
-        <v>277500</v>
+        <v>257800</v>
       </c>
       <c r="G49" s="3">
-        <v>286800</v>
+        <v>267400</v>
       </c>
       <c r="H49" s="3">
-        <v>300000</v>
+        <v>276400</v>
       </c>
       <c r="I49" s="3">
-        <v>279800</v>
+        <v>289100</v>
       </c>
       <c r="J49" s="3">
+        <v>269600</v>
+      </c>
+      <c r="K49" s="3">
         <v>272100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>247900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>221400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>211800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>205400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>190800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>157200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1862400</v>
+        <v>1499200</v>
       </c>
       <c r="E52" s="3">
-        <v>1941400</v>
+        <v>1794900</v>
       </c>
       <c r="F52" s="3">
-        <v>1855900</v>
+        <v>1871000</v>
       </c>
       <c r="G52" s="3">
-        <v>1233600</v>
+        <v>1788600</v>
       </c>
       <c r="H52" s="3">
-        <v>1089600</v>
+        <v>1188800</v>
       </c>
       <c r="I52" s="3">
-        <v>908500</v>
+        <v>1050100</v>
       </c>
       <c r="J52" s="3">
+        <v>875600</v>
+      </c>
+      <c r="K52" s="3">
         <v>903000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1292400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1419300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1357400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1029800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1001800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20534900</v>
+        <v>19337300</v>
       </c>
       <c r="E54" s="3">
-        <v>19873900</v>
+        <v>19790200</v>
       </c>
       <c r="F54" s="3">
-        <v>19949800</v>
+        <v>19153200</v>
       </c>
       <c r="G54" s="3">
-        <v>18662200</v>
+        <v>19226300</v>
       </c>
       <c r="H54" s="3">
-        <v>18236400</v>
+        <v>17985400</v>
       </c>
       <c r="I54" s="3">
-        <v>18401400</v>
+        <v>17575000</v>
       </c>
       <c r="J54" s="3">
+        <v>17734000</v>
+      </c>
+      <c r="K54" s="3">
         <v>17501900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16412300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15113300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15530200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15140700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14884500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14138600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>457600</v>
+        <v>440100</v>
       </c>
       <c r="E57" s="3">
-        <v>473200</v>
+        <v>441000</v>
       </c>
       <c r="F57" s="3">
-        <v>458200</v>
+        <v>456100</v>
       </c>
       <c r="G57" s="3">
-        <v>454500</v>
+        <v>441600</v>
       </c>
       <c r="H57" s="3">
-        <v>479000</v>
+        <v>438000</v>
       </c>
       <c r="I57" s="3">
-        <v>390100</v>
+        <v>461600</v>
       </c>
       <c r="J57" s="3">
+        <v>376000</v>
+      </c>
+      <c r="K57" s="3">
         <v>484000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>426600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>449800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>445700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>558200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>502000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>572500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1207700</v>
+        <v>893000</v>
       </c>
       <c r="E58" s="3">
-        <v>1195800</v>
+        <v>1163900</v>
       </c>
       <c r="F58" s="3">
-        <v>1033700</v>
+        <v>1152400</v>
       </c>
       <c r="G58" s="3">
-        <v>990900</v>
+        <v>996200</v>
       </c>
       <c r="H58" s="3">
-        <v>796800</v>
+        <v>954900</v>
       </c>
       <c r="I58" s="3">
-        <v>1188000</v>
+        <v>768000</v>
       </c>
       <c r="J58" s="3">
+        <v>1144900</v>
+      </c>
+      <c r="K58" s="3">
         <v>919300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>430700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>372400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>612000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1102500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>761200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24100</v>
+        <v>24500</v>
       </c>
       <c r="E59" s="3">
-        <v>35800</v>
+        <v>23200</v>
       </c>
       <c r="F59" s="3">
-        <v>47000</v>
+        <v>34500</v>
       </c>
       <c r="G59" s="3">
-        <v>43300</v>
+        <v>45300</v>
       </c>
       <c r="H59" s="3">
-        <v>32800</v>
+        <v>41700</v>
       </c>
       <c r="I59" s="3">
-        <v>37200</v>
+        <v>31600</v>
       </c>
       <c r="J59" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K59" s="3">
         <v>42300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>55600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1689400</v>
+        <v>1357700</v>
       </c>
       <c r="E60" s="3">
-        <v>1704800</v>
+        <v>1628100</v>
       </c>
       <c r="F60" s="3">
-        <v>1538900</v>
+        <v>1643000</v>
       </c>
       <c r="G60" s="3">
-        <v>1488700</v>
+        <v>1483100</v>
       </c>
       <c r="H60" s="3">
-        <v>1308700</v>
+        <v>1434700</v>
       </c>
       <c r="I60" s="3">
-        <v>1615300</v>
+        <v>1261200</v>
       </c>
       <c r="J60" s="3">
+        <v>1556800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1445500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>911100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>853400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1101100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1711400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1318800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>786100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11452200</v>
+        <v>10633500</v>
       </c>
       <c r="E61" s="3">
-        <v>10638900</v>
+        <v>11036900</v>
       </c>
       <c r="F61" s="3">
-        <v>11012400</v>
+        <v>10253100</v>
       </c>
       <c r="G61" s="3">
-        <v>10069400</v>
+        <v>10613000</v>
       </c>
       <c r="H61" s="3">
-        <v>10109100</v>
+        <v>9704200</v>
       </c>
       <c r="I61" s="3">
-        <v>10008800</v>
+        <v>9742500</v>
       </c>
       <c r="J61" s="3">
+        <v>9645800</v>
+      </c>
+      <c r="K61" s="3">
         <v>9591900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9322700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8639100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8489500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7822900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7989400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8108900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3386800</v>
+        <v>3212500</v>
       </c>
       <c r="E62" s="3">
-        <v>3338500</v>
+        <v>3264000</v>
       </c>
       <c r="F62" s="3">
-        <v>3081100</v>
+        <v>3217500</v>
       </c>
       <c r="G62" s="3">
-        <v>2702000</v>
+        <v>2969400</v>
       </c>
       <c r="H62" s="3">
-        <v>2620200</v>
+        <v>2604000</v>
       </c>
       <c r="I62" s="3">
-        <v>2601400</v>
+        <v>2525200</v>
       </c>
       <c r="J62" s="3">
+        <v>2507100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2504500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2451800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2332200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2410800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2401100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2370700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2269600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16528300</v>
+        <v>15203700</v>
       </c>
       <c r="E66" s="3">
-        <v>15682200</v>
+        <v>15928900</v>
       </c>
       <c r="F66" s="3">
-        <v>15632400</v>
+        <v>15113500</v>
       </c>
       <c r="G66" s="3">
-        <v>14260100</v>
+        <v>15065500</v>
       </c>
       <c r="H66" s="3">
-        <v>14038000</v>
+        <v>13742900</v>
       </c>
       <c r="I66" s="3">
-        <v>14225500</v>
+        <v>13528900</v>
       </c>
       <c r="J66" s="3">
+        <v>13709600</v>
+      </c>
+      <c r="K66" s="3">
         <v>13541900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12685500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11824600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12001300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11935300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11678900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11164700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3295200</v>
+        <v>3439100</v>
       </c>
       <c r="E72" s="3">
-        <v>3470400</v>
+        <v>3175700</v>
       </c>
       <c r="F72" s="3">
-        <v>3606000</v>
+        <v>3344600</v>
       </c>
       <c r="G72" s="3">
-        <v>3678600</v>
+        <v>3475200</v>
       </c>
       <c r="H72" s="3">
-        <v>3953500</v>
+        <v>3545200</v>
       </c>
       <c r="I72" s="3">
-        <v>3467000</v>
+        <v>3810200</v>
       </c>
       <c r="J72" s="3">
+        <v>3341300</v>
+      </c>
+      <c r="K72" s="3">
         <v>3250500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3065400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2671600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2880600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2561100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2555100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2112700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4006600</v>
+        <v>4133600</v>
       </c>
       <c r="E76" s="3">
-        <v>4191700</v>
+        <v>3861300</v>
       </c>
       <c r="F76" s="3">
-        <v>4317400</v>
+        <v>4039700</v>
       </c>
       <c r="G76" s="3">
-        <v>4402100</v>
+        <v>4160800</v>
       </c>
       <c r="H76" s="3">
-        <v>4198300</v>
+        <v>4242500</v>
       </c>
       <c r="I76" s="3">
-        <v>4175800</v>
+        <v>4046100</v>
       </c>
       <c r="J76" s="3">
+        <v>4024400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3960000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3726700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3288700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3528800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3205300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3205600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2974000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42460</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42277</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42094</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>229200</v>
+        <v>397400</v>
       </c>
       <c r="E81" s="3">
-        <v>-73300</v>
+        <v>220900</v>
       </c>
       <c r="F81" s="3">
-        <v>224400</v>
+        <v>-70600</v>
       </c>
       <c r="G81" s="3">
-        <v>213500</v>
+        <v>216300</v>
       </c>
       <c r="H81" s="3">
-        <v>300700</v>
+        <v>205800</v>
       </c>
       <c r="I81" s="3">
-        <v>222500</v>
+        <v>289800</v>
       </c>
       <c r="J81" s="3">
+        <v>214400</v>
+      </c>
+      <c r="K81" s="3">
         <v>279300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>305500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>249500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>294300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>224200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>142700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +3829,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>287000</v>
+        <v>299400</v>
       </c>
       <c r="E83" s="3">
-        <v>401200</v>
+        <v>276600</v>
       </c>
       <c r="F83" s="3">
-        <v>282000</v>
+        <v>386600</v>
       </c>
       <c r="G83" s="3">
-        <v>286100</v>
+        <v>271800</v>
       </c>
       <c r="H83" s="3">
-        <v>270300</v>
+        <v>275800</v>
       </c>
       <c r="I83" s="3">
-        <v>271000</v>
+        <v>260500</v>
       </c>
       <c r="J83" s="3">
+        <v>261200</v>
+      </c>
+      <c r="K83" s="3">
         <v>262200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>246900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>219200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>232900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>241400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>236900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>564200</v>
+        <v>628300</v>
       </c>
       <c r="E89" s="3">
-        <v>631400</v>
+        <v>543700</v>
       </c>
       <c r="F89" s="3">
-        <v>515200</v>
+        <v>608500</v>
       </c>
       <c r="G89" s="3">
-        <v>557700</v>
+        <v>496600</v>
       </c>
       <c r="H89" s="3">
-        <v>620100</v>
+        <v>537500</v>
       </c>
       <c r="I89" s="3">
-        <v>571700</v>
+        <v>597600</v>
       </c>
       <c r="J89" s="3">
+        <v>551000</v>
+      </c>
+      <c r="K89" s="3">
         <v>582500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>529800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>516900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>411600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>482600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>444800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>485500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-446300</v>
+        <v>-402300</v>
       </c>
       <c r="E91" s="3">
-        <v>-459600</v>
+        <v>-430100</v>
       </c>
       <c r="F91" s="3">
-        <v>-464200</v>
+        <v>-443000</v>
       </c>
       <c r="G91" s="3">
-        <v>-452400</v>
+        <v>-447300</v>
       </c>
       <c r="H91" s="3">
-        <v>-428200</v>
+        <v>-436000</v>
       </c>
       <c r="I91" s="3">
-        <v>-530800</v>
+        <v>-412700</v>
       </c>
       <c r="J91" s="3">
+        <v>-511600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-457800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-472100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-388000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-436700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-390500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-503400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-456700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-474900</v>
+        <v>-291400</v>
       </c>
       <c r="E94" s="3">
-        <v>-407400</v>
+        <v>-457700</v>
       </c>
       <c r="F94" s="3">
-        <v>-433000</v>
+        <v>-392600</v>
       </c>
       <c r="G94" s="3">
-        <v>-462900</v>
+        <v>-417300</v>
       </c>
       <c r="H94" s="3">
-        <v>-425400</v>
+        <v>-446100</v>
       </c>
       <c r="I94" s="3">
-        <v>-555600</v>
+        <v>-410000</v>
       </c>
       <c r="J94" s="3">
+        <v>-535400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-467800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-566400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-462800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-474500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-408200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-489100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-439100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,52 +4384,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-274100</v>
+        <v>-133900</v>
       </c>
       <c r="E96" s="3">
-        <v>-137000</v>
+        <v>-264200</v>
       </c>
       <c r="F96" s="3">
-        <v>-265600</v>
+        <v>-132000</v>
       </c>
       <c r="G96" s="3">
-        <v>-132700</v>
+        <v>-256000</v>
       </c>
       <c r="H96" s="3">
-        <v>-255600</v>
+        <v>-127900</v>
       </c>
       <c r="I96" s="3">
-        <v>-127800</v>
+        <v>-246300</v>
       </c>
       <c r="J96" s="3">
+        <v>-123200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-250000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-116600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-215300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-113900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-223600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-112700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-215700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,52 +4570,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>428100</v>
+        <v>-534900</v>
       </c>
       <c r="E100" s="3">
-        <v>-352600</v>
+        <v>412500</v>
       </c>
       <c r="F100" s="3">
-        <v>313300</v>
+        <v>-339900</v>
       </c>
       <c r="G100" s="3">
-        <v>31100</v>
+        <v>301900</v>
       </c>
       <c r="H100" s="3">
-        <v>-565200</v>
+        <v>30000</v>
       </c>
       <c r="I100" s="3">
-        <v>584600</v>
+        <v>-544700</v>
       </c>
       <c r="J100" s="3">
+        <v>563400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-323200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>47200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-126000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>65500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4415,48 +4664,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>517400</v>
+        <v>-198000</v>
       </c>
       <c r="E102" s="3">
-        <v>-128600</v>
+        <v>498600</v>
       </c>
       <c r="F102" s="3">
-        <v>395500</v>
+        <v>-124000</v>
       </c>
       <c r="G102" s="3">
-        <v>125900</v>
+        <v>381200</v>
       </c>
       <c r="H102" s="3">
-        <v>-370500</v>
+        <v>121400</v>
       </c>
       <c r="I102" s="3">
-        <v>600700</v>
+        <v>-357000</v>
       </c>
       <c r="J102" s="3">
+        <v>578900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-208600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>37200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-188900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>139800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>156600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42460</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42277</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42094</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1246000</v>
+        <v>1241000</v>
       </c>
       <c r="E8" s="3">
+        <v>1216100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1190500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1229700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1245200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1200800</v>
+      </c>
+      <c r="J8" s="3">
         <v>1219800</v>
       </c>
-      <c r="F8" s="3">
-        <v>1259900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1275800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1230300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1249800</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1172600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1239600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1124000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1050600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1138700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1117800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1133500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1131600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>188500</v>
+        <v>171700</v>
       </c>
       <c r="E9" s="3">
-        <v>169000</v>
+        <v>184000</v>
       </c>
       <c r="F9" s="3">
-        <v>177200</v>
+        <v>164900</v>
       </c>
       <c r="G9" s="3">
-        <v>164600</v>
+        <v>172900</v>
       </c>
       <c r="H9" s="3">
-        <v>177700</v>
+        <v>160700</v>
       </c>
       <c r="I9" s="3">
-        <v>180700</v>
+        <v>173400</v>
       </c>
       <c r="J9" s="3">
+        <v>176400</v>
+      </c>
+      <c r="K9" s="3">
         <v>167200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>159600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>153600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>153500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>170600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>162100</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1057500</v>
+        <v>1069300</v>
       </c>
       <c r="E10" s="3">
-        <v>1050800</v>
+        <v>1032100</v>
       </c>
       <c r="F10" s="3">
-        <v>1082700</v>
+        <v>1025600</v>
       </c>
       <c r="G10" s="3">
-        <v>1111200</v>
+        <v>1056800</v>
       </c>
       <c r="H10" s="3">
-        <v>1052600</v>
+        <v>1084600</v>
       </c>
       <c r="I10" s="3">
-        <v>1069100</v>
+        <v>1027300</v>
       </c>
       <c r="J10" s="3">
+        <v>1043400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1005400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1080000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>970400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>897100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>968100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>955700</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -915,11 +929,11 @@
       <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
         <v>1600</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>5</v>
@@ -933,11 +947,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
         <v>3000</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,102 +1009,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-33300</v>
+        <v>4100</v>
       </c>
       <c r="E14" s="3">
-        <v>4000</v>
+        <v>-32500</v>
       </c>
       <c r="F14" s="3">
-        <v>20900</v>
+        <v>3900</v>
       </c>
       <c r="G14" s="3">
-        <v>14700</v>
+        <v>20400</v>
       </c>
       <c r="H14" s="3">
-        <v>69600</v>
+        <v>14400</v>
       </c>
       <c r="I14" s="3">
-        <v>-3300</v>
+        <v>67900</v>
       </c>
       <c r="J14" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K14" s="3">
         <v>15500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-13400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>33900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>299400</v>
+        <v>276300</v>
       </c>
       <c r="E15" s="3">
-        <v>276600</v>
+        <v>292200</v>
       </c>
       <c r="F15" s="3">
-        <v>386600</v>
+        <v>269900</v>
       </c>
       <c r="G15" s="3">
-        <v>271800</v>
+        <v>377400</v>
       </c>
       <c r="H15" s="3">
-        <v>275800</v>
+        <v>265300</v>
       </c>
       <c r="I15" s="3">
-        <v>260500</v>
+        <v>269100</v>
       </c>
       <c r="J15" s="3">
+        <v>254200</v>
+      </c>
+      <c r="K15" s="3">
         <v>261200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>262200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>246900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>219200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>232900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>241400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>236900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>809100</v>
+        <v>798000</v>
       </c>
       <c r="E17" s="3">
-        <v>785400</v>
+        <v>789700</v>
       </c>
       <c r="F17" s="3">
-        <v>922600</v>
+        <v>766600</v>
       </c>
       <c r="G17" s="3">
-        <v>753500</v>
+        <v>900500</v>
       </c>
       <c r="H17" s="3">
-        <v>826900</v>
+        <v>735400</v>
       </c>
       <c r="I17" s="3">
-        <v>787300</v>
+        <v>807000</v>
       </c>
       <c r="J17" s="3">
+        <v>768400</v>
+      </c>
+      <c r="K17" s="3">
         <v>770800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>756000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>723700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>650900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>760900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>754800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>721600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>683300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>436800</v>
+        <v>443000</v>
       </c>
       <c r="E18" s="3">
-        <v>434400</v>
+        <v>426400</v>
       </c>
       <c r="F18" s="3">
-        <v>337300</v>
+        <v>424000</v>
       </c>
       <c r="G18" s="3">
-        <v>522300</v>
+        <v>329200</v>
       </c>
       <c r="H18" s="3">
-        <v>403400</v>
+        <v>509800</v>
       </c>
       <c r="I18" s="3">
-        <v>462500</v>
+        <v>393700</v>
       </c>
       <c r="J18" s="3">
+        <v>451400</v>
+      </c>
+      <c r="K18" s="3">
         <v>401800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>483700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>399700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>377700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>363000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>411900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>448400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,243 +1248,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>145100</v>
+        <v>36600</v>
       </c>
       <c r="E20" s="3">
-        <v>-17000</v>
+        <v>141600</v>
       </c>
       <c r="F20" s="3">
-        <v>-52900</v>
+        <v>-16600</v>
       </c>
       <c r="G20" s="3">
-        <v>-77200</v>
+        <v>-51600</v>
       </c>
       <c r="H20" s="3">
-        <v>-29500</v>
+        <v>-75300</v>
       </c>
       <c r="I20" s="3">
-        <v>74900</v>
+        <v>-28800</v>
       </c>
       <c r="J20" s="3">
+        <v>73100</v>
+      </c>
+      <c r="K20" s="3">
         <v>22900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>63400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>116400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-57000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-75500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>54300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-112200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-26900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>881300</v>
+        <v>755800</v>
       </c>
       <c r="E21" s="3">
-        <v>693900</v>
+        <v>860200</v>
       </c>
       <c r="F21" s="3">
-        <v>671000</v>
+        <v>677300</v>
       </c>
       <c r="G21" s="3">
-        <v>716900</v>
+        <v>654900</v>
       </c>
       <c r="H21" s="3">
-        <v>649700</v>
+        <v>699800</v>
       </c>
       <c r="I21" s="3">
-        <v>797800</v>
+        <v>634100</v>
       </c>
       <c r="J21" s="3">
+        <v>778700</v>
+      </c>
+      <c r="K21" s="3">
         <v>685800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>809300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>763500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>561900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>535200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>658700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>536600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>104700</v>
+        <v>196500</v>
       </c>
       <c r="E22" s="3">
-        <v>143100</v>
+        <v>102200</v>
       </c>
       <c r="F22" s="3">
-        <v>136900</v>
+        <v>139600</v>
       </c>
       <c r="G22" s="3">
-        <v>179100</v>
+        <v>133600</v>
       </c>
       <c r="H22" s="3">
-        <v>133100</v>
+        <v>174800</v>
       </c>
       <c r="I22" s="3">
-        <v>183300</v>
+        <v>129900</v>
       </c>
       <c r="J22" s="3">
+        <v>178900</v>
+      </c>
+      <c r="K22" s="3">
         <v>165800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>204200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>141600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>147500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>122300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>136000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>119400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>477200</v>
+        <v>283100</v>
       </c>
       <c r="E23" s="3">
-        <v>274300</v>
+        <v>465800</v>
       </c>
       <c r="F23" s="3">
-        <v>147400</v>
+        <v>267700</v>
       </c>
       <c r="G23" s="3">
-        <v>266100</v>
+        <v>143900</v>
       </c>
       <c r="H23" s="3">
-        <v>240800</v>
+        <v>259700</v>
       </c>
       <c r="I23" s="3">
-        <v>354000</v>
+        <v>235100</v>
       </c>
       <c r="J23" s="3">
+        <v>345600</v>
+      </c>
+      <c r="K23" s="3">
         <v>258800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>342900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>375100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>195100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>179900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>281200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>180300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>269500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>79800</v>
+        <v>570900</v>
       </c>
       <c r="E24" s="3">
-        <v>53300</v>
+        <v>77900</v>
       </c>
       <c r="F24" s="3">
-        <v>218100</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="3">
-        <v>49800</v>
+        <v>212800</v>
       </c>
       <c r="H24" s="3">
-        <v>35000</v>
+        <v>48600</v>
       </c>
       <c r="I24" s="3">
-        <v>64200</v>
+        <v>34200</v>
       </c>
       <c r="J24" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K24" s="3">
         <v>44500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>69600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-54400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-114400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>57000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>397400</v>
+        <v>-287800</v>
       </c>
       <c r="E26" s="3">
-        <v>220900</v>
+        <v>387900</v>
       </c>
       <c r="F26" s="3">
-        <v>-70600</v>
+        <v>215600</v>
       </c>
       <c r="G26" s="3">
-        <v>216300</v>
+        <v>-69000</v>
       </c>
       <c r="H26" s="3">
-        <v>205800</v>
+        <v>211100</v>
       </c>
       <c r="I26" s="3">
-        <v>289800</v>
+        <v>200900</v>
       </c>
       <c r="J26" s="3">
+        <v>282900</v>
+      </c>
+      <c r="K26" s="3">
         <v>214400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>279300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>305500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>249500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>294300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>224200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>142700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>397400</v>
+        <v>-287800</v>
       </c>
       <c r="E27" s="3">
-        <v>220900</v>
+        <v>387900</v>
       </c>
       <c r="F27" s="3">
-        <v>-70600</v>
+        <v>215600</v>
       </c>
       <c r="G27" s="3">
-        <v>216300</v>
+        <v>-69000</v>
       </c>
       <c r="H27" s="3">
-        <v>205800</v>
+        <v>211100</v>
       </c>
       <c r="I27" s="3">
-        <v>289800</v>
+        <v>200900</v>
       </c>
       <c r="J27" s="3">
+        <v>282900</v>
+      </c>
+      <c r="K27" s="3">
         <v>214400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>279300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>305500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>249500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>294300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>224200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>142700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1667,8 +1728,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1679,14 +1740,17 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-145100</v>
+        <v>-36600</v>
       </c>
       <c r="E32" s="3">
-        <v>17000</v>
+        <v>-141600</v>
       </c>
       <c r="F32" s="3">
-        <v>52900</v>
+        <v>16600</v>
       </c>
       <c r="G32" s="3">
-        <v>77200</v>
+        <v>51600</v>
       </c>
       <c r="H32" s="3">
-        <v>29500</v>
+        <v>75300</v>
       </c>
       <c r="I32" s="3">
-        <v>-74900</v>
+        <v>28800</v>
       </c>
       <c r="J32" s="3">
+        <v>-73100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-22900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-63400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-116400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>57000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>75500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-54300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>112200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>397400</v>
+        <v>-287800</v>
       </c>
       <c r="E33" s="3">
-        <v>220900</v>
+        <v>387900</v>
       </c>
       <c r="F33" s="3">
-        <v>-70600</v>
+        <v>215600</v>
       </c>
       <c r="G33" s="3">
-        <v>216300</v>
+        <v>-69000</v>
       </c>
       <c r="H33" s="3">
-        <v>205800</v>
+        <v>211100</v>
       </c>
       <c r="I33" s="3">
-        <v>289800</v>
+        <v>200900</v>
       </c>
       <c r="J33" s="3">
+        <v>282900</v>
+      </c>
+      <c r="K33" s="3">
         <v>214400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>279300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>305500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>249500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>294300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>224200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>142700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>397400</v>
+        <v>-287800</v>
       </c>
       <c r="E35" s="3">
-        <v>220900</v>
+        <v>387900</v>
       </c>
       <c r="F35" s="3">
-        <v>-70600</v>
+        <v>215600</v>
       </c>
       <c r="G35" s="3">
-        <v>216300</v>
+        <v>-69000</v>
       </c>
       <c r="H35" s="3">
-        <v>205800</v>
+        <v>211100</v>
       </c>
       <c r="I35" s="3">
-        <v>289800</v>
+        <v>200900</v>
       </c>
       <c r="J35" s="3">
+        <v>282900</v>
+      </c>
+      <c r="K35" s="3">
         <v>214400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>279300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>305500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>249500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>294300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>224200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>142700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42460</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42277</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42094</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,55 +2143,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1014800</v>
+        <v>873100</v>
       </c>
       <c r="E41" s="3">
-        <v>1226000</v>
+        <v>990500</v>
       </c>
       <c r="F41" s="3">
-        <v>720200</v>
+        <v>1196700</v>
       </c>
       <c r="G41" s="3">
-        <v>847700</v>
+        <v>703000</v>
       </c>
       <c r="H41" s="3">
-        <v>462700</v>
+        <v>827400</v>
       </c>
       <c r="I41" s="3">
-        <v>354000</v>
+        <v>451600</v>
       </c>
       <c r="J41" s="3">
+        <v>345600</v>
+      </c>
+      <c r="K41" s="3">
         <v>695500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>124000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>327300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>292400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>278600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>464900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>321300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2151,337 +2241,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>322000</v>
+        <v>336800</v>
       </c>
       <c r="E43" s="3">
-        <v>383600</v>
+        <v>314300</v>
       </c>
       <c r="F43" s="3">
-        <v>386800</v>
+        <v>374400</v>
       </c>
       <c r="G43" s="3">
-        <v>395900</v>
+        <v>377500</v>
       </c>
       <c r="H43" s="3">
-        <v>362600</v>
+        <v>386400</v>
       </c>
       <c r="I43" s="3">
-        <v>397100</v>
+        <v>353900</v>
       </c>
       <c r="J43" s="3">
+        <v>387600</v>
+      </c>
+      <c r="K43" s="3">
         <v>389200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>413500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>410800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>424900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>479200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>495500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>465200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>464300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25000</v>
+        <v>25200</v>
       </c>
       <c r="E44" s="3">
-        <v>25900</v>
+        <v>24400</v>
       </c>
       <c r="F44" s="3">
-        <v>22600</v>
+        <v>25300</v>
       </c>
       <c r="G44" s="3">
         <v>22100</v>
       </c>
       <c r="H44" s="3">
-        <v>20300</v>
+        <v>21600</v>
       </c>
       <c r="I44" s="3">
-        <v>19500</v>
+        <v>19800</v>
       </c>
       <c r="J44" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K44" s="3">
         <v>22900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>27700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>36000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>38200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>50100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>53300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19600</v>
+        <v>30600</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>19200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>129200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>138200</v>
+        <v>126100</v>
       </c>
       <c r="I45" s="3">
-        <v>223100</v>
+        <v>134800</v>
       </c>
       <c r="J45" s="3">
+        <v>217800</v>
+      </c>
+      <c r="K45" s="3">
         <v>460600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>469000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>101300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20500</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>69900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1381400</v>
+        <v>1265600</v>
       </c>
       <c r="E46" s="3">
-        <v>1635700</v>
+        <v>1348300</v>
       </c>
       <c r="F46" s="3">
-        <v>1129800</v>
+        <v>1596500</v>
       </c>
       <c r="G46" s="3">
-        <v>1394900</v>
+        <v>1102700</v>
       </c>
       <c r="H46" s="3">
-        <v>983800</v>
+        <v>1361400</v>
       </c>
       <c r="I46" s="3">
-        <v>993800</v>
+        <v>960300</v>
       </c>
       <c r="J46" s="3">
+        <v>970000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1568200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1034200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>868900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>753600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>816500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1010400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>841200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>118400</v>
+        <v>113400</v>
       </c>
       <c r="E47" s="3">
-        <v>233200</v>
+        <v>115500</v>
       </c>
       <c r="F47" s="3">
-        <v>196200</v>
+        <v>227600</v>
       </c>
       <c r="G47" s="3">
-        <v>283900</v>
+        <v>191500</v>
       </c>
       <c r="H47" s="3">
-        <v>325400</v>
+        <v>277100</v>
       </c>
       <c r="I47" s="3">
-        <v>316300</v>
+        <v>317600</v>
       </c>
       <c r="J47" s="3">
+        <v>308700</v>
+      </c>
+      <c r="K47" s="3">
         <v>304700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>308100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>259500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>161300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>60400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>56400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16091400</v>
+        <v>15915000</v>
       </c>
       <c r="E48" s="3">
-        <v>15886700</v>
+        <v>15705600</v>
       </c>
       <c r="F48" s="3">
-        <v>15698500</v>
+        <v>15505900</v>
       </c>
       <c r="G48" s="3">
-        <v>15491400</v>
+        <v>15322200</v>
       </c>
       <c r="H48" s="3">
-        <v>15210900</v>
+        <v>15120100</v>
       </c>
       <c r="I48" s="3">
-        <v>14925700</v>
+        <v>14846300</v>
       </c>
       <c r="J48" s="3">
+        <v>14568000</v>
+      </c>
+      <c r="K48" s="3">
         <v>14716000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14984600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13743500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12557600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13084100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12841800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12794300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12521800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>247000</v>
+        <v>226800</v>
       </c>
       <c r="E49" s="3">
-        <v>239800</v>
+        <v>241100</v>
       </c>
       <c r="F49" s="3">
-        <v>257800</v>
+        <v>234000</v>
       </c>
       <c r="G49" s="3">
-        <v>267400</v>
+        <v>251600</v>
       </c>
       <c r="H49" s="3">
-        <v>276400</v>
+        <v>261000</v>
       </c>
       <c r="I49" s="3">
-        <v>289100</v>
+        <v>269800</v>
       </c>
       <c r="J49" s="3">
+        <v>282200</v>
+      </c>
+      <c r="K49" s="3">
         <v>269600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>272100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>247900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>221400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>211800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>205400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>190800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>157200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1499200</v>
+        <v>1703000</v>
       </c>
       <c r="E52" s="3">
-        <v>1794900</v>
+        <v>1463300</v>
       </c>
       <c r="F52" s="3">
-        <v>1871000</v>
+        <v>1751900</v>
       </c>
       <c r="G52" s="3">
-        <v>1788600</v>
+        <v>1826100</v>
       </c>
       <c r="H52" s="3">
-        <v>1188800</v>
+        <v>1745700</v>
       </c>
       <c r="I52" s="3">
-        <v>1050100</v>
+        <v>1160300</v>
       </c>
       <c r="J52" s="3">
+        <v>1024900</v>
+      </c>
+      <c r="K52" s="3">
         <v>875600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>903000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1292400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1419300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1357400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1029800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1001800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19337300</v>
+        <v>19223900</v>
       </c>
       <c r="E54" s="3">
-        <v>19790200</v>
+        <v>18873800</v>
       </c>
       <c r="F54" s="3">
-        <v>19153200</v>
+        <v>19315900</v>
       </c>
       <c r="G54" s="3">
-        <v>19226300</v>
+        <v>18694100</v>
       </c>
       <c r="H54" s="3">
-        <v>17985400</v>
+        <v>18765400</v>
       </c>
       <c r="I54" s="3">
-        <v>17575000</v>
+        <v>17554300</v>
       </c>
       <c r="J54" s="3">
+        <v>17153800</v>
+      </c>
+      <c r="K54" s="3">
         <v>17734000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17501900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16412300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15113300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15530200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15140700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14884500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14138600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>440100</v>
+        <v>506600</v>
       </c>
       <c r="E57" s="3">
-        <v>441000</v>
+        <v>429500</v>
       </c>
       <c r="F57" s="3">
-        <v>456100</v>
+        <v>430500</v>
       </c>
       <c r="G57" s="3">
-        <v>441600</v>
+        <v>445100</v>
       </c>
       <c r="H57" s="3">
-        <v>438000</v>
+        <v>431000</v>
       </c>
       <c r="I57" s="3">
-        <v>461600</v>
+        <v>427500</v>
       </c>
       <c r="J57" s="3">
+        <v>450600</v>
+      </c>
+      <c r="K57" s="3">
         <v>376000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>484000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>426600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>449800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>445700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>558200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>502000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>572500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>893000</v>
+        <v>879500</v>
       </c>
       <c r="E58" s="3">
-        <v>1163900</v>
+        <v>871600</v>
       </c>
       <c r="F58" s="3">
-        <v>1152400</v>
+        <v>1136000</v>
       </c>
       <c r="G58" s="3">
-        <v>996200</v>
+        <v>1124800</v>
       </c>
       <c r="H58" s="3">
-        <v>954900</v>
+        <v>972400</v>
       </c>
       <c r="I58" s="3">
-        <v>768000</v>
+        <v>932000</v>
       </c>
       <c r="J58" s="3">
+        <v>749500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1144900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>919300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>430700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>372400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>612000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1102500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>761200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24500</v>
+        <v>21700</v>
       </c>
       <c r="E59" s="3">
-        <v>23200</v>
+        <v>24000</v>
       </c>
       <c r="F59" s="3">
-        <v>34500</v>
+        <v>22600</v>
       </c>
       <c r="G59" s="3">
-        <v>45300</v>
+        <v>33700</v>
       </c>
       <c r="H59" s="3">
-        <v>41700</v>
+        <v>44200</v>
       </c>
       <c r="I59" s="3">
-        <v>31600</v>
+        <v>40700</v>
       </c>
       <c r="J59" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K59" s="3">
         <v>35900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>50600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>55600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1357700</v>
+        <v>1407800</v>
       </c>
       <c r="E60" s="3">
-        <v>1628100</v>
+        <v>1325100</v>
       </c>
       <c r="F60" s="3">
-        <v>1643000</v>
+        <v>1589100</v>
       </c>
       <c r="G60" s="3">
-        <v>1483100</v>
+        <v>1603600</v>
       </c>
       <c r="H60" s="3">
-        <v>1434700</v>
+        <v>1447600</v>
       </c>
       <c r="I60" s="3">
-        <v>1261200</v>
+        <v>1400300</v>
       </c>
       <c r="J60" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1556800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1445500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>911100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>853400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1101100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1711400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1318800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>786100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10633500</v>
+        <v>10385400</v>
       </c>
       <c r="E61" s="3">
-        <v>11036900</v>
+        <v>10378600</v>
       </c>
       <c r="F61" s="3">
-        <v>10253100</v>
+        <v>10772300</v>
       </c>
       <c r="G61" s="3">
-        <v>10613000</v>
+        <v>10007300</v>
       </c>
       <c r="H61" s="3">
-        <v>9704200</v>
+        <v>10358600</v>
       </c>
       <c r="I61" s="3">
-        <v>9742500</v>
+        <v>9471600</v>
       </c>
       <c r="J61" s="3">
+        <v>9509000</v>
+      </c>
+      <c r="K61" s="3">
         <v>9645800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9591900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9322700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8639100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8489500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7822900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7989400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8108900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3212500</v>
+        <v>3807900</v>
       </c>
       <c r="E62" s="3">
-        <v>3264000</v>
+        <v>3135500</v>
       </c>
       <c r="F62" s="3">
-        <v>3217500</v>
+        <v>3185700</v>
       </c>
       <c r="G62" s="3">
-        <v>2969400</v>
+        <v>3140300</v>
       </c>
       <c r="H62" s="3">
-        <v>2604000</v>
+        <v>2898200</v>
       </c>
       <c r="I62" s="3">
-        <v>2525200</v>
+        <v>2541600</v>
       </c>
       <c r="J62" s="3">
+        <v>2464700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2507100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2504500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2451800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2332200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2410800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2401100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2370700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2269600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15203700</v>
+        <v>15601000</v>
       </c>
       <c r="E66" s="3">
-        <v>15928900</v>
+        <v>14839200</v>
       </c>
       <c r="F66" s="3">
-        <v>15113500</v>
+        <v>15547100</v>
       </c>
       <c r="G66" s="3">
-        <v>15065500</v>
+        <v>14751300</v>
       </c>
       <c r="H66" s="3">
-        <v>13742900</v>
+        <v>14704400</v>
       </c>
       <c r="I66" s="3">
-        <v>13528900</v>
+        <v>13413500</v>
       </c>
       <c r="J66" s="3">
+        <v>13204600</v>
+      </c>
+      <c r="K66" s="3">
         <v>13709600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13541900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12685500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11824600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12001300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11935300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11678900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11164700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3439100</v>
+        <v>2900300</v>
       </c>
       <c r="E72" s="3">
-        <v>3175700</v>
+        <v>3356600</v>
       </c>
       <c r="F72" s="3">
-        <v>3344600</v>
+        <v>3099600</v>
       </c>
       <c r="G72" s="3">
-        <v>3475200</v>
+        <v>3264400</v>
       </c>
       <c r="H72" s="3">
-        <v>3545200</v>
+        <v>3391900</v>
       </c>
       <c r="I72" s="3">
-        <v>3810200</v>
+        <v>3460200</v>
       </c>
       <c r="J72" s="3">
+        <v>3718800</v>
+      </c>
+      <c r="K72" s="3">
         <v>3341300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3250500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3065400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2671600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2880600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2561100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2555100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2112700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4133600</v>
+        <v>3622900</v>
       </c>
       <c r="E76" s="3">
-        <v>3861300</v>
+        <v>4034600</v>
       </c>
       <c r="F76" s="3">
-        <v>4039700</v>
+        <v>3768700</v>
       </c>
       <c r="G76" s="3">
-        <v>4160800</v>
+        <v>3942900</v>
       </c>
       <c r="H76" s="3">
-        <v>4242500</v>
+        <v>4061100</v>
       </c>
       <c r="I76" s="3">
-        <v>4046100</v>
+        <v>4140800</v>
       </c>
       <c r="J76" s="3">
+        <v>3949100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4024400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3960000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3726700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3288700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3528800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3205300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3205600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2974000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42460</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42277</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42094</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>397400</v>
+        <v>-287800</v>
       </c>
       <c r="E81" s="3">
-        <v>220900</v>
+        <v>387900</v>
       </c>
       <c r="F81" s="3">
-        <v>-70600</v>
+        <v>215600</v>
       </c>
       <c r="G81" s="3">
-        <v>216300</v>
+        <v>-69000</v>
       </c>
       <c r="H81" s="3">
-        <v>205800</v>
+        <v>211100</v>
       </c>
       <c r="I81" s="3">
-        <v>289800</v>
+        <v>200900</v>
       </c>
       <c r="J81" s="3">
+        <v>282900</v>
+      </c>
+      <c r="K81" s="3">
         <v>214400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>279300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>305500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>249500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>294300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>224200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>142700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,55 +4028,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>299400</v>
+        <v>276200</v>
       </c>
       <c r="E83" s="3">
-        <v>276600</v>
+        <v>292200</v>
       </c>
       <c r="F83" s="3">
-        <v>386600</v>
+        <v>269900</v>
       </c>
       <c r="G83" s="3">
-        <v>271800</v>
+        <v>377400</v>
       </c>
       <c r="H83" s="3">
-        <v>275800</v>
+        <v>265300</v>
       </c>
       <c r="I83" s="3">
-        <v>260500</v>
+        <v>269100</v>
       </c>
       <c r="J83" s="3">
+        <v>254200</v>
+      </c>
+      <c r="K83" s="3">
         <v>261200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>262200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>246900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>219200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>232900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>241400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>236900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>628300</v>
+        <v>626400</v>
       </c>
       <c r="E89" s="3">
-        <v>543700</v>
+        <v>613200</v>
       </c>
       <c r="F89" s="3">
-        <v>608500</v>
+        <v>530700</v>
       </c>
       <c r="G89" s="3">
-        <v>496600</v>
+        <v>593900</v>
       </c>
       <c r="H89" s="3">
-        <v>537500</v>
+        <v>484700</v>
       </c>
       <c r="I89" s="3">
-        <v>597600</v>
+        <v>524600</v>
       </c>
       <c r="J89" s="3">
+        <v>583300</v>
+      </c>
+      <c r="K89" s="3">
         <v>551000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>582500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>529800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>516900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>411600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>482600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>444800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>485500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-402300</v>
+        <v>-371000</v>
       </c>
       <c r="E91" s="3">
-        <v>-430100</v>
+        <v>-392700</v>
       </c>
       <c r="F91" s="3">
-        <v>-443000</v>
+        <v>-419800</v>
       </c>
       <c r="G91" s="3">
-        <v>-447300</v>
+        <v>-432300</v>
       </c>
       <c r="H91" s="3">
-        <v>-436000</v>
+        <v>-436600</v>
       </c>
       <c r="I91" s="3">
-        <v>-412700</v>
+        <v>-425600</v>
       </c>
       <c r="J91" s="3">
+        <v>-402800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-511600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-457800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-472100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-388000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-436700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-390500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-503400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-456700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-291400</v>
+        <v>-383200</v>
       </c>
       <c r="E94" s="3">
-        <v>-457700</v>
+        <v>-284500</v>
       </c>
       <c r="F94" s="3">
-        <v>-392600</v>
+        <v>-446700</v>
       </c>
       <c r="G94" s="3">
-        <v>-417300</v>
+        <v>-383200</v>
       </c>
       <c r="H94" s="3">
-        <v>-446100</v>
+        <v>-407300</v>
       </c>
       <c r="I94" s="3">
-        <v>-410000</v>
+        <v>-435400</v>
       </c>
       <c r="J94" s="3">
+        <v>-400100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-535400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-467800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-566400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-462800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-474500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-408200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-489100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-439100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,55 +4618,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-133900</v>
+        <v>-261700</v>
       </c>
       <c r="E96" s="3">
-        <v>-264200</v>
+        <v>-130700</v>
       </c>
       <c r="F96" s="3">
-        <v>-132000</v>
+        <v>-257800</v>
       </c>
       <c r="G96" s="3">
-        <v>-256000</v>
+        <v>-128900</v>
       </c>
       <c r="H96" s="3">
-        <v>-127900</v>
+        <v>-249800</v>
       </c>
       <c r="I96" s="3">
-        <v>-246300</v>
+        <v>-124900</v>
       </c>
       <c r="J96" s="3">
+        <v>-240400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-123200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-250000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-116600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-215300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-113900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-223600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-112700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-215700</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,55 +4816,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-534900</v>
+        <v>-373600</v>
       </c>
       <c r="E100" s="3">
-        <v>412500</v>
+        <v>-522100</v>
       </c>
       <c r="F100" s="3">
-        <v>-339900</v>
+        <v>402700</v>
       </c>
       <c r="G100" s="3">
-        <v>301900</v>
+        <v>-331700</v>
       </c>
       <c r="H100" s="3">
-        <v>30000</v>
+        <v>294700</v>
       </c>
       <c r="I100" s="3">
-        <v>-544700</v>
+        <v>29300</v>
       </c>
       <c r="J100" s="3">
+        <v>-531600</v>
+      </c>
+      <c r="K100" s="3">
         <v>563400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-323200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>47200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-126000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>65500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4667,51 +4916,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-198000</v>
+        <v>-130400</v>
       </c>
       <c r="E102" s="3">
-        <v>498600</v>
+        <v>-193300</v>
       </c>
       <c r="F102" s="3">
-        <v>-124000</v>
+        <v>486700</v>
       </c>
       <c r="G102" s="3">
-        <v>381200</v>
+        <v>-121000</v>
       </c>
       <c r="H102" s="3">
-        <v>121400</v>
+        <v>372000</v>
       </c>
       <c r="I102" s="3">
-        <v>-357000</v>
+        <v>118500</v>
       </c>
       <c r="J102" s="3">
+        <v>-348500</v>
+      </c>
+      <c r="K102" s="3">
         <v>578900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-208600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>37200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-188900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>139800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>156600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>28800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1241000</v>
+        <v>1215300</v>
       </c>
       <c r="E8" s="3">
-        <v>1216100</v>
+        <v>1191000</v>
       </c>
       <c r="F8" s="3">
-        <v>1190500</v>
+        <v>1165900</v>
       </c>
       <c r="G8" s="3">
-        <v>1229700</v>
+        <v>1204300</v>
       </c>
       <c r="H8" s="3">
-        <v>1245200</v>
+        <v>1219500</v>
       </c>
       <c r="I8" s="3">
-        <v>1200800</v>
+        <v>1176000</v>
       </c>
       <c r="J8" s="3">
-        <v>1219800</v>
+        <v>1194600</v>
       </c>
       <c r="K8" s="3">
         <v>1172600</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>171700</v>
+        <v>168200</v>
       </c>
       <c r="E9" s="3">
-        <v>184000</v>
+        <v>180200</v>
       </c>
       <c r="F9" s="3">
-        <v>164900</v>
+        <v>161500</v>
       </c>
       <c r="G9" s="3">
-        <v>172900</v>
+        <v>169300</v>
       </c>
       <c r="H9" s="3">
-        <v>160700</v>
+        <v>157300</v>
       </c>
       <c r="I9" s="3">
-        <v>173400</v>
+        <v>169900</v>
       </c>
       <c r="J9" s="3">
-        <v>176400</v>
+        <v>172700</v>
       </c>
       <c r="K9" s="3">
         <v>167200</v>
@@ -848,25 +848,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1069300</v>
+        <v>1047200</v>
       </c>
       <c r="E10" s="3">
-        <v>1032100</v>
+        <v>1010800</v>
       </c>
       <c r="F10" s="3">
-        <v>1025600</v>
+        <v>1004400</v>
       </c>
       <c r="G10" s="3">
-        <v>1056800</v>
+        <v>1034900</v>
       </c>
       <c r="H10" s="3">
-        <v>1084600</v>
+        <v>1062200</v>
       </c>
       <c r="I10" s="3">
-        <v>1027300</v>
+        <v>1006100</v>
       </c>
       <c r="J10" s="3">
-        <v>1043400</v>
+        <v>1021900</v>
       </c>
       <c r="K10" s="3">
         <v>1005400</v>
@@ -1018,25 +1018,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E14" s="3">
-        <v>-32500</v>
+        <v>-31800</v>
       </c>
       <c r="F14" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G14" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="H14" s="3">
-        <v>14400</v>
+        <v>14100</v>
       </c>
       <c r="I14" s="3">
-        <v>67900</v>
+        <v>66500</v>
       </c>
       <c r="J14" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="K14" s="3">
         <v>15500</v>
@@ -1068,25 +1068,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>276300</v>
+        <v>270600</v>
       </c>
       <c r="E15" s="3">
-        <v>292200</v>
+        <v>286100</v>
       </c>
       <c r="F15" s="3">
-        <v>269900</v>
+        <v>264400</v>
       </c>
       <c r="G15" s="3">
-        <v>377400</v>
+        <v>369600</v>
       </c>
       <c r="H15" s="3">
-        <v>265300</v>
+        <v>259800</v>
       </c>
       <c r="I15" s="3">
-        <v>269100</v>
+        <v>263600</v>
       </c>
       <c r="J15" s="3">
-        <v>254200</v>
+        <v>249000</v>
       </c>
       <c r="K15" s="3">
         <v>261200</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>798000</v>
+        <v>781500</v>
       </c>
       <c r="E17" s="3">
-        <v>789700</v>
+        <v>773400</v>
       </c>
       <c r="F17" s="3">
-        <v>766600</v>
+        <v>750700</v>
       </c>
       <c r="G17" s="3">
-        <v>900500</v>
+        <v>881900</v>
       </c>
       <c r="H17" s="3">
-        <v>735400</v>
+        <v>720200</v>
       </c>
       <c r="I17" s="3">
-        <v>807000</v>
+        <v>790400</v>
       </c>
       <c r="J17" s="3">
-        <v>768400</v>
+        <v>752600</v>
       </c>
       <c r="K17" s="3">
         <v>770800</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>443000</v>
+        <v>433800</v>
       </c>
       <c r="E18" s="3">
-        <v>426400</v>
+        <v>417500</v>
       </c>
       <c r="F18" s="3">
-        <v>424000</v>
+        <v>415200</v>
       </c>
       <c r="G18" s="3">
-        <v>329200</v>
+        <v>322400</v>
       </c>
       <c r="H18" s="3">
-        <v>509800</v>
+        <v>499300</v>
       </c>
       <c r="I18" s="3">
-        <v>393700</v>
+        <v>385600</v>
       </c>
       <c r="J18" s="3">
-        <v>451400</v>
+        <v>442000</v>
       </c>
       <c r="K18" s="3">
         <v>401800</v>
@@ -1255,25 +1255,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>36600</v>
+        <v>35800</v>
       </c>
       <c r="E20" s="3">
-        <v>141600</v>
+        <v>138700</v>
       </c>
       <c r="F20" s="3">
-        <v>-16600</v>
+        <v>-16300</v>
       </c>
       <c r="G20" s="3">
-        <v>-51600</v>
+        <v>-50600</v>
       </c>
       <c r="H20" s="3">
-        <v>-75300</v>
+        <v>-73800</v>
       </c>
       <c r="I20" s="3">
-        <v>-28800</v>
+        <v>-28200</v>
       </c>
       <c r="J20" s="3">
-        <v>73100</v>
+        <v>71600</v>
       </c>
       <c r="K20" s="3">
         <v>22900</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>755800</v>
+        <v>740200</v>
       </c>
       <c r="E21" s="3">
-        <v>860200</v>
+        <v>842400</v>
       </c>
       <c r="F21" s="3">
-        <v>677300</v>
+        <v>663300</v>
       </c>
       <c r="G21" s="3">
-        <v>654900</v>
+        <v>641400</v>
       </c>
       <c r="H21" s="3">
-        <v>699800</v>
+        <v>685300</v>
       </c>
       <c r="I21" s="3">
-        <v>634100</v>
+        <v>621000</v>
       </c>
       <c r="J21" s="3">
-        <v>778700</v>
+        <v>762600</v>
       </c>
       <c r="K21" s="3">
         <v>685800</v>
@@ -1355,25 +1355,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>196500</v>
+        <v>192400</v>
       </c>
       <c r="E22" s="3">
-        <v>102200</v>
+        <v>100100</v>
       </c>
       <c r="F22" s="3">
-        <v>139600</v>
+        <v>136700</v>
       </c>
       <c r="G22" s="3">
-        <v>133600</v>
+        <v>130900</v>
       </c>
       <c r="H22" s="3">
-        <v>174800</v>
+        <v>171200</v>
       </c>
       <c r="I22" s="3">
-        <v>129900</v>
+        <v>127200</v>
       </c>
       <c r="J22" s="3">
-        <v>178900</v>
+        <v>175200</v>
       </c>
       <c r="K22" s="3">
         <v>165800</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>283100</v>
+        <v>277300</v>
       </c>
       <c r="E23" s="3">
-        <v>465800</v>
+        <v>456100</v>
       </c>
       <c r="F23" s="3">
-        <v>267700</v>
+        <v>262200</v>
       </c>
       <c r="G23" s="3">
-        <v>143900</v>
+        <v>140900</v>
       </c>
       <c r="H23" s="3">
-        <v>259700</v>
+        <v>254300</v>
       </c>
       <c r="I23" s="3">
-        <v>235100</v>
+        <v>230200</v>
       </c>
       <c r="J23" s="3">
-        <v>345600</v>
+        <v>338400</v>
       </c>
       <c r="K23" s="3">
         <v>258800</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>570900</v>
+        <v>559100</v>
       </c>
       <c r="E24" s="3">
-        <v>77900</v>
+        <v>76300</v>
       </c>
       <c r="F24" s="3">
-        <v>52000</v>
+        <v>51000</v>
       </c>
       <c r="G24" s="3">
-        <v>212800</v>
+        <v>208400</v>
       </c>
       <c r="H24" s="3">
-        <v>48600</v>
+        <v>47600</v>
       </c>
       <c r="I24" s="3">
-        <v>34200</v>
+        <v>33500</v>
       </c>
       <c r="J24" s="3">
-        <v>62700</v>
+        <v>61400</v>
       </c>
       <c r="K24" s="3">
         <v>44500</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-287800</v>
+        <v>-281800</v>
       </c>
       <c r="E26" s="3">
-        <v>387900</v>
+        <v>379900</v>
       </c>
       <c r="F26" s="3">
-        <v>215600</v>
+        <v>211200</v>
       </c>
       <c r="G26" s="3">
-        <v>-69000</v>
+        <v>-67500</v>
       </c>
       <c r="H26" s="3">
-        <v>211100</v>
+        <v>206700</v>
       </c>
       <c r="I26" s="3">
-        <v>200900</v>
+        <v>196700</v>
       </c>
       <c r="J26" s="3">
-        <v>282900</v>
+        <v>277000</v>
       </c>
       <c r="K26" s="3">
         <v>214400</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-287800</v>
+        <v>-281800</v>
       </c>
       <c r="E27" s="3">
-        <v>387900</v>
+        <v>379900</v>
       </c>
       <c r="F27" s="3">
-        <v>215600</v>
+        <v>211200</v>
       </c>
       <c r="G27" s="3">
-        <v>-69000</v>
+        <v>-67500</v>
       </c>
       <c r="H27" s="3">
-        <v>211100</v>
+        <v>206700</v>
       </c>
       <c r="I27" s="3">
-        <v>200900</v>
+        <v>196700</v>
       </c>
       <c r="J27" s="3">
-        <v>282900</v>
+        <v>277000</v>
       </c>
       <c r="K27" s="3">
         <v>214400</v>
@@ -1855,25 +1855,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-36600</v>
+        <v>-35800</v>
       </c>
       <c r="E32" s="3">
-        <v>-141600</v>
+        <v>-138700</v>
       </c>
       <c r="F32" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="G32" s="3">
-        <v>51600</v>
+        <v>50600</v>
       </c>
       <c r="H32" s="3">
-        <v>75300</v>
+        <v>73800</v>
       </c>
       <c r="I32" s="3">
-        <v>28800</v>
+        <v>28200</v>
       </c>
       <c r="J32" s="3">
-        <v>-73100</v>
+        <v>-71600</v>
       </c>
       <c r="K32" s="3">
         <v>-22900</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-287800</v>
+        <v>-281800</v>
       </c>
       <c r="E33" s="3">
-        <v>387900</v>
+        <v>379900</v>
       </c>
       <c r="F33" s="3">
-        <v>215600</v>
+        <v>211200</v>
       </c>
       <c r="G33" s="3">
-        <v>-69000</v>
+        <v>-67500</v>
       </c>
       <c r="H33" s="3">
-        <v>211100</v>
+        <v>206700</v>
       </c>
       <c r="I33" s="3">
-        <v>200900</v>
+        <v>196700</v>
       </c>
       <c r="J33" s="3">
-        <v>282900</v>
+        <v>277000</v>
       </c>
       <c r="K33" s="3">
         <v>214400</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-287800</v>
+        <v>-281800</v>
       </c>
       <c r="E35" s="3">
-        <v>387900</v>
+        <v>379900</v>
       </c>
       <c r="F35" s="3">
-        <v>215600</v>
+        <v>211200</v>
       </c>
       <c r="G35" s="3">
-        <v>-69000</v>
+        <v>-67500</v>
       </c>
       <c r="H35" s="3">
-        <v>211100</v>
+        <v>206700</v>
       </c>
       <c r="I35" s="3">
-        <v>200900</v>
+        <v>196700</v>
       </c>
       <c r="J35" s="3">
-        <v>282900</v>
+        <v>277000</v>
       </c>
       <c r="K35" s="3">
         <v>214400</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>873100</v>
+        <v>855000</v>
       </c>
       <c r="E41" s="3">
-        <v>990500</v>
+        <v>970000</v>
       </c>
       <c r="F41" s="3">
-        <v>1196700</v>
+        <v>1171900</v>
       </c>
       <c r="G41" s="3">
-        <v>703000</v>
+        <v>688400</v>
       </c>
       <c r="H41" s="3">
-        <v>827400</v>
+        <v>810300</v>
       </c>
       <c r="I41" s="3">
-        <v>451600</v>
+        <v>442300</v>
       </c>
       <c r="J41" s="3">
-        <v>345600</v>
+        <v>338400</v>
       </c>
       <c r="K41" s="3">
         <v>695500</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>336800</v>
+        <v>329800</v>
       </c>
       <c r="E43" s="3">
-        <v>314300</v>
+        <v>307800</v>
       </c>
       <c r="F43" s="3">
-        <v>374400</v>
+        <v>366700</v>
       </c>
       <c r="G43" s="3">
-        <v>377500</v>
+        <v>369700</v>
       </c>
       <c r="H43" s="3">
-        <v>386400</v>
+        <v>378400</v>
       </c>
       <c r="I43" s="3">
-        <v>353900</v>
+        <v>346600</v>
       </c>
       <c r="J43" s="3">
-        <v>387600</v>
+        <v>379600</v>
       </c>
       <c r="K43" s="3">
         <v>389200</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25200</v>
+        <v>24600</v>
       </c>
       <c r="E44" s="3">
-        <v>24400</v>
+        <v>23900</v>
       </c>
       <c r="F44" s="3">
-        <v>25300</v>
+        <v>24800</v>
       </c>
       <c r="G44" s="3">
-        <v>22100</v>
+        <v>21600</v>
       </c>
       <c r="H44" s="3">
-        <v>21600</v>
+        <v>21100</v>
       </c>
       <c r="I44" s="3">
-        <v>19800</v>
+        <v>19400</v>
       </c>
       <c r="J44" s="3">
-        <v>19000</v>
+        <v>18600</v>
       </c>
       <c r="K44" s="3">
         <v>22900</v>
@@ -2350,10 +2350,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30600</v>
+        <v>30000</v>
       </c>
       <c r="E45" s="3">
-        <v>19200</v>
+        <v>18800</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2362,13 +2362,13 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>126100</v>
+        <v>123400</v>
       </c>
       <c r="I45" s="3">
-        <v>134800</v>
+        <v>132100</v>
       </c>
       <c r="J45" s="3">
-        <v>217800</v>
+        <v>213300</v>
       </c>
       <c r="K45" s="3">
         <v>460600</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1265600</v>
+        <v>1239500</v>
       </c>
       <c r="E46" s="3">
-        <v>1348300</v>
+        <v>1320400</v>
       </c>
       <c r="F46" s="3">
-        <v>1596500</v>
+        <v>1563500</v>
       </c>
       <c r="G46" s="3">
-        <v>1102700</v>
+        <v>1079900</v>
       </c>
       <c r="H46" s="3">
-        <v>1361400</v>
+        <v>1333300</v>
       </c>
       <c r="I46" s="3">
-        <v>960300</v>
+        <v>940400</v>
       </c>
       <c r="J46" s="3">
-        <v>970000</v>
+        <v>949900</v>
       </c>
       <c r="K46" s="3">
         <v>1568200</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>113400</v>
+        <v>111100</v>
       </c>
       <c r="E47" s="3">
-        <v>115500</v>
+        <v>113200</v>
       </c>
       <c r="F47" s="3">
-        <v>227600</v>
+        <v>222900</v>
       </c>
       <c r="G47" s="3">
-        <v>191500</v>
+        <v>187600</v>
       </c>
       <c r="H47" s="3">
-        <v>277100</v>
+        <v>271400</v>
       </c>
       <c r="I47" s="3">
-        <v>317600</v>
+        <v>311000</v>
       </c>
       <c r="J47" s="3">
-        <v>308700</v>
+        <v>302300</v>
       </c>
       <c r="K47" s="3">
         <v>304700</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15915000</v>
+        <v>15586100</v>
       </c>
       <c r="E48" s="3">
-        <v>15705600</v>
+        <v>15381100</v>
       </c>
       <c r="F48" s="3">
-        <v>15505900</v>
+        <v>15185400</v>
       </c>
       <c r="G48" s="3">
-        <v>15322200</v>
+        <v>15005500</v>
       </c>
       <c r="H48" s="3">
-        <v>15120100</v>
+        <v>14807600</v>
       </c>
       <c r="I48" s="3">
-        <v>14846300</v>
+        <v>14539500</v>
       </c>
       <c r="J48" s="3">
-        <v>14568000</v>
+        <v>14266900</v>
       </c>
       <c r="K48" s="3">
         <v>14716000</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>226800</v>
+        <v>222100</v>
       </c>
       <c r="E49" s="3">
-        <v>241100</v>
+        <v>236100</v>
       </c>
       <c r="F49" s="3">
-        <v>234000</v>
+        <v>229200</v>
       </c>
       <c r="G49" s="3">
-        <v>251600</v>
+        <v>246400</v>
       </c>
       <c r="H49" s="3">
-        <v>261000</v>
+        <v>255600</v>
       </c>
       <c r="I49" s="3">
-        <v>269800</v>
+        <v>264200</v>
       </c>
       <c r="J49" s="3">
-        <v>282200</v>
+        <v>276400</v>
       </c>
       <c r="K49" s="3">
         <v>269600</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1703000</v>
+        <v>1667800</v>
       </c>
       <c r="E52" s="3">
-        <v>1463300</v>
+        <v>1433000</v>
       </c>
       <c r="F52" s="3">
-        <v>1751900</v>
+        <v>1715700</v>
       </c>
       <c r="G52" s="3">
-        <v>1826100</v>
+        <v>1788400</v>
       </c>
       <c r="H52" s="3">
-        <v>1745700</v>
+        <v>1709700</v>
       </c>
       <c r="I52" s="3">
-        <v>1160300</v>
+        <v>1136300</v>
       </c>
       <c r="J52" s="3">
-        <v>1024900</v>
+        <v>1003800</v>
       </c>
       <c r="K52" s="3">
         <v>875600</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19223900</v>
+        <v>18826600</v>
       </c>
       <c r="E54" s="3">
-        <v>18873800</v>
+        <v>18483700</v>
       </c>
       <c r="F54" s="3">
-        <v>19315900</v>
+        <v>18916700</v>
       </c>
       <c r="G54" s="3">
-        <v>18694100</v>
+        <v>18307700</v>
       </c>
       <c r="H54" s="3">
-        <v>18765400</v>
+        <v>18377600</v>
       </c>
       <c r="I54" s="3">
-        <v>17554300</v>
+        <v>17191500</v>
       </c>
       <c r="J54" s="3">
-        <v>17153800</v>
+        <v>16799200</v>
       </c>
       <c r="K54" s="3">
         <v>17734000</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>506600</v>
+        <v>496100</v>
       </c>
       <c r="E57" s="3">
-        <v>429500</v>
+        <v>420700</v>
       </c>
       <c r="F57" s="3">
-        <v>430500</v>
+        <v>421600</v>
       </c>
       <c r="G57" s="3">
-        <v>445100</v>
+        <v>435900</v>
       </c>
       <c r="H57" s="3">
-        <v>431000</v>
+        <v>422100</v>
       </c>
       <c r="I57" s="3">
-        <v>427500</v>
+        <v>418700</v>
       </c>
       <c r="J57" s="3">
-        <v>450600</v>
+        <v>441300</v>
       </c>
       <c r="K57" s="3">
         <v>376000</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>879500</v>
+        <v>861300</v>
       </c>
       <c r="E58" s="3">
-        <v>871600</v>
+        <v>853600</v>
       </c>
       <c r="F58" s="3">
-        <v>1136000</v>
+        <v>1112500</v>
       </c>
       <c r="G58" s="3">
-        <v>1124800</v>
+        <v>1101500</v>
       </c>
       <c r="H58" s="3">
-        <v>972400</v>
+        <v>952300</v>
       </c>
       <c r="I58" s="3">
-        <v>932000</v>
+        <v>912800</v>
       </c>
       <c r="J58" s="3">
-        <v>749500</v>
+        <v>734100</v>
       </c>
       <c r="K58" s="3">
         <v>1144900</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21700</v>
+        <v>21200</v>
       </c>
       <c r="E59" s="3">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="F59" s="3">
-        <v>22600</v>
+        <v>22200</v>
       </c>
       <c r="G59" s="3">
-        <v>33700</v>
+        <v>33000</v>
       </c>
       <c r="H59" s="3">
-        <v>44200</v>
+        <v>43300</v>
       </c>
       <c r="I59" s="3">
-        <v>40700</v>
+        <v>39900</v>
       </c>
       <c r="J59" s="3">
-        <v>30900</v>
+        <v>30200</v>
       </c>
       <c r="K59" s="3">
         <v>35900</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1407800</v>
+        <v>1378700</v>
       </c>
       <c r="E60" s="3">
-        <v>1325100</v>
+        <v>1297700</v>
       </c>
       <c r="F60" s="3">
-        <v>1589100</v>
+        <v>1556200</v>
       </c>
       <c r="G60" s="3">
-        <v>1603600</v>
+        <v>1570400</v>
       </c>
       <c r="H60" s="3">
-        <v>1447600</v>
+        <v>1417700</v>
       </c>
       <c r="I60" s="3">
-        <v>1400300</v>
+        <v>1371400</v>
       </c>
       <c r="J60" s="3">
-        <v>1231000</v>
+        <v>1205600</v>
       </c>
       <c r="K60" s="3">
         <v>1556800</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10385400</v>
+        <v>10170700</v>
       </c>
       <c r="E61" s="3">
-        <v>10378600</v>
+        <v>10164100</v>
       </c>
       <c r="F61" s="3">
-        <v>10772300</v>
+        <v>10549700</v>
       </c>
       <c r="G61" s="3">
-        <v>10007300</v>
+        <v>9800500</v>
       </c>
       <c r="H61" s="3">
-        <v>10358600</v>
+        <v>10144500</v>
       </c>
       <c r="I61" s="3">
-        <v>9471600</v>
+        <v>9275800</v>
       </c>
       <c r="J61" s="3">
-        <v>9509000</v>
+        <v>9312500</v>
       </c>
       <c r="K61" s="3">
         <v>9645800</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3807900</v>
+        <v>3729200</v>
       </c>
       <c r="E62" s="3">
-        <v>3135500</v>
+        <v>3070700</v>
       </c>
       <c r="F62" s="3">
-        <v>3185700</v>
+        <v>3119900</v>
       </c>
       <c r="G62" s="3">
-        <v>3140300</v>
+        <v>3075400</v>
       </c>
       <c r="H62" s="3">
-        <v>2898200</v>
+        <v>2838300</v>
       </c>
       <c r="I62" s="3">
-        <v>2541600</v>
+        <v>2489100</v>
       </c>
       <c r="J62" s="3">
-        <v>2464700</v>
+        <v>2413700</v>
       </c>
       <c r="K62" s="3">
         <v>2507100</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15601000</v>
+        <v>15278600</v>
       </c>
       <c r="E66" s="3">
-        <v>14839200</v>
+        <v>14532600</v>
       </c>
       <c r="F66" s="3">
-        <v>15547100</v>
+        <v>15225800</v>
       </c>
       <c r="G66" s="3">
-        <v>14751300</v>
+        <v>14446400</v>
       </c>
       <c r="H66" s="3">
-        <v>14704400</v>
+        <v>14400500</v>
       </c>
       <c r="I66" s="3">
-        <v>13413500</v>
+        <v>13136300</v>
       </c>
       <c r="J66" s="3">
-        <v>13204600</v>
+        <v>12931700</v>
       </c>
       <c r="K66" s="3">
         <v>13709600</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2900300</v>
+        <v>2840400</v>
       </c>
       <c r="E72" s="3">
-        <v>3356600</v>
+        <v>3287300</v>
       </c>
       <c r="F72" s="3">
-        <v>3099600</v>
+        <v>3035500</v>
       </c>
       <c r="G72" s="3">
-        <v>3264400</v>
+        <v>3196900</v>
       </c>
       <c r="H72" s="3">
-        <v>3391900</v>
+        <v>3321800</v>
       </c>
       <c r="I72" s="3">
-        <v>3460200</v>
+        <v>3388700</v>
       </c>
       <c r="J72" s="3">
-        <v>3718800</v>
+        <v>3642000</v>
       </c>
       <c r="K72" s="3">
         <v>3341300</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3622900</v>
+        <v>3548000</v>
       </c>
       <c r="E76" s="3">
-        <v>4034600</v>
+        <v>3951200</v>
       </c>
       <c r="F76" s="3">
-        <v>3768700</v>
+        <v>3690900</v>
       </c>
       <c r="G76" s="3">
-        <v>3942900</v>
+        <v>3861400</v>
       </c>
       <c r="H76" s="3">
-        <v>4061100</v>
+        <v>3977100</v>
       </c>
       <c r="I76" s="3">
-        <v>4140800</v>
+        <v>4055200</v>
       </c>
       <c r="J76" s="3">
-        <v>3949100</v>
+        <v>3867500</v>
       </c>
       <c r="K76" s="3">
         <v>4024400</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-287800</v>
+        <v>-281800</v>
       </c>
       <c r="E81" s="3">
-        <v>387900</v>
+        <v>379900</v>
       </c>
       <c r="F81" s="3">
-        <v>215600</v>
+        <v>211200</v>
       </c>
       <c r="G81" s="3">
-        <v>-69000</v>
+        <v>-67500</v>
       </c>
       <c r="H81" s="3">
-        <v>211100</v>
+        <v>206700</v>
       </c>
       <c r="I81" s="3">
-        <v>200900</v>
+        <v>196700</v>
       </c>
       <c r="J81" s="3">
-        <v>282900</v>
+        <v>277000</v>
       </c>
       <c r="K81" s="3">
         <v>214400</v>
@@ -4035,25 +4035,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>276200</v>
+        <v>270500</v>
       </c>
       <c r="E83" s="3">
-        <v>292200</v>
+        <v>286100</v>
       </c>
       <c r="F83" s="3">
-        <v>269900</v>
+        <v>264400</v>
       </c>
       <c r="G83" s="3">
-        <v>377400</v>
+        <v>369600</v>
       </c>
       <c r="H83" s="3">
-        <v>265300</v>
+        <v>259800</v>
       </c>
       <c r="I83" s="3">
-        <v>269100</v>
+        <v>263600</v>
       </c>
       <c r="J83" s="3">
-        <v>254200</v>
+        <v>249000</v>
       </c>
       <c r="K83" s="3">
         <v>261200</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>626400</v>
+        <v>613500</v>
       </c>
       <c r="E89" s="3">
-        <v>613200</v>
+        <v>600600</v>
       </c>
       <c r="F89" s="3">
-        <v>530700</v>
+        <v>519700</v>
       </c>
       <c r="G89" s="3">
-        <v>593900</v>
+        <v>581700</v>
       </c>
       <c r="H89" s="3">
-        <v>484700</v>
+        <v>474600</v>
       </c>
       <c r="I89" s="3">
-        <v>524600</v>
+        <v>513700</v>
       </c>
       <c r="J89" s="3">
-        <v>583300</v>
+        <v>571200</v>
       </c>
       <c r="K89" s="3">
         <v>551000</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-371000</v>
+        <v>-363300</v>
       </c>
       <c r="E91" s="3">
-        <v>-392700</v>
+        <v>-384600</v>
       </c>
       <c r="F91" s="3">
-        <v>-419800</v>
+        <v>-411200</v>
       </c>
       <c r="G91" s="3">
-        <v>-432300</v>
+        <v>-423400</v>
       </c>
       <c r="H91" s="3">
-        <v>-436600</v>
+        <v>-427600</v>
       </c>
       <c r="I91" s="3">
-        <v>-425600</v>
+        <v>-416800</v>
       </c>
       <c r="J91" s="3">
-        <v>-402800</v>
+        <v>-394500</v>
       </c>
       <c r="K91" s="3">
         <v>-511600</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-383200</v>
+        <v>-375300</v>
       </c>
       <c r="E94" s="3">
-        <v>-284500</v>
+        <v>-278600</v>
       </c>
       <c r="F94" s="3">
-        <v>-446700</v>
+        <v>-437500</v>
       </c>
       <c r="G94" s="3">
-        <v>-383200</v>
+        <v>-375300</v>
       </c>
       <c r="H94" s="3">
-        <v>-407300</v>
+        <v>-398900</v>
       </c>
       <c r="I94" s="3">
-        <v>-435400</v>
+        <v>-426400</v>
       </c>
       <c r="J94" s="3">
-        <v>-400100</v>
+        <v>-391900</v>
       </c>
       <c r="K94" s="3">
         <v>-535400</v>
@@ -4625,25 +4625,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-261700</v>
+        <v>-256300</v>
       </c>
       <c r="E96" s="3">
-        <v>-130700</v>
+        <v>-128000</v>
       </c>
       <c r="F96" s="3">
-        <v>-257800</v>
+        <v>-252500</v>
       </c>
       <c r="G96" s="3">
-        <v>-128900</v>
+        <v>-126200</v>
       </c>
       <c r="H96" s="3">
-        <v>-249800</v>
+        <v>-244700</v>
       </c>
       <c r="I96" s="3">
-        <v>-124900</v>
+        <v>-122300</v>
       </c>
       <c r="J96" s="3">
-        <v>-240400</v>
+        <v>-235400</v>
       </c>
       <c r="K96" s="3">
         <v>-123200</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-373600</v>
+        <v>-365900</v>
       </c>
       <c r="E100" s="3">
-        <v>-522100</v>
+        <v>-511300</v>
       </c>
       <c r="F100" s="3">
-        <v>402700</v>
+        <v>394300</v>
       </c>
       <c r="G100" s="3">
-        <v>-331700</v>
+        <v>-324900</v>
       </c>
       <c r="H100" s="3">
-        <v>294700</v>
+        <v>288600</v>
       </c>
       <c r="I100" s="3">
-        <v>29300</v>
+        <v>28700</v>
       </c>
       <c r="J100" s="3">
-        <v>-531600</v>
+        <v>-520700</v>
       </c>
       <c r="K100" s="3">
         <v>563400</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-130400</v>
+        <v>-127800</v>
       </c>
       <c r="E102" s="3">
-        <v>-193300</v>
+        <v>-189300</v>
       </c>
       <c r="F102" s="3">
-        <v>486700</v>
+        <v>476600</v>
       </c>
       <c r="G102" s="3">
-        <v>-121000</v>
+        <v>-118500</v>
       </c>
       <c r="H102" s="3">
-        <v>372000</v>
+        <v>364400</v>
       </c>
       <c r="I102" s="3">
-        <v>118500</v>
+        <v>116000</v>
       </c>
       <c r="J102" s="3">
-        <v>-348500</v>
+        <v>-341300</v>
       </c>
       <c r="K102" s="3">
         <v>578900</v>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1215300</v>
+        <v>1137300</v>
       </c>
       <c r="E8" s="3">
-        <v>1191000</v>
+        <v>1114500</v>
       </c>
       <c r="F8" s="3">
-        <v>1165900</v>
+        <v>1091100</v>
       </c>
       <c r="G8" s="3">
-        <v>1204300</v>
+        <v>1126900</v>
       </c>
       <c r="H8" s="3">
-        <v>1219500</v>
+        <v>1141200</v>
       </c>
       <c r="I8" s="3">
-        <v>1176000</v>
+        <v>1100500</v>
       </c>
       <c r="J8" s="3">
-        <v>1194600</v>
+        <v>1117900</v>
       </c>
       <c r="K8" s="3">
         <v>1172600</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>168200</v>
+        <v>157400</v>
       </c>
       <c r="E9" s="3">
-        <v>180200</v>
+        <v>168600</v>
       </c>
       <c r="F9" s="3">
-        <v>161500</v>
+        <v>151100</v>
       </c>
       <c r="G9" s="3">
-        <v>169300</v>
+        <v>158500</v>
       </c>
       <c r="H9" s="3">
-        <v>157300</v>
+        <v>147200</v>
       </c>
       <c r="I9" s="3">
-        <v>169900</v>
+        <v>159000</v>
       </c>
       <c r="J9" s="3">
-        <v>172700</v>
+        <v>161600</v>
       </c>
       <c r="K9" s="3">
         <v>167200</v>
@@ -848,25 +848,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1047200</v>
+        <v>979900</v>
       </c>
       <c r="E10" s="3">
-        <v>1010800</v>
+        <v>945900</v>
       </c>
       <c r="F10" s="3">
-        <v>1004400</v>
+        <v>939900</v>
       </c>
       <c r="G10" s="3">
-        <v>1034900</v>
+        <v>968500</v>
       </c>
       <c r="H10" s="3">
-        <v>1062200</v>
+        <v>994000</v>
       </c>
       <c r="I10" s="3">
-        <v>1006100</v>
+        <v>941500</v>
       </c>
       <c r="J10" s="3">
-        <v>1021900</v>
+        <v>956300</v>
       </c>
       <c r="K10" s="3">
         <v>1005400</v>
@@ -933,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>5</v>
@@ -1018,25 +1018,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="E14" s="3">
-        <v>-31800</v>
+        <v>-29800</v>
       </c>
       <c r="F14" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="G14" s="3">
-        <v>19900</v>
+        <v>18700</v>
       </c>
       <c r="H14" s="3">
-        <v>14100</v>
+        <v>13200</v>
       </c>
       <c r="I14" s="3">
-        <v>66500</v>
+        <v>62200</v>
       </c>
       <c r="J14" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K14" s="3">
         <v>15500</v>
@@ -1068,25 +1068,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>270600</v>
+        <v>253300</v>
       </c>
       <c r="E15" s="3">
-        <v>286100</v>
+        <v>267800</v>
       </c>
       <c r="F15" s="3">
-        <v>264400</v>
+        <v>247400</v>
       </c>
       <c r="G15" s="3">
-        <v>369600</v>
+        <v>345800</v>
       </c>
       <c r="H15" s="3">
-        <v>259800</v>
+        <v>243100</v>
       </c>
       <c r="I15" s="3">
-        <v>263600</v>
+        <v>246700</v>
       </c>
       <c r="J15" s="3">
-        <v>249000</v>
+        <v>233000</v>
       </c>
       <c r="K15" s="3">
         <v>261200</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>781500</v>
+        <v>731300</v>
       </c>
       <c r="E17" s="3">
-        <v>773400</v>
+        <v>723800</v>
       </c>
       <c r="F17" s="3">
-        <v>750700</v>
+        <v>702500</v>
       </c>
       <c r="G17" s="3">
-        <v>881900</v>
+        <v>825300</v>
       </c>
       <c r="H17" s="3">
-        <v>720200</v>
+        <v>674000</v>
       </c>
       <c r="I17" s="3">
-        <v>790400</v>
+        <v>739600</v>
       </c>
       <c r="J17" s="3">
-        <v>752600</v>
+        <v>704200</v>
       </c>
       <c r="K17" s="3">
         <v>770800</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>433800</v>
+        <v>406000</v>
       </c>
       <c r="E18" s="3">
-        <v>417500</v>
+        <v>390700</v>
       </c>
       <c r="F18" s="3">
-        <v>415200</v>
+        <v>388500</v>
       </c>
       <c r="G18" s="3">
-        <v>322400</v>
+        <v>301700</v>
       </c>
       <c r="H18" s="3">
-        <v>499300</v>
+        <v>467200</v>
       </c>
       <c r="I18" s="3">
-        <v>385600</v>
+        <v>360800</v>
       </c>
       <c r="J18" s="3">
-        <v>442000</v>
+        <v>413700</v>
       </c>
       <c r="K18" s="3">
         <v>401800</v>
@@ -1255,25 +1255,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>35800</v>
+        <v>33500</v>
       </c>
       <c r="E20" s="3">
-        <v>138700</v>
+        <v>129800</v>
       </c>
       <c r="F20" s="3">
-        <v>-16300</v>
+        <v>-15200</v>
       </c>
       <c r="G20" s="3">
-        <v>-50600</v>
+        <v>-47300</v>
       </c>
       <c r="H20" s="3">
-        <v>-73800</v>
+        <v>-69000</v>
       </c>
       <c r="I20" s="3">
-        <v>-28200</v>
+        <v>-26300</v>
       </c>
       <c r="J20" s="3">
-        <v>71600</v>
+        <v>67000</v>
       </c>
       <c r="K20" s="3">
         <v>22900</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>740200</v>
+        <v>692700</v>
       </c>
       <c r="E21" s="3">
-        <v>842400</v>
+        <v>788300</v>
       </c>
       <c r="F21" s="3">
-        <v>663300</v>
+        <v>620700</v>
       </c>
       <c r="G21" s="3">
-        <v>641400</v>
+        <v>600200</v>
       </c>
       <c r="H21" s="3">
-        <v>685300</v>
+        <v>641300</v>
       </c>
       <c r="I21" s="3">
-        <v>621000</v>
+        <v>581200</v>
       </c>
       <c r="J21" s="3">
-        <v>762600</v>
+        <v>713600</v>
       </c>
       <c r="K21" s="3">
         <v>685800</v>
@@ -1355,25 +1355,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>192400</v>
+        <v>180100</v>
       </c>
       <c r="E22" s="3">
-        <v>100100</v>
+        <v>93700</v>
       </c>
       <c r="F22" s="3">
-        <v>136700</v>
+        <v>128000</v>
       </c>
       <c r="G22" s="3">
-        <v>130900</v>
+        <v>122500</v>
       </c>
       <c r="H22" s="3">
-        <v>171200</v>
+        <v>160200</v>
       </c>
       <c r="I22" s="3">
-        <v>127200</v>
+        <v>119100</v>
       </c>
       <c r="J22" s="3">
-        <v>175200</v>
+        <v>164000</v>
       </c>
       <c r="K22" s="3">
         <v>165800</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>277300</v>
+        <v>259500</v>
       </c>
       <c r="E23" s="3">
-        <v>456100</v>
+        <v>426800</v>
       </c>
       <c r="F23" s="3">
-        <v>262200</v>
+        <v>245300</v>
       </c>
       <c r="G23" s="3">
-        <v>140900</v>
+        <v>131900</v>
       </c>
       <c r="H23" s="3">
-        <v>254300</v>
+        <v>238000</v>
       </c>
       <c r="I23" s="3">
-        <v>230200</v>
+        <v>215400</v>
       </c>
       <c r="J23" s="3">
-        <v>338400</v>
+        <v>316700</v>
       </c>
       <c r="K23" s="3">
         <v>258800</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>559100</v>
+        <v>523200</v>
       </c>
       <c r="E24" s="3">
-        <v>76300</v>
+        <v>71400</v>
       </c>
       <c r="F24" s="3">
-        <v>51000</v>
+        <v>47700</v>
       </c>
       <c r="G24" s="3">
-        <v>208400</v>
+        <v>195100</v>
       </c>
       <c r="H24" s="3">
-        <v>47600</v>
+        <v>44500</v>
       </c>
       <c r="I24" s="3">
-        <v>33500</v>
+        <v>31400</v>
       </c>
       <c r="J24" s="3">
-        <v>61400</v>
+        <v>57500</v>
       </c>
       <c r="K24" s="3">
         <v>44500</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-281800</v>
+        <v>-263700</v>
       </c>
       <c r="E26" s="3">
-        <v>379900</v>
+        <v>355500</v>
       </c>
       <c r="F26" s="3">
-        <v>211200</v>
+        <v>197600</v>
       </c>
       <c r="G26" s="3">
-        <v>-67500</v>
+        <v>-63200</v>
       </c>
       <c r="H26" s="3">
-        <v>206700</v>
+        <v>193500</v>
       </c>
       <c r="I26" s="3">
-        <v>196700</v>
+        <v>184100</v>
       </c>
       <c r="J26" s="3">
-        <v>277000</v>
+        <v>259200</v>
       </c>
       <c r="K26" s="3">
         <v>214400</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-281800</v>
+        <v>-263700</v>
       </c>
       <c r="E27" s="3">
-        <v>379900</v>
+        <v>355500</v>
       </c>
       <c r="F27" s="3">
-        <v>211200</v>
+        <v>197600</v>
       </c>
       <c r="G27" s="3">
-        <v>-67500</v>
+        <v>-63200</v>
       </c>
       <c r="H27" s="3">
-        <v>206700</v>
+        <v>193500</v>
       </c>
       <c r="I27" s="3">
-        <v>196700</v>
+        <v>184100</v>
       </c>
       <c r="J27" s="3">
-        <v>277000</v>
+        <v>259200</v>
       </c>
       <c r="K27" s="3">
         <v>214400</v>
@@ -1855,25 +1855,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-35800</v>
+        <v>-33500</v>
       </c>
       <c r="E32" s="3">
-        <v>-138700</v>
+        <v>-129800</v>
       </c>
       <c r="F32" s="3">
-        <v>16300</v>
+        <v>15200</v>
       </c>
       <c r="G32" s="3">
-        <v>50600</v>
+        <v>47300</v>
       </c>
       <c r="H32" s="3">
-        <v>73800</v>
+        <v>69000</v>
       </c>
       <c r="I32" s="3">
-        <v>28200</v>
+        <v>26300</v>
       </c>
       <c r="J32" s="3">
-        <v>-71600</v>
+        <v>-67000</v>
       </c>
       <c r="K32" s="3">
         <v>-22900</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-281800</v>
+        <v>-263700</v>
       </c>
       <c r="E33" s="3">
-        <v>379900</v>
+        <v>355500</v>
       </c>
       <c r="F33" s="3">
-        <v>211200</v>
+        <v>197600</v>
       </c>
       <c r="G33" s="3">
-        <v>-67500</v>
+        <v>-63200</v>
       </c>
       <c r="H33" s="3">
-        <v>206700</v>
+        <v>193500</v>
       </c>
       <c r="I33" s="3">
-        <v>196700</v>
+        <v>184100</v>
       </c>
       <c r="J33" s="3">
-        <v>277000</v>
+        <v>259200</v>
       </c>
       <c r="K33" s="3">
         <v>214400</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-281800</v>
+        <v>-263700</v>
       </c>
       <c r="E35" s="3">
-        <v>379900</v>
+        <v>355500</v>
       </c>
       <c r="F35" s="3">
-        <v>211200</v>
+        <v>197600</v>
       </c>
       <c r="G35" s="3">
-        <v>-67500</v>
+        <v>-63200</v>
       </c>
       <c r="H35" s="3">
-        <v>206700</v>
+        <v>193500</v>
       </c>
       <c r="I35" s="3">
-        <v>196700</v>
+        <v>184100</v>
       </c>
       <c r="J35" s="3">
-        <v>277000</v>
+        <v>259200</v>
       </c>
       <c r="K35" s="3">
         <v>214400</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>855000</v>
+        <v>800100</v>
       </c>
       <c r="E41" s="3">
-        <v>970000</v>
+        <v>907700</v>
       </c>
       <c r="F41" s="3">
-        <v>1171900</v>
+        <v>1096700</v>
       </c>
       <c r="G41" s="3">
-        <v>688400</v>
+        <v>644200</v>
       </c>
       <c r="H41" s="3">
-        <v>810300</v>
+        <v>758300</v>
       </c>
       <c r="I41" s="3">
-        <v>442300</v>
+        <v>413900</v>
       </c>
       <c r="J41" s="3">
-        <v>338400</v>
+        <v>316700</v>
       </c>
       <c r="K41" s="3">
         <v>695500</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>329800</v>
+        <v>308600</v>
       </c>
       <c r="E43" s="3">
-        <v>307800</v>
+        <v>288000</v>
       </c>
       <c r="F43" s="3">
-        <v>366700</v>
+        <v>343200</v>
       </c>
       <c r="G43" s="3">
-        <v>369700</v>
+        <v>346000</v>
       </c>
       <c r="H43" s="3">
-        <v>378400</v>
+        <v>354100</v>
       </c>
       <c r="I43" s="3">
-        <v>346600</v>
+        <v>324400</v>
       </c>
       <c r="J43" s="3">
-        <v>379600</v>
+        <v>355200</v>
       </c>
       <c r="K43" s="3">
         <v>389200</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24600</v>
+        <v>23100</v>
       </c>
       <c r="E44" s="3">
-        <v>23900</v>
+        <v>22300</v>
       </c>
       <c r="F44" s="3">
-        <v>24800</v>
+        <v>23200</v>
       </c>
       <c r="G44" s="3">
-        <v>21600</v>
+        <v>20300</v>
       </c>
       <c r="H44" s="3">
-        <v>21100</v>
+        <v>19800</v>
       </c>
       <c r="I44" s="3">
-        <v>19400</v>
+        <v>18200</v>
       </c>
       <c r="J44" s="3">
-        <v>18600</v>
+        <v>17400</v>
       </c>
       <c r="K44" s="3">
         <v>22900</v>
@@ -2350,10 +2350,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30000</v>
+        <v>28100</v>
       </c>
       <c r="E45" s="3">
-        <v>18800</v>
+        <v>17600</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2362,13 +2362,13 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>123400</v>
+        <v>115500</v>
       </c>
       <c r="I45" s="3">
-        <v>132100</v>
+        <v>123600</v>
       </c>
       <c r="J45" s="3">
-        <v>213300</v>
+        <v>199600</v>
       </c>
       <c r="K45" s="3">
         <v>460600</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1239500</v>
+        <v>1159900</v>
       </c>
       <c r="E46" s="3">
-        <v>1320400</v>
+        <v>1235600</v>
       </c>
       <c r="F46" s="3">
-        <v>1563500</v>
+        <v>1463100</v>
       </c>
       <c r="G46" s="3">
-        <v>1079900</v>
+        <v>1010600</v>
       </c>
       <c r="H46" s="3">
-        <v>1333300</v>
+        <v>1247700</v>
       </c>
       <c r="I46" s="3">
-        <v>940400</v>
+        <v>880000</v>
       </c>
       <c r="J46" s="3">
-        <v>949900</v>
+        <v>888900</v>
       </c>
       <c r="K46" s="3">
         <v>1568200</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>111100</v>
+        <v>103900</v>
       </c>
       <c r="E47" s="3">
-        <v>113200</v>
+        <v>105900</v>
       </c>
       <c r="F47" s="3">
-        <v>222900</v>
+        <v>208600</v>
       </c>
       <c r="G47" s="3">
-        <v>187600</v>
+        <v>175500</v>
       </c>
       <c r="H47" s="3">
-        <v>271400</v>
+        <v>254000</v>
       </c>
       <c r="I47" s="3">
-        <v>311000</v>
+        <v>291100</v>
       </c>
       <c r="J47" s="3">
-        <v>302300</v>
+        <v>282900</v>
       </c>
       <c r="K47" s="3">
         <v>304700</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15586100</v>
+        <v>14585500</v>
       </c>
       <c r="E48" s="3">
-        <v>15381100</v>
+        <v>14393600</v>
       </c>
       <c r="F48" s="3">
-        <v>15185400</v>
+        <v>14210500</v>
       </c>
       <c r="G48" s="3">
-        <v>15005500</v>
+        <v>14042100</v>
       </c>
       <c r="H48" s="3">
-        <v>14807600</v>
+        <v>13857000</v>
       </c>
       <c r="I48" s="3">
-        <v>14539500</v>
+        <v>13606000</v>
       </c>
       <c r="J48" s="3">
-        <v>14266900</v>
+        <v>13351000</v>
       </c>
       <c r="K48" s="3">
         <v>14716000</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>222100</v>
+        <v>207900</v>
       </c>
       <c r="E49" s="3">
-        <v>236100</v>
+        <v>220900</v>
       </c>
       <c r="F49" s="3">
-        <v>229200</v>
+        <v>214500</v>
       </c>
       <c r="G49" s="3">
-        <v>246400</v>
+        <v>230600</v>
       </c>
       <c r="H49" s="3">
-        <v>255600</v>
+        <v>239200</v>
       </c>
       <c r="I49" s="3">
-        <v>264200</v>
+        <v>247300</v>
       </c>
       <c r="J49" s="3">
-        <v>276400</v>
+        <v>258600</v>
       </c>
       <c r="K49" s="3">
         <v>269600</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1667800</v>
+        <v>1560700</v>
       </c>
       <c r="E52" s="3">
-        <v>1433000</v>
+        <v>1341000</v>
       </c>
       <c r="F52" s="3">
-        <v>1715700</v>
+        <v>1605500</v>
       </c>
       <c r="G52" s="3">
-        <v>1788400</v>
+        <v>1673600</v>
       </c>
       <c r="H52" s="3">
-        <v>1709700</v>
+        <v>1599900</v>
       </c>
       <c r="I52" s="3">
-        <v>1136300</v>
+        <v>1063400</v>
       </c>
       <c r="J52" s="3">
-        <v>1003800</v>
+        <v>939300</v>
       </c>
       <c r="K52" s="3">
         <v>875600</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18826600</v>
+        <v>17617900</v>
       </c>
       <c r="E54" s="3">
-        <v>18483700</v>
+        <v>17297100</v>
       </c>
       <c r="F54" s="3">
-        <v>18916700</v>
+        <v>17702200</v>
       </c>
       <c r="G54" s="3">
-        <v>18307700</v>
+        <v>17132400</v>
       </c>
       <c r="H54" s="3">
-        <v>18377600</v>
+        <v>17197800</v>
       </c>
       <c r="I54" s="3">
-        <v>17191500</v>
+        <v>16087800</v>
       </c>
       <c r="J54" s="3">
-        <v>16799200</v>
+        <v>15720700</v>
       </c>
       <c r="K54" s="3">
         <v>17734000</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>496100</v>
+        <v>464300</v>
       </c>
       <c r="E57" s="3">
-        <v>420700</v>
+        <v>393700</v>
       </c>
       <c r="F57" s="3">
-        <v>421600</v>
+        <v>394500</v>
       </c>
       <c r="G57" s="3">
-        <v>435900</v>
+        <v>407900</v>
       </c>
       <c r="H57" s="3">
-        <v>422100</v>
+        <v>395000</v>
       </c>
       <c r="I57" s="3">
-        <v>418700</v>
+        <v>391800</v>
       </c>
       <c r="J57" s="3">
-        <v>441300</v>
+        <v>412900</v>
       </c>
       <c r="K57" s="3">
         <v>376000</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>861300</v>
+        <v>806000</v>
       </c>
       <c r="E58" s="3">
-        <v>853600</v>
+        <v>798800</v>
       </c>
       <c r="F58" s="3">
-        <v>1112500</v>
+        <v>1041100</v>
       </c>
       <c r="G58" s="3">
-        <v>1101500</v>
+        <v>1030800</v>
       </c>
       <c r="H58" s="3">
-        <v>952300</v>
+        <v>891100</v>
       </c>
       <c r="I58" s="3">
-        <v>912800</v>
+        <v>854200</v>
       </c>
       <c r="J58" s="3">
-        <v>734100</v>
+        <v>686900</v>
       </c>
       <c r="K58" s="3">
         <v>1144900</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21200</v>
+        <v>19900</v>
       </c>
       <c r="E59" s="3">
-        <v>23500</v>
+        <v>22000</v>
       </c>
       <c r="F59" s="3">
-        <v>22200</v>
+        <v>20700</v>
       </c>
       <c r="G59" s="3">
-        <v>33000</v>
+        <v>30900</v>
       </c>
       <c r="H59" s="3">
-        <v>43300</v>
+        <v>40500</v>
       </c>
       <c r="I59" s="3">
-        <v>39900</v>
+        <v>37300</v>
       </c>
       <c r="J59" s="3">
-        <v>30200</v>
+        <v>28300</v>
       </c>
       <c r="K59" s="3">
         <v>35900</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1378700</v>
+        <v>1290200</v>
       </c>
       <c r="E60" s="3">
-        <v>1297700</v>
+        <v>1214400</v>
       </c>
       <c r="F60" s="3">
-        <v>1556200</v>
+        <v>1456300</v>
       </c>
       <c r="G60" s="3">
-        <v>1570400</v>
+        <v>1469600</v>
       </c>
       <c r="H60" s="3">
-        <v>1417700</v>
+        <v>1326600</v>
       </c>
       <c r="I60" s="3">
-        <v>1371400</v>
+        <v>1283300</v>
       </c>
       <c r="J60" s="3">
-        <v>1205600</v>
+        <v>1128200</v>
       </c>
       <c r="K60" s="3">
         <v>1556800</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10170700</v>
+        <v>9517800</v>
       </c>
       <c r="E61" s="3">
-        <v>10164100</v>
+        <v>9511600</v>
       </c>
       <c r="F61" s="3">
-        <v>10549700</v>
+        <v>9872400</v>
       </c>
       <c r="G61" s="3">
-        <v>9800500</v>
+        <v>9171300</v>
       </c>
       <c r="H61" s="3">
-        <v>10144500</v>
+        <v>9493300</v>
       </c>
       <c r="I61" s="3">
-        <v>9275800</v>
+        <v>8680300</v>
       </c>
       <c r="J61" s="3">
-        <v>9312500</v>
+        <v>8714600</v>
       </c>
       <c r="K61" s="3">
         <v>9645800</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3729200</v>
+        <v>3489800</v>
       </c>
       <c r="E62" s="3">
-        <v>3070700</v>
+        <v>2873600</v>
       </c>
       <c r="F62" s="3">
-        <v>3119900</v>
+        <v>2919600</v>
       </c>
       <c r="G62" s="3">
-        <v>3075400</v>
+        <v>2878000</v>
       </c>
       <c r="H62" s="3">
-        <v>2838300</v>
+        <v>2656100</v>
       </c>
       <c r="I62" s="3">
-        <v>2489100</v>
+        <v>2329300</v>
       </c>
       <c r="J62" s="3">
-        <v>2413700</v>
+        <v>2258800</v>
       </c>
       <c r="K62" s="3">
         <v>2507100</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15278600</v>
+        <v>14297700</v>
       </c>
       <c r="E66" s="3">
-        <v>14532600</v>
+        <v>13599600</v>
       </c>
       <c r="F66" s="3">
-        <v>15225800</v>
+        <v>14248300</v>
       </c>
       <c r="G66" s="3">
-        <v>14446400</v>
+        <v>13518900</v>
       </c>
       <c r="H66" s="3">
-        <v>14400500</v>
+        <v>13476000</v>
       </c>
       <c r="I66" s="3">
-        <v>13136300</v>
+        <v>12292900</v>
       </c>
       <c r="J66" s="3">
-        <v>12931700</v>
+        <v>12101500</v>
       </c>
       <c r="K66" s="3">
         <v>13709600</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2840400</v>
+        <v>2658000</v>
       </c>
       <c r="E72" s="3">
-        <v>3287300</v>
+        <v>3076200</v>
       </c>
       <c r="F72" s="3">
-        <v>3035500</v>
+        <v>2840700</v>
       </c>
       <c r="G72" s="3">
-        <v>3196900</v>
+        <v>2991700</v>
       </c>
       <c r="H72" s="3">
-        <v>3321800</v>
+        <v>3108500</v>
       </c>
       <c r="I72" s="3">
-        <v>3388700</v>
+        <v>3171100</v>
       </c>
       <c r="J72" s="3">
-        <v>3642000</v>
+        <v>3408200</v>
       </c>
       <c r="K72" s="3">
         <v>3341300</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3548000</v>
+        <v>3320200</v>
       </c>
       <c r="E76" s="3">
-        <v>3951200</v>
+        <v>3697500</v>
       </c>
       <c r="F76" s="3">
-        <v>3690900</v>
+        <v>3453900</v>
       </c>
       <c r="G76" s="3">
-        <v>3861400</v>
+        <v>3613500</v>
       </c>
       <c r="H76" s="3">
-        <v>3977100</v>
+        <v>3721800</v>
       </c>
       <c r="I76" s="3">
-        <v>4055200</v>
+        <v>3794900</v>
       </c>
       <c r="J76" s="3">
-        <v>3867500</v>
+        <v>3619200</v>
       </c>
       <c r="K76" s="3">
         <v>4024400</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-281800</v>
+        <v>-263700</v>
       </c>
       <c r="E81" s="3">
-        <v>379900</v>
+        <v>355500</v>
       </c>
       <c r="F81" s="3">
-        <v>211200</v>
+        <v>197600</v>
       </c>
       <c r="G81" s="3">
-        <v>-67500</v>
+        <v>-63200</v>
       </c>
       <c r="H81" s="3">
-        <v>206700</v>
+        <v>193500</v>
       </c>
       <c r="I81" s="3">
-        <v>196700</v>
+        <v>184100</v>
       </c>
       <c r="J81" s="3">
-        <v>277000</v>
+        <v>259200</v>
       </c>
       <c r="K81" s="3">
         <v>214400</v>
@@ -4035,25 +4035,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>270500</v>
+        <v>253100</v>
       </c>
       <c r="E83" s="3">
-        <v>286100</v>
+        <v>267800</v>
       </c>
       <c r="F83" s="3">
-        <v>264400</v>
+        <v>247400</v>
       </c>
       <c r="G83" s="3">
-        <v>369600</v>
+        <v>345800</v>
       </c>
       <c r="H83" s="3">
-        <v>259800</v>
+        <v>243100</v>
       </c>
       <c r="I83" s="3">
-        <v>263600</v>
+        <v>246700</v>
       </c>
       <c r="J83" s="3">
-        <v>249000</v>
+        <v>233000</v>
       </c>
       <c r="K83" s="3">
         <v>261200</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>613500</v>
+        <v>574100</v>
       </c>
       <c r="E89" s="3">
-        <v>600600</v>
+        <v>562000</v>
       </c>
       <c r="F89" s="3">
-        <v>519700</v>
+        <v>486400</v>
       </c>
       <c r="G89" s="3">
-        <v>581700</v>
+        <v>544300</v>
       </c>
       <c r="H89" s="3">
-        <v>474600</v>
+        <v>444200</v>
       </c>
       <c r="I89" s="3">
-        <v>513700</v>
+        <v>480800</v>
       </c>
       <c r="J89" s="3">
-        <v>571200</v>
+        <v>534600</v>
       </c>
       <c r="K89" s="3">
         <v>551000</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-363300</v>
+        <v>-340000</v>
       </c>
       <c r="E91" s="3">
-        <v>-384600</v>
+        <v>-359900</v>
       </c>
       <c r="F91" s="3">
-        <v>-411200</v>
+        <v>-384800</v>
       </c>
       <c r="G91" s="3">
-        <v>-423400</v>
+        <v>-396200</v>
       </c>
       <c r="H91" s="3">
-        <v>-427600</v>
+        <v>-400100</v>
       </c>
       <c r="I91" s="3">
-        <v>-416800</v>
+        <v>-390000</v>
       </c>
       <c r="J91" s="3">
-        <v>-394500</v>
+        <v>-369100</v>
       </c>
       <c r="K91" s="3">
         <v>-511600</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-375300</v>
+        <v>-351200</v>
       </c>
       <c r="E94" s="3">
-        <v>-278600</v>
+        <v>-260700</v>
       </c>
       <c r="F94" s="3">
-        <v>-437500</v>
+        <v>-409400</v>
       </c>
       <c r="G94" s="3">
-        <v>-375300</v>
+        <v>-351200</v>
       </c>
       <c r="H94" s="3">
-        <v>-398900</v>
+        <v>-373300</v>
       </c>
       <c r="I94" s="3">
-        <v>-426400</v>
+        <v>-399000</v>
       </c>
       <c r="J94" s="3">
-        <v>-391900</v>
+        <v>-366700</v>
       </c>
       <c r="K94" s="3">
         <v>-535400</v>
@@ -4625,25 +4625,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-256300</v>
+        <v>-239800</v>
       </c>
       <c r="E96" s="3">
-        <v>-128000</v>
+        <v>-119800</v>
       </c>
       <c r="F96" s="3">
-        <v>-252500</v>
+        <v>-236300</v>
       </c>
       <c r="G96" s="3">
-        <v>-126200</v>
+        <v>-118100</v>
       </c>
       <c r="H96" s="3">
-        <v>-244700</v>
+        <v>-229000</v>
       </c>
       <c r="I96" s="3">
-        <v>-122300</v>
+        <v>-114400</v>
       </c>
       <c r="J96" s="3">
-        <v>-235400</v>
+        <v>-220300</v>
       </c>
       <c r="K96" s="3">
         <v>-123200</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-365900</v>
+        <v>-342400</v>
       </c>
       <c r="E100" s="3">
-        <v>-511300</v>
+        <v>-478400</v>
       </c>
       <c r="F100" s="3">
-        <v>394300</v>
+        <v>369000</v>
       </c>
       <c r="G100" s="3">
-        <v>-324900</v>
+        <v>-304000</v>
       </c>
       <c r="H100" s="3">
-        <v>288600</v>
+        <v>270100</v>
       </c>
       <c r="I100" s="3">
-        <v>28700</v>
+        <v>26800</v>
       </c>
       <c r="J100" s="3">
-        <v>-520700</v>
+        <v>-487200</v>
       </c>
       <c r="K100" s="3">
         <v>563400</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-127800</v>
+        <v>-119600</v>
       </c>
       <c r="E102" s="3">
-        <v>-189300</v>
+        <v>-177100</v>
       </c>
       <c r="F102" s="3">
-        <v>476600</v>
+        <v>446000</v>
       </c>
       <c r="G102" s="3">
-        <v>-118500</v>
+        <v>-110900</v>
       </c>
       <c r="H102" s="3">
-        <v>364400</v>
+        <v>341000</v>
       </c>
       <c r="I102" s="3">
-        <v>116000</v>
+        <v>108600</v>
       </c>
       <c r="J102" s="3">
-        <v>-341300</v>
+        <v>-319400</v>
       </c>
       <c r="K102" s="3">
         <v>578900</v>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42460</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42277</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42094</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1137300</v>
+        <v>1100600</v>
       </c>
       <c r="E8" s="3">
-        <v>1114500</v>
+        <v>1102800</v>
       </c>
       <c r="F8" s="3">
-        <v>1091100</v>
+        <v>1080700</v>
       </c>
       <c r="G8" s="3">
-        <v>1126900</v>
+        <v>1058000</v>
       </c>
       <c r="H8" s="3">
-        <v>1141200</v>
+        <v>1092800</v>
       </c>
       <c r="I8" s="3">
-        <v>1100500</v>
+        <v>1106600</v>
       </c>
       <c r="J8" s="3">
+        <v>1067100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1117900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1172600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1239600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1124000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1050600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1138700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1117800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1133500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1131600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>157400</v>
+        <v>185500</v>
       </c>
       <c r="E9" s="3">
-        <v>168600</v>
+        <v>152600</v>
       </c>
       <c r="F9" s="3">
-        <v>151100</v>
+        <v>163500</v>
       </c>
       <c r="G9" s="3">
-        <v>158500</v>
+        <v>146600</v>
       </c>
       <c r="H9" s="3">
-        <v>147200</v>
+        <v>153700</v>
       </c>
       <c r="I9" s="3">
-        <v>159000</v>
+        <v>142800</v>
       </c>
       <c r="J9" s="3">
+        <v>154100</v>
+      </c>
+      <c r="K9" s="3">
         <v>161600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>167200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>159600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>153600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>153500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>170600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>162100</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>979900</v>
+        <v>915100</v>
       </c>
       <c r="E10" s="3">
-        <v>945900</v>
+        <v>950200</v>
       </c>
       <c r="F10" s="3">
-        <v>939900</v>
+        <v>917200</v>
       </c>
       <c r="G10" s="3">
-        <v>968500</v>
+        <v>911400</v>
       </c>
       <c r="H10" s="3">
-        <v>994000</v>
+        <v>939100</v>
       </c>
       <c r="I10" s="3">
-        <v>941500</v>
+        <v>963800</v>
       </c>
       <c r="J10" s="3">
+        <v>913000</v>
+      </c>
+      <c r="K10" s="3">
         <v>956300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1005400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1080000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>970400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>897100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>968100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>955700</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,11 +946,11 @@
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1400</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>5</v>
@@ -950,11 +964,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
         <v>3000</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>5</v>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,108 +1029,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="3">
-        <v>-29800</v>
+        <v>3700</v>
       </c>
       <c r="F14" s="3">
-        <v>3500</v>
+        <v>-28900</v>
       </c>
       <c r="G14" s="3">
-        <v>18700</v>
+        <v>3400</v>
       </c>
       <c r="H14" s="3">
-        <v>13200</v>
+        <v>18100</v>
       </c>
       <c r="I14" s="3">
-        <v>62200</v>
+        <v>12800</v>
       </c>
       <c r="J14" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-13400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>33900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>253300</v>
+        <v>249100</v>
       </c>
       <c r="E15" s="3">
-        <v>267800</v>
+        <v>245600</v>
       </c>
       <c r="F15" s="3">
-        <v>247400</v>
+        <v>259600</v>
       </c>
       <c r="G15" s="3">
-        <v>345800</v>
+        <v>239900</v>
       </c>
       <c r="H15" s="3">
-        <v>243100</v>
+        <v>335400</v>
       </c>
       <c r="I15" s="3">
-        <v>246700</v>
+        <v>235800</v>
       </c>
       <c r="J15" s="3">
+        <v>239200</v>
+      </c>
+      <c r="K15" s="3">
         <v>233000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>261200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>262200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>246900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>219200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>232900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>241400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>236900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>731300</v>
+        <v>772700</v>
       </c>
       <c r="E17" s="3">
-        <v>723800</v>
+        <v>709100</v>
       </c>
       <c r="F17" s="3">
-        <v>702500</v>
+        <v>701800</v>
       </c>
       <c r="G17" s="3">
-        <v>825300</v>
+        <v>681200</v>
       </c>
       <c r="H17" s="3">
-        <v>674000</v>
+        <v>800200</v>
       </c>
       <c r="I17" s="3">
-        <v>739600</v>
+        <v>653600</v>
       </c>
       <c r="J17" s="3">
+        <v>717200</v>
+      </c>
+      <c r="K17" s="3">
         <v>704200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>770800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>756000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>723700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>650900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>760900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>754800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>721600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>683300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>406000</v>
+        <v>327900</v>
       </c>
       <c r="E18" s="3">
-        <v>390700</v>
+        <v>393700</v>
       </c>
       <c r="F18" s="3">
-        <v>388500</v>
+        <v>378900</v>
       </c>
       <c r="G18" s="3">
-        <v>301700</v>
+        <v>376800</v>
       </c>
       <c r="H18" s="3">
-        <v>467200</v>
+        <v>292500</v>
       </c>
       <c r="I18" s="3">
-        <v>360800</v>
+        <v>453100</v>
       </c>
       <c r="J18" s="3">
+        <v>349900</v>
+      </c>
+      <c r="K18" s="3">
         <v>413700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>401800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>483700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>399700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>377700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>363000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>411900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>448400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,258 +1282,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>33500</v>
+        <v>157400</v>
       </c>
       <c r="E20" s="3">
-        <v>129800</v>
+        <v>32500</v>
       </c>
       <c r="F20" s="3">
-        <v>-15200</v>
+        <v>125900</v>
       </c>
       <c r="G20" s="3">
-        <v>-47300</v>
+        <v>-14800</v>
       </c>
       <c r="H20" s="3">
-        <v>-69000</v>
+        <v>-45900</v>
       </c>
       <c r="I20" s="3">
-        <v>-26300</v>
+        <v>-67000</v>
       </c>
       <c r="J20" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="K20" s="3">
         <v>67000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>22900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>63400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>116400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-57000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-75500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>54300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-112200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-26900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>692700</v>
+        <v>734600</v>
       </c>
       <c r="E21" s="3">
-        <v>788300</v>
+        <v>671700</v>
       </c>
       <c r="F21" s="3">
-        <v>620700</v>
+        <v>764400</v>
       </c>
       <c r="G21" s="3">
-        <v>600200</v>
+        <v>601900</v>
       </c>
       <c r="H21" s="3">
-        <v>641300</v>
+        <v>582000</v>
       </c>
       <c r="I21" s="3">
-        <v>581200</v>
+        <v>621900</v>
       </c>
       <c r="J21" s="3">
+        <v>563500</v>
+      </c>
+      <c r="K21" s="3">
         <v>713600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>685800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>809300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>763500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>561900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>535200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>658700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>536600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>180100</v>
+        <v>216600</v>
       </c>
       <c r="E22" s="3">
-        <v>93700</v>
+        <v>174600</v>
       </c>
       <c r="F22" s="3">
-        <v>128000</v>
+        <v>90800</v>
       </c>
       <c r="G22" s="3">
-        <v>122500</v>
+        <v>124100</v>
       </c>
       <c r="H22" s="3">
-        <v>160200</v>
+        <v>118800</v>
       </c>
       <c r="I22" s="3">
-        <v>119100</v>
+        <v>155300</v>
       </c>
       <c r="J22" s="3">
+        <v>115500</v>
+      </c>
+      <c r="K22" s="3">
         <v>164000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>165800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>204200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>141600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>147500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>122300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>136000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>119400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>259500</v>
+        <v>268800</v>
       </c>
       <c r="E23" s="3">
-        <v>426800</v>
+        <v>251600</v>
       </c>
       <c r="F23" s="3">
-        <v>245300</v>
+        <v>413900</v>
       </c>
       <c r="G23" s="3">
-        <v>131900</v>
+        <v>237900</v>
       </c>
       <c r="H23" s="3">
-        <v>238000</v>
+        <v>127900</v>
       </c>
       <c r="I23" s="3">
-        <v>215400</v>
+        <v>230800</v>
       </c>
       <c r="J23" s="3">
+        <v>208900</v>
+      </c>
+      <c r="K23" s="3">
         <v>316700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>258800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>342900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>375100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>195100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>179900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>281200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>180300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>269500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>523200</v>
+        <v>80200</v>
       </c>
       <c r="E24" s="3">
-        <v>71400</v>
+        <v>507300</v>
       </c>
       <c r="F24" s="3">
-        <v>47700</v>
+        <v>69200</v>
       </c>
       <c r="G24" s="3">
-        <v>195100</v>
+        <v>46300</v>
       </c>
       <c r="H24" s="3">
+        <v>189100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>43200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>57500</v>
+      </c>
+      <c r="L24" s="3">
         <v>44500</v>
       </c>
-      <c r="I24" s="3">
-        <v>31400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>57500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>44500</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>63500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>69600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-54400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-114400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>57000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>37500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-263700</v>
+        <v>188600</v>
       </c>
       <c r="E26" s="3">
-        <v>355500</v>
+        <v>-255700</v>
       </c>
       <c r="F26" s="3">
-        <v>197600</v>
+        <v>344700</v>
       </c>
       <c r="G26" s="3">
-        <v>-63200</v>
+        <v>191600</v>
       </c>
       <c r="H26" s="3">
-        <v>193500</v>
+        <v>-61300</v>
       </c>
       <c r="I26" s="3">
-        <v>184100</v>
+        <v>187600</v>
       </c>
       <c r="J26" s="3">
+        <v>178500</v>
+      </c>
+      <c r="K26" s="3">
         <v>259200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>214400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>279300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>305500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>249500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>294300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>224200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>142700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-263700</v>
+        <v>188600</v>
       </c>
       <c r="E27" s="3">
-        <v>355500</v>
+        <v>-255700</v>
       </c>
       <c r="F27" s="3">
-        <v>197600</v>
+        <v>344700</v>
       </c>
       <c r="G27" s="3">
-        <v>-63200</v>
+        <v>191600</v>
       </c>
       <c r="H27" s="3">
-        <v>193500</v>
+        <v>-61300</v>
       </c>
       <c r="I27" s="3">
-        <v>184100</v>
+        <v>187600</v>
       </c>
       <c r="J27" s="3">
+        <v>178500</v>
+      </c>
+      <c r="K27" s="3">
         <v>259200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>214400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>279300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>305500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>249500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>294300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>224200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>142700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1731,8 +1792,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1743,14 +1804,17 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-33500</v>
+        <v>-157400</v>
       </c>
       <c r="E32" s="3">
-        <v>-129800</v>
+        <v>-32500</v>
       </c>
       <c r="F32" s="3">
-        <v>15200</v>
+        <v>-125900</v>
       </c>
       <c r="G32" s="3">
-        <v>47300</v>
+        <v>14800</v>
       </c>
       <c r="H32" s="3">
-        <v>69000</v>
+        <v>45900</v>
       </c>
       <c r="I32" s="3">
-        <v>26300</v>
+        <v>67000</v>
       </c>
       <c r="J32" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-67000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-22900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-63400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-116400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>57000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>75500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-54300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>112200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-263700</v>
+        <v>188600</v>
       </c>
       <c r="E33" s="3">
-        <v>355500</v>
+        <v>-255700</v>
       </c>
       <c r="F33" s="3">
-        <v>197600</v>
+        <v>344700</v>
       </c>
       <c r="G33" s="3">
-        <v>-63200</v>
+        <v>191600</v>
       </c>
       <c r="H33" s="3">
-        <v>193500</v>
+        <v>-61300</v>
       </c>
       <c r="I33" s="3">
-        <v>184100</v>
+        <v>187600</v>
       </c>
       <c r="J33" s="3">
+        <v>178500</v>
+      </c>
+      <c r="K33" s="3">
         <v>259200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>214400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>279300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>305500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>249500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>294300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>224200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>142700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-263700</v>
+        <v>188600</v>
       </c>
       <c r="E35" s="3">
-        <v>355500</v>
+        <v>-255700</v>
       </c>
       <c r="F35" s="3">
-        <v>197600</v>
+        <v>344700</v>
       </c>
       <c r="G35" s="3">
-        <v>-63200</v>
+        <v>191600</v>
       </c>
       <c r="H35" s="3">
-        <v>193500</v>
+        <v>-61300</v>
       </c>
       <c r="I35" s="3">
-        <v>184100</v>
+        <v>187600</v>
       </c>
       <c r="J35" s="3">
+        <v>178500</v>
+      </c>
+      <c r="K35" s="3">
         <v>259200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>214400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>279300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>305500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>249500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>294300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>224200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>142700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42460</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42277</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42094</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,58 +2230,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>800100</v>
+        <v>285000</v>
       </c>
       <c r="E41" s="3">
-        <v>907700</v>
+        <v>775900</v>
       </c>
       <c r="F41" s="3">
-        <v>1096700</v>
+        <v>880200</v>
       </c>
       <c r="G41" s="3">
-        <v>644200</v>
+        <v>1063400</v>
       </c>
       <c r="H41" s="3">
-        <v>758300</v>
+        <v>624700</v>
       </c>
       <c r="I41" s="3">
-        <v>413900</v>
+        <v>735300</v>
       </c>
       <c r="J41" s="3">
+        <v>401400</v>
+      </c>
+      <c r="K41" s="3">
         <v>316700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>695500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>124000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>327300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>292400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>278600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>464900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>321300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2244,358 +2334,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>308600</v>
+        <v>351400</v>
       </c>
       <c r="E43" s="3">
-        <v>288000</v>
+        <v>299300</v>
       </c>
       <c r="F43" s="3">
-        <v>343200</v>
+        <v>279300</v>
       </c>
       <c r="G43" s="3">
-        <v>346000</v>
+        <v>332700</v>
       </c>
       <c r="H43" s="3">
-        <v>354100</v>
+        <v>335500</v>
       </c>
       <c r="I43" s="3">
-        <v>324400</v>
+        <v>343400</v>
       </c>
       <c r="J43" s="3">
+        <v>314500</v>
+      </c>
+      <c r="K43" s="3">
         <v>355200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>389200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>413500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>410800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>424900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>479200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>495500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>465200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>464300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23100</v>
+        <v>21100</v>
       </c>
       <c r="E44" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="F44" s="3">
-        <v>23200</v>
+        <v>21600</v>
       </c>
       <c r="G44" s="3">
-        <v>20300</v>
+        <v>22500</v>
       </c>
       <c r="H44" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="I44" s="3">
-        <v>18200</v>
+        <v>19200</v>
       </c>
       <c r="J44" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K44" s="3">
         <v>17400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>27700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>36000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>38200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>50100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>53300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28100</v>
+        <v>68600</v>
       </c>
       <c r="E45" s="3">
-        <v>17600</v>
+        <v>27200</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>17000</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>115500</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>123600</v>
+        <v>112000</v>
       </c>
       <c r="J45" s="3">
+        <v>119800</v>
+      </c>
+      <c r="K45" s="3">
         <v>199600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>460600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>469000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>101300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20500</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>69900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1159900</v>
+        <v>726100</v>
       </c>
       <c r="E46" s="3">
-        <v>1235600</v>
+        <v>1124700</v>
       </c>
       <c r="F46" s="3">
-        <v>1463100</v>
+        <v>1198200</v>
       </c>
       <c r="G46" s="3">
-        <v>1010600</v>
+        <v>1418800</v>
       </c>
       <c r="H46" s="3">
-        <v>1247700</v>
+        <v>979900</v>
       </c>
       <c r="I46" s="3">
-        <v>880000</v>
+        <v>1209900</v>
       </c>
       <c r="J46" s="3">
+        <v>853300</v>
+      </c>
+      <c r="K46" s="3">
         <v>888900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1568200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1034200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>868900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>753600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>816500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1010400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>841200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>103900</v>
+        <v>116300</v>
       </c>
       <c r="E47" s="3">
-        <v>105900</v>
+        <v>100800</v>
       </c>
       <c r="F47" s="3">
-        <v>208600</v>
+        <v>102700</v>
       </c>
       <c r="G47" s="3">
-        <v>175500</v>
+        <v>202300</v>
       </c>
       <c r="H47" s="3">
-        <v>254000</v>
+        <v>170200</v>
       </c>
       <c r="I47" s="3">
-        <v>291100</v>
+        <v>246300</v>
       </c>
       <c r="J47" s="3">
+        <v>282200</v>
+      </c>
+      <c r="K47" s="3">
         <v>282900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>304700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>308100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>259500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>161300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>60400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>53200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>56400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14585500</v>
+        <v>14369300</v>
       </c>
       <c r="E48" s="3">
-        <v>14393600</v>
+        <v>14143100</v>
       </c>
       <c r="F48" s="3">
-        <v>14210500</v>
+        <v>13957000</v>
       </c>
       <c r="G48" s="3">
-        <v>14042100</v>
+        <v>13779500</v>
       </c>
       <c r="H48" s="3">
-        <v>13857000</v>
+        <v>13616200</v>
       </c>
       <c r="I48" s="3">
-        <v>13606000</v>
+        <v>13436700</v>
       </c>
       <c r="J48" s="3">
+        <v>13193400</v>
+      </c>
+      <c r="K48" s="3">
         <v>13351000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14716000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14984600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13743500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12557600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13084100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12841800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12794300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12521800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>207900</v>
+        <v>190200</v>
       </c>
       <c r="E49" s="3">
-        <v>220900</v>
+        <v>201600</v>
       </c>
       <c r="F49" s="3">
-        <v>214500</v>
+        <v>214200</v>
       </c>
       <c r="G49" s="3">
-        <v>230600</v>
+        <v>208000</v>
       </c>
       <c r="H49" s="3">
-        <v>239200</v>
+        <v>223600</v>
       </c>
       <c r="I49" s="3">
-        <v>247300</v>
+        <v>232000</v>
       </c>
       <c r="J49" s="3">
+        <v>239800</v>
+      </c>
+      <c r="K49" s="3">
         <v>258600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>269600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>272100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>247900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>221400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>211800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>205400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>190800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>157200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1560700</v>
+        <v>1675700</v>
       </c>
       <c r="E52" s="3">
-        <v>1341000</v>
+        <v>1513400</v>
       </c>
       <c r="F52" s="3">
-        <v>1605500</v>
+        <v>1300400</v>
       </c>
       <c r="G52" s="3">
-        <v>1673600</v>
+        <v>1556800</v>
       </c>
       <c r="H52" s="3">
-        <v>1599900</v>
+        <v>1622800</v>
       </c>
       <c r="I52" s="3">
-        <v>1063400</v>
+        <v>1551400</v>
       </c>
       <c r="J52" s="3">
+        <v>1031100</v>
+      </c>
+      <c r="K52" s="3">
         <v>939300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>875600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>903000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1292400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1419300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1357400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1029800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1001800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17617900</v>
+        <v>17077500</v>
       </c>
       <c r="E54" s="3">
-        <v>17297100</v>
+        <v>17083600</v>
       </c>
       <c r="F54" s="3">
-        <v>17702200</v>
+        <v>16772500</v>
       </c>
       <c r="G54" s="3">
-        <v>17132400</v>
+        <v>17165300</v>
       </c>
       <c r="H54" s="3">
-        <v>17197800</v>
+        <v>16612800</v>
       </c>
       <c r="I54" s="3">
-        <v>16087800</v>
+        <v>16676200</v>
       </c>
       <c r="J54" s="3">
+        <v>15599800</v>
+      </c>
+      <c r="K54" s="3">
         <v>15720700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17734000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17501900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16412300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15113300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15530200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15140700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14884500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14138600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>464300</v>
+        <v>432700</v>
       </c>
       <c r="E57" s="3">
-        <v>393700</v>
+        <v>450200</v>
       </c>
       <c r="F57" s="3">
-        <v>394500</v>
+        <v>381700</v>
       </c>
       <c r="G57" s="3">
-        <v>407900</v>
+        <v>382500</v>
       </c>
       <c r="H57" s="3">
-        <v>395000</v>
+        <v>395600</v>
       </c>
       <c r="I57" s="3">
-        <v>391800</v>
+        <v>383000</v>
       </c>
       <c r="J57" s="3">
+        <v>379900</v>
+      </c>
+      <c r="K57" s="3">
         <v>412900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>376000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>484000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>426600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>449800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>445700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>558200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>502000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>572500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>806000</v>
+        <v>365300</v>
       </c>
       <c r="E58" s="3">
-        <v>798800</v>
+        <v>781500</v>
       </c>
       <c r="F58" s="3">
-        <v>1041100</v>
+        <v>774600</v>
       </c>
       <c r="G58" s="3">
-        <v>1030800</v>
+        <v>1009500</v>
       </c>
       <c r="H58" s="3">
-        <v>891100</v>
+        <v>999600</v>
       </c>
       <c r="I58" s="3">
-        <v>854200</v>
+        <v>864100</v>
       </c>
       <c r="J58" s="3">
+        <v>828300</v>
+      </c>
+      <c r="K58" s="3">
         <v>686900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1144900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>919300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>430700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>372400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>612000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1102500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>761200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19900</v>
+        <v>16600</v>
       </c>
       <c r="E59" s="3">
-        <v>22000</v>
+        <v>19300</v>
       </c>
       <c r="F59" s="3">
-        <v>20700</v>
+        <v>21300</v>
       </c>
       <c r="G59" s="3">
-        <v>30900</v>
+        <v>20100</v>
       </c>
       <c r="H59" s="3">
-        <v>40500</v>
+        <v>29900</v>
       </c>
       <c r="I59" s="3">
-        <v>37300</v>
+        <v>39300</v>
       </c>
       <c r="J59" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K59" s="3">
         <v>28300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>42300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>43400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>50600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>55600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1290200</v>
+        <v>814500</v>
       </c>
       <c r="E60" s="3">
-        <v>1214400</v>
+        <v>1251000</v>
       </c>
       <c r="F60" s="3">
-        <v>1456300</v>
+        <v>1177600</v>
       </c>
       <c r="G60" s="3">
-        <v>1469600</v>
+        <v>1412100</v>
       </c>
       <c r="H60" s="3">
-        <v>1326600</v>
+        <v>1425000</v>
       </c>
       <c r="I60" s="3">
-        <v>1283300</v>
+        <v>1286400</v>
       </c>
       <c r="J60" s="3">
+        <v>1244400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1128200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1556800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1445500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>911100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>853400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1101100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1711400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1318800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>786100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9517800</v>
+        <v>9074000</v>
       </c>
       <c r="E61" s="3">
-        <v>9511600</v>
+        <v>9229100</v>
       </c>
       <c r="F61" s="3">
-        <v>9872400</v>
+        <v>9223100</v>
       </c>
       <c r="G61" s="3">
-        <v>9171300</v>
+        <v>9573000</v>
       </c>
       <c r="H61" s="3">
-        <v>9493300</v>
+        <v>8893200</v>
       </c>
       <c r="I61" s="3">
-        <v>8680300</v>
+        <v>9205300</v>
       </c>
       <c r="J61" s="3">
+        <v>8417000</v>
+      </c>
+      <c r="K61" s="3">
         <v>8714600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9645800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9591900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9322700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8639100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8489500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7822900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7989400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8108900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3489800</v>
+        <v>3690600</v>
       </c>
       <c r="E62" s="3">
-        <v>2873600</v>
+        <v>3383900</v>
       </c>
       <c r="F62" s="3">
-        <v>2919600</v>
+        <v>2786400</v>
       </c>
       <c r="G62" s="3">
-        <v>2878000</v>
+        <v>2831000</v>
       </c>
       <c r="H62" s="3">
-        <v>2656100</v>
+        <v>2790700</v>
       </c>
       <c r="I62" s="3">
-        <v>2329300</v>
+        <v>2575500</v>
       </c>
       <c r="J62" s="3">
+        <v>2258600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2258800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2507100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2504500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2451800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2332200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2410800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2401100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2370700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2269600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14297700</v>
+        <v>13579200</v>
       </c>
       <c r="E66" s="3">
-        <v>13599600</v>
+        <v>13864100</v>
       </c>
       <c r="F66" s="3">
-        <v>14248300</v>
+        <v>13187100</v>
       </c>
       <c r="G66" s="3">
-        <v>13518900</v>
+        <v>13816200</v>
       </c>
       <c r="H66" s="3">
-        <v>13476000</v>
+        <v>13108900</v>
       </c>
       <c r="I66" s="3">
-        <v>12292900</v>
+        <v>13067300</v>
       </c>
       <c r="J66" s="3">
+        <v>11920100</v>
+      </c>
+      <c r="K66" s="3">
         <v>12101500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13709600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13541900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12685500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11824600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12001300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11935300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11678900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11164700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2658000</v>
+        <v>2801300</v>
       </c>
       <c r="E72" s="3">
-        <v>3076200</v>
+        <v>2577400</v>
       </c>
       <c r="F72" s="3">
-        <v>2840700</v>
+        <v>2982900</v>
       </c>
       <c r="G72" s="3">
-        <v>2991700</v>
+        <v>2754500</v>
       </c>
       <c r="H72" s="3">
-        <v>3108500</v>
+        <v>2900900</v>
       </c>
       <c r="I72" s="3">
-        <v>3171100</v>
+        <v>3014300</v>
       </c>
       <c r="J72" s="3">
+        <v>3074900</v>
+      </c>
+      <c r="K72" s="3">
         <v>3408200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3341300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3250500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3065400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2671600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2880600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2561100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2555100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2112700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3320200</v>
+        <v>3498300</v>
       </c>
       <c r="E76" s="3">
-        <v>3697500</v>
+        <v>3219500</v>
       </c>
       <c r="F76" s="3">
-        <v>3453900</v>
+        <v>3585400</v>
       </c>
       <c r="G76" s="3">
-        <v>3613500</v>
+        <v>3349100</v>
       </c>
       <c r="H76" s="3">
-        <v>3721800</v>
+        <v>3503900</v>
       </c>
       <c r="I76" s="3">
-        <v>3794900</v>
+        <v>3608900</v>
       </c>
       <c r="J76" s="3">
+        <v>3679800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3619200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4024400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3960000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3726700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3288700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3528800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3205300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3205600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2974000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42460</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42277</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42094</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-263700</v>
+        <v>188600</v>
       </c>
       <c r="E81" s="3">
-        <v>355500</v>
+        <v>-255700</v>
       </c>
       <c r="F81" s="3">
-        <v>197600</v>
+        <v>344700</v>
       </c>
       <c r="G81" s="3">
-        <v>-63200</v>
+        <v>191600</v>
       </c>
       <c r="H81" s="3">
-        <v>193500</v>
+        <v>-61300</v>
       </c>
       <c r="I81" s="3">
-        <v>184100</v>
+        <v>187600</v>
       </c>
       <c r="J81" s="3">
+        <v>178500</v>
+      </c>
+      <c r="K81" s="3">
         <v>259200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>214400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>279300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>305500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>249500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>294300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>224200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>142700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,58 +4227,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>253100</v>
+        <v>249200</v>
       </c>
       <c r="E83" s="3">
-        <v>267800</v>
+        <v>245500</v>
       </c>
       <c r="F83" s="3">
-        <v>247400</v>
+        <v>259600</v>
       </c>
       <c r="G83" s="3">
-        <v>345800</v>
+        <v>239900</v>
       </c>
       <c r="H83" s="3">
-        <v>243100</v>
+        <v>335400</v>
       </c>
       <c r="I83" s="3">
-        <v>246700</v>
+        <v>235800</v>
       </c>
       <c r="J83" s="3">
+        <v>239200</v>
+      </c>
+      <c r="K83" s="3">
         <v>233000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>261200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>262200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>246900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>219200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>232900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>241400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>236900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>574100</v>
+        <v>548600</v>
       </c>
       <c r="E89" s="3">
-        <v>562000</v>
+        <v>556700</v>
       </c>
       <c r="F89" s="3">
-        <v>486400</v>
+        <v>545000</v>
       </c>
       <c r="G89" s="3">
-        <v>544300</v>
+        <v>471600</v>
       </c>
       <c r="H89" s="3">
-        <v>444200</v>
+        <v>527800</v>
       </c>
       <c r="I89" s="3">
-        <v>480800</v>
+        <v>430700</v>
       </c>
       <c r="J89" s="3">
+        <v>466200</v>
+      </c>
+      <c r="K89" s="3">
         <v>534600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>551000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>582500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>529800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>516900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>411600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>482600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>444800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>485500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-340000</v>
+        <v>-390700</v>
       </c>
       <c r="E91" s="3">
-        <v>-359900</v>
+        <v>-329700</v>
       </c>
       <c r="F91" s="3">
-        <v>-384800</v>
+        <v>-349000</v>
       </c>
       <c r="G91" s="3">
-        <v>-396200</v>
+        <v>-373100</v>
       </c>
       <c r="H91" s="3">
-        <v>-400100</v>
+        <v>-384200</v>
       </c>
       <c r="I91" s="3">
-        <v>-390000</v>
+        <v>-388000</v>
       </c>
       <c r="J91" s="3">
+        <v>-378200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-369100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-511600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-457800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-472100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-388000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-436700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-390500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-503400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-456700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-351200</v>
+        <v>-416100</v>
       </c>
       <c r="E94" s="3">
-        <v>-260700</v>
+        <v>-340600</v>
       </c>
       <c r="F94" s="3">
-        <v>-409400</v>
+        <v>-252800</v>
       </c>
       <c r="G94" s="3">
-        <v>-351200</v>
+        <v>-397000</v>
       </c>
       <c r="H94" s="3">
-        <v>-373300</v>
+        <v>-340600</v>
       </c>
       <c r="I94" s="3">
-        <v>-399000</v>
+        <v>-362000</v>
       </c>
       <c r="J94" s="3">
+        <v>-386900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-366700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-535400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-467800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-566400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-462800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-474500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-408200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-489100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-439100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,58 +4852,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-239800</v>
+        <v>-117000</v>
       </c>
       <c r="E96" s="3">
-        <v>-119800</v>
+        <v>-232600</v>
       </c>
       <c r="F96" s="3">
-        <v>-236300</v>
+        <v>-116200</v>
       </c>
       <c r="G96" s="3">
-        <v>-118100</v>
+        <v>-229100</v>
       </c>
       <c r="H96" s="3">
-        <v>-229000</v>
+        <v>-114500</v>
       </c>
       <c r="I96" s="3">
-        <v>-114400</v>
+        <v>-222000</v>
       </c>
       <c r="J96" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-220300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-123200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-250000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-116600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-215300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-113900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-223600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-112700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-215700</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,58 +5062,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-342400</v>
+        <v>-625800</v>
       </c>
       <c r="E100" s="3">
-        <v>-478400</v>
+        <v>-332000</v>
       </c>
       <c r="F100" s="3">
-        <v>369000</v>
+        <v>-463900</v>
       </c>
       <c r="G100" s="3">
-        <v>-304000</v>
+        <v>357800</v>
       </c>
       <c r="H100" s="3">
-        <v>270100</v>
+        <v>-294800</v>
       </c>
       <c r="I100" s="3">
-        <v>26800</v>
+        <v>261900</v>
       </c>
       <c r="J100" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-487200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>563400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-323200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-126000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>65500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4919,54 +5168,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-119600</v>
+        <v>-491500</v>
       </c>
       <c r="E102" s="3">
-        <v>-177100</v>
+        <v>-115900</v>
       </c>
       <c r="F102" s="3">
-        <v>446000</v>
+        <v>-171800</v>
       </c>
       <c r="G102" s="3">
-        <v>-110900</v>
+        <v>432500</v>
       </c>
       <c r="H102" s="3">
-        <v>341000</v>
+        <v>-107500</v>
       </c>
       <c r="I102" s="3">
-        <v>108600</v>
+        <v>330600</v>
       </c>
       <c r="J102" s="3">
+        <v>105300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-319400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>578900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-208600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>37200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-188900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>139800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>156600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>28800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1100600</v>
+        <v>1089800</v>
       </c>
       <c r="E8" s="3">
-        <v>1102800</v>
+        <v>1092000</v>
       </c>
       <c r="F8" s="3">
-        <v>1080700</v>
+        <v>1070100</v>
       </c>
       <c r="G8" s="3">
-        <v>1058000</v>
+        <v>1047600</v>
       </c>
       <c r="H8" s="3">
-        <v>1092800</v>
+        <v>1082000</v>
       </c>
       <c r="I8" s="3">
-        <v>1106600</v>
+        <v>1095800</v>
       </c>
       <c r="J8" s="3">
-        <v>1067100</v>
+        <v>1056600</v>
       </c>
       <c r="K8" s="3">
         <v>1117900</v>
@@ -805,25 +805,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>185500</v>
+        <v>183700</v>
       </c>
       <c r="E9" s="3">
+        <v>151100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>161900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>145100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>152200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>141400</v>
+      </c>
+      <c r="J9" s="3">
         <v>152600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>163500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>146600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>153700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>142800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>154100</v>
       </c>
       <c r="K9" s="3">
         <v>161600</v>
@@ -858,25 +858,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>915100</v>
+        <v>906100</v>
       </c>
       <c r="E10" s="3">
-        <v>950200</v>
+        <v>940900</v>
       </c>
       <c r="F10" s="3">
-        <v>917200</v>
+        <v>908200</v>
       </c>
       <c r="G10" s="3">
-        <v>911400</v>
+        <v>902500</v>
       </c>
       <c r="H10" s="3">
-        <v>939100</v>
+        <v>929900</v>
       </c>
       <c r="I10" s="3">
-        <v>963800</v>
+        <v>954400</v>
       </c>
       <c r="J10" s="3">
-        <v>913000</v>
+        <v>904000</v>
       </c>
       <c r="K10" s="3">
         <v>956300</v>
@@ -1038,25 +1038,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="E14" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F14" s="3">
-        <v>-28900</v>
+        <v>-28600</v>
       </c>
       <c r="G14" s="3">
         <v>3400</v>
       </c>
       <c r="H14" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="I14" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="J14" s="3">
-        <v>60300</v>
+        <v>59700</v>
       </c>
       <c r="K14" s="3">
         <v>-2900</v>
@@ -1091,25 +1091,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>249100</v>
+        <v>246700</v>
       </c>
       <c r="E15" s="3">
-        <v>245600</v>
+        <v>243200</v>
       </c>
       <c r="F15" s="3">
-        <v>259600</v>
+        <v>257100</v>
       </c>
       <c r="G15" s="3">
-        <v>239900</v>
+        <v>237500</v>
       </c>
       <c r="H15" s="3">
-        <v>335400</v>
+        <v>332100</v>
       </c>
       <c r="I15" s="3">
-        <v>235800</v>
+        <v>233400</v>
       </c>
       <c r="J15" s="3">
-        <v>239200</v>
+        <v>236800</v>
       </c>
       <c r="K15" s="3">
         <v>233000</v>
@@ -1162,25 +1162,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>772700</v>
+        <v>765100</v>
       </c>
       <c r="E17" s="3">
-        <v>709100</v>
+        <v>702200</v>
       </c>
       <c r="F17" s="3">
-        <v>701800</v>
+        <v>694900</v>
       </c>
       <c r="G17" s="3">
-        <v>681200</v>
+        <v>674600</v>
       </c>
       <c r="H17" s="3">
-        <v>800200</v>
+        <v>792400</v>
       </c>
       <c r="I17" s="3">
-        <v>653600</v>
+        <v>647100</v>
       </c>
       <c r="J17" s="3">
-        <v>717200</v>
+        <v>710200</v>
       </c>
       <c r="K17" s="3">
         <v>704200</v>
@@ -1215,25 +1215,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>327900</v>
+        <v>324700</v>
       </c>
       <c r="E18" s="3">
-        <v>393700</v>
+        <v>389800</v>
       </c>
       <c r="F18" s="3">
-        <v>378900</v>
+        <v>375200</v>
       </c>
       <c r="G18" s="3">
-        <v>376800</v>
+        <v>373100</v>
       </c>
       <c r="H18" s="3">
-        <v>292500</v>
+        <v>289700</v>
       </c>
       <c r="I18" s="3">
-        <v>453100</v>
+        <v>448600</v>
       </c>
       <c r="J18" s="3">
-        <v>349900</v>
+        <v>346500</v>
       </c>
       <c r="K18" s="3">
         <v>413700</v>
@@ -1289,25 +1289,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>157400</v>
+        <v>155900</v>
       </c>
       <c r="E20" s="3">
-        <v>32500</v>
+        <v>32200</v>
       </c>
       <c r="F20" s="3">
-        <v>125900</v>
+        <v>124600</v>
       </c>
       <c r="G20" s="3">
-        <v>-14800</v>
+        <v>-14600</v>
       </c>
       <c r="H20" s="3">
-        <v>-45900</v>
+        <v>-45400</v>
       </c>
       <c r="I20" s="3">
-        <v>-67000</v>
+        <v>-66300</v>
       </c>
       <c r="J20" s="3">
-        <v>-25600</v>
+        <v>-25300</v>
       </c>
       <c r="K20" s="3">
         <v>67000</v>
@@ -1342,25 +1342,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>734600</v>
+        <v>727400</v>
       </c>
       <c r="E21" s="3">
-        <v>671700</v>
+        <v>665100</v>
       </c>
       <c r="F21" s="3">
-        <v>764400</v>
+        <v>756900</v>
       </c>
       <c r="G21" s="3">
-        <v>601900</v>
+        <v>596000</v>
       </c>
       <c r="H21" s="3">
-        <v>582000</v>
+        <v>576300</v>
       </c>
       <c r="I21" s="3">
-        <v>621900</v>
+        <v>615800</v>
       </c>
       <c r="J21" s="3">
-        <v>563500</v>
+        <v>558000</v>
       </c>
       <c r="K21" s="3">
         <v>713600</v>
@@ -1395,25 +1395,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>216600</v>
+        <v>214500</v>
       </c>
       <c r="E22" s="3">
-        <v>174600</v>
+        <v>172900</v>
       </c>
       <c r="F22" s="3">
-        <v>90800</v>
+        <v>90000</v>
       </c>
       <c r="G22" s="3">
-        <v>124100</v>
+        <v>122900</v>
       </c>
       <c r="H22" s="3">
-        <v>118800</v>
+        <v>117600</v>
       </c>
       <c r="I22" s="3">
-        <v>155300</v>
+        <v>153800</v>
       </c>
       <c r="J22" s="3">
-        <v>115500</v>
+        <v>114300</v>
       </c>
       <c r="K22" s="3">
         <v>164000</v>
@@ -1448,25 +1448,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>268800</v>
+        <v>266100</v>
       </c>
       <c r="E23" s="3">
-        <v>251600</v>
+        <v>249100</v>
       </c>
       <c r="F23" s="3">
-        <v>413900</v>
+        <v>409800</v>
       </c>
       <c r="G23" s="3">
-        <v>237900</v>
+        <v>235500</v>
       </c>
       <c r="H23" s="3">
-        <v>127900</v>
+        <v>126600</v>
       </c>
       <c r="I23" s="3">
-        <v>230800</v>
+        <v>228500</v>
       </c>
       <c r="J23" s="3">
-        <v>208900</v>
+        <v>206900</v>
       </c>
       <c r="K23" s="3">
         <v>316700</v>
@@ -1501,25 +1501,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>80200</v>
+        <v>79400</v>
       </c>
       <c r="E24" s="3">
-        <v>507300</v>
+        <v>502400</v>
       </c>
       <c r="F24" s="3">
-        <v>69200</v>
+        <v>68500</v>
       </c>
       <c r="G24" s="3">
-        <v>46300</v>
+        <v>45800</v>
       </c>
       <c r="H24" s="3">
-        <v>189100</v>
+        <v>187300</v>
       </c>
       <c r="I24" s="3">
-        <v>43200</v>
+        <v>42800</v>
       </c>
       <c r="J24" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="K24" s="3">
         <v>57500</v>
@@ -1607,25 +1607,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>188600</v>
+        <v>186700</v>
       </c>
       <c r="E26" s="3">
-        <v>-255700</v>
+        <v>-253200</v>
       </c>
       <c r="F26" s="3">
-        <v>344700</v>
+        <v>341300</v>
       </c>
       <c r="G26" s="3">
-        <v>191600</v>
+        <v>189800</v>
       </c>
       <c r="H26" s="3">
-        <v>-61300</v>
+        <v>-60700</v>
       </c>
       <c r="I26" s="3">
-        <v>187600</v>
+        <v>185800</v>
       </c>
       <c r="J26" s="3">
-        <v>178500</v>
+        <v>176700</v>
       </c>
       <c r="K26" s="3">
         <v>259200</v>
@@ -1660,25 +1660,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>188600</v>
+        <v>186700</v>
       </c>
       <c r="E27" s="3">
-        <v>-255700</v>
+        <v>-253200</v>
       </c>
       <c r="F27" s="3">
-        <v>344700</v>
+        <v>341300</v>
       </c>
       <c r="G27" s="3">
-        <v>191600</v>
+        <v>189800</v>
       </c>
       <c r="H27" s="3">
-        <v>-61300</v>
+        <v>-60700</v>
       </c>
       <c r="I27" s="3">
-        <v>187600</v>
+        <v>185800</v>
       </c>
       <c r="J27" s="3">
-        <v>178500</v>
+        <v>176700</v>
       </c>
       <c r="K27" s="3">
         <v>259200</v>
@@ -1925,25 +1925,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-157400</v>
+        <v>-155900</v>
       </c>
       <c r="E32" s="3">
-        <v>-32500</v>
+        <v>-32200</v>
       </c>
       <c r="F32" s="3">
-        <v>-125900</v>
+        <v>-124600</v>
       </c>
       <c r="G32" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="H32" s="3">
-        <v>45900</v>
+        <v>45400</v>
       </c>
       <c r="I32" s="3">
-        <v>67000</v>
+        <v>66300</v>
       </c>
       <c r="J32" s="3">
-        <v>25600</v>
+        <v>25300</v>
       </c>
       <c r="K32" s="3">
         <v>-67000</v>
@@ -1978,25 +1978,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>188600</v>
+        <v>186700</v>
       </c>
       <c r="E33" s="3">
-        <v>-255700</v>
+        <v>-253200</v>
       </c>
       <c r="F33" s="3">
-        <v>344700</v>
+        <v>341300</v>
       </c>
       <c r="G33" s="3">
-        <v>191600</v>
+        <v>189800</v>
       </c>
       <c r="H33" s="3">
-        <v>-61300</v>
+        <v>-60700</v>
       </c>
       <c r="I33" s="3">
-        <v>187600</v>
+        <v>185800</v>
       </c>
       <c r="J33" s="3">
-        <v>178500</v>
+        <v>176700</v>
       </c>
       <c r="K33" s="3">
         <v>259200</v>
@@ -2084,25 +2084,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>188600</v>
+        <v>186700</v>
       </c>
       <c r="E35" s="3">
-        <v>-255700</v>
+        <v>-253200</v>
       </c>
       <c r="F35" s="3">
-        <v>344700</v>
+        <v>341300</v>
       </c>
       <c r="G35" s="3">
-        <v>191600</v>
+        <v>189800</v>
       </c>
       <c r="H35" s="3">
-        <v>-61300</v>
+        <v>-60700</v>
       </c>
       <c r="I35" s="3">
-        <v>187600</v>
+        <v>185800</v>
       </c>
       <c r="J35" s="3">
-        <v>178500</v>
+        <v>176700</v>
       </c>
       <c r="K35" s="3">
         <v>259200</v>
@@ -2237,25 +2237,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>285000</v>
+        <v>282200</v>
       </c>
       <c r="E41" s="3">
-        <v>775900</v>
+        <v>768300</v>
       </c>
       <c r="F41" s="3">
-        <v>880200</v>
+        <v>871600</v>
       </c>
       <c r="G41" s="3">
-        <v>1063400</v>
+        <v>1053000</v>
       </c>
       <c r="H41" s="3">
-        <v>624700</v>
+        <v>618600</v>
       </c>
       <c r="I41" s="3">
-        <v>735300</v>
+        <v>728100</v>
       </c>
       <c r="J41" s="3">
-        <v>401400</v>
+        <v>397400</v>
       </c>
       <c r="K41" s="3">
         <v>316700</v>
@@ -2343,25 +2343,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>351400</v>
+        <v>348000</v>
       </c>
       <c r="E43" s="3">
-        <v>299300</v>
+        <v>296300</v>
       </c>
       <c r="F43" s="3">
-        <v>279300</v>
+        <v>276500</v>
       </c>
       <c r="G43" s="3">
-        <v>332700</v>
+        <v>329500</v>
       </c>
       <c r="H43" s="3">
-        <v>335500</v>
+        <v>332200</v>
       </c>
       <c r="I43" s="3">
-        <v>343400</v>
+        <v>340000</v>
       </c>
       <c r="J43" s="3">
-        <v>314500</v>
+        <v>311400</v>
       </c>
       <c r="K43" s="3">
         <v>355200</v>
@@ -2396,25 +2396,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21100</v>
+        <v>20800</v>
       </c>
       <c r="E44" s="3">
-        <v>22400</v>
+        <v>22100</v>
       </c>
       <c r="F44" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="G44" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="H44" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="I44" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="J44" s="3">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="K44" s="3">
         <v>17400</v>
@@ -2449,13 +2449,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68600</v>
+        <v>67900</v>
       </c>
       <c r="E45" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="F45" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2464,10 +2464,10 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>112000</v>
+        <v>110900</v>
       </c>
       <c r="J45" s="3">
-        <v>119800</v>
+        <v>118700</v>
       </c>
       <c r="K45" s="3">
         <v>199600</v>
@@ -2502,25 +2502,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>726100</v>
+        <v>718900</v>
       </c>
       <c r="E46" s="3">
-        <v>1124700</v>
+        <v>1113700</v>
       </c>
       <c r="F46" s="3">
-        <v>1198200</v>
+        <v>1186400</v>
       </c>
       <c r="G46" s="3">
-        <v>1418800</v>
+        <v>1404900</v>
       </c>
       <c r="H46" s="3">
-        <v>979900</v>
+        <v>970300</v>
       </c>
       <c r="I46" s="3">
-        <v>1209900</v>
+        <v>1198000</v>
       </c>
       <c r="J46" s="3">
-        <v>853300</v>
+        <v>845000</v>
       </c>
       <c r="K46" s="3">
         <v>888900</v>
@@ -2555,25 +2555,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>116300</v>
+        <v>115100</v>
       </c>
       <c r="E47" s="3">
-        <v>100800</v>
+        <v>99800</v>
       </c>
       <c r="F47" s="3">
-        <v>102700</v>
+        <v>101700</v>
       </c>
       <c r="G47" s="3">
-        <v>202300</v>
+        <v>200300</v>
       </c>
       <c r="H47" s="3">
-        <v>170200</v>
+        <v>168600</v>
       </c>
       <c r="I47" s="3">
-        <v>246300</v>
+        <v>243900</v>
       </c>
       <c r="J47" s="3">
-        <v>282200</v>
+        <v>279500</v>
       </c>
       <c r="K47" s="3">
         <v>282900</v>
@@ -2608,25 +2608,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14369300</v>
+        <v>14228400</v>
       </c>
       <c r="E48" s="3">
-        <v>14143100</v>
+        <v>14004400</v>
       </c>
       <c r="F48" s="3">
-        <v>13957000</v>
+        <v>13820200</v>
       </c>
       <c r="G48" s="3">
-        <v>13779500</v>
+        <v>13644400</v>
       </c>
       <c r="H48" s="3">
-        <v>13616200</v>
+        <v>13482700</v>
       </c>
       <c r="I48" s="3">
-        <v>13436700</v>
+        <v>13304900</v>
       </c>
       <c r="J48" s="3">
-        <v>13193400</v>
+        <v>13064000</v>
       </c>
       <c r="K48" s="3">
         <v>13351000</v>
@@ -2661,25 +2661,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>190200</v>
+        <v>188300</v>
       </c>
       <c r="E49" s="3">
-        <v>201600</v>
+        <v>199600</v>
       </c>
       <c r="F49" s="3">
-        <v>214200</v>
+        <v>212100</v>
       </c>
       <c r="G49" s="3">
-        <v>208000</v>
+        <v>205900</v>
       </c>
       <c r="H49" s="3">
-        <v>223600</v>
+        <v>221400</v>
       </c>
       <c r="I49" s="3">
-        <v>232000</v>
+        <v>229700</v>
       </c>
       <c r="J49" s="3">
-        <v>239800</v>
+        <v>237400</v>
       </c>
       <c r="K49" s="3">
         <v>258600</v>
@@ -2820,25 +2820,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1675700</v>
+        <v>1659300</v>
       </c>
       <c r="E52" s="3">
-        <v>1513400</v>
+        <v>1498600</v>
       </c>
       <c r="F52" s="3">
-        <v>1300400</v>
+        <v>1287600</v>
       </c>
       <c r="G52" s="3">
-        <v>1556800</v>
+        <v>1541500</v>
       </c>
       <c r="H52" s="3">
-        <v>1622800</v>
+        <v>1606900</v>
       </c>
       <c r="I52" s="3">
-        <v>1551400</v>
+        <v>1536200</v>
       </c>
       <c r="J52" s="3">
-        <v>1031100</v>
+        <v>1021000</v>
       </c>
       <c r="K52" s="3">
         <v>939300</v>
@@ -2926,25 +2926,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17077500</v>
+        <v>16910100</v>
       </c>
       <c r="E54" s="3">
-        <v>17083600</v>
+        <v>16916000</v>
       </c>
       <c r="F54" s="3">
-        <v>16772500</v>
+        <v>16608000</v>
       </c>
       <c r="G54" s="3">
-        <v>17165300</v>
+        <v>16997000</v>
       </c>
       <c r="H54" s="3">
-        <v>16612800</v>
+        <v>16449900</v>
       </c>
       <c r="I54" s="3">
-        <v>16676200</v>
+        <v>16512600</v>
       </c>
       <c r="J54" s="3">
-        <v>15599800</v>
+        <v>15446900</v>
       </c>
       <c r="K54" s="3">
         <v>15720700</v>
@@ -3021,25 +3021,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>432700</v>
+        <v>428500</v>
       </c>
       <c r="E57" s="3">
-        <v>450200</v>
+        <v>445800</v>
       </c>
       <c r="F57" s="3">
-        <v>381700</v>
+        <v>378000</v>
       </c>
       <c r="G57" s="3">
-        <v>382500</v>
+        <v>378800</v>
       </c>
       <c r="H57" s="3">
-        <v>395600</v>
+        <v>391700</v>
       </c>
       <c r="I57" s="3">
-        <v>383000</v>
+        <v>379300</v>
       </c>
       <c r="J57" s="3">
-        <v>379900</v>
+        <v>376200</v>
       </c>
       <c r="K57" s="3">
         <v>412900</v>
@@ -3074,25 +3074,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>365300</v>
+        <v>361700</v>
       </c>
       <c r="E58" s="3">
-        <v>781500</v>
+        <v>773900</v>
       </c>
       <c r="F58" s="3">
-        <v>774600</v>
+        <v>767000</v>
       </c>
       <c r="G58" s="3">
-        <v>1009500</v>
+        <v>999600</v>
       </c>
       <c r="H58" s="3">
-        <v>999600</v>
+        <v>989700</v>
       </c>
       <c r="I58" s="3">
-        <v>864100</v>
+        <v>855600</v>
       </c>
       <c r="J58" s="3">
-        <v>828300</v>
+        <v>820100</v>
       </c>
       <c r="K58" s="3">
         <v>686900</v>
@@ -3127,25 +3127,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="E59" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="F59" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="G59" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="H59" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="I59" s="3">
-        <v>39300</v>
+        <v>38900</v>
       </c>
       <c r="J59" s="3">
-        <v>36200</v>
+        <v>35800</v>
       </c>
       <c r="K59" s="3">
         <v>28300</v>
@@ -3180,25 +3180,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>814500</v>
+        <v>806600</v>
       </c>
       <c r="E60" s="3">
-        <v>1251000</v>
+        <v>1238800</v>
       </c>
       <c r="F60" s="3">
-        <v>1177600</v>
+        <v>1166000</v>
       </c>
       <c r="G60" s="3">
-        <v>1412100</v>
+        <v>1398300</v>
       </c>
       <c r="H60" s="3">
-        <v>1425000</v>
+        <v>1411100</v>
       </c>
       <c r="I60" s="3">
-        <v>1286400</v>
+        <v>1273800</v>
       </c>
       <c r="J60" s="3">
-        <v>1244400</v>
+        <v>1232200</v>
       </c>
       <c r="K60" s="3">
         <v>1128200</v>
@@ -3233,25 +3233,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9074000</v>
+        <v>8985000</v>
       </c>
       <c r="E61" s="3">
-        <v>9229100</v>
+        <v>9138600</v>
       </c>
       <c r="F61" s="3">
-        <v>9223100</v>
+        <v>9132600</v>
       </c>
       <c r="G61" s="3">
-        <v>9573000</v>
+        <v>9479100</v>
       </c>
       <c r="H61" s="3">
-        <v>8893200</v>
+        <v>8806000</v>
       </c>
       <c r="I61" s="3">
-        <v>9205300</v>
+        <v>9115100</v>
       </c>
       <c r="J61" s="3">
-        <v>8417000</v>
+        <v>8334500</v>
       </c>
       <c r="K61" s="3">
         <v>8714600</v>
@@ -3286,25 +3286,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3690600</v>
+        <v>3654500</v>
       </c>
       <c r="E62" s="3">
-        <v>3383900</v>
+        <v>3350700</v>
       </c>
       <c r="F62" s="3">
-        <v>2786400</v>
+        <v>2759100</v>
       </c>
       <c r="G62" s="3">
-        <v>2831000</v>
+        <v>2803300</v>
       </c>
       <c r="H62" s="3">
-        <v>2790700</v>
+        <v>2763300</v>
       </c>
       <c r="I62" s="3">
-        <v>2575500</v>
+        <v>2550300</v>
       </c>
       <c r="J62" s="3">
-        <v>2258600</v>
+        <v>2236500</v>
       </c>
       <c r="K62" s="3">
         <v>2258800</v>
@@ -3498,25 +3498,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13579200</v>
+        <v>13446100</v>
       </c>
       <c r="E66" s="3">
-        <v>13864100</v>
+        <v>13728100</v>
       </c>
       <c r="F66" s="3">
-        <v>13187100</v>
+        <v>13057800</v>
       </c>
       <c r="G66" s="3">
-        <v>13816200</v>
+        <v>13680700</v>
       </c>
       <c r="H66" s="3">
-        <v>13108900</v>
+        <v>12980300</v>
       </c>
       <c r="I66" s="3">
-        <v>13067300</v>
+        <v>12939100</v>
       </c>
       <c r="J66" s="3">
-        <v>11920100</v>
+        <v>11803200</v>
       </c>
       <c r="K66" s="3">
         <v>12101500</v>
@@ -3784,25 +3784,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2801300</v>
+        <v>2773900</v>
       </c>
       <c r="E72" s="3">
-        <v>2577400</v>
+        <v>2552100</v>
       </c>
       <c r="F72" s="3">
-        <v>2982900</v>
+        <v>2953700</v>
       </c>
       <c r="G72" s="3">
-        <v>2754500</v>
+        <v>2727500</v>
       </c>
       <c r="H72" s="3">
-        <v>2900900</v>
+        <v>2872500</v>
       </c>
       <c r="I72" s="3">
-        <v>3014300</v>
+        <v>2984700</v>
       </c>
       <c r="J72" s="3">
-        <v>3074900</v>
+        <v>3044800</v>
       </c>
       <c r="K72" s="3">
         <v>3408200</v>
@@ -3996,25 +3996,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3498300</v>
+        <v>3464000</v>
       </c>
       <c r="E76" s="3">
-        <v>3219500</v>
+        <v>3187900</v>
       </c>
       <c r="F76" s="3">
-        <v>3585400</v>
+        <v>3550200</v>
       </c>
       <c r="G76" s="3">
-        <v>3349100</v>
+        <v>3316300</v>
       </c>
       <c r="H76" s="3">
-        <v>3503900</v>
+        <v>3469500</v>
       </c>
       <c r="I76" s="3">
-        <v>3608900</v>
+        <v>3573500</v>
       </c>
       <c r="J76" s="3">
-        <v>3679800</v>
+        <v>3643700</v>
       </c>
       <c r="K76" s="3">
         <v>3619200</v>
@@ -4160,25 +4160,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>188600</v>
+        <v>186700</v>
       </c>
       <c r="E81" s="3">
-        <v>-255700</v>
+        <v>-253200</v>
       </c>
       <c r="F81" s="3">
-        <v>344700</v>
+        <v>341300</v>
       </c>
       <c r="G81" s="3">
-        <v>191600</v>
+        <v>189800</v>
       </c>
       <c r="H81" s="3">
-        <v>-61300</v>
+        <v>-60700</v>
       </c>
       <c r="I81" s="3">
-        <v>187600</v>
+        <v>185800</v>
       </c>
       <c r="J81" s="3">
-        <v>178500</v>
+        <v>176700</v>
       </c>
       <c r="K81" s="3">
         <v>259200</v>
@@ -4234,25 +4234,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>249200</v>
+        <v>246800</v>
       </c>
       <c r="E83" s="3">
-        <v>245500</v>
+        <v>243000</v>
       </c>
       <c r="F83" s="3">
-        <v>259600</v>
+        <v>257100</v>
       </c>
       <c r="G83" s="3">
-        <v>239900</v>
+        <v>237500</v>
       </c>
       <c r="H83" s="3">
-        <v>335400</v>
+        <v>332100</v>
       </c>
       <c r="I83" s="3">
-        <v>235800</v>
+        <v>233400</v>
       </c>
       <c r="J83" s="3">
-        <v>239200</v>
+        <v>236800</v>
       </c>
       <c r="K83" s="3">
         <v>233000</v>
@@ -4552,25 +4552,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>548600</v>
+        <v>543200</v>
       </c>
       <c r="E89" s="3">
-        <v>556700</v>
+        <v>551200</v>
       </c>
       <c r="F89" s="3">
-        <v>545000</v>
+        <v>539600</v>
       </c>
       <c r="G89" s="3">
-        <v>471600</v>
+        <v>467000</v>
       </c>
       <c r="H89" s="3">
-        <v>527800</v>
+        <v>522600</v>
       </c>
       <c r="I89" s="3">
-        <v>430700</v>
+        <v>426500</v>
       </c>
       <c r="J89" s="3">
-        <v>466200</v>
+        <v>461600</v>
       </c>
       <c r="K89" s="3">
         <v>534600</v>
@@ -4626,25 +4626,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-390700</v>
+        <v>-386900</v>
       </c>
       <c r="E91" s="3">
-        <v>-329700</v>
+        <v>-326400</v>
       </c>
       <c r="F91" s="3">
-        <v>-349000</v>
+        <v>-345500</v>
       </c>
       <c r="G91" s="3">
-        <v>-373100</v>
+        <v>-369400</v>
       </c>
       <c r="H91" s="3">
+        <v>-380400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-384200</v>
       </c>
-      <c r="I91" s="3">
-        <v>-388000</v>
-      </c>
       <c r="J91" s="3">
-        <v>-378200</v>
+        <v>-374500</v>
       </c>
       <c r="K91" s="3">
         <v>-369100</v>
@@ -4785,25 +4785,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-416100</v>
+        <v>-412100</v>
       </c>
       <c r="E94" s="3">
-        <v>-340600</v>
+        <v>-337200</v>
       </c>
       <c r="F94" s="3">
-        <v>-252800</v>
+        <v>-250300</v>
       </c>
       <c r="G94" s="3">
-        <v>-397000</v>
+        <v>-393100</v>
       </c>
       <c r="H94" s="3">
-        <v>-340600</v>
+        <v>-337200</v>
       </c>
       <c r="I94" s="3">
-        <v>-362000</v>
+        <v>-358400</v>
       </c>
       <c r="J94" s="3">
-        <v>-386900</v>
+        <v>-383100</v>
       </c>
       <c r="K94" s="3">
         <v>-366700</v>
@@ -4859,25 +4859,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-117000</v>
+        <v>-115800</v>
       </c>
       <c r="E96" s="3">
-        <v>-232600</v>
+        <v>-230300</v>
       </c>
       <c r="F96" s="3">
-        <v>-116200</v>
+        <v>-115000</v>
       </c>
       <c r="G96" s="3">
-        <v>-229100</v>
+        <v>-226900</v>
       </c>
       <c r="H96" s="3">
-        <v>-114500</v>
+        <v>-113400</v>
       </c>
       <c r="I96" s="3">
-        <v>-222000</v>
+        <v>-219900</v>
       </c>
       <c r="J96" s="3">
-        <v>-111000</v>
+        <v>-109900</v>
       </c>
       <c r="K96" s="3">
         <v>-220300</v>
@@ -5071,25 +5071,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-625800</v>
+        <v>-619600</v>
       </c>
       <c r="E100" s="3">
-        <v>-332000</v>
+        <v>-328800</v>
       </c>
       <c r="F100" s="3">
-        <v>-463900</v>
+        <v>-459400</v>
       </c>
       <c r="G100" s="3">
-        <v>357800</v>
+        <v>354300</v>
       </c>
       <c r="H100" s="3">
-        <v>-294800</v>
+        <v>-291900</v>
       </c>
       <c r="I100" s="3">
-        <v>261900</v>
+        <v>259300</v>
       </c>
       <c r="J100" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="K100" s="3">
         <v>-487200</v>
@@ -5177,25 +5177,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-491500</v>
+        <v>-486700</v>
       </c>
       <c r="E102" s="3">
-        <v>-115900</v>
+        <v>-114800</v>
       </c>
       <c r="F102" s="3">
-        <v>-171800</v>
+        <v>-170100</v>
       </c>
       <c r="G102" s="3">
-        <v>432500</v>
+        <v>428200</v>
       </c>
       <c r="H102" s="3">
-        <v>-107500</v>
+        <v>-106500</v>
       </c>
       <c r="I102" s="3">
-        <v>330600</v>
+        <v>327400</v>
       </c>
       <c r="J102" s="3">
-        <v>105300</v>
+        <v>104200</v>
       </c>
       <c r="K102" s="3">
         <v>-319400</v>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42460</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42277</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42094</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1089800</v>
+        <v>1096300</v>
       </c>
       <c r="E8" s="3">
-        <v>1092000</v>
+        <v>1109500</v>
       </c>
       <c r="F8" s="3">
-        <v>1070100</v>
+        <v>1111800</v>
       </c>
       <c r="G8" s="3">
-        <v>1047600</v>
+        <v>1089500</v>
       </c>
       <c r="H8" s="3">
-        <v>1082000</v>
+        <v>1066600</v>
       </c>
       <c r="I8" s="3">
-        <v>1095800</v>
+        <v>1101600</v>
       </c>
       <c r="J8" s="3">
+        <v>1115600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1056600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1117900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1172600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1239600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1124000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1050600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1138700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1117800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1133500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1131600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>183700</v>
+        <v>196900</v>
       </c>
       <c r="E9" s="3">
-        <v>151100</v>
+        <v>187000</v>
       </c>
       <c r="F9" s="3">
-        <v>161900</v>
+        <v>153800</v>
       </c>
       <c r="G9" s="3">
-        <v>145100</v>
+        <v>164800</v>
       </c>
       <c r="H9" s="3">
-        <v>152200</v>
+        <v>147800</v>
       </c>
       <c r="I9" s="3">
-        <v>141400</v>
+        <v>154900</v>
       </c>
       <c r="J9" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K9" s="3">
         <v>152600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>161600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>167200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>159600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>153600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>153500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>170600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>162100</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>906100</v>
+        <v>899400</v>
       </c>
       <c r="E10" s="3">
-        <v>940900</v>
+        <v>922500</v>
       </c>
       <c r="F10" s="3">
-        <v>908200</v>
+        <v>957900</v>
       </c>
       <c r="G10" s="3">
-        <v>902500</v>
+        <v>924700</v>
       </c>
       <c r="H10" s="3">
-        <v>929900</v>
+        <v>918800</v>
       </c>
       <c r="I10" s="3">
-        <v>954400</v>
+        <v>946700</v>
       </c>
       <c r="J10" s="3">
+        <v>971700</v>
+      </c>
+      <c r="K10" s="3">
         <v>904000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>956300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1005400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1080000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>970400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>897100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>968100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>955700</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,11 +963,11 @@
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
         <v>1400</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>5</v>
@@ -967,11 +981,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>5</v>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,114 +1049,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4900</v>
+        <v>-33500</v>
       </c>
       <c r="E14" s="3">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="F14" s="3">
-        <v>-28600</v>
+        <v>3700</v>
       </c>
       <c r="G14" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>18200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K14" s="3">
+        <v>59700</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M14" s="3">
+        <v>15500</v>
+      </c>
+      <c r="N14" s="3">
+        <v>17300</v>
+      </c>
+      <c r="O14" s="3">
+        <v>22200</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>33900</v>
+      </c>
+      <c r="R14" s="3">
+        <v>6400</v>
+      </c>
+      <c r="S14" s="3">
+        <v>11100</v>
+      </c>
+      <c r="T14" s="3">
         <v>3400</v>
       </c>
-      <c r="H14" s="3">
-        <v>17900</v>
-      </c>
-      <c r="I14" s="3">
-        <v>12700</v>
-      </c>
-      <c r="J14" s="3">
-        <v>59700</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="L14" s="3">
-        <v>15500</v>
-      </c>
-      <c r="M14" s="3">
-        <v>17300</v>
-      </c>
-      <c r="N14" s="3">
-        <v>22200</v>
-      </c>
-      <c r="O14" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="P14" s="3">
-        <v>33900</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>6400</v>
-      </c>
-      <c r="R14" s="3">
-        <v>11100</v>
-      </c>
-      <c r="S14" s="3">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>246700</v>
+        <v>246600</v>
       </c>
       <c r="E15" s="3">
-        <v>243200</v>
+        <v>251100</v>
       </c>
       <c r="F15" s="3">
-        <v>257100</v>
+        <v>247600</v>
       </c>
       <c r="G15" s="3">
-        <v>237500</v>
+        <v>261800</v>
       </c>
       <c r="H15" s="3">
-        <v>332100</v>
+        <v>241800</v>
       </c>
       <c r="I15" s="3">
-        <v>233400</v>
+        <v>338100</v>
       </c>
       <c r="J15" s="3">
+        <v>237700</v>
+      </c>
+      <c r="K15" s="3">
         <v>236800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>233000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>261200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>262200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>246900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>219200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>232900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>241400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>236900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>765100</v>
+        <v>750800</v>
       </c>
       <c r="E17" s="3">
-        <v>702200</v>
+        <v>778900</v>
       </c>
       <c r="F17" s="3">
-        <v>694900</v>
+        <v>714900</v>
       </c>
       <c r="G17" s="3">
-        <v>674600</v>
+        <v>707500</v>
       </c>
       <c r="H17" s="3">
-        <v>792400</v>
+        <v>686800</v>
       </c>
       <c r="I17" s="3">
-        <v>647100</v>
+        <v>806700</v>
       </c>
       <c r="J17" s="3">
+        <v>658900</v>
+      </c>
+      <c r="K17" s="3">
         <v>710200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>704200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>770800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>756000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>723700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>650900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>760900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>754800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>721600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>683300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>324700</v>
+        <v>345500</v>
       </c>
       <c r="E18" s="3">
-        <v>389800</v>
+        <v>330600</v>
       </c>
       <c r="F18" s="3">
-        <v>375200</v>
+        <v>396900</v>
       </c>
       <c r="G18" s="3">
-        <v>373100</v>
+        <v>382000</v>
       </c>
       <c r="H18" s="3">
-        <v>289700</v>
+        <v>379800</v>
       </c>
       <c r="I18" s="3">
-        <v>448600</v>
+        <v>294900</v>
       </c>
       <c r="J18" s="3">
+        <v>456700</v>
+      </c>
+      <c r="K18" s="3">
         <v>346500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>413700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>401800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>483700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>399700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>377700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>363000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>411900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>448400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,273 +1316,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>155900</v>
+        <v>476000</v>
       </c>
       <c r="E20" s="3">
-        <v>32200</v>
+        <v>158700</v>
       </c>
       <c r="F20" s="3">
-        <v>124600</v>
+        <v>32800</v>
       </c>
       <c r="G20" s="3">
-        <v>-14600</v>
+        <v>126900</v>
       </c>
       <c r="H20" s="3">
-        <v>-45400</v>
+        <v>-14900</v>
       </c>
       <c r="I20" s="3">
-        <v>-66300</v>
+        <v>-46300</v>
       </c>
       <c r="J20" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-25300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>67000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>22900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>63400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>116400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-57000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-75500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>54300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-112200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-26900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>727400</v>
+        <v>1068100</v>
       </c>
       <c r="E21" s="3">
-        <v>665100</v>
+        <v>740500</v>
       </c>
       <c r="F21" s="3">
-        <v>756900</v>
+        <v>677100</v>
       </c>
       <c r="G21" s="3">
-        <v>596000</v>
+        <v>770600</v>
       </c>
       <c r="H21" s="3">
-        <v>576300</v>
+        <v>606700</v>
       </c>
       <c r="I21" s="3">
-        <v>615800</v>
+        <v>586700</v>
       </c>
       <c r="J21" s="3">
+        <v>626900</v>
+      </c>
+      <c r="K21" s="3">
         <v>558000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>713600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>685800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>809300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>763500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>561900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>535200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>658700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>536600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>214500</v>
+        <v>313200</v>
       </c>
       <c r="E22" s="3">
-        <v>172900</v>
+        <v>218300</v>
       </c>
       <c r="F22" s="3">
-        <v>90000</v>
+        <v>176000</v>
       </c>
       <c r="G22" s="3">
-        <v>122900</v>
+        <v>91600</v>
       </c>
       <c r="H22" s="3">
-        <v>117600</v>
+        <v>125100</v>
       </c>
       <c r="I22" s="3">
-        <v>153800</v>
+        <v>119700</v>
       </c>
       <c r="J22" s="3">
+        <v>156600</v>
+      </c>
+      <c r="K22" s="3">
         <v>114300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>164000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>165800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>204200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>141600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>147500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>122300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>136000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>119400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>266100</v>
+        <v>508400</v>
       </c>
       <c r="E23" s="3">
-        <v>249100</v>
+        <v>270900</v>
       </c>
       <c r="F23" s="3">
-        <v>409800</v>
+        <v>253600</v>
       </c>
       <c r="G23" s="3">
-        <v>235500</v>
+        <v>417300</v>
       </c>
       <c r="H23" s="3">
-        <v>126600</v>
+        <v>239800</v>
       </c>
       <c r="I23" s="3">
-        <v>228500</v>
+        <v>128900</v>
       </c>
       <c r="J23" s="3">
+        <v>232700</v>
+      </c>
+      <c r="K23" s="3">
         <v>206900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>316700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>258800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>342900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>375100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>195100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>179900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>281200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>180300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>269500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>79400</v>
+        <v>87400</v>
       </c>
       <c r="E24" s="3">
-        <v>502400</v>
+        <v>80900</v>
       </c>
       <c r="F24" s="3">
-        <v>68500</v>
+        <v>511500</v>
       </c>
       <c r="G24" s="3">
-        <v>45800</v>
+        <v>69800</v>
       </c>
       <c r="H24" s="3">
-        <v>187300</v>
+        <v>46600</v>
       </c>
       <c r="I24" s="3">
-        <v>42800</v>
+        <v>190700</v>
       </c>
       <c r="J24" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K24" s="3">
         <v>30100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>57500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>63500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>69600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-54400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-114400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>57000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>37500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>186700</v>
+        <v>421000</v>
       </c>
       <c r="E26" s="3">
-        <v>-253200</v>
+        <v>190100</v>
       </c>
       <c r="F26" s="3">
-        <v>341300</v>
+        <v>-257800</v>
       </c>
       <c r="G26" s="3">
-        <v>189800</v>
+        <v>347500</v>
       </c>
       <c r="H26" s="3">
-        <v>-60700</v>
+        <v>193200</v>
       </c>
       <c r="I26" s="3">
-        <v>185800</v>
+        <v>-61800</v>
       </c>
       <c r="J26" s="3">
+        <v>189100</v>
+      </c>
+      <c r="K26" s="3">
         <v>176700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>259200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>214400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>279300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>305500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>249500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>294300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>224200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>142700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>186700</v>
+        <v>421000</v>
       </c>
       <c r="E27" s="3">
-        <v>-253200</v>
+        <v>190100</v>
       </c>
       <c r="F27" s="3">
-        <v>341300</v>
+        <v>-257800</v>
       </c>
       <c r="G27" s="3">
-        <v>189800</v>
+        <v>347500</v>
       </c>
       <c r="H27" s="3">
-        <v>-60700</v>
+        <v>193200</v>
       </c>
       <c r="I27" s="3">
-        <v>185800</v>
+        <v>-61800</v>
       </c>
       <c r="J27" s="3">
+        <v>189100</v>
+      </c>
+      <c r="K27" s="3">
         <v>176700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>259200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>214400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>279300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>305500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>249500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>294300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>224200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>142700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1856,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1807,14 +1868,17 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-155900</v>
+        <v>-476000</v>
       </c>
       <c r="E32" s="3">
-        <v>-32200</v>
+        <v>-158700</v>
       </c>
       <c r="F32" s="3">
-        <v>-124600</v>
+        <v>-32800</v>
       </c>
       <c r="G32" s="3">
-        <v>14600</v>
+        <v>-126900</v>
       </c>
       <c r="H32" s="3">
-        <v>45400</v>
+        <v>14900</v>
       </c>
       <c r="I32" s="3">
-        <v>66300</v>
+        <v>46300</v>
       </c>
       <c r="J32" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K32" s="3">
         <v>25300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-67000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-22900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-63400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-116400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>57000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>75500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-54300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>112200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>186700</v>
+        <v>421000</v>
       </c>
       <c r="E33" s="3">
-        <v>-253200</v>
+        <v>190100</v>
       </c>
       <c r="F33" s="3">
-        <v>341300</v>
+        <v>-257800</v>
       </c>
       <c r="G33" s="3">
-        <v>189800</v>
+        <v>347500</v>
       </c>
       <c r="H33" s="3">
-        <v>-60700</v>
+        <v>193200</v>
       </c>
       <c r="I33" s="3">
-        <v>185800</v>
+        <v>-61800</v>
       </c>
       <c r="J33" s="3">
+        <v>189100</v>
+      </c>
+      <c r="K33" s="3">
         <v>176700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>259200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>214400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>279300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>305500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>249500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>294300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>224200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>142700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>186700</v>
+        <v>421000</v>
       </c>
       <c r="E35" s="3">
-        <v>-253200</v>
+        <v>190100</v>
       </c>
       <c r="F35" s="3">
-        <v>341300</v>
+        <v>-257800</v>
       </c>
       <c r="G35" s="3">
-        <v>189800</v>
+        <v>347500</v>
       </c>
       <c r="H35" s="3">
-        <v>-60700</v>
+        <v>193200</v>
       </c>
       <c r="I35" s="3">
-        <v>185800</v>
+        <v>-61800</v>
       </c>
       <c r="J35" s="3">
+        <v>189100</v>
+      </c>
+      <c r="K35" s="3">
         <v>176700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>259200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>214400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>279300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>305500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>249500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>294300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>224200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>142700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42460</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42277</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42094</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,61 +2317,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>282200</v>
+        <v>634700</v>
       </c>
       <c r="E41" s="3">
-        <v>768300</v>
+        <v>287300</v>
       </c>
       <c r="F41" s="3">
-        <v>871600</v>
+        <v>782200</v>
       </c>
       <c r="G41" s="3">
-        <v>1053000</v>
+        <v>887300</v>
       </c>
       <c r="H41" s="3">
-        <v>618600</v>
+        <v>1072100</v>
       </c>
       <c r="I41" s="3">
-        <v>728100</v>
+        <v>629800</v>
       </c>
       <c r="J41" s="3">
+        <v>741300</v>
+      </c>
+      <c r="K41" s="3">
         <v>397400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>316700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>695500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>124000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>327300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>292400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>278600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>464900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>321300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2337,8 +2427,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2346,370 +2439,391 @@
         <v>348000</v>
       </c>
       <c r="E43" s="3">
-        <v>296300</v>
+        <v>354300</v>
       </c>
       <c r="F43" s="3">
-        <v>276500</v>
+        <v>301700</v>
       </c>
       <c r="G43" s="3">
-        <v>329500</v>
+        <v>281600</v>
       </c>
       <c r="H43" s="3">
-        <v>332200</v>
+        <v>335500</v>
       </c>
       <c r="I43" s="3">
-        <v>340000</v>
+        <v>338200</v>
       </c>
       <c r="J43" s="3">
+        <v>346200</v>
+      </c>
+      <c r="K43" s="3">
         <v>311400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>355200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>389200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>413500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>410800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>424900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>479200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>495500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>465200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>464300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20800</v>
+        <v>28600</v>
       </c>
       <c r="E44" s="3">
-        <v>22100</v>
+        <v>21200</v>
       </c>
       <c r="F44" s="3">
-        <v>21400</v>
+        <v>22500</v>
       </c>
       <c r="G44" s="3">
-        <v>22300</v>
+        <v>21800</v>
       </c>
       <c r="H44" s="3">
-        <v>19400</v>
+        <v>22700</v>
       </c>
       <c r="I44" s="3">
-        <v>19000</v>
+        <v>19800</v>
       </c>
       <c r="J44" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K44" s="3">
         <v>17500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>27700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>36000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>38200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>50100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>53300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67900</v>
+        <v>187000</v>
       </c>
       <c r="E45" s="3">
-        <v>26900</v>
+        <v>69200</v>
       </c>
       <c r="F45" s="3">
-        <v>16900</v>
+        <v>27400</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>17200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>110900</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>112900</v>
+      </c>
+      <c r="K45" s="3">
         <v>118700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>199600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>460600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>469000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>101300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20500</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>69900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>718900</v>
+        <v>1198200</v>
       </c>
       <c r="E46" s="3">
-        <v>1113700</v>
+        <v>732000</v>
       </c>
       <c r="F46" s="3">
-        <v>1186400</v>
+        <v>1133800</v>
       </c>
       <c r="G46" s="3">
-        <v>1404900</v>
+        <v>1207900</v>
       </c>
       <c r="H46" s="3">
-        <v>970300</v>
+        <v>1430300</v>
       </c>
       <c r="I46" s="3">
-        <v>1198000</v>
+        <v>987900</v>
       </c>
       <c r="J46" s="3">
+        <v>1219700</v>
+      </c>
+      <c r="K46" s="3">
         <v>845000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>888900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1568200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1034200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>868900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>753600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>816500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1010400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>841200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>115100</v>
+        <v>107900</v>
       </c>
       <c r="E47" s="3">
-        <v>99800</v>
+        <v>117200</v>
       </c>
       <c r="F47" s="3">
-        <v>101700</v>
+        <v>101600</v>
       </c>
       <c r="G47" s="3">
-        <v>200300</v>
+        <v>103500</v>
       </c>
       <c r="H47" s="3">
-        <v>168600</v>
+        <v>203900</v>
       </c>
       <c r="I47" s="3">
-        <v>243900</v>
+        <v>171600</v>
       </c>
       <c r="J47" s="3">
+        <v>248300</v>
+      </c>
+      <c r="K47" s="3">
         <v>279500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>282900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>304700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>308100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>259500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>161300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>60400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>53200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>56400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14228400</v>
+        <v>14693200</v>
       </c>
       <c r="E48" s="3">
-        <v>14004400</v>
+        <v>14486000</v>
       </c>
       <c r="F48" s="3">
-        <v>13820200</v>
+        <v>14258000</v>
       </c>
       <c r="G48" s="3">
-        <v>13644400</v>
+        <v>14070400</v>
       </c>
       <c r="H48" s="3">
-        <v>13482700</v>
+        <v>13891400</v>
       </c>
       <c r="I48" s="3">
-        <v>13304900</v>
+        <v>13726900</v>
       </c>
       <c r="J48" s="3">
+        <v>13545800</v>
+      </c>
+      <c r="K48" s="3">
         <v>13064000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13351000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14716000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14984600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13743500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12557600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13084100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12841800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12794300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12521800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>188300</v>
+        <v>177700</v>
       </c>
       <c r="E49" s="3">
-        <v>199600</v>
+        <v>191800</v>
       </c>
       <c r="F49" s="3">
-        <v>212100</v>
+        <v>203200</v>
       </c>
       <c r="G49" s="3">
-        <v>205900</v>
+        <v>216000</v>
       </c>
       <c r="H49" s="3">
+        <v>209600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>225400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>233900</v>
+      </c>
+      <c r="K49" s="3">
+        <v>237400</v>
+      </c>
+      <c r="L49" s="3">
+        <v>258600</v>
+      </c>
+      <c r="M49" s="3">
+        <v>269600</v>
+      </c>
+      <c r="N49" s="3">
+        <v>272100</v>
+      </c>
+      <c r="O49" s="3">
+        <v>247900</v>
+      </c>
+      <c r="P49" s="3">
         <v>221400</v>
       </c>
-      <c r="I49" s="3">
-        <v>229700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>237400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>258600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>269600</v>
-      </c>
-      <c r="M49" s="3">
-        <v>272100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>247900</v>
-      </c>
-      <c r="O49" s="3">
-        <v>221400</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>211800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>205400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>190800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>157200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1659300</v>
+        <v>1882300</v>
       </c>
       <c r="E52" s="3">
-        <v>1498600</v>
+        <v>1689300</v>
       </c>
       <c r="F52" s="3">
-        <v>1287600</v>
+        <v>1525700</v>
       </c>
       <c r="G52" s="3">
-        <v>1541500</v>
+        <v>1310900</v>
       </c>
       <c r="H52" s="3">
-        <v>1606900</v>
+        <v>1569500</v>
       </c>
       <c r="I52" s="3">
-        <v>1536200</v>
+        <v>1636000</v>
       </c>
       <c r="J52" s="3">
+        <v>1564000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1021000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>939300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>875600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>903000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1292400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1419300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1357400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1029800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1001800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16910100</v>
+        <v>18059300</v>
       </c>
       <c r="E54" s="3">
-        <v>16916000</v>
+        <v>17216300</v>
       </c>
       <c r="F54" s="3">
-        <v>16608000</v>
+        <v>17222300</v>
       </c>
       <c r="G54" s="3">
-        <v>16997000</v>
+        <v>16908700</v>
       </c>
       <c r="H54" s="3">
-        <v>16449900</v>
+        <v>17304800</v>
       </c>
       <c r="I54" s="3">
-        <v>16512600</v>
+        <v>16747700</v>
       </c>
       <c r="J54" s="3">
+        <v>16811600</v>
+      </c>
+      <c r="K54" s="3">
         <v>15446900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15720700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17734000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17501900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16412300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15113300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15530200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15140700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14884500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14138600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>428500</v>
+        <v>471400</v>
       </c>
       <c r="E57" s="3">
-        <v>445800</v>
+        <v>436200</v>
       </c>
       <c r="F57" s="3">
-        <v>378000</v>
+        <v>453900</v>
       </c>
       <c r="G57" s="3">
-        <v>378800</v>
+        <v>384800</v>
       </c>
       <c r="H57" s="3">
-        <v>391700</v>
+        <v>385700</v>
       </c>
       <c r="I57" s="3">
-        <v>379300</v>
+        <v>398800</v>
       </c>
       <c r="J57" s="3">
+        <v>386100</v>
+      </c>
+      <c r="K57" s="3">
         <v>376200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>412900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>376000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>484000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>426600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>449800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>445700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>558200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>502000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>572500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>361700</v>
+        <v>382300</v>
       </c>
       <c r="E58" s="3">
-        <v>773900</v>
+        <v>368200</v>
       </c>
       <c r="F58" s="3">
-        <v>767000</v>
+        <v>787900</v>
       </c>
       <c r="G58" s="3">
-        <v>999600</v>
+        <v>780900</v>
       </c>
       <c r="H58" s="3">
-        <v>989700</v>
+        <v>1017700</v>
       </c>
       <c r="I58" s="3">
-        <v>855600</v>
+        <v>1007700</v>
       </c>
       <c r="J58" s="3">
+        <v>871100</v>
+      </c>
+      <c r="K58" s="3">
         <v>820100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>686900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1144900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>919300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>430700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>372400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>612000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1102500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>761200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16400</v>
+        <v>15300</v>
       </c>
       <c r="E59" s="3">
-        <v>19100</v>
+        <v>16700</v>
       </c>
       <c r="F59" s="3">
-        <v>21100</v>
+        <v>19400</v>
       </c>
       <c r="G59" s="3">
-        <v>19900</v>
+        <v>21500</v>
       </c>
       <c r="H59" s="3">
-        <v>29600</v>
+        <v>20300</v>
       </c>
       <c r="I59" s="3">
-        <v>38900</v>
+        <v>30200</v>
       </c>
       <c r="J59" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K59" s="3">
         <v>35800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>53800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>43400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>50600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>55600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>806600</v>
+        <v>869000</v>
       </c>
       <c r="E60" s="3">
-        <v>1238800</v>
+        <v>821200</v>
       </c>
       <c r="F60" s="3">
-        <v>1166000</v>
+        <v>1261200</v>
       </c>
       <c r="G60" s="3">
-        <v>1398300</v>
+        <v>1187100</v>
       </c>
       <c r="H60" s="3">
-        <v>1411100</v>
+        <v>1423600</v>
       </c>
       <c r="I60" s="3">
-        <v>1273800</v>
+        <v>1436600</v>
       </c>
       <c r="J60" s="3">
+        <v>1296900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1232200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1128200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1556800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1445500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>911100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>853400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1101100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1711400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1318800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>786100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8985000</v>
+        <v>9472300</v>
       </c>
       <c r="E61" s="3">
-        <v>9138600</v>
+        <v>9147700</v>
       </c>
       <c r="F61" s="3">
-        <v>9132600</v>
+        <v>9304100</v>
       </c>
       <c r="G61" s="3">
-        <v>9479100</v>
+        <v>9298000</v>
       </c>
       <c r="H61" s="3">
-        <v>8806000</v>
+        <v>9650700</v>
       </c>
       <c r="I61" s="3">
-        <v>9115100</v>
+        <v>8965400</v>
       </c>
       <c r="J61" s="3">
+        <v>9280100</v>
+      </c>
+      <c r="K61" s="3">
         <v>8334500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8714600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9645800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9591900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9322700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8639100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8489500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7822900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7989400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8108900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3654500</v>
+        <v>3994000</v>
       </c>
       <c r="E62" s="3">
-        <v>3350700</v>
+        <v>3720600</v>
       </c>
       <c r="F62" s="3">
-        <v>2759100</v>
+        <v>3411400</v>
       </c>
       <c r="G62" s="3">
-        <v>2803300</v>
+        <v>2809100</v>
       </c>
       <c r="H62" s="3">
-        <v>2763300</v>
+        <v>2854000</v>
       </c>
       <c r="I62" s="3">
-        <v>2550300</v>
+        <v>2813400</v>
       </c>
       <c r="J62" s="3">
+        <v>2596500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2236500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2258800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2507100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2504500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2451800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2332200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2410800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2401100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2370700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2269600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13446100</v>
+        <v>14335300</v>
       </c>
       <c r="E66" s="3">
-        <v>13728100</v>
+        <v>13689500</v>
       </c>
       <c r="F66" s="3">
-        <v>13057800</v>
+        <v>13976700</v>
       </c>
       <c r="G66" s="3">
-        <v>13680700</v>
+        <v>13294200</v>
       </c>
       <c r="H66" s="3">
-        <v>12980300</v>
+        <v>13928400</v>
       </c>
       <c r="I66" s="3">
-        <v>12939100</v>
+        <v>13215400</v>
       </c>
       <c r="J66" s="3">
+        <v>13173400</v>
+      </c>
+      <c r="K66" s="3">
         <v>11803200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12101500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13709600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13541900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12685500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11824600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12001300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11935300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11678900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11164700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2773900</v>
+        <v>2859300</v>
       </c>
       <c r="E72" s="3">
-        <v>2552100</v>
+        <v>2824100</v>
       </c>
       <c r="F72" s="3">
-        <v>2953700</v>
+        <v>2598400</v>
       </c>
       <c r="G72" s="3">
-        <v>2727500</v>
+        <v>3007200</v>
       </c>
       <c r="H72" s="3">
-        <v>2872500</v>
+        <v>2776900</v>
       </c>
       <c r="I72" s="3">
-        <v>2984700</v>
+        <v>2924500</v>
       </c>
       <c r="J72" s="3">
+        <v>3038800</v>
+      </c>
+      <c r="K72" s="3">
         <v>3044800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3408200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3341300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3250500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3065400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2671600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2880600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2561100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2555100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2112700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3464000</v>
+        <v>3724000</v>
       </c>
       <c r="E76" s="3">
-        <v>3187900</v>
+        <v>3526700</v>
       </c>
       <c r="F76" s="3">
-        <v>3550200</v>
+        <v>3245700</v>
       </c>
       <c r="G76" s="3">
-        <v>3316300</v>
+        <v>3614500</v>
       </c>
       <c r="H76" s="3">
-        <v>3469500</v>
+        <v>3376400</v>
       </c>
       <c r="I76" s="3">
-        <v>3573500</v>
+        <v>3532300</v>
       </c>
       <c r="J76" s="3">
+        <v>3638200</v>
+      </c>
+      <c r="K76" s="3">
         <v>3643700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3619200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4024400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3960000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3726700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3288700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3528800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3205300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3205600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2974000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42460</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42277</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42094</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>186700</v>
+        <v>421000</v>
       </c>
       <c r="E81" s="3">
-        <v>-253200</v>
+        <v>190100</v>
       </c>
       <c r="F81" s="3">
-        <v>341300</v>
+        <v>-257800</v>
       </c>
       <c r="G81" s="3">
-        <v>189800</v>
+        <v>347500</v>
       </c>
       <c r="H81" s="3">
-        <v>-60700</v>
+        <v>193200</v>
       </c>
       <c r="I81" s="3">
-        <v>185800</v>
+        <v>-61800</v>
       </c>
       <c r="J81" s="3">
+        <v>189100</v>
+      </c>
+      <c r="K81" s="3">
         <v>176700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>259200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>214400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>279300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>305500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>249500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>294300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>224200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>142700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,61 +4426,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>246800</v>
+        <v>246600</v>
       </c>
       <c r="E83" s="3">
-        <v>243000</v>
+        <v>251300</v>
       </c>
       <c r="F83" s="3">
-        <v>257100</v>
+        <v>247400</v>
       </c>
       <c r="G83" s="3">
-        <v>237500</v>
+        <v>261800</v>
       </c>
       <c r="H83" s="3">
-        <v>332100</v>
+        <v>241800</v>
       </c>
       <c r="I83" s="3">
-        <v>233400</v>
+        <v>338100</v>
       </c>
       <c r="J83" s="3">
+        <v>237700</v>
+      </c>
+      <c r="K83" s="3">
         <v>236800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>233000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>261200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>262200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>246900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>219200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>232900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>241400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>236900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>543200</v>
+        <v>477700</v>
       </c>
       <c r="E89" s="3">
-        <v>551200</v>
+        <v>553100</v>
       </c>
       <c r="F89" s="3">
-        <v>539600</v>
+        <v>561200</v>
       </c>
       <c r="G89" s="3">
-        <v>467000</v>
+        <v>549400</v>
       </c>
       <c r="H89" s="3">
-        <v>522600</v>
+        <v>475500</v>
       </c>
       <c r="I89" s="3">
-        <v>426500</v>
+        <v>532100</v>
       </c>
       <c r="J89" s="3">
+        <v>434200</v>
+      </c>
+      <c r="K89" s="3">
         <v>461600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>534600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>551000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>582500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>529800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>516900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>411600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>482600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>444800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>485500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-386900</v>
+        <v>-385700</v>
       </c>
       <c r="E91" s="3">
-        <v>-326400</v>
+        <v>-393900</v>
       </c>
       <c r="F91" s="3">
-        <v>-345500</v>
+        <v>-332400</v>
       </c>
       <c r="G91" s="3">
-        <v>-369400</v>
+        <v>-351800</v>
       </c>
       <c r="H91" s="3">
-        <v>-380400</v>
+        <v>-376100</v>
       </c>
       <c r="I91" s="3">
-        <v>-384200</v>
+        <v>-387300</v>
       </c>
       <c r="J91" s="3">
+        <v>-391100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-374500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-369100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-511600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-457800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-472100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-388000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-436700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-390500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-503400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-456700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-412100</v>
+        <v>-277100</v>
       </c>
       <c r="E94" s="3">
-        <v>-337200</v>
+        <v>-419500</v>
       </c>
       <c r="F94" s="3">
-        <v>-250300</v>
+        <v>-343300</v>
       </c>
       <c r="G94" s="3">
-        <v>-393100</v>
+        <v>-254800</v>
       </c>
       <c r="H94" s="3">
-        <v>-337200</v>
+        <v>-400200</v>
       </c>
       <c r="I94" s="3">
-        <v>-358400</v>
+        <v>-343300</v>
       </c>
       <c r="J94" s="3">
+        <v>-364900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-383100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-366700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-535400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-467800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-566400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-462800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-474500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-408200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-489100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-439100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,61 +5086,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-115800</v>
+        <v>-235800</v>
       </c>
       <c r="E96" s="3">
-        <v>-230300</v>
+        <v>-117900</v>
       </c>
       <c r="F96" s="3">
-        <v>-115000</v>
+        <v>-234400</v>
       </c>
       <c r="G96" s="3">
-        <v>-226900</v>
+        <v>-117100</v>
       </c>
       <c r="H96" s="3">
-        <v>-113400</v>
+        <v>-231000</v>
       </c>
       <c r="I96" s="3">
-        <v>-219900</v>
+        <v>-115400</v>
       </c>
       <c r="J96" s="3">
+        <v>-223800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-109900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-220300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-123200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-250000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-116600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-215300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-113900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-223600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-112700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-215700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,61 +5308,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-619600</v>
+        <v>157200</v>
       </c>
       <c r="E100" s="3">
-        <v>-328800</v>
+        <v>-630800</v>
       </c>
       <c r="F100" s="3">
-        <v>-459400</v>
+        <v>-334700</v>
       </c>
       <c r="G100" s="3">
-        <v>354300</v>
+        <v>-467700</v>
       </c>
       <c r="H100" s="3">
-        <v>-291900</v>
+        <v>360700</v>
       </c>
       <c r="I100" s="3">
-        <v>259300</v>
+        <v>-297200</v>
       </c>
       <c r="J100" s="3">
+        <v>264000</v>
+      </c>
+      <c r="K100" s="3">
         <v>25800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-487200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>563400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-323200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>47200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-126000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>65500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5171,57 +5420,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-486700</v>
+        <v>357800</v>
       </c>
       <c r="E102" s="3">
-        <v>-114800</v>
+        <v>-495500</v>
       </c>
       <c r="F102" s="3">
-        <v>-170100</v>
+        <v>-116900</v>
       </c>
       <c r="G102" s="3">
-        <v>428200</v>
+        <v>-173200</v>
       </c>
       <c r="H102" s="3">
-        <v>-106500</v>
+        <v>436000</v>
       </c>
       <c r="I102" s="3">
-        <v>327400</v>
+        <v>-108400</v>
       </c>
       <c r="J102" s="3">
+        <v>333300</v>
+      </c>
+      <c r="K102" s="3">
         <v>104200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-319400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>578900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-208600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>37200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-188900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>139800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>156600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>28800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -756,25 +756,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1096300</v>
+        <v>1140700</v>
       </c>
       <c r="E8" s="3">
-        <v>1109500</v>
+        <v>1154400</v>
       </c>
       <c r="F8" s="3">
-        <v>1111800</v>
+        <v>1156800</v>
       </c>
       <c r="G8" s="3">
-        <v>1089500</v>
+        <v>1133600</v>
       </c>
       <c r="H8" s="3">
-        <v>1066600</v>
+        <v>1109800</v>
       </c>
       <c r="I8" s="3">
-        <v>1101600</v>
+        <v>1146300</v>
       </c>
       <c r="J8" s="3">
-        <v>1115600</v>
+        <v>1160800</v>
       </c>
       <c r="K8" s="3">
         <v>1056600</v>
@@ -812,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>196900</v>
+        <v>204900</v>
       </c>
       <c r="E9" s="3">
-        <v>187000</v>
+        <v>194600</v>
       </c>
       <c r="F9" s="3">
-        <v>153800</v>
+        <v>160100</v>
       </c>
       <c r="G9" s="3">
-        <v>164800</v>
+        <v>171500</v>
       </c>
       <c r="H9" s="3">
-        <v>147800</v>
+        <v>153700</v>
       </c>
       <c r="I9" s="3">
-        <v>154900</v>
+        <v>161200</v>
       </c>
       <c r="J9" s="3">
-        <v>143900</v>
+        <v>149800</v>
       </c>
       <c r="K9" s="3">
         <v>152600</v>
@@ -868,25 +868,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>899400</v>
+        <v>935800</v>
       </c>
       <c r="E10" s="3">
-        <v>922500</v>
+        <v>959900</v>
       </c>
       <c r="F10" s="3">
-        <v>957900</v>
+        <v>996700</v>
       </c>
       <c r="G10" s="3">
-        <v>924700</v>
+        <v>962100</v>
       </c>
       <c r="H10" s="3">
-        <v>918800</v>
+        <v>956000</v>
       </c>
       <c r="I10" s="3">
-        <v>946700</v>
+        <v>985100</v>
       </c>
       <c r="J10" s="3">
-        <v>971700</v>
+        <v>1011000</v>
       </c>
       <c r="K10" s="3">
         <v>904000</v>
@@ -1058,25 +1058,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-33500</v>
+        <v>-34900</v>
       </c>
       <c r="E14" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="F14" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G14" s="3">
-        <v>-29100</v>
+        <v>-30300</v>
       </c>
       <c r="H14" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I14" s="3">
-        <v>18200</v>
+        <v>19000</v>
       </c>
       <c r="J14" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="K14" s="3">
         <v>59700</v>
@@ -1114,25 +1114,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>246600</v>
+        <v>256600</v>
       </c>
       <c r="E15" s="3">
-        <v>251100</v>
+        <v>261300</v>
       </c>
       <c r="F15" s="3">
-        <v>247600</v>
+        <v>257600</v>
       </c>
       <c r="G15" s="3">
-        <v>261800</v>
+        <v>272400</v>
       </c>
       <c r="H15" s="3">
-        <v>241800</v>
+        <v>251600</v>
       </c>
       <c r="I15" s="3">
-        <v>338100</v>
+        <v>351800</v>
       </c>
       <c r="J15" s="3">
-        <v>237700</v>
+        <v>247300</v>
       </c>
       <c r="K15" s="3">
         <v>236800</v>
@@ -1189,25 +1189,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>750800</v>
+        <v>781200</v>
       </c>
       <c r="E17" s="3">
-        <v>778900</v>
+        <v>810500</v>
       </c>
       <c r="F17" s="3">
-        <v>714900</v>
+        <v>743900</v>
       </c>
       <c r="G17" s="3">
-        <v>707500</v>
+        <v>736200</v>
       </c>
       <c r="H17" s="3">
-        <v>686800</v>
+        <v>714600</v>
       </c>
       <c r="I17" s="3">
-        <v>806700</v>
+        <v>839400</v>
       </c>
       <c r="J17" s="3">
-        <v>658900</v>
+        <v>685500</v>
       </c>
       <c r="K17" s="3">
         <v>710200</v>
@@ -1245,25 +1245,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>345500</v>
+        <v>359500</v>
       </c>
       <c r="E18" s="3">
-        <v>330600</v>
+        <v>343900</v>
       </c>
       <c r="F18" s="3">
-        <v>396900</v>
+        <v>412900</v>
       </c>
       <c r="G18" s="3">
-        <v>382000</v>
+        <v>397400</v>
       </c>
       <c r="H18" s="3">
-        <v>379800</v>
+        <v>395200</v>
       </c>
       <c r="I18" s="3">
-        <v>294900</v>
+        <v>306800</v>
       </c>
       <c r="J18" s="3">
-        <v>456700</v>
+        <v>475200</v>
       </c>
       <c r="K18" s="3">
         <v>346500</v>
@@ -1323,25 +1323,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>476000</v>
+        <v>495300</v>
       </c>
       <c r="E20" s="3">
-        <v>158700</v>
+        <v>165200</v>
       </c>
       <c r="F20" s="3">
-        <v>32800</v>
+        <v>34100</v>
       </c>
       <c r="G20" s="3">
-        <v>126900</v>
+        <v>132000</v>
       </c>
       <c r="H20" s="3">
-        <v>-14900</v>
+        <v>-15500</v>
       </c>
       <c r="I20" s="3">
-        <v>-46300</v>
+        <v>-48100</v>
       </c>
       <c r="J20" s="3">
-        <v>-67500</v>
+        <v>-70200</v>
       </c>
       <c r="K20" s="3">
         <v>-25300</v>
@@ -1379,25 +1379,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1068100</v>
+        <v>1111400</v>
       </c>
       <c r="E21" s="3">
-        <v>740500</v>
+        <v>770500</v>
       </c>
       <c r="F21" s="3">
-        <v>677100</v>
+        <v>704500</v>
       </c>
       <c r="G21" s="3">
-        <v>770600</v>
+        <v>801800</v>
       </c>
       <c r="H21" s="3">
-        <v>606700</v>
+        <v>631300</v>
       </c>
       <c r="I21" s="3">
-        <v>586700</v>
+        <v>610500</v>
       </c>
       <c r="J21" s="3">
-        <v>626900</v>
+        <v>652300</v>
       </c>
       <c r="K21" s="3">
         <v>558000</v>
@@ -1435,25 +1435,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>313200</v>
+        <v>325800</v>
       </c>
       <c r="E22" s="3">
-        <v>218300</v>
+        <v>227200</v>
       </c>
       <c r="F22" s="3">
-        <v>176000</v>
+        <v>183100</v>
       </c>
       <c r="G22" s="3">
-        <v>91600</v>
+        <v>95300</v>
       </c>
       <c r="H22" s="3">
-        <v>125100</v>
+        <v>130200</v>
       </c>
       <c r="I22" s="3">
-        <v>119700</v>
+        <v>124600</v>
       </c>
       <c r="J22" s="3">
-        <v>156600</v>
+        <v>162900</v>
       </c>
       <c r="K22" s="3">
         <v>114300</v>
@@ -1491,25 +1491,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>508400</v>
+        <v>529000</v>
       </c>
       <c r="E23" s="3">
-        <v>270900</v>
+        <v>281900</v>
       </c>
       <c r="F23" s="3">
-        <v>253600</v>
+        <v>263900</v>
       </c>
       <c r="G23" s="3">
-        <v>417300</v>
+        <v>434200</v>
       </c>
       <c r="H23" s="3">
-        <v>239800</v>
+        <v>249500</v>
       </c>
       <c r="I23" s="3">
-        <v>128900</v>
+        <v>134100</v>
       </c>
       <c r="J23" s="3">
-        <v>232700</v>
+        <v>242100</v>
       </c>
       <c r="K23" s="3">
         <v>206900</v>
@@ -1547,25 +1547,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>87400</v>
+        <v>91000</v>
       </c>
       <c r="E24" s="3">
-        <v>80900</v>
+        <v>84100</v>
       </c>
       <c r="F24" s="3">
-        <v>511500</v>
+        <v>532200</v>
       </c>
       <c r="G24" s="3">
-        <v>69800</v>
+        <v>72600</v>
       </c>
       <c r="H24" s="3">
-        <v>46600</v>
+        <v>48500</v>
       </c>
       <c r="I24" s="3">
-        <v>190700</v>
+        <v>198400</v>
       </c>
       <c r="J24" s="3">
-        <v>43500</v>
+        <v>45300</v>
       </c>
       <c r="K24" s="3">
         <v>30100</v>
@@ -1659,25 +1659,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>421000</v>
+        <v>438000</v>
       </c>
       <c r="E26" s="3">
-        <v>190100</v>
+        <v>197800</v>
       </c>
       <c r="F26" s="3">
-        <v>-257800</v>
+        <v>-268300</v>
       </c>
       <c r="G26" s="3">
-        <v>347500</v>
+        <v>361600</v>
       </c>
       <c r="H26" s="3">
-        <v>193200</v>
+        <v>201000</v>
       </c>
       <c r="I26" s="3">
-        <v>-61800</v>
+        <v>-64300</v>
       </c>
       <c r="J26" s="3">
-        <v>189100</v>
+        <v>196800</v>
       </c>
       <c r="K26" s="3">
         <v>176700</v>
@@ -1715,25 +1715,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>421000</v>
+        <v>438000</v>
       </c>
       <c r="E27" s="3">
-        <v>190100</v>
+        <v>197800</v>
       </c>
       <c r="F27" s="3">
-        <v>-257800</v>
+        <v>-268300</v>
       </c>
       <c r="G27" s="3">
-        <v>347500</v>
+        <v>361600</v>
       </c>
       <c r="H27" s="3">
-        <v>193200</v>
+        <v>201000</v>
       </c>
       <c r="I27" s="3">
-        <v>-61800</v>
+        <v>-64300</v>
       </c>
       <c r="J27" s="3">
-        <v>189100</v>
+        <v>196800</v>
       </c>
       <c r="K27" s="3">
         <v>176700</v>
@@ -1995,25 +1995,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-476000</v>
+        <v>-495300</v>
       </c>
       <c r="E32" s="3">
-        <v>-158700</v>
+        <v>-165200</v>
       </c>
       <c r="F32" s="3">
-        <v>-32800</v>
+        <v>-34100</v>
       </c>
       <c r="G32" s="3">
-        <v>-126900</v>
+        <v>-132000</v>
       </c>
       <c r="H32" s="3">
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="I32" s="3">
-        <v>46300</v>
+        <v>48100</v>
       </c>
       <c r="J32" s="3">
-        <v>67500</v>
+        <v>70200</v>
       </c>
       <c r="K32" s="3">
         <v>25300</v>
@@ -2051,25 +2051,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>421000</v>
+        <v>438000</v>
       </c>
       <c r="E33" s="3">
-        <v>190100</v>
+        <v>197800</v>
       </c>
       <c r="F33" s="3">
-        <v>-257800</v>
+        <v>-268300</v>
       </c>
       <c r="G33" s="3">
-        <v>347500</v>
+        <v>361600</v>
       </c>
       <c r="H33" s="3">
-        <v>193200</v>
+        <v>201000</v>
       </c>
       <c r="I33" s="3">
-        <v>-61800</v>
+        <v>-64300</v>
       </c>
       <c r="J33" s="3">
-        <v>189100</v>
+        <v>196800</v>
       </c>
       <c r="K33" s="3">
         <v>176700</v>
@@ -2163,25 +2163,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>421000</v>
+        <v>438000</v>
       </c>
       <c r="E35" s="3">
-        <v>190100</v>
+        <v>197800</v>
       </c>
       <c r="F35" s="3">
-        <v>-257800</v>
+        <v>-268300</v>
       </c>
       <c r="G35" s="3">
-        <v>347500</v>
+        <v>361600</v>
       </c>
       <c r="H35" s="3">
-        <v>193200</v>
+        <v>201000</v>
       </c>
       <c r="I35" s="3">
-        <v>-61800</v>
+        <v>-64300</v>
       </c>
       <c r="J35" s="3">
-        <v>189100</v>
+        <v>196800</v>
       </c>
       <c r="K35" s="3">
         <v>176700</v>
@@ -2324,25 +2324,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>634700</v>
+        <v>660400</v>
       </c>
       <c r="E41" s="3">
-        <v>287300</v>
+        <v>298900</v>
       </c>
       <c r="F41" s="3">
-        <v>782200</v>
+        <v>813800</v>
       </c>
       <c r="G41" s="3">
-        <v>887300</v>
+        <v>923300</v>
       </c>
       <c r="H41" s="3">
-        <v>1072100</v>
+        <v>1115500</v>
       </c>
       <c r="I41" s="3">
-        <v>629800</v>
+        <v>655300</v>
       </c>
       <c r="J41" s="3">
-        <v>741300</v>
+        <v>771300</v>
       </c>
       <c r="K41" s="3">
         <v>397400</v>
@@ -2436,25 +2436,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>348000</v>
+        <v>362100</v>
       </c>
       <c r="E43" s="3">
-        <v>354300</v>
+        <v>368600</v>
       </c>
       <c r="F43" s="3">
-        <v>301700</v>
+        <v>313900</v>
       </c>
       <c r="G43" s="3">
-        <v>281600</v>
+        <v>293000</v>
       </c>
       <c r="H43" s="3">
-        <v>335500</v>
+        <v>349000</v>
       </c>
       <c r="I43" s="3">
-        <v>338200</v>
+        <v>351900</v>
       </c>
       <c r="J43" s="3">
-        <v>346200</v>
+        <v>360200</v>
       </c>
       <c r="K43" s="3">
         <v>311400</v>
@@ -2492,25 +2492,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>28600</v>
+        <v>29800</v>
       </c>
       <c r="E44" s="3">
-        <v>21200</v>
+        <v>22100</v>
       </c>
       <c r="F44" s="3">
-        <v>22500</v>
+        <v>23500</v>
       </c>
       <c r="G44" s="3">
-        <v>21800</v>
+        <v>22700</v>
       </c>
       <c r="H44" s="3">
-        <v>22700</v>
+        <v>23600</v>
       </c>
       <c r="I44" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="J44" s="3">
-        <v>19300</v>
+        <v>20100</v>
       </c>
       <c r="K44" s="3">
         <v>17500</v>
@@ -2548,16 +2548,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>187000</v>
+        <v>194600</v>
       </c>
       <c r="E45" s="3">
-        <v>69200</v>
+        <v>72000</v>
       </c>
       <c r="F45" s="3">
-        <v>27400</v>
+        <v>28500</v>
       </c>
       <c r="G45" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2566,7 +2566,7 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>112900</v>
+        <v>117500</v>
       </c>
       <c r="K45" s="3">
         <v>118700</v>
@@ -2604,25 +2604,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1198200</v>
+        <v>1246800</v>
       </c>
       <c r="E46" s="3">
-        <v>732000</v>
+        <v>761600</v>
       </c>
       <c r="F46" s="3">
-        <v>1133800</v>
+        <v>1179800</v>
       </c>
       <c r="G46" s="3">
-        <v>1207900</v>
+        <v>1256800</v>
       </c>
       <c r="H46" s="3">
-        <v>1430300</v>
+        <v>1488200</v>
       </c>
       <c r="I46" s="3">
-        <v>987900</v>
+        <v>1027900</v>
       </c>
       <c r="J46" s="3">
-        <v>1219700</v>
+        <v>1269100</v>
       </c>
       <c r="K46" s="3">
         <v>845000</v>
@@ -2660,25 +2660,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>107900</v>
+        <v>112300</v>
       </c>
       <c r="E47" s="3">
-        <v>117200</v>
+        <v>122000</v>
       </c>
       <c r="F47" s="3">
-        <v>101600</v>
+        <v>105700</v>
       </c>
       <c r="G47" s="3">
-        <v>103500</v>
+        <v>107700</v>
       </c>
       <c r="H47" s="3">
-        <v>203900</v>
+        <v>212200</v>
       </c>
       <c r="I47" s="3">
-        <v>171600</v>
+        <v>178600</v>
       </c>
       <c r="J47" s="3">
-        <v>248300</v>
+        <v>258300</v>
       </c>
       <c r="K47" s="3">
         <v>279500</v>
@@ -2716,25 +2716,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14693200</v>
+        <v>15288100</v>
       </c>
       <c r="E48" s="3">
-        <v>14486000</v>
+        <v>15072600</v>
       </c>
       <c r="F48" s="3">
-        <v>14258000</v>
+        <v>14835400</v>
       </c>
       <c r="G48" s="3">
-        <v>14070400</v>
+        <v>14640200</v>
       </c>
       <c r="H48" s="3">
-        <v>13891400</v>
+        <v>14454000</v>
       </c>
       <c r="I48" s="3">
-        <v>13726900</v>
+        <v>14282700</v>
       </c>
       <c r="J48" s="3">
-        <v>13545800</v>
+        <v>14094400</v>
       </c>
       <c r="K48" s="3">
         <v>13064000</v>
@@ -2772,25 +2772,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>177700</v>
+        <v>184900</v>
       </c>
       <c r="E49" s="3">
-        <v>191800</v>
+        <v>199500</v>
       </c>
       <c r="F49" s="3">
-        <v>203200</v>
+        <v>211400</v>
       </c>
       <c r="G49" s="3">
-        <v>216000</v>
+        <v>224700</v>
       </c>
       <c r="H49" s="3">
-        <v>209600</v>
+        <v>218100</v>
       </c>
       <c r="I49" s="3">
-        <v>225400</v>
+        <v>234500</v>
       </c>
       <c r="J49" s="3">
-        <v>233900</v>
+        <v>243300</v>
       </c>
       <c r="K49" s="3">
         <v>237400</v>
@@ -2940,25 +2940,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1882300</v>
+        <v>1958500</v>
       </c>
       <c r="E52" s="3">
-        <v>1689300</v>
+        <v>1757700</v>
       </c>
       <c r="F52" s="3">
-        <v>1525700</v>
+        <v>1587500</v>
       </c>
       <c r="G52" s="3">
-        <v>1310900</v>
+        <v>1364000</v>
       </c>
       <c r="H52" s="3">
-        <v>1569500</v>
+        <v>1633000</v>
       </c>
       <c r="I52" s="3">
-        <v>1636000</v>
+        <v>1702300</v>
       </c>
       <c r="J52" s="3">
-        <v>1564000</v>
+        <v>1627300</v>
       </c>
       <c r="K52" s="3">
         <v>1021000</v>
@@ -3052,25 +3052,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18059300</v>
+        <v>18790600</v>
       </c>
       <c r="E54" s="3">
-        <v>17216300</v>
+        <v>17913400</v>
       </c>
       <c r="F54" s="3">
-        <v>17222300</v>
+        <v>17919800</v>
       </c>
       <c r="G54" s="3">
-        <v>16908700</v>
+        <v>17593400</v>
       </c>
       <c r="H54" s="3">
-        <v>17304800</v>
+        <v>18005500</v>
       </c>
       <c r="I54" s="3">
-        <v>16747700</v>
+        <v>17425900</v>
       </c>
       <c r="J54" s="3">
-        <v>16811600</v>
+        <v>17492400</v>
       </c>
       <c r="K54" s="3">
         <v>15446900</v>
@@ -3152,25 +3152,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>471400</v>
+        <v>490500</v>
       </c>
       <c r="E57" s="3">
-        <v>436200</v>
+        <v>453900</v>
       </c>
       <c r="F57" s="3">
-        <v>453900</v>
+        <v>472200</v>
       </c>
       <c r="G57" s="3">
-        <v>384800</v>
+        <v>400400</v>
       </c>
       <c r="H57" s="3">
-        <v>385700</v>
+        <v>401300</v>
       </c>
       <c r="I57" s="3">
-        <v>398800</v>
+        <v>414900</v>
       </c>
       <c r="J57" s="3">
-        <v>386100</v>
+        <v>401800</v>
       </c>
       <c r="K57" s="3">
         <v>376200</v>
@@ -3208,25 +3208,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>382300</v>
+        <v>397800</v>
       </c>
       <c r="E58" s="3">
-        <v>368200</v>
+        <v>383200</v>
       </c>
       <c r="F58" s="3">
-        <v>787900</v>
+        <v>819800</v>
       </c>
       <c r="G58" s="3">
-        <v>780900</v>
+        <v>812500</v>
       </c>
       <c r="H58" s="3">
-        <v>1017700</v>
+        <v>1058900</v>
       </c>
       <c r="I58" s="3">
-        <v>1007700</v>
+        <v>1048500</v>
       </c>
       <c r="J58" s="3">
-        <v>871100</v>
+        <v>906400</v>
       </c>
       <c r="K58" s="3">
         <v>820100</v>
@@ -3264,25 +3264,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="E59" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="F59" s="3">
-        <v>19400</v>
+        <v>20200</v>
       </c>
       <c r="G59" s="3">
-        <v>21500</v>
+        <v>22300</v>
       </c>
       <c r="H59" s="3">
-        <v>20300</v>
+        <v>21100</v>
       </c>
       <c r="I59" s="3">
-        <v>30200</v>
+        <v>31400</v>
       </c>
       <c r="J59" s="3">
-        <v>39600</v>
+        <v>41200</v>
       </c>
       <c r="K59" s="3">
         <v>35800</v>
@@ -3320,25 +3320,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>869000</v>
+        <v>904200</v>
       </c>
       <c r="E60" s="3">
-        <v>821200</v>
+        <v>854400</v>
       </c>
       <c r="F60" s="3">
-        <v>1261200</v>
+        <v>1312300</v>
       </c>
       <c r="G60" s="3">
-        <v>1187100</v>
+        <v>1235200</v>
       </c>
       <c r="H60" s="3">
-        <v>1423600</v>
+        <v>1481300</v>
       </c>
       <c r="I60" s="3">
-        <v>1436600</v>
+        <v>1494800</v>
       </c>
       <c r="J60" s="3">
-        <v>1296900</v>
+        <v>1349400</v>
       </c>
       <c r="K60" s="3">
         <v>1232200</v>
@@ -3376,25 +3376,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9472300</v>
+        <v>9855900</v>
       </c>
       <c r="E61" s="3">
-        <v>9147700</v>
+        <v>9518200</v>
       </c>
       <c r="F61" s="3">
-        <v>9304100</v>
+        <v>9680800</v>
       </c>
       <c r="G61" s="3">
-        <v>9298000</v>
+        <v>9674500</v>
       </c>
       <c r="H61" s="3">
-        <v>9650700</v>
+        <v>10041500</v>
       </c>
       <c r="I61" s="3">
-        <v>8965400</v>
+        <v>9328500</v>
       </c>
       <c r="J61" s="3">
-        <v>9280100</v>
+        <v>9655900</v>
       </c>
       <c r="K61" s="3">
         <v>8334500</v>
@@ -3432,25 +3432,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3994000</v>
+        <v>4155700</v>
       </c>
       <c r="E62" s="3">
-        <v>3720600</v>
+        <v>3871300</v>
       </c>
       <c r="F62" s="3">
-        <v>3411400</v>
+        <v>3549600</v>
       </c>
       <c r="G62" s="3">
-        <v>2809100</v>
+        <v>2922800</v>
       </c>
       <c r="H62" s="3">
-        <v>2854000</v>
+        <v>2969600</v>
       </c>
       <c r="I62" s="3">
-        <v>2813400</v>
+        <v>2927300</v>
       </c>
       <c r="J62" s="3">
-        <v>2596500</v>
+        <v>2701600</v>
       </c>
       <c r="K62" s="3">
         <v>2236500</v>
@@ -3656,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14335300</v>
+        <v>14915800</v>
       </c>
       <c r="E66" s="3">
-        <v>13689500</v>
+        <v>14243900</v>
       </c>
       <c r="F66" s="3">
-        <v>13976700</v>
+        <v>14542700</v>
       </c>
       <c r="G66" s="3">
-        <v>13294200</v>
+        <v>13832600</v>
       </c>
       <c r="H66" s="3">
-        <v>13928400</v>
+        <v>14492400</v>
       </c>
       <c r="I66" s="3">
-        <v>13215400</v>
+        <v>13750500</v>
       </c>
       <c r="J66" s="3">
-        <v>13173400</v>
+        <v>13706900</v>
       </c>
       <c r="K66" s="3">
         <v>11803200</v>
@@ -3958,25 +3958,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2859300</v>
+        <v>2975100</v>
       </c>
       <c r="E72" s="3">
-        <v>2824100</v>
+        <v>2938500</v>
       </c>
       <c r="F72" s="3">
-        <v>2598400</v>
+        <v>2703600</v>
       </c>
       <c r="G72" s="3">
-        <v>3007200</v>
+        <v>3128900</v>
       </c>
       <c r="H72" s="3">
-        <v>2776900</v>
+        <v>2889300</v>
       </c>
       <c r="I72" s="3">
-        <v>2924500</v>
+        <v>3042900</v>
       </c>
       <c r="J72" s="3">
-        <v>3038800</v>
+        <v>3161800</v>
       </c>
       <c r="K72" s="3">
         <v>3044800</v>
@@ -4182,25 +4182,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3724000</v>
+        <v>3874800</v>
       </c>
       <c r="E76" s="3">
-        <v>3526700</v>
+        <v>3669500</v>
       </c>
       <c r="F76" s="3">
-        <v>3245700</v>
+        <v>3377100</v>
       </c>
       <c r="G76" s="3">
-        <v>3614500</v>
+        <v>3760900</v>
       </c>
       <c r="H76" s="3">
-        <v>3376400</v>
+        <v>3513100</v>
       </c>
       <c r="I76" s="3">
-        <v>3532300</v>
+        <v>3675400</v>
       </c>
       <c r="J76" s="3">
-        <v>3638200</v>
+        <v>3785600</v>
       </c>
       <c r="K76" s="3">
         <v>3643700</v>
@@ -4355,25 +4355,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>421000</v>
+        <v>438000</v>
       </c>
       <c r="E81" s="3">
-        <v>190100</v>
+        <v>197800</v>
       </c>
       <c r="F81" s="3">
-        <v>-257800</v>
+        <v>-268300</v>
       </c>
       <c r="G81" s="3">
-        <v>347500</v>
+        <v>361600</v>
       </c>
       <c r="H81" s="3">
-        <v>193200</v>
+        <v>201000</v>
       </c>
       <c r="I81" s="3">
-        <v>-61800</v>
+        <v>-64300</v>
       </c>
       <c r="J81" s="3">
-        <v>189100</v>
+        <v>196800</v>
       </c>
       <c r="K81" s="3">
         <v>176700</v>
@@ -4433,25 +4433,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>246600</v>
+        <v>256600</v>
       </c>
       <c r="E83" s="3">
-        <v>251300</v>
+        <v>261400</v>
       </c>
       <c r="F83" s="3">
-        <v>247400</v>
+        <v>257500</v>
       </c>
       <c r="G83" s="3">
-        <v>261800</v>
+        <v>272400</v>
       </c>
       <c r="H83" s="3">
-        <v>241800</v>
+        <v>251600</v>
       </c>
       <c r="I83" s="3">
-        <v>338100</v>
+        <v>351800</v>
       </c>
       <c r="J83" s="3">
-        <v>237700</v>
+        <v>247300</v>
       </c>
       <c r="K83" s="3">
         <v>236800</v>
@@ -4769,25 +4769,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>477700</v>
+        <v>497100</v>
       </c>
       <c r="E89" s="3">
-        <v>553100</v>
+        <v>575500</v>
       </c>
       <c r="F89" s="3">
-        <v>561200</v>
+        <v>583900</v>
       </c>
       <c r="G89" s="3">
-        <v>549400</v>
+        <v>571600</v>
       </c>
       <c r="H89" s="3">
-        <v>475500</v>
+        <v>494700</v>
       </c>
       <c r="I89" s="3">
-        <v>532100</v>
+        <v>553600</v>
       </c>
       <c r="J89" s="3">
-        <v>434200</v>
+        <v>451800</v>
       </c>
       <c r="K89" s="3">
         <v>461600</v>
@@ -4847,25 +4847,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-385700</v>
+        <v>-331700</v>
       </c>
       <c r="E91" s="3">
-        <v>-393900</v>
+        <v>-340000</v>
       </c>
       <c r="F91" s="3">
-        <v>-332400</v>
+        <v>-288500</v>
       </c>
       <c r="G91" s="3">
-        <v>-351800</v>
+        <v>-328600</v>
       </c>
       <c r="H91" s="3">
-        <v>-376100</v>
+        <v>-315400</v>
       </c>
       <c r="I91" s="3">
-        <v>-387300</v>
+        <v>-338900</v>
       </c>
       <c r="J91" s="3">
-        <v>-391100</v>
+        <v>-341100</v>
       </c>
       <c r="K91" s="3">
         <v>-374500</v>
@@ -5015,25 +5015,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-277100</v>
+        <v>-288400</v>
       </c>
       <c r="E94" s="3">
-        <v>-419500</v>
+        <v>-436500</v>
       </c>
       <c r="F94" s="3">
-        <v>-343300</v>
+        <v>-357200</v>
       </c>
       <c r="G94" s="3">
-        <v>-254800</v>
+        <v>-265200</v>
       </c>
       <c r="H94" s="3">
-        <v>-400200</v>
+        <v>-416400</v>
       </c>
       <c r="I94" s="3">
-        <v>-343300</v>
+        <v>-357200</v>
       </c>
       <c r="J94" s="3">
-        <v>-364900</v>
+        <v>-379700</v>
       </c>
       <c r="K94" s="3">
         <v>-383100</v>
@@ -5093,25 +5093,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-235800</v>
+        <v>-245300</v>
       </c>
       <c r="E96" s="3">
-        <v>-117900</v>
+        <v>-122700</v>
       </c>
       <c r="F96" s="3">
-        <v>-234400</v>
+        <v>-243900</v>
       </c>
       <c r="G96" s="3">
-        <v>-117100</v>
+        <v>-121800</v>
       </c>
       <c r="H96" s="3">
-        <v>-231000</v>
+        <v>-240300</v>
       </c>
       <c r="I96" s="3">
-        <v>-115400</v>
+        <v>-120100</v>
       </c>
       <c r="J96" s="3">
-        <v>-223800</v>
+        <v>-232900</v>
       </c>
       <c r="K96" s="3">
         <v>-109900</v>
@@ -5317,25 +5317,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>157200</v>
+        <v>163500</v>
       </c>
       <c r="E100" s="3">
-        <v>-630800</v>
+        <v>-656400</v>
       </c>
       <c r="F100" s="3">
-        <v>-334700</v>
+        <v>-348300</v>
       </c>
       <c r="G100" s="3">
-        <v>-467700</v>
+        <v>-486600</v>
       </c>
       <c r="H100" s="3">
-        <v>360700</v>
+        <v>375300</v>
       </c>
       <c r="I100" s="3">
-        <v>-297200</v>
+        <v>-309200</v>
       </c>
       <c r="J100" s="3">
-        <v>264000</v>
+        <v>274700</v>
       </c>
       <c r="K100" s="3">
         <v>25800</v>
@@ -5429,25 +5429,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>357800</v>
+        <v>372200</v>
       </c>
       <c r="E102" s="3">
-        <v>-495500</v>
+        <v>-515600</v>
       </c>
       <c r="F102" s="3">
-        <v>-116900</v>
+        <v>-121600</v>
       </c>
       <c r="G102" s="3">
-        <v>-173200</v>
+        <v>-180200</v>
       </c>
       <c r="H102" s="3">
-        <v>436000</v>
+        <v>453600</v>
       </c>
       <c r="I102" s="3">
-        <v>-108400</v>
+        <v>-112800</v>
       </c>
       <c r="J102" s="3">
-        <v>333300</v>
+        <v>346800</v>
       </c>
       <c r="K102" s="3">
         <v>104200</v>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42460</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42277</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42094</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1140700</v>
+        <v>1147000</v>
       </c>
       <c r="E8" s="3">
-        <v>1154400</v>
+        <v>1165000</v>
       </c>
       <c r="F8" s="3">
-        <v>1156800</v>
+        <v>1179100</v>
       </c>
       <c r="G8" s="3">
-        <v>1133600</v>
+        <v>1181500</v>
       </c>
       <c r="H8" s="3">
-        <v>1109800</v>
+        <v>1157800</v>
       </c>
       <c r="I8" s="3">
-        <v>1146300</v>
+        <v>1133500</v>
       </c>
       <c r="J8" s="3">
+        <v>1170700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1160800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1056600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1117900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1172600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1239600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1124000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1050600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1138700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1117800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1133500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1131600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>204900</v>
+        <v>256100</v>
       </c>
       <c r="E9" s="3">
-        <v>194600</v>
+        <v>209200</v>
       </c>
       <c r="F9" s="3">
-        <v>160100</v>
+        <v>198700</v>
       </c>
       <c r="G9" s="3">
-        <v>171500</v>
+        <v>163500</v>
       </c>
       <c r="H9" s="3">
-        <v>153700</v>
+        <v>175100</v>
       </c>
       <c r="I9" s="3">
-        <v>161200</v>
+        <v>157000</v>
       </c>
       <c r="J9" s="3">
+        <v>164600</v>
+      </c>
+      <c r="K9" s="3">
         <v>149800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>152600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>161600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>167200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>159600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>153600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>153500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>170600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>162100</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>935800</v>
+        <v>890900</v>
       </c>
       <c r="E10" s="3">
-        <v>959900</v>
+        <v>955800</v>
       </c>
       <c r="F10" s="3">
-        <v>996700</v>
+        <v>980400</v>
       </c>
       <c r="G10" s="3">
-        <v>962100</v>
+        <v>1018000</v>
       </c>
       <c r="H10" s="3">
-        <v>956000</v>
+        <v>982700</v>
       </c>
       <c r="I10" s="3">
-        <v>985100</v>
+        <v>976500</v>
       </c>
       <c r="J10" s="3">
+        <v>1006100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1011000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>904000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>956300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1005400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1080000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>970400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>897100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>968100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>955700</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,11 +980,11 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
         <v>1400</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>5</v>
@@ -984,11 +998,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3">
         <v>3000</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>5</v>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,120 +1069,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-34900</v>
+        <v>3200</v>
       </c>
       <c r="E14" s="3">
-        <v>5200</v>
+        <v>-35600</v>
       </c>
       <c r="F14" s="3">
-        <v>3800</v>
+        <v>5300</v>
       </c>
       <c r="G14" s="3">
-        <v>-30300</v>
+        <v>3900</v>
       </c>
       <c r="H14" s="3">
-        <v>3600</v>
+        <v>-30900</v>
       </c>
       <c r="I14" s="3">
-        <v>19000</v>
+        <v>3700</v>
       </c>
       <c r="J14" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K14" s="3">
         <v>13400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>59700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>33900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>256600</v>
+        <v>274800</v>
       </c>
       <c r="E15" s="3">
-        <v>261300</v>
+        <v>262100</v>
       </c>
       <c r="F15" s="3">
-        <v>257600</v>
+        <v>266900</v>
       </c>
       <c r="G15" s="3">
-        <v>272400</v>
+        <v>263100</v>
       </c>
       <c r="H15" s="3">
-        <v>251600</v>
+        <v>278200</v>
       </c>
       <c r="I15" s="3">
-        <v>351800</v>
+        <v>257000</v>
       </c>
       <c r="J15" s="3">
+        <v>359300</v>
+      </c>
+      <c r="K15" s="3">
         <v>247300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>236800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>233000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>261200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>262200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>246900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>219200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>232900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>241400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>236900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>781200</v>
+        <v>916000</v>
       </c>
       <c r="E17" s="3">
-        <v>810500</v>
+        <v>797900</v>
       </c>
       <c r="F17" s="3">
-        <v>743900</v>
+        <v>827800</v>
       </c>
       <c r="G17" s="3">
-        <v>736200</v>
+        <v>759700</v>
       </c>
       <c r="H17" s="3">
-        <v>714600</v>
+        <v>751900</v>
       </c>
       <c r="I17" s="3">
-        <v>839400</v>
+        <v>729800</v>
       </c>
       <c r="J17" s="3">
+        <v>857300</v>
+      </c>
+      <c r="K17" s="3">
         <v>685500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>710200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>704200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>770800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>756000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>723700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>650900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>760900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>754800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>721600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>683300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>359500</v>
+        <v>231000</v>
       </c>
       <c r="E18" s="3">
-        <v>343900</v>
+        <v>367100</v>
       </c>
       <c r="F18" s="3">
-        <v>412900</v>
+        <v>351300</v>
       </c>
       <c r="G18" s="3">
-        <v>397400</v>
+        <v>421800</v>
       </c>
       <c r="H18" s="3">
-        <v>395200</v>
+        <v>405900</v>
       </c>
       <c r="I18" s="3">
-        <v>306800</v>
+        <v>403600</v>
       </c>
       <c r="J18" s="3">
+        <v>313400</v>
+      </c>
+      <c r="K18" s="3">
         <v>475200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>346500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>413700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>401800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>483700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>399700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>377700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>363000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>411900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>448400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,288 +1350,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>495300</v>
+        <v>-148500</v>
       </c>
       <c r="E20" s="3">
-        <v>165200</v>
+        <v>505900</v>
       </c>
       <c r="F20" s="3">
-        <v>34100</v>
+        <v>168700</v>
       </c>
       <c r="G20" s="3">
-        <v>132000</v>
+        <v>34900</v>
       </c>
       <c r="H20" s="3">
-        <v>-15500</v>
+        <v>134800</v>
       </c>
       <c r="I20" s="3">
-        <v>-48100</v>
+        <v>-15800</v>
       </c>
       <c r="J20" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-70200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>67000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>63400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>116400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-75500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>54300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-112200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-26900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1111400</v>
+        <v>357300</v>
       </c>
       <c r="E21" s="3">
-        <v>770500</v>
+        <v>1135100</v>
       </c>
       <c r="F21" s="3">
-        <v>704500</v>
+        <v>787000</v>
       </c>
       <c r="G21" s="3">
-        <v>801800</v>
+        <v>719600</v>
       </c>
       <c r="H21" s="3">
-        <v>631300</v>
+        <v>818900</v>
       </c>
       <c r="I21" s="3">
-        <v>610500</v>
+        <v>644800</v>
       </c>
       <c r="J21" s="3">
+        <v>623500</v>
+      </c>
+      <c r="K21" s="3">
         <v>652300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>558000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>713600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>685800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>809300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>763500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>561900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>535200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>658700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>536600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>325800</v>
+        <v>297900</v>
       </c>
       <c r="E22" s="3">
-        <v>227200</v>
+        <v>332800</v>
       </c>
       <c r="F22" s="3">
-        <v>183100</v>
+        <v>232000</v>
       </c>
       <c r="G22" s="3">
-        <v>95300</v>
+        <v>187100</v>
       </c>
       <c r="H22" s="3">
-        <v>130200</v>
+        <v>97300</v>
       </c>
       <c r="I22" s="3">
-        <v>124600</v>
+        <v>132900</v>
       </c>
       <c r="J22" s="3">
+        <v>127200</v>
+      </c>
+      <c r="K22" s="3">
         <v>162900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>114300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>164000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>165800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>204200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>141600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>147500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>122300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>136000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>119400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>529000</v>
+        <v>-215400</v>
       </c>
       <c r="E23" s="3">
-        <v>281900</v>
+        <v>540200</v>
       </c>
       <c r="F23" s="3">
-        <v>263900</v>
+        <v>287900</v>
       </c>
       <c r="G23" s="3">
-        <v>434200</v>
+        <v>269600</v>
       </c>
       <c r="H23" s="3">
-        <v>249500</v>
+        <v>443400</v>
       </c>
       <c r="I23" s="3">
-        <v>134100</v>
+        <v>254900</v>
       </c>
       <c r="J23" s="3">
+        <v>137000</v>
+      </c>
+      <c r="K23" s="3">
         <v>242100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>206900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>316700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>258800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>342900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>375100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>195100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>179900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>281200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>180300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>269500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>91000</v>
+        <v>-27800</v>
       </c>
       <c r="E24" s="3">
-        <v>84100</v>
+        <v>92900</v>
       </c>
       <c r="F24" s="3">
-        <v>532200</v>
+        <v>85900</v>
       </c>
       <c r="G24" s="3">
-        <v>72600</v>
+        <v>543500</v>
       </c>
       <c r="H24" s="3">
-        <v>48500</v>
+        <v>74100</v>
       </c>
       <c r="I24" s="3">
-        <v>198400</v>
+        <v>49600</v>
       </c>
       <c r="J24" s="3">
+        <v>202600</v>
+      </c>
+      <c r="K24" s="3">
         <v>45300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>57500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>44500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>63500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>69600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-54400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-114400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>57000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>37500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>438000</v>
+        <v>-187700</v>
       </c>
       <c r="E26" s="3">
-        <v>197800</v>
+        <v>447400</v>
       </c>
       <c r="F26" s="3">
-        <v>-268300</v>
+        <v>202000</v>
       </c>
       <c r="G26" s="3">
-        <v>361600</v>
+        <v>-274000</v>
       </c>
       <c r="H26" s="3">
-        <v>201000</v>
+        <v>369300</v>
       </c>
       <c r="I26" s="3">
-        <v>-64300</v>
+        <v>205300</v>
       </c>
       <c r="J26" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="K26" s="3">
         <v>196800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>176700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>259200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>214400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>279300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>305500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>249500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>294300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>224200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>142700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>438000</v>
+        <v>-187700</v>
       </c>
       <c r="E27" s="3">
-        <v>197800</v>
+        <v>447400</v>
       </c>
       <c r="F27" s="3">
-        <v>-268300</v>
+        <v>202000</v>
       </c>
       <c r="G27" s="3">
-        <v>361600</v>
+        <v>-274000</v>
       </c>
       <c r="H27" s="3">
-        <v>201000</v>
+        <v>369300</v>
       </c>
       <c r="I27" s="3">
-        <v>-64300</v>
+        <v>205300</v>
       </c>
       <c r="J27" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="K27" s="3">
         <v>196800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>176700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>259200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>214400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>279300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>305500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>249500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>294300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>224200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>142700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1859,8 +1920,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -1871,14 +1932,17 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-495300</v>
+        <v>148500</v>
       </c>
       <c r="E32" s="3">
-        <v>-165200</v>
+        <v>-505900</v>
       </c>
       <c r="F32" s="3">
-        <v>-34100</v>
+        <v>-168700</v>
       </c>
       <c r="G32" s="3">
-        <v>-132000</v>
+        <v>-34900</v>
       </c>
       <c r="H32" s="3">
-        <v>15500</v>
+        <v>-134800</v>
       </c>
       <c r="I32" s="3">
-        <v>48100</v>
+        <v>15800</v>
       </c>
       <c r="J32" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K32" s="3">
         <v>70200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-67000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-22900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-63400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-116400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>57000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>75500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-54300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>112200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>438000</v>
+        <v>-187700</v>
       </c>
       <c r="E33" s="3">
-        <v>197800</v>
+        <v>447400</v>
       </c>
       <c r="F33" s="3">
-        <v>-268300</v>
+        <v>202000</v>
       </c>
       <c r="G33" s="3">
-        <v>361600</v>
+        <v>-274000</v>
       </c>
       <c r="H33" s="3">
-        <v>201000</v>
+        <v>369300</v>
       </c>
       <c r="I33" s="3">
-        <v>-64300</v>
+        <v>205300</v>
       </c>
       <c r="J33" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="K33" s="3">
         <v>196800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>176700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>259200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>214400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>279300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>305500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>249500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>294300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>224200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>142700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>438000</v>
+        <v>-187700</v>
       </c>
       <c r="E35" s="3">
-        <v>197800</v>
+        <v>447400</v>
       </c>
       <c r="F35" s="3">
-        <v>-268300</v>
+        <v>202000</v>
       </c>
       <c r="G35" s="3">
-        <v>361600</v>
+        <v>-274000</v>
       </c>
       <c r="H35" s="3">
-        <v>201000</v>
+        <v>369300</v>
       </c>
       <c r="I35" s="3">
-        <v>-64300</v>
+        <v>205300</v>
       </c>
       <c r="J35" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="K35" s="3">
         <v>196800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>176700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>259200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>214400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>279300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>305500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>249500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>294300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>224200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>142700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42460</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42277</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42094</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,64 +2404,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>660400</v>
+        <v>431400</v>
       </c>
       <c r="E41" s="3">
-        <v>298900</v>
+        <v>674500</v>
       </c>
       <c r="F41" s="3">
-        <v>813800</v>
+        <v>305300</v>
       </c>
       <c r="G41" s="3">
-        <v>923300</v>
+        <v>831200</v>
       </c>
       <c r="H41" s="3">
-        <v>1115500</v>
+        <v>943000</v>
       </c>
       <c r="I41" s="3">
-        <v>655300</v>
+        <v>1139300</v>
       </c>
       <c r="J41" s="3">
+        <v>669300</v>
+      </c>
+      <c r="K41" s="3">
         <v>771300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>397400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>316700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>695500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>124000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>327300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>292400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>278600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>464900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>321300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2430,400 +2520,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>362100</v>
+        <v>366800</v>
       </c>
       <c r="E43" s="3">
-        <v>368600</v>
+        <v>369800</v>
       </c>
       <c r="F43" s="3">
-        <v>313900</v>
+        <v>376500</v>
       </c>
       <c r="G43" s="3">
-        <v>293000</v>
+        <v>320600</v>
       </c>
       <c r="H43" s="3">
-        <v>349000</v>
+        <v>299200</v>
       </c>
       <c r="I43" s="3">
-        <v>351900</v>
+        <v>356500</v>
       </c>
       <c r="J43" s="3">
+        <v>359400</v>
+      </c>
+      <c r="K43" s="3">
         <v>360200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>311400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>355200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>389200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>413500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>410800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>424900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>479200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>495500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>465200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>464300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29800</v>
+        <v>16600</v>
       </c>
       <c r="E44" s="3">
-        <v>22100</v>
+        <v>30400</v>
       </c>
       <c r="F44" s="3">
-        <v>23500</v>
+        <v>22600</v>
       </c>
       <c r="G44" s="3">
-        <v>22700</v>
+        <v>24000</v>
       </c>
       <c r="H44" s="3">
-        <v>23600</v>
+        <v>23200</v>
       </c>
       <c r="I44" s="3">
-        <v>20600</v>
+        <v>24100</v>
       </c>
       <c r="J44" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K44" s="3">
         <v>20100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>22900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>27700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>36000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>38200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>50100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>53300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>194600</v>
+        <v>61500</v>
       </c>
       <c r="E45" s="3">
-        <v>72000</v>
+        <v>198700</v>
       </c>
       <c r="F45" s="3">
-        <v>28500</v>
+        <v>73500</v>
       </c>
       <c r="G45" s="3">
-        <v>17900</v>
+        <v>29100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>18200</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>117500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>199600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>460600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>469000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>101300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20500</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>69900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1246800</v>
+        <v>876200</v>
       </c>
       <c r="E46" s="3">
-        <v>761600</v>
+        <v>1273400</v>
       </c>
       <c r="F46" s="3">
-        <v>1179800</v>
+        <v>777900</v>
       </c>
       <c r="G46" s="3">
-        <v>1256800</v>
+        <v>1204900</v>
       </c>
       <c r="H46" s="3">
-        <v>1488200</v>
+        <v>1283600</v>
       </c>
       <c r="I46" s="3">
-        <v>1027900</v>
+        <v>1520000</v>
       </c>
       <c r="J46" s="3">
+        <v>1049800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1269100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>845000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>888900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1568200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1034200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>868900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>753600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>816500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1010400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>841200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>112300</v>
+        <v>116800</v>
       </c>
       <c r="E47" s="3">
-        <v>122000</v>
+        <v>114700</v>
       </c>
       <c r="F47" s="3">
-        <v>105700</v>
+        <v>124600</v>
       </c>
       <c r="G47" s="3">
-        <v>107700</v>
+        <v>108000</v>
       </c>
       <c r="H47" s="3">
-        <v>212200</v>
+        <v>110000</v>
       </c>
       <c r="I47" s="3">
-        <v>178600</v>
+        <v>216700</v>
       </c>
       <c r="J47" s="3">
+        <v>182400</v>
+      </c>
+      <c r="K47" s="3">
         <v>258300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>279500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>282900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>304700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>308100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>259500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>161300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>60400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>53200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>56400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15288100</v>
+        <v>15930800</v>
       </c>
       <c r="E48" s="3">
-        <v>15072600</v>
+        <v>15614700</v>
       </c>
       <c r="F48" s="3">
-        <v>14835400</v>
+        <v>15394500</v>
       </c>
       <c r="G48" s="3">
-        <v>14640200</v>
+        <v>15152200</v>
       </c>
       <c r="H48" s="3">
-        <v>14454000</v>
+        <v>14952900</v>
       </c>
       <c r="I48" s="3">
-        <v>14282700</v>
+        <v>14762700</v>
       </c>
       <c r="J48" s="3">
+        <v>14587800</v>
+      </c>
+      <c r="K48" s="3">
         <v>14094400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13064000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13351000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14716000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14984600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13743500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12557600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13084100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12841800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12794300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12521800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>184900</v>
+        <v>180300</v>
       </c>
       <c r="E49" s="3">
-        <v>199500</v>
+        <v>188800</v>
       </c>
       <c r="F49" s="3">
-        <v>211400</v>
+        <v>203800</v>
       </c>
       <c r="G49" s="3">
-        <v>224700</v>
+        <v>215900</v>
       </c>
       <c r="H49" s="3">
-        <v>218100</v>
+        <v>229500</v>
       </c>
       <c r="I49" s="3">
-        <v>234500</v>
+        <v>222800</v>
       </c>
       <c r="J49" s="3">
+        <v>239500</v>
+      </c>
+      <c r="K49" s="3">
         <v>243300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>237400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>258600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>269600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>272100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>247900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>221400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>211800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>205400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>190800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>157200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1958500</v>
+        <v>1306100</v>
       </c>
       <c r="E52" s="3">
-        <v>1757700</v>
+        <v>2000300</v>
       </c>
       <c r="F52" s="3">
-        <v>1587500</v>
+        <v>1795300</v>
       </c>
       <c r="G52" s="3">
-        <v>1364000</v>
+        <v>1621400</v>
       </c>
       <c r="H52" s="3">
-        <v>1633000</v>
+        <v>1393100</v>
       </c>
       <c r="I52" s="3">
-        <v>1702300</v>
+        <v>1667900</v>
       </c>
       <c r="J52" s="3">
+        <v>1738600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1627300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1021000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>939300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>875600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>903000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1292400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1419300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1357400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1029800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1001800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18790600</v>
+        <v>18410300</v>
       </c>
       <c r="E54" s="3">
-        <v>17913400</v>
+        <v>19191900</v>
       </c>
       <c r="F54" s="3">
-        <v>17919800</v>
+        <v>18296000</v>
       </c>
       <c r="G54" s="3">
-        <v>17593400</v>
+        <v>18302500</v>
       </c>
       <c r="H54" s="3">
-        <v>18005500</v>
+        <v>17969200</v>
       </c>
       <c r="I54" s="3">
-        <v>17425900</v>
+        <v>18390000</v>
       </c>
       <c r="J54" s="3">
+        <v>17798100</v>
+      </c>
+      <c r="K54" s="3">
         <v>17492400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15446900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15720700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17734000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17501900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16412300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15113300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15530200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15140700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14884500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14138600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3276,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>490500</v>
+        <v>477400</v>
       </c>
       <c r="E57" s="3">
-        <v>453900</v>
+        <v>501000</v>
       </c>
       <c r="F57" s="3">
-        <v>472200</v>
+        <v>463600</v>
       </c>
       <c r="G57" s="3">
-        <v>400400</v>
+        <v>482300</v>
       </c>
       <c r="H57" s="3">
-        <v>401300</v>
+        <v>409000</v>
       </c>
       <c r="I57" s="3">
-        <v>414900</v>
+        <v>409800</v>
       </c>
       <c r="J57" s="3">
+        <v>423800</v>
+      </c>
+      <c r="K57" s="3">
         <v>401800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>376200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>412900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>376000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>484000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>426600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>449800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>445700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>558200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>502000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>572500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>397800</v>
+        <v>223600</v>
       </c>
       <c r="E58" s="3">
-        <v>383200</v>
+        <v>406300</v>
       </c>
       <c r="F58" s="3">
-        <v>819800</v>
+        <v>391300</v>
       </c>
       <c r="G58" s="3">
-        <v>812500</v>
+        <v>837300</v>
       </c>
       <c r="H58" s="3">
-        <v>1058900</v>
+        <v>829800</v>
       </c>
       <c r="I58" s="3">
-        <v>1048500</v>
+        <v>1081500</v>
       </c>
       <c r="J58" s="3">
+        <v>1070900</v>
+      </c>
+      <c r="K58" s="3">
         <v>906400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>820100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>686900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1144900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>919300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>430700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>372400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>612000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1102500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>761200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15900</v>
+        <v>28900</v>
       </c>
       <c r="E59" s="3">
-        <v>17400</v>
+        <v>16200</v>
       </c>
       <c r="F59" s="3">
-        <v>20200</v>
+        <v>17700</v>
       </c>
       <c r="G59" s="3">
-        <v>22300</v>
+        <v>20700</v>
       </c>
       <c r="H59" s="3">
-        <v>21100</v>
+        <v>22800</v>
       </c>
       <c r="I59" s="3">
-        <v>31400</v>
+        <v>21500</v>
       </c>
       <c r="J59" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K59" s="3">
         <v>41200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>42300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>53800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>43400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>50600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>55600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>904200</v>
+        <v>729800</v>
       </c>
       <c r="E60" s="3">
-        <v>854400</v>
+        <v>923500</v>
       </c>
       <c r="F60" s="3">
-        <v>1312300</v>
+        <v>872700</v>
       </c>
       <c r="G60" s="3">
-        <v>1235200</v>
+        <v>1340300</v>
       </c>
       <c r="H60" s="3">
-        <v>1481300</v>
+        <v>1261600</v>
       </c>
       <c r="I60" s="3">
-        <v>1494800</v>
+        <v>1512900</v>
       </c>
       <c r="J60" s="3">
+        <v>1526700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1349400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1232200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1128200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1556800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1445500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>911100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>853400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1101100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1711400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1318800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>786100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9855900</v>
+        <v>10466600</v>
       </c>
       <c r="E61" s="3">
-        <v>9518200</v>
+        <v>10066400</v>
       </c>
       <c r="F61" s="3">
-        <v>9680800</v>
+        <v>9721500</v>
       </c>
       <c r="G61" s="3">
-        <v>9674500</v>
+        <v>9887600</v>
       </c>
       <c r="H61" s="3">
-        <v>10041500</v>
+        <v>9881100</v>
       </c>
       <c r="I61" s="3">
-        <v>9328500</v>
+        <v>10256000</v>
       </c>
       <c r="J61" s="3">
+        <v>9527700</v>
+      </c>
+      <c r="K61" s="3">
         <v>9655900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8334500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8714600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9645800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9591900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9322700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8639100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8489500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7822900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7989400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8108900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4155700</v>
+        <v>4034600</v>
       </c>
       <c r="E62" s="3">
-        <v>3871300</v>
+        <v>4244400</v>
       </c>
       <c r="F62" s="3">
-        <v>3549600</v>
+        <v>3954000</v>
       </c>
       <c r="G62" s="3">
-        <v>2922800</v>
+        <v>3625400</v>
       </c>
       <c r="H62" s="3">
-        <v>2969600</v>
+        <v>2985300</v>
       </c>
       <c r="I62" s="3">
-        <v>2927300</v>
+        <v>3033000</v>
       </c>
       <c r="J62" s="3">
+        <v>2989800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2701600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2236500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2258800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2507100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2504500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2451800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2332200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2410800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2401100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2370700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2269600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14915800</v>
+        <v>15231000</v>
       </c>
       <c r="E66" s="3">
-        <v>14243900</v>
+        <v>15234300</v>
       </c>
       <c r="F66" s="3">
-        <v>14542700</v>
+        <v>14548100</v>
       </c>
       <c r="G66" s="3">
-        <v>13832600</v>
+        <v>14853300</v>
       </c>
       <c r="H66" s="3">
-        <v>14492400</v>
+        <v>14128000</v>
       </c>
       <c r="I66" s="3">
-        <v>13750500</v>
+        <v>14801900</v>
       </c>
       <c r="J66" s="3">
+        <v>14044200</v>
+      </c>
+      <c r="K66" s="3">
         <v>13706900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11803200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12101500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13709600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13541900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12685500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11824600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12001300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11935300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11678900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11164700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2975100</v>
+        <v>2512200</v>
       </c>
       <c r="E72" s="3">
-        <v>2938500</v>
+        <v>3038600</v>
       </c>
       <c r="F72" s="3">
-        <v>2703600</v>
+        <v>3001200</v>
       </c>
       <c r="G72" s="3">
-        <v>3128900</v>
+        <v>2761300</v>
       </c>
       <c r="H72" s="3">
-        <v>2889300</v>
+        <v>3195800</v>
       </c>
       <c r="I72" s="3">
-        <v>3042900</v>
+        <v>2951000</v>
       </c>
       <c r="J72" s="3">
+        <v>3107900</v>
+      </c>
+      <c r="K72" s="3">
         <v>3161800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3044800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3408200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3341300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3250500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3065400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2671600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2880600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2561100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2555100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2112700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3874800</v>
+        <v>3179300</v>
       </c>
       <c r="E76" s="3">
-        <v>3669500</v>
+        <v>3957500</v>
       </c>
       <c r="F76" s="3">
-        <v>3377100</v>
+        <v>3747900</v>
       </c>
       <c r="G76" s="3">
-        <v>3760900</v>
+        <v>3449200</v>
       </c>
       <c r="H76" s="3">
-        <v>3513100</v>
+        <v>3841200</v>
       </c>
       <c r="I76" s="3">
-        <v>3675400</v>
+        <v>3588100</v>
       </c>
       <c r="J76" s="3">
+        <v>3753900</v>
+      </c>
+      <c r="K76" s="3">
         <v>3785600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3643700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3619200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4024400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3960000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3726700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3288700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3528800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3205300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3205600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2974000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42460</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42277</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42094</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>438000</v>
+        <v>-187700</v>
       </c>
       <c r="E81" s="3">
-        <v>197800</v>
+        <v>447400</v>
       </c>
       <c r="F81" s="3">
-        <v>-268300</v>
+        <v>202000</v>
       </c>
       <c r="G81" s="3">
-        <v>361600</v>
+        <v>-274000</v>
       </c>
       <c r="H81" s="3">
-        <v>201000</v>
+        <v>369300</v>
       </c>
       <c r="I81" s="3">
-        <v>-64300</v>
+        <v>205300</v>
       </c>
       <c r="J81" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="K81" s="3">
         <v>196800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>176700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>259200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>214400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>279300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>305500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>249500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>294300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>224200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>142700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,64 +4625,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>256600</v>
+        <v>274800</v>
       </c>
       <c r="E83" s="3">
-        <v>261400</v>
+        <v>262100</v>
       </c>
       <c r="F83" s="3">
-        <v>257500</v>
+        <v>267000</v>
       </c>
       <c r="G83" s="3">
-        <v>272400</v>
+        <v>263000</v>
       </c>
       <c r="H83" s="3">
-        <v>251600</v>
+        <v>278200</v>
       </c>
       <c r="I83" s="3">
-        <v>351800</v>
+        <v>257000</v>
       </c>
       <c r="J83" s="3">
+        <v>359300</v>
+      </c>
+      <c r="K83" s="3">
         <v>247300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>236800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>233000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>261200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>262200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>246900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>219200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>232900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>241400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>236900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>497100</v>
+        <v>490300</v>
       </c>
       <c r="E89" s="3">
-        <v>575500</v>
+        <v>507700</v>
       </c>
       <c r="F89" s="3">
-        <v>583900</v>
+        <v>587800</v>
       </c>
       <c r="G89" s="3">
-        <v>571600</v>
+        <v>596400</v>
       </c>
       <c r="H89" s="3">
-        <v>494700</v>
+        <v>583800</v>
       </c>
       <c r="I89" s="3">
-        <v>553600</v>
+        <v>505300</v>
       </c>
       <c r="J89" s="3">
+        <v>565500</v>
+      </c>
+      <c r="K89" s="3">
         <v>451800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>461600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>534600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>551000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>582500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>529800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>516900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>411600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>482600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>444800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>485500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-362300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-331700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-340000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-288500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-328600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-315400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-338900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-341100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-374500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-369100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-511600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-457800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-472100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-388000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-436700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-390500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-503400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-456700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-288400</v>
+        <v>-457500</v>
       </c>
       <c r="E94" s="3">
-        <v>-436500</v>
+        <v>-294500</v>
       </c>
       <c r="F94" s="3">
-        <v>-357200</v>
+        <v>-445800</v>
       </c>
       <c r="G94" s="3">
-        <v>-265200</v>
+        <v>-364900</v>
       </c>
       <c r="H94" s="3">
-        <v>-416400</v>
+        <v>-270800</v>
       </c>
       <c r="I94" s="3">
-        <v>-357200</v>
+        <v>-425300</v>
       </c>
       <c r="J94" s="3">
+        <v>-364900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-379700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-383100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-366700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-535400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-467800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-566400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-462800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-474500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-408200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-489100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-439100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,64 +5320,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-245300</v>
+        <v>-131200</v>
       </c>
       <c r="E96" s="3">
+        <v>-250500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-249200</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-245500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-122700</v>
       </c>
-      <c r="F96" s="3">
-        <v>-243900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-121800</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-240300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-120100</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-232900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-109900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-220300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-123200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-250000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-116600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-215300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-113900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-223600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-112700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-215700</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,87 +5554,93 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>163500</v>
+        <v>-274800</v>
       </c>
       <c r="E100" s="3">
-        <v>-656400</v>
+        <v>167000</v>
       </c>
       <c r="F100" s="3">
-        <v>-348300</v>
+        <v>-670400</v>
       </c>
       <c r="G100" s="3">
-        <v>-486600</v>
+        <v>-355700</v>
       </c>
       <c r="H100" s="3">
-        <v>375300</v>
+        <v>-497000</v>
       </c>
       <c r="I100" s="3">
-        <v>-309200</v>
+        <v>383400</v>
       </c>
       <c r="J100" s="3">
+        <v>-315800</v>
+      </c>
+      <c r="K100" s="3">
         <v>274700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>25800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-487200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>563400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-323200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>47200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-126000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>65500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5423,60 +5672,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>372200</v>
+        <v>-243600</v>
       </c>
       <c r="E102" s="3">
-        <v>-515600</v>
+        <v>380200</v>
       </c>
       <c r="F102" s="3">
-        <v>-121600</v>
+        <v>-526600</v>
       </c>
       <c r="G102" s="3">
-        <v>-180200</v>
+        <v>-124200</v>
       </c>
       <c r="H102" s="3">
-        <v>453600</v>
+        <v>-184000</v>
       </c>
       <c r="I102" s="3">
-        <v>-112800</v>
+        <v>463300</v>
       </c>
       <c r="J102" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="K102" s="3">
         <v>346800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>104200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-319400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>578900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-208600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>37200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-188900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>139800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>156600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>28800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UUGRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>UUGRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,274 +665,287 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42460</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42277</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42094</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1147000</v>
+        <v>1218300</v>
       </c>
       <c r="E8" s="3">
-        <v>1165000</v>
+        <v>1122900</v>
       </c>
       <c r="F8" s="3">
-        <v>1179100</v>
+        <v>1140500</v>
       </c>
       <c r="G8" s="3">
-        <v>1181500</v>
+        <v>1154300</v>
       </c>
       <c r="H8" s="3">
-        <v>1157800</v>
+        <v>1156600</v>
       </c>
       <c r="I8" s="3">
+        <v>1133400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1109600</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1170700</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1160800</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1056600</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1117900</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1172600</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1239600</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1124000</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1050600</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1138700</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1117800</v>
+      </c>
+      <c r="U8" s="3">
         <v>1133500</v>
       </c>
-      <c r="J8" s="3">
-        <v>1170700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1160800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1056600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1117900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1172600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1239600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1124000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1050600</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1138700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1117800</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1133500</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1131600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>256100</v>
+        <v>262000</v>
       </c>
       <c r="E9" s="3">
-        <v>209200</v>
+        <v>250700</v>
       </c>
       <c r="F9" s="3">
-        <v>198700</v>
+        <v>204800</v>
       </c>
       <c r="G9" s="3">
-        <v>163500</v>
+        <v>194500</v>
       </c>
       <c r="H9" s="3">
-        <v>175100</v>
+        <v>160000</v>
       </c>
       <c r="I9" s="3">
-        <v>157000</v>
+        <v>171500</v>
       </c>
       <c r="J9" s="3">
+        <v>153700</v>
+      </c>
+      <c r="K9" s="3">
         <v>164600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>149800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>152600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>161600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>167200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>159600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>153600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>153500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>170600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>162100</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>890900</v>
+        <v>956300</v>
       </c>
       <c r="E10" s="3">
-        <v>955800</v>
+        <v>872100</v>
       </c>
       <c r="F10" s="3">
-        <v>980400</v>
+        <v>935700</v>
       </c>
       <c r="G10" s="3">
-        <v>1018000</v>
+        <v>959700</v>
       </c>
       <c r="H10" s="3">
-        <v>982700</v>
+        <v>996600</v>
       </c>
       <c r="I10" s="3">
-        <v>976500</v>
+        <v>962000</v>
       </c>
       <c r="J10" s="3">
+        <v>955900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1006100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1011000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>904000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>956300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1005400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1080000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>970400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>897100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>968100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>955700</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -954,8 +967,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -983,11 +997,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
         <v>1400</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>5</v>
@@ -1001,11 +1015,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3">
         <v>3000</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>5</v>
@@ -1013,8 +1027,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1072,126 +1089,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="E14" s="3">
-        <v>-35600</v>
+        <v>3100</v>
       </c>
       <c r="F14" s="3">
-        <v>5300</v>
+        <v>-34900</v>
       </c>
       <c r="G14" s="3">
-        <v>3900</v>
+        <v>5200</v>
       </c>
       <c r="H14" s="3">
-        <v>-30900</v>
+        <v>3800</v>
       </c>
       <c r="I14" s="3">
-        <v>3700</v>
+        <v>-30300</v>
       </c>
       <c r="J14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K14" s="3">
         <v>19400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>59700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-13400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>33900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>274800</v>
+        <v>264700</v>
       </c>
       <c r="E15" s="3">
-        <v>262100</v>
+        <v>269000</v>
       </c>
       <c r="F15" s="3">
-        <v>266900</v>
+        <v>256600</v>
       </c>
       <c r="G15" s="3">
-        <v>263100</v>
+        <v>261300</v>
       </c>
       <c r="H15" s="3">
-        <v>278200</v>
+        <v>257500</v>
       </c>
       <c r="I15" s="3">
-        <v>257000</v>
+        <v>272300</v>
       </c>
       <c r="J15" s="3">
+        <v>251600</v>
+      </c>
+      <c r="K15" s="3">
         <v>359300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>247300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>236800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>233000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>261200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>262200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>246900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>219200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>232900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>241400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>236900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1210,126 +1236,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>916000</v>
+        <v>919800</v>
       </c>
       <c r="E17" s="3">
-        <v>797900</v>
+        <v>896700</v>
       </c>
       <c r="F17" s="3">
-        <v>827800</v>
+        <v>781100</v>
       </c>
       <c r="G17" s="3">
-        <v>759700</v>
+        <v>810400</v>
       </c>
       <c r="H17" s="3">
-        <v>751900</v>
+        <v>743700</v>
       </c>
       <c r="I17" s="3">
-        <v>729800</v>
+        <v>736000</v>
       </c>
       <c r="J17" s="3">
+        <v>714500</v>
+      </c>
+      <c r="K17" s="3">
         <v>857300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>685500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>710200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>704200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>770800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>756000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>723700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>650900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>760900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>754800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>721600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>683300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>231000</v>
+        <v>298500</v>
       </c>
       <c r="E18" s="3">
-        <v>367100</v>
+        <v>226200</v>
       </c>
       <c r="F18" s="3">
-        <v>351300</v>
+        <v>359400</v>
       </c>
       <c r="G18" s="3">
-        <v>421800</v>
+        <v>343900</v>
       </c>
       <c r="H18" s="3">
-        <v>405900</v>
+        <v>412900</v>
       </c>
       <c r="I18" s="3">
-        <v>403600</v>
+        <v>397400</v>
       </c>
       <c r="J18" s="3">
+        <v>395100</v>
+      </c>
+      <c r="K18" s="3">
         <v>313400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>475200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>346500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>413700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>401800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>483700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>399700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>377700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>363000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>411900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>448400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1351,303 +1384,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-148500</v>
+        <v>166500</v>
       </c>
       <c r="E20" s="3">
-        <v>505900</v>
+        <v>-145400</v>
       </c>
       <c r="F20" s="3">
-        <v>168700</v>
+        <v>495200</v>
       </c>
       <c r="G20" s="3">
-        <v>34900</v>
+        <v>165100</v>
       </c>
       <c r="H20" s="3">
-        <v>134800</v>
+        <v>34100</v>
       </c>
       <c r="I20" s="3">
-        <v>-15800</v>
+        <v>132000</v>
       </c>
       <c r="J20" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-49200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-70200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-25300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>67000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>22900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>63400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>116400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-57000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-75500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>54300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-112200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-26900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>357300</v>
+        <v>729700</v>
       </c>
       <c r="E21" s="3">
-        <v>1135100</v>
+        <v>349700</v>
       </c>
       <c r="F21" s="3">
-        <v>787000</v>
+        <v>1111200</v>
       </c>
       <c r="G21" s="3">
-        <v>719600</v>
+        <v>770400</v>
       </c>
       <c r="H21" s="3">
-        <v>818900</v>
+        <v>704400</v>
       </c>
       <c r="I21" s="3">
-        <v>644800</v>
+        <v>801700</v>
       </c>
       <c r="J21" s="3">
+        <v>631200</v>
+      </c>
+      <c r="K21" s="3">
         <v>623500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>652300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>558000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>713600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>685800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>809300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>763500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>561900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>535200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>658700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>536600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>648900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>297900</v>
+        <v>266500</v>
       </c>
       <c r="E22" s="3">
-        <v>332800</v>
+        <v>291700</v>
       </c>
       <c r="F22" s="3">
-        <v>232000</v>
+        <v>325800</v>
       </c>
       <c r="G22" s="3">
-        <v>187100</v>
+        <v>227200</v>
       </c>
       <c r="H22" s="3">
-        <v>97300</v>
+        <v>183100</v>
       </c>
       <c r="I22" s="3">
-        <v>132900</v>
+        <v>95300</v>
       </c>
       <c r="J22" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K22" s="3">
         <v>127200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>162900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>114300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>164000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>165800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>204200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>141600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>147500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>122300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>136000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>119400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-215400</v>
+        <v>198500</v>
       </c>
       <c r="E23" s="3">
-        <v>540200</v>
+        <v>-210900</v>
       </c>
       <c r="F23" s="3">
-        <v>287900</v>
+        <v>528900</v>
       </c>
       <c r="G23" s="3">
-        <v>269600</v>
+        <v>281900</v>
       </c>
       <c r="H23" s="3">
-        <v>443400</v>
+        <v>263900</v>
       </c>
       <c r="I23" s="3">
-        <v>254900</v>
+        <v>434100</v>
       </c>
       <c r="J23" s="3">
+        <v>249500</v>
+      </c>
+      <c r="K23" s="3">
         <v>137000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>242100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>206900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>316700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>258800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>342900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>375100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>195100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>179900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>281200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>180300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>269500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-27800</v>
+        <v>53600</v>
       </c>
       <c r="E24" s="3">
-        <v>92900</v>
+        <v>-27200</v>
       </c>
       <c r="F24" s="3">
-        <v>85900</v>
+        <v>90900</v>
       </c>
       <c r="G24" s="3">
-        <v>543500</v>
+        <v>84100</v>
       </c>
       <c r="H24" s="3">
-        <v>74100</v>
+        <v>532100</v>
       </c>
       <c r="I24" s="3">
-        <v>49600</v>
+        <v>72600</v>
       </c>
       <c r="J24" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K24" s="3">
         <v>202600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>57500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>63500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>69600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-54400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-114400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>57000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>37500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1705,126 +1754,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-187700</v>
+        <v>144900</v>
       </c>
       <c r="E26" s="3">
-        <v>447400</v>
+        <v>-183700</v>
       </c>
       <c r="F26" s="3">
-        <v>202000</v>
+        <v>437900</v>
       </c>
       <c r="G26" s="3">
-        <v>-274000</v>
+        <v>197800</v>
       </c>
       <c r="H26" s="3">
-        <v>369300</v>
+        <v>-268200</v>
       </c>
       <c r="I26" s="3">
-        <v>205300</v>
+        <v>361500</v>
       </c>
       <c r="J26" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-65600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>196800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>176700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>259200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>214400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>279300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>305500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>249500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>294300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>224200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>142700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-187700</v>
+        <v>144900</v>
       </c>
       <c r="E27" s="3">
-        <v>447400</v>
+        <v>-183700</v>
       </c>
       <c r="F27" s="3">
-        <v>202000</v>
+        <v>437900</v>
       </c>
       <c r="G27" s="3">
-        <v>-274000</v>
+        <v>197800</v>
       </c>
       <c r="H27" s="3">
-        <v>369300</v>
+        <v>-268200</v>
       </c>
       <c r="I27" s="3">
-        <v>205300</v>
+        <v>361500</v>
       </c>
       <c r="J27" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-65600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>196800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>176700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>259200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>214400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>279300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>305500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>249500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>294300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>224200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>142700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1882,8 +1940,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1923,8 +1984,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -1935,14 +1996,17 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2000,8 +2064,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2059,126 +2126,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>148500</v>
+        <v>-166500</v>
       </c>
       <c r="E32" s="3">
-        <v>-505900</v>
+        <v>145400</v>
       </c>
       <c r="F32" s="3">
-        <v>-168700</v>
+        <v>-495200</v>
       </c>
       <c r="G32" s="3">
-        <v>-34900</v>
+        <v>-165100</v>
       </c>
       <c r="H32" s="3">
-        <v>-134800</v>
+        <v>-34100</v>
       </c>
       <c r="I32" s="3">
-        <v>15800</v>
+        <v>-132000</v>
       </c>
       <c r="J32" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K32" s="3">
         <v>49200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>70200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>25300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-67000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-22900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-63400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-116400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>57000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>75500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-54300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>112200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-187700</v>
+        <v>144900</v>
       </c>
       <c r="E33" s="3">
-        <v>447400</v>
+        <v>-183700</v>
       </c>
       <c r="F33" s="3">
-        <v>202000</v>
+        <v>437900</v>
       </c>
       <c r="G33" s="3">
-        <v>-274000</v>
+        <v>197800</v>
       </c>
       <c r="H33" s="3">
-        <v>369300</v>
+        <v>-268200</v>
       </c>
       <c r="I33" s="3">
-        <v>205300</v>
+        <v>361500</v>
       </c>
       <c r="J33" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-65600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>196800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>176700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>259200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>214400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>279300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>305500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>249500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>294300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>224200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>142700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2236,131 +2312,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-187700</v>
+        <v>144900</v>
       </c>
       <c r="E35" s="3">
-        <v>447400</v>
+        <v>-183700</v>
       </c>
       <c r="F35" s="3">
-        <v>202000</v>
+        <v>437900</v>
       </c>
       <c r="G35" s="3">
-        <v>-274000</v>
+        <v>197800</v>
       </c>
       <c r="H35" s="3">
-        <v>369300</v>
+        <v>-268200</v>
       </c>
       <c r="I35" s="3">
-        <v>205300</v>
+        <v>361500</v>
       </c>
       <c r="J35" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-65600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>196800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>176700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>259200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>214400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>279300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>305500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>249500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>294300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>224200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>142700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42460</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42277</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42094</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2382,8 +2467,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2405,67 +2491,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>431400</v>
+        <v>1028200</v>
       </c>
       <c r="E41" s="3">
-        <v>674500</v>
+        <v>422300</v>
       </c>
       <c r="F41" s="3">
-        <v>305300</v>
+        <v>660200</v>
       </c>
       <c r="G41" s="3">
-        <v>831200</v>
+        <v>298900</v>
       </c>
       <c r="H41" s="3">
-        <v>943000</v>
+        <v>813700</v>
       </c>
       <c r="I41" s="3">
-        <v>1139300</v>
+        <v>923100</v>
       </c>
       <c r="J41" s="3">
+        <v>1115300</v>
+      </c>
+      <c r="K41" s="3">
         <v>669300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>771300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>397400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>316700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>695500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>124000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>327300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>292400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>278600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>464900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>321300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>145600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2523,421 +2613,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>366800</v>
+        <v>454800</v>
       </c>
       <c r="E43" s="3">
-        <v>369800</v>
+        <v>359000</v>
       </c>
       <c r="F43" s="3">
-        <v>376500</v>
+        <v>362000</v>
       </c>
       <c r="G43" s="3">
-        <v>320600</v>
+        <v>368600</v>
       </c>
       <c r="H43" s="3">
-        <v>299200</v>
+        <v>313900</v>
       </c>
       <c r="I43" s="3">
-        <v>356500</v>
+        <v>292900</v>
       </c>
       <c r="J43" s="3">
+        <v>349000</v>
+      </c>
+      <c r="K43" s="3">
         <v>359400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>360200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>311400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>355200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>389200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>413500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>410800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>424900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>479200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>495500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>465200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>464300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16600</v>
+        <v>15500</v>
       </c>
       <c r="E44" s="3">
-        <v>30400</v>
+        <v>16300</v>
       </c>
       <c r="F44" s="3">
-        <v>22600</v>
+        <v>29800</v>
       </c>
       <c r="G44" s="3">
-        <v>24000</v>
+        <v>22100</v>
       </c>
       <c r="H44" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="I44" s="3">
-        <v>24100</v>
+        <v>22700</v>
       </c>
       <c r="J44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K44" s="3">
         <v>21000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>20100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>27700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>29600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>36000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>38200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>50100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>53300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>61500</v>
+        <v>38500</v>
       </c>
       <c r="E45" s="3">
-        <v>198700</v>
+        <v>60200</v>
       </c>
       <c r="F45" s="3">
-        <v>73500</v>
+        <v>194500</v>
       </c>
       <c r="G45" s="3">
-        <v>29100</v>
+        <v>72000</v>
       </c>
       <c r="H45" s="3">
-        <v>18200</v>
+        <v>28500</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>17900</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>117500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>118700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>199600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>460600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>469000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>101300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20500</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>69900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>876200</v>
+        <v>1537000</v>
       </c>
       <c r="E46" s="3">
-        <v>1273400</v>
+        <v>857800</v>
       </c>
       <c r="F46" s="3">
-        <v>777900</v>
+        <v>1246600</v>
       </c>
       <c r="G46" s="3">
-        <v>1204900</v>
+        <v>761500</v>
       </c>
       <c r="H46" s="3">
-        <v>1283600</v>
+        <v>1179600</v>
       </c>
       <c r="I46" s="3">
-        <v>1520000</v>
+        <v>1256600</v>
       </c>
       <c r="J46" s="3">
+        <v>1488000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1049800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1269100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>845000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>888900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1568200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1034200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>868900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>753600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>816500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1010400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>841200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>733500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>116800</v>
+        <v>111400</v>
       </c>
       <c r="E47" s="3">
-        <v>114700</v>
+        <v>114400</v>
       </c>
       <c r="F47" s="3">
-        <v>124600</v>
+        <v>112300</v>
       </c>
       <c r="G47" s="3">
-        <v>108000</v>
+        <v>122000</v>
       </c>
       <c r="H47" s="3">
-        <v>110000</v>
+        <v>105700</v>
       </c>
       <c r="I47" s="3">
-        <v>216700</v>
+        <v>107700</v>
       </c>
       <c r="J47" s="3">
+        <v>212100</v>
+      </c>
+      <c r="K47" s="3">
         <v>182400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>258300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>279500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>282900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>304700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>308100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>259500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>161300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>60400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>53200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>56400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15930800</v>
+        <v>15909300</v>
       </c>
       <c r="E48" s="3">
-        <v>15614700</v>
+        <v>15595200</v>
       </c>
       <c r="F48" s="3">
-        <v>15394500</v>
+        <v>15285700</v>
       </c>
       <c r="G48" s="3">
-        <v>15152200</v>
+        <v>15070200</v>
       </c>
       <c r="H48" s="3">
-        <v>14952900</v>
+        <v>14833000</v>
       </c>
       <c r="I48" s="3">
-        <v>14762700</v>
+        <v>14637800</v>
       </c>
       <c r="J48" s="3">
+        <v>14451600</v>
+      </c>
+      <c r="K48" s="3">
         <v>14587800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14094400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13064000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13351000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14716000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14984600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13743500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12557600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13084100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12841800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12794300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12521800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>180300</v>
+        <v>158700</v>
       </c>
       <c r="E49" s="3">
-        <v>188800</v>
+        <v>176500</v>
       </c>
       <c r="F49" s="3">
-        <v>203800</v>
+        <v>184800</v>
       </c>
       <c r="G49" s="3">
-        <v>215900</v>
+        <v>199500</v>
       </c>
       <c r="H49" s="3">
-        <v>229500</v>
+        <v>211400</v>
       </c>
       <c r="I49" s="3">
-        <v>222800</v>
+        <v>224700</v>
       </c>
       <c r="J49" s="3">
+        <v>218100</v>
+      </c>
+      <c r="K49" s="3">
         <v>239500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>243300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>237400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>258600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>269600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>272100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>247900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>221400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>211800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>205400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>190800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>157200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2995,8 +3109,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3054,67 +3171,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1306100</v>
+        <v>911000</v>
       </c>
       <c r="E52" s="3">
-        <v>2000300</v>
+        <v>1278600</v>
       </c>
       <c r="F52" s="3">
-        <v>1795300</v>
+        <v>1958200</v>
       </c>
       <c r="G52" s="3">
-        <v>1621400</v>
+        <v>1757400</v>
       </c>
       <c r="H52" s="3">
-        <v>1393100</v>
+        <v>1587200</v>
       </c>
       <c r="I52" s="3">
-        <v>1667900</v>
+        <v>1363800</v>
       </c>
       <c r="J52" s="3">
+        <v>1632800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1738600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1627300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1021000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>939300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>875600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>903000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1292400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1419300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1357400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1029800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1001800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>669200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3172,67 +3295,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18410300</v>
+        <v>18627400</v>
       </c>
       <c r="E54" s="3">
-        <v>19191900</v>
+        <v>18022400</v>
       </c>
       <c r="F54" s="3">
-        <v>18296000</v>
+        <v>18787500</v>
       </c>
       <c r="G54" s="3">
-        <v>18302500</v>
+        <v>17910500</v>
       </c>
       <c r="H54" s="3">
-        <v>17969200</v>
+        <v>17916900</v>
       </c>
       <c r="I54" s="3">
-        <v>18390000</v>
+        <v>17590600</v>
       </c>
       <c r="J54" s="3">
+        <v>18002600</v>
+      </c>
+      <c r="K54" s="3">
         <v>17798100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17492400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15446900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15720700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17734000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17501900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16412300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15113300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15530200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15140700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14884500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14138600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3254,8 +3383,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3277,362 +3407,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>477400</v>
+        <v>614300</v>
       </c>
       <c r="E57" s="3">
-        <v>501000</v>
+        <v>467300</v>
       </c>
       <c r="F57" s="3">
-        <v>463600</v>
+        <v>490400</v>
       </c>
       <c r="G57" s="3">
-        <v>482300</v>
+        <v>453800</v>
       </c>
       <c r="H57" s="3">
-        <v>409000</v>
+        <v>472200</v>
       </c>
       <c r="I57" s="3">
-        <v>409800</v>
+        <v>400300</v>
       </c>
       <c r="J57" s="3">
+        <v>401200</v>
+      </c>
+      <c r="K57" s="3">
         <v>423800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>401800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>376200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>412900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>376000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>484000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>426600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>449800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>445700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>558200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>502000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>572500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>223600</v>
+        <v>210200</v>
       </c>
       <c r="E58" s="3">
-        <v>406300</v>
+        <v>218800</v>
       </c>
       <c r="F58" s="3">
-        <v>391300</v>
+        <v>397700</v>
       </c>
       <c r="G58" s="3">
-        <v>837300</v>
+        <v>383100</v>
       </c>
       <c r="H58" s="3">
-        <v>829800</v>
+        <v>819700</v>
       </c>
       <c r="I58" s="3">
-        <v>1081500</v>
+        <v>812300</v>
       </c>
       <c r="J58" s="3">
+        <v>1058700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1070900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>906400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>820100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>686900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1144900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>919300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>430700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>372400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>612000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1102500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>761200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28900</v>
+        <v>30900</v>
       </c>
       <c r="E59" s="3">
-        <v>16200</v>
+        <v>28300</v>
       </c>
       <c r="F59" s="3">
-        <v>17700</v>
+        <v>15900</v>
       </c>
       <c r="G59" s="3">
-        <v>20700</v>
+        <v>17400</v>
       </c>
       <c r="H59" s="3">
-        <v>22800</v>
+        <v>20200</v>
       </c>
       <c r="I59" s="3">
-        <v>21500</v>
+        <v>22300</v>
       </c>
       <c r="J59" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K59" s="3">
         <v>32100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>42300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>53800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>43400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>50600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>55600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>729800</v>
+        <v>855400</v>
       </c>
       <c r="E60" s="3">
-        <v>923500</v>
+        <v>714500</v>
       </c>
       <c r="F60" s="3">
-        <v>872700</v>
+        <v>904000</v>
       </c>
       <c r="G60" s="3">
-        <v>1340300</v>
+        <v>854300</v>
       </c>
       <c r="H60" s="3">
-        <v>1261600</v>
+        <v>1312100</v>
       </c>
       <c r="I60" s="3">
-        <v>1512900</v>
+        <v>1235000</v>
       </c>
       <c r="J60" s="3">
+        <v>1481000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1526700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1349400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1232200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1128200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1556800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1445500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>911100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>853400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1101100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1711400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1318800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>786100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10466600</v>
+        <v>11139600</v>
       </c>
       <c r="E61" s="3">
-        <v>10066400</v>
+        <v>10246100</v>
       </c>
       <c r="F61" s="3">
-        <v>9721500</v>
+        <v>9854300</v>
       </c>
       <c r="G61" s="3">
-        <v>9887600</v>
+        <v>9516600</v>
       </c>
       <c r="H61" s="3">
-        <v>9881100</v>
+        <v>9679300</v>
       </c>
       <c r="I61" s="3">
-        <v>10256000</v>
+        <v>9673000</v>
       </c>
       <c r="J61" s="3">
+        <v>10039900</v>
+      </c>
+      <c r="K61" s="3">
         <v>9527700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9655900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8334500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8714600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9645800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9591900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9322700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8639100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8489500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7822900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7989400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8108900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4034600</v>
+        <v>3934900</v>
       </c>
       <c r="E62" s="3">
-        <v>4244400</v>
+        <v>3949600</v>
       </c>
       <c r="F62" s="3">
-        <v>3954000</v>
+        <v>4155000</v>
       </c>
       <c r="G62" s="3">
-        <v>3625400</v>
+        <v>3870700</v>
       </c>
       <c r="H62" s="3">
-        <v>2985300</v>
+        <v>3549000</v>
       </c>
       <c r="I62" s="3">
-        <v>3033000</v>
+        <v>2922400</v>
       </c>
       <c r="J62" s="3">
+        <v>2969100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2989800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2701600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2236500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2258800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2507100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2504500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2451800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2332200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2410800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2401100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2370700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2269600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3690,8 +3839,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3749,8 +3901,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3808,67 +3963,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15231000</v>
+        <v>15929900</v>
       </c>
       <c r="E66" s="3">
-        <v>15234300</v>
+        <v>14910200</v>
       </c>
       <c r="F66" s="3">
-        <v>14548100</v>
+        <v>14913400</v>
       </c>
       <c r="G66" s="3">
-        <v>14853300</v>
+        <v>14241600</v>
       </c>
       <c r="H66" s="3">
-        <v>14128000</v>
+        <v>14540300</v>
       </c>
       <c r="I66" s="3">
-        <v>14801900</v>
+        <v>13830300</v>
       </c>
       <c r="J66" s="3">
+        <v>14490100</v>
+      </c>
+      <c r="K66" s="3">
         <v>14044200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13706900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11803200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12101500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13709600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13541900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12685500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11824600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12001300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11935300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11678900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11164700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3890,8 +4051,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3949,8 +4111,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4008,8 +4173,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4067,8 +4235,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4126,67 +4297,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2512200</v>
+        <v>2069400</v>
       </c>
       <c r="E72" s="3">
-        <v>3038600</v>
+        <v>2459200</v>
       </c>
       <c r="F72" s="3">
-        <v>3001200</v>
+        <v>2974600</v>
       </c>
       <c r="G72" s="3">
-        <v>2761300</v>
+        <v>2938000</v>
       </c>
       <c r="H72" s="3">
-        <v>3195800</v>
+        <v>2703100</v>
       </c>
       <c r="I72" s="3">
-        <v>2951000</v>
+        <v>3128400</v>
       </c>
       <c r="J72" s="3">
+        <v>2888900</v>
+      </c>
+      <c r="K72" s="3">
         <v>3107900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3161800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3044800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3408200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3341300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3250500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3065400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2671600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2880600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2561100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2555100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2112700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4244,8 +4421,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4303,8 +4483,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4362,67 +4545,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3179300</v>
+        <v>2697400</v>
       </c>
       <c r="E76" s="3">
-        <v>3957500</v>
+        <v>3112300</v>
       </c>
       <c r="F76" s="3">
-        <v>3747900</v>
+        <v>3874100</v>
       </c>
       <c r="G76" s="3">
-        <v>3449200</v>
+        <v>3669000</v>
       </c>
       <c r="H76" s="3">
-        <v>3841200</v>
+        <v>3376500</v>
       </c>
       <c r="I76" s="3">
-        <v>3588100</v>
+        <v>3760300</v>
       </c>
       <c r="J76" s="3">
+        <v>3512500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3753900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3785600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3643700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3619200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4024400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3960000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3726700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3288700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3528800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3205300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3205600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2974000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4480,131 +4669,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42460</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42277</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42094</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-187700</v>
+        <v>144900</v>
       </c>
       <c r="E81" s="3">
-        <v>447400</v>
+        <v>-183700</v>
       </c>
       <c r="F81" s="3">
-        <v>202000</v>
+        <v>437900</v>
       </c>
       <c r="G81" s="3">
-        <v>-274000</v>
+        <v>197800</v>
       </c>
       <c r="H81" s="3">
-        <v>369300</v>
+        <v>-268200</v>
       </c>
       <c r="I81" s="3">
-        <v>205300</v>
+        <v>361500</v>
       </c>
       <c r="J81" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-65600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>196800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>176700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>259200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>214400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>279300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>305500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>249500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>294300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>224200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>142700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4626,67 +4824,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>274800</v>
+        <v>264700</v>
       </c>
       <c r="E83" s="3">
-        <v>262100</v>
+        <v>269000</v>
       </c>
       <c r="F83" s="3">
-        <v>267000</v>
+        <v>256600</v>
       </c>
       <c r="G83" s="3">
-        <v>263000</v>
+        <v>261400</v>
       </c>
       <c r="H83" s="3">
-        <v>278200</v>
+        <v>257400</v>
       </c>
       <c r="I83" s="3">
-        <v>257000</v>
+        <v>272300</v>
       </c>
       <c r="J83" s="3">
+        <v>251600</v>
+      </c>
+      <c r="K83" s="3">
         <v>359300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>247300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>236800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>233000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>261200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>262200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>246900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>219200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>232900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>241400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>236900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>227400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4744,8 +4946,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4803,8 +5008,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4862,8 +5070,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4921,8 +5132,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4980,67 +5194,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>490300</v>
+        <v>472500</v>
       </c>
       <c r="E89" s="3">
-        <v>507700</v>
+        <v>480000</v>
       </c>
       <c r="F89" s="3">
-        <v>587800</v>
+        <v>497000</v>
       </c>
       <c r="G89" s="3">
-        <v>596400</v>
+        <v>575400</v>
       </c>
       <c r="H89" s="3">
         <v>583800</v>
       </c>
       <c r="I89" s="3">
-        <v>505300</v>
+        <v>571500</v>
       </c>
       <c r="J89" s="3">
+        <v>494600</v>
+      </c>
+      <c r="K89" s="3">
         <v>565500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>451800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>461600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>534600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>551000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>582500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>529800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>516900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>411600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>482600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>444800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>485500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5062,67 +5282,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-359900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-362300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-331700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-340000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-288500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-328600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-315400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-338900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-341100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-374500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-369100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-511600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-457800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-472100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-388000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-436700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-390500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-503400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-456700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5180,8 +5404,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5239,67 +5466,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-457500</v>
+        <v>-443400</v>
       </c>
       <c r="E94" s="3">
-        <v>-294500</v>
+        <v>-447900</v>
       </c>
       <c r="F94" s="3">
-        <v>-445800</v>
+        <v>-288300</v>
       </c>
       <c r="G94" s="3">
+        <v>-436400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-357200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-265100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-416300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-364900</v>
       </c>
-      <c r="H94" s="3">
-        <v>-270800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-425300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-364900</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-379700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-383100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-366700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-535400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-467800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-566400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-462800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-474500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-408200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-489100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-439100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5321,67 +5554,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-131200</v>
+        <v>-256700</v>
       </c>
       <c r="E96" s="3">
-        <v>-250500</v>
+        <v>-128400</v>
       </c>
       <c r="F96" s="3">
-        <v>-125300</v>
+        <v>-245300</v>
       </c>
       <c r="G96" s="3">
-        <v>-249200</v>
+        <v>-122700</v>
       </c>
       <c r="H96" s="3">
-        <v>-124400</v>
+        <v>-243900</v>
       </c>
       <c r="I96" s="3">
-        <v>-245500</v>
+        <v>-121800</v>
       </c>
       <c r="J96" s="3">
+        <v>-240300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-122700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-232900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-109900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-220300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-123200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-250000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-116600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-215300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-113900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-223600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-112700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-215700</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5439,8 +5676,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5498,8 +5738,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5557,78 +5800,84 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-274800</v>
+        <v>29000</v>
       </c>
       <c r="E100" s="3">
-        <v>167000</v>
+        <v>-269000</v>
       </c>
       <c r="F100" s="3">
-        <v>-670400</v>
+        <v>163500</v>
       </c>
       <c r="G100" s="3">
-        <v>-355700</v>
+        <v>-656300</v>
       </c>
       <c r="H100" s="3">
-        <v>-497000</v>
+        <v>-348200</v>
       </c>
       <c r="I100" s="3">
-        <v>383400</v>
+        <v>-486600</v>
       </c>
       <c r="J100" s="3">
+        <v>375300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-315800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>274700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>25800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-487200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>563400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-323200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>47200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-126000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>65500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-17500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
@@ -5642,8 +5891,8 @@
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5675,63 +5924,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-243600</v>
+        <v>58200</v>
       </c>
       <c r="E102" s="3">
-        <v>380200</v>
+        <v>-238400</v>
       </c>
       <c r="F102" s="3">
-        <v>-526600</v>
+        <v>372200</v>
       </c>
       <c r="G102" s="3">
-        <v>-124200</v>
+        <v>-515500</v>
       </c>
       <c r="H102" s="3">
-        <v>-184000</v>
+        <v>-121600</v>
       </c>
       <c r="I102" s="3">
-        <v>463300</v>
+        <v>-180100</v>
       </c>
       <c r="J102" s="3">
+        <v>453600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-115200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>346800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>104200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-319400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>578900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-208600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>37200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-188900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>139800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>156600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>28800</v>
       </c>
     </row>
